--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="2"/>
@@ -12,13 +12,12 @@
     <sheet name="BP4D_intensity" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="99">
   <si>
     <t>DEVEL</t>
   </si>
@@ -162,9 +161,6 @@
   </si>
   <si>
     <t>Trained on intensity (dynamic)</t>
-  </si>
-  <si>
-    <t>Trained on intensity (dynamic, shifted)</t>
   </si>
   <si>
     <t>Corr</t>
@@ -313,12 +309,18 @@
   <si>
     <t>Static intensity geom SVM</t>
   </si>
+  <si>
+    <t>Combined SVM static geometry</t>
+  </si>
+  <si>
+    <t>Combined SVM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +505,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,7 +518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -606,7 +608,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -641,7 +642,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -817,82 +817,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="2" max="37" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:37">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="33" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="33" t="s">
+      <c r="U1" s="32"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="33" t="s">
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="31" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="31" t="s">
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="33"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>0.26816666666666661</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0.25200000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>0.23471428571428571</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="16.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>0.3408571428571428</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>0.21928571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>0.60526363636363623</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>0.59264545454545459</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>0.59812727272727273</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>0.59751818181818195</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0.54469999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0.23713333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>0.53643333333333332</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>0.24983333333333335</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>0.56054285714285712</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37">
       <c r="A17" s="25" t="s">
         <v>43</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>0.54634285714285713</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37">
       <c r="A18" s="25" t="s">
         <v>46</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>0.74680000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37">
       <c r="A19" s="25" t="s">
         <v>47</v>
       </c>
@@ -2569,9 +2569,9 @@
         <v>0.71243999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37">
       <c r="A20" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="7">
         <v>0.3674</v>
@@ -2685,9 +2685,9 @@
         <v>0.57558181818181819</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37">
       <c r="A21" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="7">
         <v>0.3196</v>
@@ -2801,9 +2801,9 @@
         <v>0.58974545454545457</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37">
       <c r="A22" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="7">
         <v>0.47939999999999999</v>
@@ -2917,9 +2917,9 @@
         <v>0.58663636363636362</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37">
       <c r="A23" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="7">
         <v>0.38929999999999998</v>
@@ -3033,9 +3033,9 @@
         <v>0.59650909090909088</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37">
       <c r="A24" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7">
         <v>0.3362</v>
@@ -3149,9 +3149,9 @@
         <v>0.5917</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37">
       <c r="A25" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="7">
         <v>0.36730000000000002</v>
@@ -3265,9 +3265,9 @@
         <v>0.61232727272727272</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37">
       <c r="A26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="7">
         <v>0.3624</v>
@@ -3381,9 +3381,9 @@
         <v>0.58963636363636374</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37">
       <c r="A27" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="7">
         <v>0.3306</v>
@@ -3497,9 +3497,9 @@
         <v>0.57887272727272732</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37">
       <c r="A28" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="7">
         <v>0.41089999999999999</v>
@@ -3613,9 +3613,9 @@
         <v>0.60222727272727272</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37">
       <c r="A29" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="7">
         <v>0.43840000000000001</v>
@@ -3705,9 +3705,9 @@
         <v>0.57781428571428584</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37">
       <c r="A30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="7">
         <v>0.3584</v>
@@ -3821,9 +3821,9 @@
         <v>0.60204545454545466</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37">
       <c r="A31" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="7">
         <v>0.49170000000000003</v>
@@ -3913,86 +3913,215 @@
         <v>0.57524285714285717</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37">
       <c r="A32" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="10"/>
-      <c r="AJ32" s="11"/>
-      <c r="AK32" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.52280000000000004</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.43070000000000003</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.31979999999999997</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.3115</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.43049999999999999</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.6452</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.69079999999999997</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0.78180000000000005</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0.64480000000000004</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="P32" s="8">
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="T32" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0.9113</v>
+      </c>
+      <c r="V32" s="8">
+        <v>0.85909999999999997</v>
+      </c>
+      <c r="W32" s="7">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="X32" s="8">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>0.61819999999999997</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AB32" s="8">
+        <v>0.3362</v>
+      </c>
+      <c r="AC32" s="7">
+        <v>0.52759999999999996</v>
+      </c>
+      <c r="AD32" s="8">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>0.62680000000000002</v>
+      </c>
+      <c r="AF32" s="7">
+        <v>0.45629999999999998</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>0.33389999999999997</v>
+      </c>
+      <c r="AH32" s="9">
+        <v>0.3856</v>
+      </c>
+      <c r="AI32" s="10">
+        <f t="shared" ref="AI32" si="6">AVERAGE(B32,E32,H32,K32,N32,Q32,T32,W32,Z32,AC32,AF32)</f>
+        <v>0.52136363636363636</v>
+      </c>
+      <c r="AJ32" s="11">
+        <f t="shared" ref="AJ32" si="7">AVERAGE(C32,F32,I32,L32,O32,R32,U32,X32,AA32,AD32,AG32)</f>
+        <v>0.68971818181818179</v>
+      </c>
+      <c r="AK32" s="12">
+        <f t="shared" ref="AK32" si="8">AVERAGE(D32,G32,J32,M32,P32,S32,V32,Y32,AB32,AE32,AH32)</f>
+        <v>0.58684545454545445</v>
+      </c>
     </row>
-    <row r="33" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
+    <row r="33" spans="1:37">
+      <c r="A33" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.53639999999999999</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.4224</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.28470000000000001</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.40970000000000001</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.38590000000000002</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.44729999999999998</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0.77390000000000003</v>
+      </c>
       <c r="N33" s="7"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
+      <c r="T33" s="7">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="V33" s="8">
+        <v>0.87190000000000001</v>
+      </c>
       <c r="W33" s="7"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
+      <c r="Z33" s="7">
+        <v>0.34649999999999997</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="AB33" s="8">
+        <v>0.44030000000000002</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>0.48520000000000002</v>
+      </c>
+      <c r="AD33" s="8">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="AE33" s="8">
+        <v>0.59009999999999996</v>
+      </c>
       <c r="AF33" s="7"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="9"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="11"/>
-      <c r="AK33" s="12"/>
+      <c r="AI33" s="10">
+        <f t="shared" ref="AI33" si="9">AVERAGE(B33,E33,H33,K33,N33,Q33,T33,W33,Z33,AC33,AF33)</f>
+        <v>0.48159999999999997</v>
+      </c>
+      <c r="AJ33" s="11">
+        <f t="shared" ref="AJ33" si="10">AVERAGE(C33,F33,I33,L33,O33,R33,U33,X33,AA33,AD33,AG33)</f>
+        <v>0.66241428571428584</v>
+      </c>
+      <c r="AK33" s="12">
+        <f t="shared" ref="AK33" si="11">AVERAGE(D33,G33,J33,M33,P33,S33,V33,Y33,AB33,AE33,AH33)</f>
+        <v>0.55455714285714286</v>
+      </c>
     </row>
-    <row r="34" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -4030,7 +4159,7 @@
       <c r="AJ34" s="11"/>
       <c r="AK34" s="12"/>
     </row>
-    <row r="35" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -4068,7 +4197,7 @@
       <c r="AJ35" s="11"/>
       <c r="AK35" s="12"/>
     </row>
-    <row r="36" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -4106,7 +4235,7 @@
       <c r="AJ36" s="11"/>
       <c r="AK36" s="12"/>
     </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -4144,7 +4273,7 @@
       <c r="AJ37" s="11"/>
       <c r="AK37" s="12"/>
     </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -4182,7 +4311,7 @@
       <c r="AJ38" s="11"/>
       <c r="AK38" s="12"/>
     </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -4220,7 +4349,7 @@
       <c r="AJ39" s="11"/>
       <c r="AK39" s="12"/>
     </row>
-    <row r="40" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -4276,9 +4405,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="76">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4288,9 +4417,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="75">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4300,9 +4429,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="74">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4312,9 +4441,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="73">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4324,9 +4453,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="72">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4336,9 +4465,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="71">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4348,9 +4477,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="70">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4360,9 +4489,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="69">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4372,9 +4501,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="68">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4384,9 +4513,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="67">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4396,9 +4525,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="66">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4408,9 +4537,9 @@
   <conditionalFormatting sqref="AK3:AK40">
     <cfRule type="colorScale" priority="65">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4420,9 +4549,9 @@
   <conditionalFormatting sqref="D3:D17">
     <cfRule type="colorScale" priority="64">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4432,9 +4561,9 @@
   <conditionalFormatting sqref="G3:G11">
     <cfRule type="colorScale" priority="63">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4444,9 +4573,9 @@
   <conditionalFormatting sqref="J3:J11">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4456,9 +4585,9 @@
   <conditionalFormatting sqref="M3:M11">
     <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4468,9 +4597,9 @@
   <conditionalFormatting sqref="P3:P11">
     <cfRule type="colorScale" priority="60">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4480,9 +4609,9 @@
   <conditionalFormatting sqref="S3:S11">
     <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4492,9 +4621,9 @@
   <conditionalFormatting sqref="V3:V11">
     <cfRule type="colorScale" priority="58">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4504,9 +4633,9 @@
   <conditionalFormatting sqref="Y3:Y11">
     <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4516,9 +4645,9 @@
   <conditionalFormatting sqref="AB3:AB11">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4528,9 +4657,9 @@
   <conditionalFormatting sqref="AE3:AE11">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4540,9 +4669,9 @@
   <conditionalFormatting sqref="AH3:AH11">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4552,9 +4681,9 @@
   <conditionalFormatting sqref="G3:G21">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4564,9 +4693,9 @@
   <conditionalFormatting sqref="V3:V21">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4576,9 +4705,9 @@
   <conditionalFormatting sqref="AE3:AE19 AE21">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4588,9 +4717,9 @@
   <conditionalFormatting sqref="J3:J17">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4600,9 +4729,9 @@
   <conditionalFormatting sqref="M3:M17">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4612,9 +4741,9 @@
   <conditionalFormatting sqref="AB4:AB17">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4624,9 +4753,9 @@
   <conditionalFormatting sqref="S8:S18">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4636,9 +4765,9 @@
   <conditionalFormatting sqref="Y8:Y18">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4648,9 +4777,9 @@
   <conditionalFormatting sqref="Y8:Y19">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4660,9 +4789,9 @@
   <conditionalFormatting sqref="S8:S19">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4672,9 +4801,9 @@
   <conditionalFormatting sqref="M3:M19">
     <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4684,9 +4813,9 @@
   <conditionalFormatting sqref="M3:M20">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4696,9 +4825,9 @@
   <conditionalFormatting sqref="AH8:AH20">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4708,9 +4837,9 @@
   <conditionalFormatting sqref="AE3:AE21">
     <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4720,9 +4849,9 @@
   <conditionalFormatting sqref="AB3:AB20">
     <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4732,9 +4861,9 @@
   <conditionalFormatting sqref="Y8:Y20">
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4744,9 +4873,9 @@
   <conditionalFormatting sqref="S3:S24">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4756,9 +4885,9 @@
   <conditionalFormatting sqref="P3:P25 P27:P40">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4768,9 +4897,9 @@
   <conditionalFormatting sqref="J3:J25 X29:X40 J27:J40">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4780,9 +4909,9 @@
   <conditionalFormatting sqref="G3:G25 G27:G40">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4792,9 +4921,9 @@
   <conditionalFormatting sqref="D3:D25 D27:D40">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4804,9 +4933,9 @@
   <conditionalFormatting sqref="AH3:AH25 AH27:AH40">
     <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4816,9 +4945,9 @@
   <conditionalFormatting sqref="AE3:AE25 AE27:AE40">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4828,9 +4957,9 @@
   <conditionalFormatting sqref="AB3:AB25 AB27:AB40">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4840,9 +4969,9 @@
   <conditionalFormatting sqref="Y3:Y25 Y27:Y40">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4852,9 +4981,9 @@
   <conditionalFormatting sqref="M3:M25 M27:M40">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4864,9 +4993,9 @@
   <conditionalFormatting sqref="V3:V25 V27:V40">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4876,9 +5005,9 @@
   <conditionalFormatting sqref="S3:S25">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4888,9 +5017,9 @@
   <conditionalFormatting sqref="S26:S40">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4900,9 +5029,9 @@
   <conditionalFormatting sqref="P26:P40">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4912,9 +5041,9 @@
   <conditionalFormatting sqref="J26:J40">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4924,9 +5053,9 @@
   <conditionalFormatting sqref="G26:G40">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4936,9 +5065,9 @@
   <conditionalFormatting sqref="D26:D40">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4948,9 +5077,9 @@
   <conditionalFormatting sqref="AH26:AH40">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4960,9 +5089,9 @@
   <conditionalFormatting sqref="AE26:AE40">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4972,9 +5101,9 @@
   <conditionalFormatting sqref="AB26:AB40">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4984,9 +5113,9 @@
   <conditionalFormatting sqref="Y26:Y40">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4996,9 +5125,9 @@
   <conditionalFormatting sqref="M26:M40">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5008,9 +5137,9 @@
   <conditionalFormatting sqref="V26:V40">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5020,9 +5149,9 @@
   <conditionalFormatting sqref="AH3:AH40">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5032,9 +5161,9 @@
   <conditionalFormatting sqref="AE3:AE40">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5044,9 +5173,9 @@
   <conditionalFormatting sqref="AB3:AB40">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5056,9 +5185,9 @@
   <conditionalFormatting sqref="Y3:Y40">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5068,9 +5197,9 @@
   <conditionalFormatting sqref="V3:V40">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5080,9 +5209,9 @@
   <conditionalFormatting sqref="S3:S40">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5092,9 +5221,9 @@
   <conditionalFormatting sqref="P3:P40">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5104,9 +5233,9 @@
   <conditionalFormatting sqref="M3:M40">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5116,9 +5245,9 @@
   <conditionalFormatting sqref="J3:J40">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5128,9 +5257,9 @@
   <conditionalFormatting sqref="G3:G40">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5140,9 +5269,9 @@
   <conditionalFormatting sqref="D3:D40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5155,14 +5284,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
@@ -5183,56 +5312,56 @@
     <col min="22" max="22" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:34">
+      <c r="B1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="33" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="32"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="33" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5300,9 +5429,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="17.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="10">
         <v>0.46100000000000002</v>
@@ -5359,7 +5488,7 @@
         <v>0.40849999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -5418,9 +5547,9 @@
         <v>0.42475000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="10">
         <v>0.16</v>
@@ -5477,9 +5606,9 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="10">
         <v>0.40400000000000003</v>
@@ -5536,7 +5665,7 @@
         <v>0.42574999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -5607,7 +5736,7 @@
         <v>0.28861666666666669</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -5678,7 +5807,7 @@
         <v>0.32611666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -5749,7 +5878,7 @@
         <v>0.30031666666666662</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -5820,7 +5949,7 @@
         <v>0.33934999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -5873,7 +6002,7 @@
         <v>0.26416666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -5926,7 +6055,7 @@
         <v>0.30256666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
@@ -5979,7 +6108,7 @@
         <v>0.28023333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -6032,7 +6161,7 @@
         <v>0.28770000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -6091,7 +6220,7 @@
         <v>0.40457500000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="A16" s="25" t="s">
         <v>43</v>
       </c>
@@ -6150,7 +6279,7 @@
         <v>0.44357500000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="25" t="s">
         <v>44</v>
       </c>
@@ -6221,7 +6350,7 @@
         <v>0.24411666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="25" t="s">
         <v>45</v>
       </c>
@@ -6292,7 +6421,7 @@
         <v>0.29361666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -6363,7 +6492,7 @@
         <v>0.21026666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -6434,9 +6563,9 @@
         <v>0.33863333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="7">
         <v>0.26500000000000001</v>
@@ -6505,9 +6634,9 @@
         <v>0.26086666666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="7">
         <v>0.4204</v>
@@ -6576,9 +6705,9 @@
         <v>0.24983333333333335</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="7">
         <v>0.18329999999999999</v>
@@ -6647,9 +6776,9 @@
         <v>0.2364333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="7">
         <v>0.52569999999999995</v>
@@ -6718,9 +6847,9 @@
         <v>0.36651666666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="7">
         <v>0.1444</v>
@@ -6777,9 +6906,9 @@
         <v>0.36202499999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="7">
         <v>0.1961</v>
@@ -6836,9 +6965,9 @@
         <v>0.38167500000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="7">
         <v>0.5837</v>
@@ -6907,9 +7036,9 @@
         <v>0.3566833333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="7">
         <v>0.26919999999999999</v>
@@ -6978,9 +7107,9 @@
         <v>0.31143333333333334</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="7">
         <v>0.21</v>
@@ -7028,9 +7157,9 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="7">
         <v>0.60299999999999998</v>
@@ -7078,9 +7207,9 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="7">
         <v>0.26519999999999999</v>
@@ -7122,9 +7251,9 @@
       <c r="U31" s="8"/>
       <c r="V31" s="9"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="7">
         <v>0.1608</v>
@@ -7166,9 +7295,9 @@
       <c r="U32" s="8"/>
       <c r="V32" s="9"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="7">
         <v>0.30349999999999999</v>
@@ -7216,9 +7345,9 @@
       <c r="U33" s="8"/>
       <c r="V33" s="9"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="7">
         <v>0.63</v>
@@ -7266,7 +7395,7 @@
       <c r="U34" s="8"/>
       <c r="V34" s="9"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -7291,24 +7420,24 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7318,9 +7447,9 @@
   <conditionalFormatting sqref="G3:G10">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7330,9 +7459,9 @@
   <conditionalFormatting sqref="J3:J10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7342,9 +7471,9 @@
   <conditionalFormatting sqref="M3:M10">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7354,9 +7483,9 @@
   <conditionalFormatting sqref="P7:P10">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7366,9 +7495,9 @@
   <conditionalFormatting sqref="S7:S10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7378,9 +7507,9 @@
   <conditionalFormatting sqref="V3:V35">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7390,9 +7519,9 @@
   <conditionalFormatting sqref="D3:D35">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7402,9 +7531,9 @@
   <conditionalFormatting sqref="G3:G35">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7414,9 +7543,9 @@
   <conditionalFormatting sqref="J3:J35">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7426,9 +7555,9 @@
   <conditionalFormatting sqref="M3:M15">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7438,9 +7567,9 @@
   <conditionalFormatting sqref="M3:M16">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7450,9 +7579,9 @@
   <conditionalFormatting sqref="M3:M18">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7462,9 +7591,9 @@
   <conditionalFormatting sqref="P7:P18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7474,9 +7603,9 @@
   <conditionalFormatting sqref="S7:S18">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7486,9 +7615,9 @@
   <conditionalFormatting sqref="M4:M21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7498,9 +7627,9 @@
   <conditionalFormatting sqref="P4:P21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7510,9 +7639,9 @@
   <conditionalFormatting sqref="S4:S21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7522,9 +7651,9 @@
   <conditionalFormatting sqref="M3:M35">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7534,9 +7663,9 @@
   <conditionalFormatting sqref="P3:P35">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7546,9 +7675,9 @@
   <conditionalFormatting sqref="S3:S35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7561,14 +7690,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -7585,71 +7714,71 @@
     <col min="13" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="32"/>
+      <c r="M1" s="33"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="B2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="F2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="H2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="27" t="s">
+      <c r="J2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="27" t="s">
+      <c r="L2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="25" t="s">
         <v>46</v>
       </c>
@@ -7697,7 +7826,7 @@
         <v>1.0845751025000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="25" t="s">
         <v>47</v>
       </c>
@@ -7745,9 +7874,9 @@
         <v>1.3607243325</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="7">
         <v>0.73160000000000003</v>
@@ -7793,9 +7922,9 @@
         <v>1.1540821750000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="7">
         <v>0.71699999999999997</v>
@@ -7841,25 +7970,25 @@
         <v>1.4101859700000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="35">
+        <v>96</v>
+      </c>
+      <c r="B7" s="31">
         <v>0.76639999999999997</v>
       </c>
       <c r="C7">
         <f>0.9145*0.9145</f>
         <v>0.83631024999999992</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="31">
         <v>0.74380000000000002</v>
       </c>
       <c r="E7">
         <f>1.004*1.004</f>
         <v>1.008016</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="31">
         <v>0.8518</v>
       </c>
       <c r="G7">
@@ -7869,16 +7998,23 @@
       <c r="L7" s="7"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="25" t="s">
-        <v>48</v>
+        <v>98</v>
+      </c>
+      <c r="B8" s="31">
+        <v>0.7651</v>
+      </c>
+      <c r="C8">
+        <f>0.934*0.934</f>
+        <v>0.87235600000000013</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="28">
         <v>0.76449999999999996</v>
@@ -7917,9 +8053,9 @@
         <v>0.942025</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>0.75980000000000003</v>
@@ -7960,9 +8096,9 @@
         <v>0.93589999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="30">
         <v>0.76670000000000005</v>
@@ -7991,9 +8127,9 @@
         <v>0.73710000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="30">
         <v>0.75880000000000003</v>
@@ -8022,16 +8158,16 @@
         <v>0.73635000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
@@ -8046,9 +8182,9 @@
   <conditionalFormatting sqref="M3:M12">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8058,9 +8194,9 @@
   <conditionalFormatting sqref="L3:L12">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8070,9 +8206,9 @@
   <conditionalFormatting sqref="B3:B6 B9">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8082,9 +8218,9 @@
   <conditionalFormatting sqref="D3:D6 D9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8094,9 +8230,9 @@
   <conditionalFormatting sqref="F3:F6 F9">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8106,9 +8242,9 @@
   <conditionalFormatting sqref="H3:H7 H9">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8118,9 +8254,9 @@
   <conditionalFormatting sqref="J3:J7 J9">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8130,9 +8266,9 @@
   <conditionalFormatting sqref="C3:C6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8142,9 +8278,9 @@
   <conditionalFormatting sqref="E3:E6">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8154,9 +8290,9 @@
   <conditionalFormatting sqref="G3:G7">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8166,9 +8302,9 @@
   <conditionalFormatting sqref="I3:I6">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8178,9 +8314,9 @@
   <conditionalFormatting sqref="K3:K6">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8190,9 +8326,9 @@
   <conditionalFormatting sqref="B3:B12">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8202,9 +8338,9 @@
   <conditionalFormatting sqref="C3:C12">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8214,9 +8350,9 @@
   <conditionalFormatting sqref="D3:D11">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8226,9 +8362,9 @@
   <conditionalFormatting sqref="E3:E11">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8238,9 +8374,9 @@
   <conditionalFormatting sqref="F3:F12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8250,9 +8386,9 @@
   <conditionalFormatting sqref="G3:G12">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8262,9 +8398,9 @@
   <conditionalFormatting sqref="H3:H11">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8274,9 +8410,9 @@
   <conditionalFormatting sqref="I3:I11">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8286,9 +8422,9 @@
   <conditionalFormatting sqref="J3:J12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8298,9 +8434,9 @@
   <conditionalFormatting sqref="K3:K12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8313,14 +8449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="31" width="4.5703125" bestFit="1" customWidth="1"/>
@@ -8329,74 +8465,74 @@
     <col min="38" max="40" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:40">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="33" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="32"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="33" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="31" t="s">
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="33"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8518,9 +8654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40">
       <c r="A3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="10">
         <v>0.38469999999999999</v>
@@ -8631,21 +8767,21 @@
         <v>0.63719999999999999</v>
       </c>
       <c r="AL3" s="17">
-        <f>AVERAGE(B3,E3,H3,N3,Q3,T3,W3,Z3,AC3,AF3,AI3)</f>
+        <f t="shared" ref="AL3:AN4" si="0">AVERAGE(B3,E3,H3,N3,Q3,T3,W3,Z3,AC3,AF3,AI3)</f>
         <v>0.4328727272727273</v>
       </c>
       <c r="AM3" s="18">
-        <f>AVERAGE(C3,F3,I3,O3,R3,U3,X3,AA3,AD3,AG3,AJ3)</f>
+        <f t="shared" si="0"/>
         <v>0.52852727272727273</v>
       </c>
       <c r="AN3" s="19">
-        <f>AVERAGE(D3,G3,J3,P3,S3,V3,Y3,AB3,AE3,AH3,AK3)</f>
+        <f t="shared" si="0"/>
         <v>0.45634545454545455</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="10">
         <v>0.56200000000000006</v>
@@ -8756,21 +8892,21 @@
         <v>0.59219999999999995</v>
       </c>
       <c r="AL4" s="10">
-        <f>AVERAGE(B4,E4,H4,N4,Q4,T4,W4,Z4,AC4,AF4,AI4)</f>
+        <f t="shared" si="0"/>
         <v>0.59123636363636367</v>
       </c>
       <c r="AM4" s="11">
-        <f>AVERAGE(C4,F4,I4,O4,R4,U4,X4,AA4,AD4,AG4,AJ4)</f>
+        <f t="shared" si="0"/>
         <v>0.47882727272727271</v>
       </c>
       <c r="AN4" s="12">
-        <f>AVERAGE(D4,G4,J4,P4,S4,V4,Y4,AB4,AE4,AH4,AK4)</f>
+        <f t="shared" si="0"/>
         <v>0.49341818181818181</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="10">
         <v>0.27739999999999998</v>
@@ -8881,21 +9017,21 @@
         <v>0.65649999999999997</v>
       </c>
       <c r="AL5" s="10">
-        <f t="shared" ref="AL5:AL9" si="0">AVERAGE(B5,E5,H5,N5,Q5,T5,W5,Z5,AC5,AF5,AI5)</f>
+        <f t="shared" ref="AL5:AL6" si="1">AVERAGE(B5,E5,H5,N5,Q5,T5,W5,Z5,AC5,AF5,AI5)</f>
         <v>0.37953636363636362</v>
       </c>
       <c r="AM5" s="11">
-        <f t="shared" ref="AM5:AM9" si="1">AVERAGE(C5,F5,I5,O5,R5,U5,X5,AA5,AD5,AG5,AJ5)</f>
+        <f t="shared" ref="AM5:AM6" si="2">AVERAGE(C5,F5,I5,O5,R5,U5,X5,AA5,AD5,AG5,AJ5)</f>
         <v>0.59595454545454551</v>
       </c>
       <c r="AN5" s="12">
-        <f t="shared" ref="AN5:AN9" si="2">AVERAGE(D5,G5,J5,P5,S5,V5,Y5,AB5,AE5,AH5,AK5)</f>
+        <f t="shared" ref="AN5:AN6" si="3">AVERAGE(D5,G5,J5,P5,S5,V5,Y5,AB5,AE5,AH5,AK5)</f>
         <v>0.4236454545454546</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="10">
         <v>0.3236</v>
@@ -9006,19 +9142,19 @@
         <v>0.66720000000000002</v>
       </c>
       <c r="AL6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.54188181818181813</v>
       </c>
       <c r="AM6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51207272727272724</v>
       </c>
       <c r="AN6" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.51095454545454555</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40">
       <c r="A7" s="5"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -9060,7 +9196,7 @@
       <c r="AM7" s="11"/>
       <c r="AN7" s="12"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40">
       <c r="A8" s="5"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -9102,7 +9238,7 @@
       <c r="AM8" s="11"/>
       <c r="AN8" s="12"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40">
       <c r="A9" s="5"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -9163,9 +9299,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="63">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9175,9 +9311,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9187,9 +9323,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9199,9 +9335,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="60">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9211,9 +9347,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9223,9 +9359,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="58">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9235,9 +9371,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9247,9 +9383,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9259,9 +9395,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9271,9 +9407,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9283,9 +9419,9 @@
   <conditionalFormatting sqref="AK3:AK9">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9295,9 +9431,9 @@
   <conditionalFormatting sqref="AN3:AN9">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9307,9 +9443,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9319,9 +9455,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9331,9 +9467,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9343,9 +9479,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9355,9 +9491,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9367,9 +9503,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9379,9 +9515,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9391,9 +9527,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9403,9 +9539,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9415,9 +9551,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9427,9 +9563,9 @@
   <conditionalFormatting sqref="AK3:AK9">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9439,9 +9575,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9451,9 +9587,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9463,9 +9599,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9475,9 +9611,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9487,9 +9623,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9499,9 +9635,9 @@
   <conditionalFormatting sqref="AE4:AE9">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9511,9 +9647,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9523,9 +9659,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9535,9 +9671,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9547,9 +9683,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9559,9 +9695,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9571,9 +9707,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9583,9 +9719,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9595,9 +9731,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9607,9 +9743,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9619,9 +9755,9 @@
   <conditionalFormatting sqref="AK3:AK9">
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9631,9 +9767,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9643,9 +9779,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9655,9 +9791,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9667,9 +9803,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9679,9 +9815,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9691,9 +9827,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9703,9 +9839,9 @@
   <conditionalFormatting sqref="AK3:AK9">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9715,9 +9851,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9727,9 +9863,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9739,9 +9875,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9751,9 +9887,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9763,9 +9899,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9775,9 +9911,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9787,9 +9923,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9799,9 +9935,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9811,9 +9947,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9823,9 +9959,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9835,9 +9971,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9847,9 +9983,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9859,9 +9995,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9871,9 +10007,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9883,9 +10019,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9895,9 +10031,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9907,9 +10043,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>

--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BP4D" sheetId="1" r:id="rId1"/>
     <sheet name="SEMAINE" sheetId="2" r:id="rId2"/>
     <sheet name="BP4D_intensity" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="BP4D_int_seg" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="102">
   <si>
     <t>DEVEL</t>
   </si>
@@ -315,6 +316,15 @@
   <si>
     <t>Combined SVM</t>
   </si>
+  <si>
+    <t>Best actual (v2)</t>
+  </si>
+  <si>
+    <t>Results submitted v2</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
 </sst>
 </file>
 
@@ -463,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -506,6 +516,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -820,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK40"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -831,66 +847,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="34" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="34" t="s">
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="32"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="34" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="34" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="34" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="32" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="32" t="s">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="33"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35"/>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" t="s">
@@ -2008,18 +2024,9 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="9"/>
-      <c r="AI12" s="10">
-        <f t="shared" si="3"/>
-        <v>0.43243333333333328</v>
-      </c>
-      <c r="AJ12" s="11">
-        <f t="shared" si="4"/>
-        <v>0.85666666666666658</v>
-      </c>
-      <c r="AK12" s="12">
-        <f t="shared" si="5"/>
-        <v>0.54469999999999996</v>
-      </c>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="12"/>
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="5" t="s">
@@ -2076,18 +2083,9 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="9"/>
-      <c r="AI13" s="10">
-        <f t="shared" si="3"/>
-        <v>0.57389999999999997</v>
-      </c>
-      <c r="AJ13" s="11">
-        <f t="shared" si="4"/>
-        <v>0.15646666666666667</v>
-      </c>
-      <c r="AK13" s="12">
-        <f t="shared" si="5"/>
-        <v>0.23713333333333333</v>
-      </c>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="12"/>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="5" t="s">
@@ -2144,18 +2142,9 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="9"/>
-      <c r="AI14" s="10">
-        <f t="shared" si="3"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ14" s="11">
-        <f t="shared" si="4"/>
-        <v>0.83816666666666662</v>
-      </c>
-      <c r="AK14" s="12">
-        <f t="shared" si="5"/>
-        <v>0.53643333333333332</v>
-      </c>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="12"/>
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="5" t="s">
@@ -2212,18 +2201,9 @@
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="9"/>
-      <c r="AI15" s="10">
-        <f t="shared" si="3"/>
-        <v>0.57640000000000002</v>
-      </c>
-      <c r="AJ15" s="11">
-        <f t="shared" si="4"/>
-        <v>0.16486666666666666</v>
-      </c>
-      <c r="AK15" s="12">
-        <f t="shared" si="5"/>
-        <v>0.24983333333333335</v>
-      </c>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="12"/>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="5" t="s">
@@ -2304,18 +2284,9 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="9"/>
-      <c r="AI16" s="10">
-        <f t="shared" si="3"/>
-        <v>0.49852857142857143</v>
-      </c>
-      <c r="AJ16" s="11">
-        <f t="shared" si="4"/>
-        <v>0.65727142857142862</v>
-      </c>
-      <c r="AK16" s="12">
-        <f t="shared" si="5"/>
-        <v>0.56054285714285712</v>
-      </c>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="12"/>
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="25" t="s">
@@ -2396,18 +2367,9 @@
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="9"/>
-      <c r="AI17" s="10">
-        <f t="shared" si="3"/>
-        <v>0.51452857142857134</v>
-      </c>
-      <c r="AJ17" s="11">
-        <f t="shared" si="4"/>
-        <v>0.59250000000000003</v>
-      </c>
-      <c r="AK17" s="12">
-        <f t="shared" si="5"/>
-        <v>0.54634285714285713</v>
-      </c>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="12"/>
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="25" t="s">
@@ -2476,18 +2438,9 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="9"/>
-      <c r="AI18" s="10">
-        <f t="shared" si="3"/>
-        <v>0.70147999999999999</v>
-      </c>
-      <c r="AJ18" s="11">
-        <f t="shared" si="4"/>
-        <v>0.81576000000000004</v>
-      </c>
-      <c r="AK18" s="12">
-        <f t="shared" si="5"/>
-        <v>0.74680000000000002</v>
-      </c>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="12"/>
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="25" t="s">
@@ -2556,18 +2509,9 @@
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="9"/>
-      <c r="AI19" s="10">
-        <f t="shared" si="3"/>
-        <v>0.61221999999999999</v>
-      </c>
-      <c r="AJ19" s="11">
-        <f t="shared" si="4"/>
-        <v>0.87799999999999989</v>
-      </c>
-      <c r="AK19" s="12">
-        <f t="shared" si="5"/>
-        <v>0.71243999999999996</v>
-      </c>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="12"/>
     </row>
     <row r="20" spans="1:37">
       <c r="A20" s="25" t="s">
@@ -3692,18 +3636,9 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="9"/>
-      <c r="AI29" s="10">
-        <f t="shared" si="3"/>
-        <v>0.5716</v>
-      </c>
-      <c r="AJ29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.60124285714285719</v>
-      </c>
-      <c r="AK29" s="12">
-        <f t="shared" si="5"/>
-        <v>0.57781428571428584</v>
-      </c>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="12"/>
     </row>
     <row r="30" spans="1:37">
       <c r="A30" s="25" t="s">
@@ -3900,18 +3835,9 @@
       <c r="AF31" s="7"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="9"/>
-      <c r="AI31" s="10">
-        <f t="shared" si="3"/>
-        <v>0.57911428571428569</v>
-      </c>
-      <c r="AJ31" s="11">
-        <f t="shared" si="4"/>
-        <v>0.59078571428571425</v>
-      </c>
-      <c r="AK31" s="12">
-        <f t="shared" si="5"/>
-        <v>0.57524285714285717</v>
-      </c>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="12"/>
     </row>
     <row r="32" spans="1:37">
       <c r="A32" s="25" t="s">
@@ -4108,56 +4034,125 @@
       <c r="AF33" s="7"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="9"/>
-      <c r="AI33" s="10">
-        <f t="shared" ref="AI33" si="9">AVERAGE(B33,E33,H33,K33,N33,Q33,T33,W33,Z33,AC33,AF33)</f>
-        <v>0.48159999999999997</v>
-      </c>
-      <c r="AJ33" s="11">
-        <f t="shared" ref="AJ33" si="10">AVERAGE(C33,F33,I33,L33,O33,R33,U33,X33,AA33,AD33,AG33)</f>
-        <v>0.66241428571428584</v>
-      </c>
-      <c r="AK33" s="12">
-        <f t="shared" ref="AK33" si="11">AVERAGE(D33,G33,J33,M33,P33,S33,V33,Y33,AB33,AE33,AH33)</f>
-        <v>0.55455714285714286</v>
-      </c>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="12"/>
     </row>
     <row r="34" spans="1:37">
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="11"/>
-      <c r="AK34" s="12"/>
+      <c r="A34" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="S34" s="8">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="T34" s="7">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="U34" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="V34" s="8">
+        <v>0.872</v>
+      </c>
+      <c r="W34" s="7">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="X34" s="8">
+        <v>0.876</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="AB34" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="AC34" s="7">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="AD34" s="8">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AE34" s="8">
+        <v>0.622</v>
+      </c>
+      <c r="AF34" s="7">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AG34" s="8">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="AH34" s="9">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="AI34" s="10">
+        <f t="shared" ref="AI34" si="9">AVERAGE(B34,E34,H34,K34,N34,Q34,T34,W34,Z34,AC34,AF34)</f>
+        <v>0.51727272727272733</v>
+      </c>
+      <c r="AJ34" s="11">
+        <f t="shared" ref="AJ34" si="10">AVERAGE(C34,F34,I34,L34,O34,R34,U34,X34,AA34,AD34,AG34)</f>
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="AK34" s="12">
+        <f t="shared" ref="AK34" si="11">AVERAGE(D34,G34,J34,M34,P34,S34,V34,Y34,AB34,AE34,AH34)</f>
+        <v>0.60236363636363643</v>
+      </c>
     </row>
     <row r="35" spans="1:37">
       <c r="B35" s="7"/>
@@ -5287,8 +5282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5313,53 +5308,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="34" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="34" t="s">
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="32"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" t="s">
@@ -7153,9 +7148,18 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="8"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="9"/>
+      <c r="T29" s="7">
+        <f t="shared" ref="T29:T35" si="4">AVERAGE(B29,E29,H29,K29,N29,Q29)</f>
+        <v>0.2475</v>
+      </c>
+      <c r="U29" s="8">
+        <f t="shared" ref="U29:U35" si="5">AVERAGE(C29,F29,I29,L29,O29,R29)</f>
+        <v>0.76</v>
+      </c>
+      <c r="V29" s="9">
+        <f t="shared" ref="V29:V35" si="6">AVERAGE(D29,G29,J29,M29,P29,S29)</f>
+        <v>0.36</v>
+      </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="25" t="s">
@@ -7203,9 +7207,18 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="8"/>
       <c r="S30" s="9"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="9"/>
+      <c r="T30" s="7">
+        <f t="shared" si="4"/>
+        <v>0.44499999999999995</v>
+      </c>
+      <c r="U30" s="8">
+        <f t="shared" si="5"/>
+        <v>0.44249999999999995</v>
+      </c>
+      <c r="V30" s="9">
+        <f t="shared" si="6"/>
+        <v>0.35099999999999998</v>
+      </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="25" t="s">
@@ -7247,9 +7260,18 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="8"/>
       <c r="S31" s="9"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="9"/>
+      <c r="T31" s="7">
+        <f t="shared" si="4"/>
+        <v>0.2208333333333333</v>
+      </c>
+      <c r="U31" s="8">
+        <f t="shared" si="5"/>
+        <v>0.76846666666666674</v>
+      </c>
+      <c r="V31" s="9">
+        <f t="shared" si="6"/>
+        <v>0.31570000000000004</v>
+      </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="25" t="s">
@@ -7291,9 +7313,18 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="8"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="9"/>
+      <c r="T32" s="7">
+        <f t="shared" si="4"/>
+        <v>0.18646666666666667</v>
+      </c>
+      <c r="U32" s="8">
+        <f t="shared" si="5"/>
+        <v>0.92316666666666658</v>
+      </c>
+      <c r="V32" s="9">
+        <f t="shared" si="6"/>
+        <v>0.29619999999999996</v>
+      </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="25" t="s">
@@ -7341,9 +7372,18 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="8"/>
       <c r="S33" s="9"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="9"/>
+      <c r="T33" s="7">
+        <f t="shared" si="4"/>
+        <v>0.35575000000000001</v>
+      </c>
+      <c r="U33" s="8">
+        <f t="shared" si="5"/>
+        <v>0.55970000000000009</v>
+      </c>
+      <c r="V33" s="9">
+        <f t="shared" si="6"/>
+        <v>0.42807499999999998</v>
+      </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="25" t="s">
@@ -7391,46 +7431,103 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="8"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="9"/>
+      <c r="T34" s="7">
+        <f t="shared" si="4"/>
+        <v>0.38384999999999997</v>
+      </c>
+      <c r="U34" s="8">
+        <f t="shared" si="5"/>
+        <v>0.48897499999999994</v>
+      </c>
+      <c r="V34" s="9">
+        <f t="shared" si="6"/>
+        <v>0.41767499999999996</v>
+      </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="9"/>
+      <c r="A35" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="S35" s="9">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="T35" s="7">
+        <f t="shared" si="4"/>
+        <v>0.47583333333333333</v>
+      </c>
+      <c r="U35" s="8">
+        <f t="shared" si="5"/>
+        <v>0.45366666666666666</v>
+      </c>
+      <c r="V35" s="9">
+        <f t="shared" si="6"/>
+        <v>0.43949999999999995</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
     <cfRule type="colorScale" priority="21">
@@ -7693,8 +7790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7715,30 +7812,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="33"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="27" t="s">
@@ -8063,12 +8160,6 @@
       <c r="C10">
         <v>0.82220000000000004</v>
       </c>
-      <c r="D10">
-        <v>0.75629999999999997</v>
-      </c>
-      <c r="E10">
-        <v>0.94450000000000001</v>
-      </c>
       <c r="F10">
         <v>0.86309999999999998</v>
       </c>
@@ -8089,11 +8180,11 @@
       </c>
       <c r="L10" s="7">
         <f t="shared" ref="L10:M12" si="1">AVERAGE(D10,F10,H10,J10)</f>
-        <v>0.65042500000000003</v>
+        <v>0.61513333333333342</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="1"/>
-        <v>0.93589999999999995</v>
+        <v>0.93303333333333338</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -8159,7 +8250,47 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1"/>
+      <c r="A13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="30">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0.84</v>
+      </c>
+      <c r="H13">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="I13">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.503</v>
+      </c>
+      <c r="K13">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" ref="L13" si="2">AVERAGE(D13,F13,H13,J13)</f>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" ref="M13" si="3">AVERAGE(E13,G13,I13,K13)</f>
+        <v>1.1484999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1"/>
@@ -8179,7 +8310,7 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="M3:M12">
+  <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8191,7 +8322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L12">
+  <conditionalFormatting sqref="L3:L13">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8323,7 +8454,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B12">
+  <conditionalFormatting sqref="B3:B13">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8335,7 +8466,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C12">
+  <conditionalFormatting sqref="C3:C13">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8347,7 +8478,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D11">
+  <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8359,7 +8490,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8371,7 +8502,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F12">
+  <conditionalFormatting sqref="F3:F13">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8383,7 +8514,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G12">
+  <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8395,7 +8526,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H11">
+  <conditionalFormatting sqref="H3:H13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8407,7 +8538,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I11">
+  <conditionalFormatting sqref="I3:I13">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8419,7 +8550,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J12">
+  <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8431,7 +8562,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K12">
+  <conditionalFormatting sqref="K3:K13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8449,6 +8580,305 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="30">
+        <v>0.65</v>
+      </c>
+      <c r="C3">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="G3" s="30">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="H3">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="K3">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:M3" si="0">AVERAGE(D3,F3,H3,J3)</f>
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" si="0"/>
+        <v>0.65325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN9"/>
   <sheetViews>
@@ -8466,71 +8896,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="34" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="34" t="s">
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="32"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="34" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="34" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="34" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="32" t="s">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="32" t="s">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="33"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" t="s">

--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BP4D" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="BP4D_int_seg" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="106">
   <si>
     <t>DEVEL</t>
   </si>
@@ -325,12 +325,24 @@
   <si>
     <t>Submitted</t>
   </si>
+  <si>
+    <t>Pure geom static (params)</t>
+  </si>
+  <si>
+    <t>Pure geom dynamic (params)</t>
+  </si>
+  <si>
+    <t>Pure geom dyn (actual locs)</t>
+  </si>
+  <si>
+    <t>Pure geom stat (actual locs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +636,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -658,6 +671,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -833,20 +847,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="2" max="37" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
@@ -908,7 +922,7 @@
       <c r="AJ1" s="34"/>
       <c r="AK1" s="35"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -1137,7 +1151,7 @@
         <v>0.26816666666666661</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1229,7 +1243,7 @@
         <v>0.25200000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -1321,7 +1335,7 @@
         <v>0.23471428571428571</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.5" customHeight="1">
+    <row r="6" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1413,7 +1427,7 @@
         <v>0.3408571428571428</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1505,7 +1519,7 @@
         <v>0.21928571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1621,7 +1635,7 @@
         <v>0.60526363636363623</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1737,7 +1751,7 @@
         <v>0.59264545454545459</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1841,7 +1855,7 @@
         <v>0.44040000000000001</v>
       </c>
       <c r="AI10" s="10">
-        <f t="shared" ref="AI10:AI31" si="3">AVERAGE(B10,E10,H10,K10,N10,Q10,T10,W10,Z10,AC10,AF10)</f>
+        <f t="shared" ref="AI10:AI30" si="3">AVERAGE(B10,E10,H10,K10,N10,Q10,T10,W10,Z10,AC10,AF10)</f>
         <v>0.5429272727272727</v>
       </c>
       <c r="AJ10" s="11">
@@ -1853,7 +1867,7 @@
         <v>0.59812727272727273</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1961,15 +1975,15 @@
         <v>0.5331999999999999</v>
       </c>
       <c r="AJ11" s="11">
-        <f t="shared" ref="AJ11:AJ31" si="4">AVERAGE(C11,F11,I11,L11,O11,R11,U11,X11,AA11,AD11,AG11)</f>
+        <f t="shared" ref="AJ11:AJ30" si="4">AVERAGE(C11,F11,I11,L11,O11,R11,U11,X11,AA11,AD11,AG11)</f>
         <v>0.69535454545454545</v>
       </c>
       <c r="AK11" s="12">
-        <f t="shared" ref="AK11:AK31" si="5">AVERAGE(D11,G11,J11,M11,P11,S11,V11,Y11,AB11,AE11,AH11)</f>
+        <f t="shared" ref="AK11:AK30" si="5">AVERAGE(D11,G11,J11,M11,P11,S11,V11,Y11,AB11,AE11,AH11)</f>
         <v>0.59751818181818195</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -2028,7 +2042,7 @@
       <c r="AJ12" s="11"/>
       <c r="AK12" s="12"/>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -2087,7 +2101,7 @@
       <c r="AJ13" s="11"/>
       <c r="AK13" s="12"/>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2146,7 +2160,7 @@
       <c r="AJ14" s="11"/>
       <c r="AK14" s="12"/>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -2205,7 +2219,7 @@
       <c r="AJ15" s="11"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -2288,7 +2302,7 @@
       <c r="AJ16" s="11"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>43</v>
       </c>
@@ -2371,7 +2385,7 @@
       <c r="AJ17" s="11"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>46</v>
       </c>
@@ -2442,7 +2456,7 @@
       <c r="AJ18" s="11"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>47</v>
       </c>
@@ -2513,7 +2527,7 @@
       <c r="AJ19" s="11"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>52</v>
       </c>
@@ -2629,7 +2643,7 @@
         <v>0.57558181818181819</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>53</v>
       </c>
@@ -2745,7 +2759,7 @@
         <v>0.58974545454545457</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>54</v>
       </c>
@@ -2861,7 +2875,7 @@
         <v>0.58663636363636362</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>55</v>
       </c>
@@ -2977,7 +2991,7 @@
         <v>0.59650909090909088</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>56</v>
       </c>
@@ -3093,7 +3107,7 @@
         <v>0.5917</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>60</v>
       </c>
@@ -3209,7 +3223,7 @@
         <v>0.61232727272727272</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>65</v>
       </c>
@@ -3325,7 +3339,7 @@
         <v>0.58963636363636374</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>67</v>
       </c>
@@ -3441,7 +3455,7 @@
         <v>0.57887272727272732</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>69</v>
       </c>
@@ -3557,7 +3571,7 @@
         <v>0.60222727272727272</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>70</v>
       </c>
@@ -3640,7 +3654,7 @@
       <c r="AJ29" s="11"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>76</v>
       </c>
@@ -3756,7 +3770,7 @@
         <v>0.60204545454545466</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>77</v>
       </c>
@@ -3839,7 +3853,7 @@
       <c r="AJ31" s="11"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>84</v>
       </c>
@@ -3955,7 +3969,7 @@
         <v>0.58684545454545445</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>97</v>
       </c>
@@ -4038,7 +4052,7 @@
       <c r="AJ33" s="11"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>100</v>
       </c>
@@ -4154,83 +4168,239 @@
         <v>0.60236363636363643</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="10"/>
-      <c r="AJ35" s="11"/>
-      <c r="AK35" s="12"/>
-    </row>
-    <row r="36" spans="1:37">
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="7"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="10"/>
-      <c r="AJ36" s="11"/>
-      <c r="AK36" s="12"/>
-    </row>
-    <row r="37" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.2984</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.62509999999999999</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.34289999999999998</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.41710000000000003</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0.43759999999999999</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0.626</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0.9093</v>
+      </c>
+      <c r="P35" s="8">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="S35" s="8">
+        <v>0.82240000000000002</v>
+      </c>
+      <c r="T35" s="7">
+        <v>0.77769999999999995</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="V35" s="8">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="W35" s="7">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="X35" s="8">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>0.18729999999999999</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>0.31219999999999998</v>
+      </c>
+      <c r="AB35" s="8">
+        <v>0.2341</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>0.43980000000000002</v>
+      </c>
+      <c r="AD35" s="8">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="AE35" s="8">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="AF35" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="AG35" s="8">
+        <v>0.54320000000000002</v>
+      </c>
+      <c r="AH35" s="9">
+        <v>0.3029</v>
+      </c>
+      <c r="AI35" s="10">
+        <f t="shared" ref="AI35" si="12">AVERAGE(B35,E35,H35,K35,N35,Q35,T35,W35,Z35,AC35,AF35)</f>
+        <v>0.45699090909090906</v>
+      </c>
+      <c r="AJ35" s="11">
+        <f t="shared" ref="AJ35" si="13">AVERAGE(C35,F35,I35,L35,O35,R35,U35,X35,AA35,AD35,AG35)</f>
+        <v>0.73686363636363628</v>
+      </c>
+      <c r="AK35" s="12">
+        <f t="shared" ref="AK35" si="14">AVERAGE(D35,G35,J35,M35,P35,S35,V35,Y35,AB35,AE35,AH35)</f>
+        <v>0.55642727272727277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.4365</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.4909</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.2079</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.59860000000000002</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0.42680000000000001</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.6855</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="M36" s="8">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="P36" s="8">
+        <v>0.7722</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="S36" s="8">
+        <v>0.81489999999999996</v>
+      </c>
+      <c r="T36" s="7">
+        <v>0.755</v>
+      </c>
+      <c r="U36" s="8">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0.81689999999999996</v>
+      </c>
+      <c r="W36" s="7">
+        <v>0.43769999999999998</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>0.59330000000000005</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>0.1623</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>0.29049999999999998</v>
+      </c>
+      <c r="AB36" s="8">
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>0.48010000000000003</v>
+      </c>
+      <c r="AD36" s="8">
+        <v>0.74350000000000005</v>
+      </c>
+      <c r="AE36" s="8">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="AF36" s="7">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="AG36" s="8">
+        <v>0.57750000000000001</v>
+      </c>
+      <c r="AH36" s="9">
+        <v>0.30759999999999998</v>
+      </c>
+      <c r="AI36" s="10">
+        <f t="shared" ref="AI36" si="15">AVERAGE(B36,E36,H36,K36,N36,Q36,T36,W36,Z36,AC36,AF36)</f>
+        <v>0.46621818181818181</v>
+      </c>
+      <c r="AJ36" s="11">
+        <f t="shared" ref="AJ36" si="16">AVERAGE(C36,F36,I36,L36,O36,R36,U36,X36,AA36,AD36,AG36)</f>
+        <v>0.7092090909090909</v>
+      </c>
+      <c r="AK36" s="12">
+        <f t="shared" ref="AK36" si="17">AVERAGE(D36,G36,J36,M36,P36,S36,V36,Y36,AB36,AE36,AH36)</f>
+        <v>0.55127272727272725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -4268,7 +4438,7 @@
       <c r="AJ37" s="11"/>
       <c r="AK37" s="12"/>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -4306,7 +4476,7 @@
       <c r="AJ38" s="11"/>
       <c r="AK38" s="12"/>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -4344,7 +4514,7 @@
       <c r="AJ39" s="11"/>
       <c r="AK39" s="12"/>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -4400,9 +4570,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="76">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4412,9 +4582,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="75">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4424,9 +4594,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="74">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4436,9 +4606,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="73">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4448,9 +4618,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="72">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4460,9 +4630,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="71">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4472,9 +4642,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="70">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4484,9 +4654,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="69">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4496,9 +4666,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="68">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4508,9 +4678,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="67">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4520,9 +4690,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="66">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4532,9 +4702,9 @@
   <conditionalFormatting sqref="AK3:AK40">
     <cfRule type="colorScale" priority="65">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4544,9 +4714,9 @@
   <conditionalFormatting sqref="D3:D17">
     <cfRule type="colorScale" priority="64">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4556,9 +4726,9 @@
   <conditionalFormatting sqref="G3:G11">
     <cfRule type="colorScale" priority="63">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4568,9 +4738,9 @@
   <conditionalFormatting sqref="J3:J11">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4580,9 +4750,9 @@
   <conditionalFormatting sqref="M3:M11">
     <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4592,9 +4762,9 @@
   <conditionalFormatting sqref="P3:P11">
     <cfRule type="colorScale" priority="60">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4604,9 +4774,9 @@
   <conditionalFormatting sqref="S3:S11">
     <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4616,9 +4786,9 @@
   <conditionalFormatting sqref="V3:V11">
     <cfRule type="colorScale" priority="58">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4628,9 +4798,9 @@
   <conditionalFormatting sqref="Y3:Y11">
     <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4640,9 +4810,9 @@
   <conditionalFormatting sqref="AB3:AB11">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4652,9 +4822,9 @@
   <conditionalFormatting sqref="AE3:AE11">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4664,9 +4834,9 @@
   <conditionalFormatting sqref="AH3:AH11">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4676,9 +4846,9 @@
   <conditionalFormatting sqref="G3:G21">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4688,9 +4858,9 @@
   <conditionalFormatting sqref="V3:V21">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4700,9 +4870,9 @@
   <conditionalFormatting sqref="AE3:AE19 AE21">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4712,9 +4882,9 @@
   <conditionalFormatting sqref="J3:J17">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4724,9 +4894,9 @@
   <conditionalFormatting sqref="M3:M17">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4736,9 +4906,9 @@
   <conditionalFormatting sqref="AB4:AB17">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4748,9 +4918,9 @@
   <conditionalFormatting sqref="S8:S18">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4760,9 +4930,9 @@
   <conditionalFormatting sqref="Y8:Y18">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4772,9 +4942,9 @@
   <conditionalFormatting sqref="Y8:Y19">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4784,9 +4954,9 @@
   <conditionalFormatting sqref="S8:S19">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4796,9 +4966,9 @@
   <conditionalFormatting sqref="M3:M19">
     <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4808,9 +4978,9 @@
   <conditionalFormatting sqref="M3:M20">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4820,9 +4990,9 @@
   <conditionalFormatting sqref="AH8:AH20">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4832,9 +5002,9 @@
   <conditionalFormatting sqref="AE3:AE21">
     <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4844,9 +5014,9 @@
   <conditionalFormatting sqref="AB3:AB20">
     <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4856,9 +5026,9 @@
   <conditionalFormatting sqref="Y8:Y20">
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4868,9 +5038,9 @@
   <conditionalFormatting sqref="S3:S24">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4880,9 +5050,9 @@
   <conditionalFormatting sqref="P3:P25 P27:P40">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4892,9 +5062,9 @@
   <conditionalFormatting sqref="J3:J25 X29:X40 J27:J40">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4904,9 +5074,9 @@
   <conditionalFormatting sqref="G3:G25 G27:G40">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4916,9 +5086,9 @@
   <conditionalFormatting sqref="D3:D25 D27:D40">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4928,9 +5098,9 @@
   <conditionalFormatting sqref="AH3:AH25 AH27:AH40">
     <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4940,9 +5110,9 @@
   <conditionalFormatting sqref="AE3:AE25 AE27:AE40">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4952,9 +5122,9 @@
   <conditionalFormatting sqref="AB3:AB25 AB27:AB40">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4964,9 +5134,9 @@
   <conditionalFormatting sqref="Y3:Y25 Y27:Y40">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4976,9 +5146,9 @@
   <conditionalFormatting sqref="M3:M25 M27:M40">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4988,9 +5158,9 @@
   <conditionalFormatting sqref="V3:V25 V27:V40">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5000,9 +5170,9 @@
   <conditionalFormatting sqref="S3:S25">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5012,9 +5182,9 @@
   <conditionalFormatting sqref="S26:S40">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5024,9 +5194,9 @@
   <conditionalFormatting sqref="P26:P40">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5036,9 +5206,9 @@
   <conditionalFormatting sqref="J26:J40">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5048,9 +5218,9 @@
   <conditionalFormatting sqref="G26:G40">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5060,9 +5230,9 @@
   <conditionalFormatting sqref="D26:D40">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5072,9 +5242,9 @@
   <conditionalFormatting sqref="AH26:AH40">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5084,9 +5254,9 @@
   <conditionalFormatting sqref="AE26:AE40">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5096,9 +5266,9 @@
   <conditionalFormatting sqref="AB26:AB40">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5108,9 +5278,9 @@
   <conditionalFormatting sqref="Y26:Y40">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5120,9 +5290,9 @@
   <conditionalFormatting sqref="M26:M40">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5132,9 +5302,9 @@
   <conditionalFormatting sqref="V26:V40">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5144,9 +5314,9 @@
   <conditionalFormatting sqref="AH3:AH40">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5156,9 +5326,9 @@
   <conditionalFormatting sqref="AE3:AE40">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5168,9 +5338,9 @@
   <conditionalFormatting sqref="AB3:AB40">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5180,9 +5350,9 @@
   <conditionalFormatting sqref="Y3:Y40">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5192,9 +5362,9 @@
   <conditionalFormatting sqref="V3:V40">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5204,9 +5374,9 @@
   <conditionalFormatting sqref="S3:S40">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5216,9 +5386,9 @@
   <conditionalFormatting sqref="P3:P40">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5228,9 +5398,9 @@
   <conditionalFormatting sqref="M3:M40">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5240,9 +5410,9 @@
   <conditionalFormatting sqref="J3:J40">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5252,9 +5422,9 @@
   <conditionalFormatting sqref="G3:G40">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5264,9 +5434,9 @@
   <conditionalFormatting sqref="D3:D40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5279,14 +5449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
@@ -5307,7 +5477,7 @@
     <col min="22" max="22" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" s="36" t="s">
         <v>3</v>
       </c>
@@ -5356,7 +5526,7 @@
       <c r="AG1" s="37"/>
       <c r="AH1" s="37"/>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5424,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="17.25" customHeight="1">
+    <row r="3" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
@@ -5483,7 +5653,7 @@
         <v>0.40849999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -5542,7 +5712,7 @@
         <v>0.42475000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -5601,7 +5771,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -5660,7 +5830,7 @@
         <v>0.42574999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -5731,7 +5901,7 @@
         <v>0.28861666666666669</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -5802,7 +5972,7 @@
         <v>0.32611666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -5873,7 +6043,7 @@
         <v>0.30031666666666662</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -5944,7 +6114,7 @@
         <v>0.33934999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -5997,7 +6167,7 @@
         <v>0.26416666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -6050,7 +6220,7 @@
         <v>0.30256666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
@@ -6103,7 +6273,7 @@
         <v>0.28023333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -6156,7 +6326,7 @@
         <v>0.28770000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -6215,7 +6385,7 @@
         <v>0.40457500000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>43</v>
       </c>
@@ -6274,7 +6444,7 @@
         <v>0.44357500000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>44</v>
       </c>
@@ -6345,7 +6515,7 @@
         <v>0.24411666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>45</v>
       </c>
@@ -6416,7 +6586,7 @@
         <v>0.29361666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -6487,7 +6657,7 @@
         <v>0.21026666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -6558,7 +6728,7 @@
         <v>0.33863333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>61</v>
       </c>
@@ -6629,7 +6799,7 @@
         <v>0.26086666666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>62</v>
       </c>
@@ -6700,7 +6870,7 @@
         <v>0.24983333333333335</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>63</v>
       </c>
@@ -6771,7 +6941,7 @@
         <v>0.2364333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
@@ -6842,7 +7012,7 @@
         <v>0.36651666666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -6901,7 +7071,7 @@
         <v>0.36202499999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
@@ -6960,7 +7130,7 @@
         <v>0.38167500000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>75</v>
       </c>
@@ -7031,7 +7201,7 @@
         <v>0.3566833333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>80</v>
       </c>
@@ -7102,7 +7272,7 @@
         <v>0.31143333333333334</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>85</v>
       </c>
@@ -7161,7 +7331,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>81</v>
       </c>
@@ -7220,7 +7390,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>82</v>
       </c>
@@ -7273,7 +7443,7 @@
         <v>0.31570000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>83</v>
       </c>
@@ -7326,7 +7496,7 @@
         <v>0.29619999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>86</v>
       </c>
@@ -7385,7 +7555,7 @@
         <v>0.42807499999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>87</v>
       </c>
@@ -7444,7 +7614,7 @@
         <v>0.41767499999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>99</v>
       </c>
@@ -7515,26 +7685,402 @@
         <v>0.43949999999999995</v>
       </c>
     </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.39340000000000003</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.4955</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.2021</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.57150000000000001</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.2412</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0.3876</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0.54679999999999995</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0.29998999999999998</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="S36" s="9">
+        <v>0.39789999999999998</v>
+      </c>
+      <c r="T36" s="7">
+        <f t="shared" ref="T36" si="7">AVERAGE(B36,E36,H36,K36,N36,Q36)</f>
+        <v>0.277115</v>
+      </c>
+      <c r="U36" s="8">
+        <f t="shared" ref="U36" si="8">AVERAGE(C36,F36,I36,L36,O36,R36)</f>
+        <v>0.53256666666666674</v>
+      </c>
+      <c r="V36" s="9">
+        <f t="shared" ref="V36" si="9">AVERAGE(D36,G36,J36,M36,P36,S36)</f>
+        <v>0.4020333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.4073</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.59370000000000001</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="H37" s="7">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="I37" s="8">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="J37" s="9">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0.4239</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0.3997</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0.1658</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0.24079999999999999</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0.56730000000000003</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="T37" s="7">
+        <f t="shared" ref="T37" si="10">AVERAGE(B37,E37,H37,K37,N37,Q37)</f>
+        <v>0.29154999999999998</v>
+      </c>
+      <c r="U37" s="8">
+        <f t="shared" ref="U37" si="11">AVERAGE(C37,F37,I37,L37,O37,R37)</f>
+        <v>0.38694999999999996</v>
+      </c>
+      <c r="V37" s="9">
+        <f t="shared" ref="V37" si="12">AVERAGE(D37,G37,J37,M37,P37,S37)</f>
+        <v>0.31708333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.49180000000000001</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.58640000000000003</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.57479999999999998</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.40389999999999998</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0.47439999999999999</v>
+      </c>
+      <c r="H38" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0.999</v>
+      </c>
+      <c r="J38" s="9">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0.42170000000000002</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="O38" s="8">
+        <v>0.3327</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0.189</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0.55459999999999998</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0.39439999999999997</v>
+      </c>
+      <c r="T38" s="7">
+        <f t="shared" ref="T38:T39" si="13">AVERAGE(B38,E38,H38,K38,N38,Q38)</f>
+        <v>0.30543333333333339</v>
+      </c>
+      <c r="U38" s="8">
+        <f t="shared" ref="U38:U39" si="14">AVERAGE(C38,F38,I38,L38,O38,R38)</f>
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="V38" s="9">
+        <f t="shared" ref="V38:V39" si="15">AVERAGE(D38,G38,J38,M38,P38,S38)</f>
+        <v>0.35005000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.3049</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.58640000000000003</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.4012</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.46879999999999999</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="J39" s="9">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.2414</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0.38829999999999998</v>
+      </c>
+      <c r="N39" s="7">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="O39" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="P39" s="9">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0.52539999999999998</v>
+      </c>
+      <c r="S39" s="9">
+        <v>0.3448</v>
+      </c>
+      <c r="T39" s="7">
+        <f t="shared" si="13"/>
+        <v>0.23321666666666666</v>
+      </c>
+      <c r="U39" s="8">
+        <f t="shared" si="14"/>
+        <v>0.43710000000000004</v>
+      </c>
+      <c r="V39" s="9">
+        <f t="shared" si="15"/>
+        <v>0.28153333333333336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="9"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="9"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="9"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7544,9 +8090,9 @@
   <conditionalFormatting sqref="G3:G10">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7556,9 +8102,9 @@
   <conditionalFormatting sqref="J3:J10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7568,9 +8114,9 @@
   <conditionalFormatting sqref="M3:M10">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7580,9 +8126,9 @@
   <conditionalFormatting sqref="P7:P10">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7592,57 +8138,57 @@
   <conditionalFormatting sqref="S7:S10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V35">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V43">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D35">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D43">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G35">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G43">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J35">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J43">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7652,9 +8198,9 @@
   <conditionalFormatting sqref="M3:M15">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7664,9 +8210,9 @@
   <conditionalFormatting sqref="M3:M16">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7676,9 +8222,9 @@
   <conditionalFormatting sqref="M3:M18">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7688,9 +8234,9 @@
   <conditionalFormatting sqref="P7:P18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7700,9 +8246,9 @@
   <conditionalFormatting sqref="S7:S18">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7712,9 +8258,9 @@
   <conditionalFormatting sqref="M4:M21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7724,9 +8270,9 @@
   <conditionalFormatting sqref="P4:P21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7736,45 +8282,45 @@
   <conditionalFormatting sqref="S4:S21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M35">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M43">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P35">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P43">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S35">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7787,14 +8333,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -7811,7 +8357,7 @@
     <col min="13" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="36" t="s">
         <v>5</v>
       </c>
@@ -7837,7 +8383,7 @@
       </c>
       <c r="M1" s="35"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>48</v>
       </c>
@@ -7875,7 +8421,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>46</v>
       </c>
@@ -7923,7 +8469,7 @@
         <v>1.0845751025000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>47</v>
       </c>
@@ -7971,7 +8517,7 @@
         <v>1.3607243325</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>50</v>
       </c>
@@ -8019,7 +8565,7 @@
         <v>1.1540821750000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>51</v>
       </c>
@@ -8067,7 +8613,7 @@
         <v>1.4101859700000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>96</v>
       </c>
@@ -8095,7 +8641,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>98</v>
       </c>
@@ -8109,7 +8655,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>68</v>
       </c>
@@ -8150,7 +8696,7 @@
         <v>0.942025</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>71</v>
       </c>
@@ -8187,7 +8733,7 @@
         <v>0.93303333333333338</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>78</v>
       </c>
@@ -8218,7 +8764,7 @@
         <v>0.73710000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>79</v>
       </c>
@@ -8249,7 +8795,7 @@
         <v>0.73635000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>101</v>
       </c>
@@ -8292,13 +8838,13 @@
         <v>1.1484999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
@@ -8313,9 +8859,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8325,9 +8871,9 @@
   <conditionalFormatting sqref="L3:L13">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8337,9 +8883,9 @@
   <conditionalFormatting sqref="B3:B6 B9">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8349,9 +8895,9 @@
   <conditionalFormatting sqref="D3:D6 D9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8361,9 +8907,9 @@
   <conditionalFormatting sqref="F3:F6 F9">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8373,9 +8919,9 @@
   <conditionalFormatting sqref="H3:H7 H9">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8385,9 +8931,9 @@
   <conditionalFormatting sqref="J3:J7 J9">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8397,9 +8943,9 @@
   <conditionalFormatting sqref="C3:C6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8409,9 +8955,9 @@
   <conditionalFormatting sqref="E3:E6">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8421,9 +8967,9 @@
   <conditionalFormatting sqref="G3:G7">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8433,9 +8979,9 @@
   <conditionalFormatting sqref="I3:I6">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8445,9 +8991,9 @@
   <conditionalFormatting sqref="K3:K6">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8457,9 +9003,9 @@
   <conditionalFormatting sqref="B3:B13">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8469,9 +9015,9 @@
   <conditionalFormatting sqref="C3:C13">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8481,9 +9027,9 @@
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8493,9 +9039,9 @@
   <conditionalFormatting sqref="E3:E13">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8505,9 +9051,9 @@
   <conditionalFormatting sqref="F3:F13">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8517,9 +9063,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8529,9 +9075,9 @@
   <conditionalFormatting sqref="H3:H13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8541,9 +9087,9 @@
   <conditionalFormatting sqref="I3:I13">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8553,9 +9099,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8565,9 +9111,9 @@
   <conditionalFormatting sqref="K3:K13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8580,14 +9126,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -8604,7 +9150,7 @@
     <col min="13" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="36" t="s">
         <v>5</v>
       </c>
@@ -8630,7 +9176,7 @@
       </c>
       <c r="M1" s="35"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
         <v>48</v>
       </c>
@@ -8668,7 +9214,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>101</v>
       </c>
@@ -8711,30 +9257,30 @@
         <v>0.65325</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="M3">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8744,9 +9290,9 @@
   <conditionalFormatting sqref="L3">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8756,9 +9302,9 @@
   <conditionalFormatting sqref="B3">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8768,9 +9314,9 @@
   <conditionalFormatting sqref="C3">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8780,9 +9326,9 @@
   <conditionalFormatting sqref="D3">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8792,9 +9338,9 @@
   <conditionalFormatting sqref="E3">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8804,9 +9350,9 @@
   <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8816,9 +9362,9 @@
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8828,9 +9374,9 @@
   <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8840,9 +9386,9 @@
   <conditionalFormatting sqref="I3">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8852,9 +9398,9 @@
   <conditionalFormatting sqref="J3">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8864,9 +9410,9 @@
   <conditionalFormatting sqref="K3">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -8879,14 +9425,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="31" width="4.5703125" bestFit="1" customWidth="1"/>
@@ -8895,7 +9441,7 @@
     <col min="38" max="40" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
@@ -8962,7 +9508,7 @@
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9084,7 +9630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>92</v>
       </c>
@@ -9209,7 +9755,7 @@
         <v>0.45634545454545455</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
@@ -9334,7 +9880,7 @@
         <v>0.49341818181818181</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>94</v>
       </c>
@@ -9459,7 +10005,7 @@
         <v>0.4236454545454546</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>95</v>
       </c>
@@ -9584,7 +10130,7 @@
         <v>0.51095454545454555</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -9626,7 +10172,7 @@
       <c r="AM7" s="11"/>
       <c r="AN7" s="12"/>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -9668,7 +10214,7 @@
       <c r="AM8" s="11"/>
       <c r="AN8" s="12"/>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -9729,9 +10275,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="63">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9741,9 +10287,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9753,9 +10299,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9765,9 +10311,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="60">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9777,9 +10323,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9789,9 +10335,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="58">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9801,9 +10347,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9813,9 +10359,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9825,9 +10371,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9837,9 +10383,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9849,9 +10395,9 @@
   <conditionalFormatting sqref="AK3:AK9">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9861,9 +10407,9 @@
   <conditionalFormatting sqref="AN3:AN9">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9873,9 +10419,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9885,9 +10431,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9897,9 +10443,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9909,9 +10455,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9921,9 +10467,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9933,9 +10479,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9945,9 +10491,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9957,9 +10503,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9969,9 +10515,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9981,9 +10527,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9993,9 +10539,9 @@
   <conditionalFormatting sqref="AK3:AK9">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10005,9 +10551,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10017,9 +10563,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10029,9 +10575,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10041,9 +10587,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10053,9 +10599,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10065,9 +10611,9 @@
   <conditionalFormatting sqref="AE4:AE9">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10077,9 +10623,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10089,9 +10635,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10101,9 +10647,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10113,9 +10659,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10125,9 +10671,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10137,9 +10683,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10149,9 +10695,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10161,9 +10707,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10173,9 +10719,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10185,9 +10731,9 @@
   <conditionalFormatting sqref="AK3:AK9">
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10197,9 +10743,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10209,9 +10755,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10221,9 +10767,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10233,9 +10779,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10245,9 +10791,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10257,9 +10803,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10269,9 +10815,9 @@
   <conditionalFormatting sqref="AK3:AK9">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10281,9 +10827,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10293,9 +10839,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10305,9 +10851,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10317,9 +10863,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10329,9 +10875,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10341,9 +10887,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10353,9 +10899,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10365,9 +10911,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10377,9 +10923,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10389,9 +10935,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10401,9 +10947,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10413,9 +10959,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10425,9 +10971,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10437,9 +10983,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10449,9 +10995,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10461,9 +11007,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10473,9 +11019,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>

--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="BP4D" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="115">
   <si>
     <t>DEVEL</t>
   </si>
@@ -317,9 +317,6 @@
     <t>Combined SVM</t>
   </si>
   <si>
-    <t>Best actual (v2)</t>
-  </si>
-  <si>
     <t>Results submitted v2</t>
   </si>
   <si>
@@ -336,6 +333,36 @@
   </si>
   <si>
     <t>Pure geom stat (actual locs)</t>
+  </si>
+  <si>
+    <t>Loc geom static</t>
+  </si>
+  <si>
+    <t>Loc geom dynamic</t>
+  </si>
+  <si>
+    <t>App, geom old undersampling, validated, dynamic</t>
+  </si>
+  <si>
+    <t>App, geom old undersampling, validated, static</t>
+  </si>
+  <si>
+    <t>BP4D SVM static undersampling</t>
+  </si>
+  <si>
+    <t>App, geom old oversampling, validated, dynamic</t>
+  </si>
+  <si>
+    <t>BP4D SVM static oversampling</t>
+  </si>
+  <si>
+    <t>App, geom, SMOTE</t>
+  </si>
+  <si>
+    <t>Best actual (v2) combined, dynamic, static best ones</t>
+  </si>
+  <si>
+    <t>BP4D SVM SMOTE</t>
   </si>
 </sst>
 </file>
@@ -848,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK40"/>
+  <dimension ref="A1:AK47"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4054,7 +4081,7 @@
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="7">
         <v>0.34799999999999998</v>
@@ -4170,7 +4197,7 @@
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="7">
         <v>0.2984</v>
@@ -4286,7 +4313,7 @@
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="7">
         <v>0.4365</v>
@@ -4388,169 +4415,825 @@
         <v>0.30759999999999998</v>
       </c>
       <c r="AI36" s="10">
-        <f t="shared" ref="AI36" si="15">AVERAGE(B36,E36,H36,K36,N36,Q36,T36,W36,Z36,AC36,AF36)</f>
+        <f t="shared" ref="AI36:AI41" si="15">AVERAGE(B36,E36,H36,K36,N36,Q36,T36,W36,Z36,AC36,AF36)</f>
         <v>0.46621818181818181</v>
       </c>
       <c r="AJ36" s="11">
-        <f t="shared" ref="AJ36" si="16">AVERAGE(C36,F36,I36,L36,O36,R36,U36,X36,AA36,AD36,AG36)</f>
+        <f t="shared" ref="AJ36:AJ41" si="16">AVERAGE(C36,F36,I36,L36,O36,R36,U36,X36,AA36,AD36,AG36)</f>
         <v>0.7092090909090909</v>
       </c>
       <c r="AK36" s="12">
-        <f t="shared" ref="AK36" si="17">AVERAGE(D36,G36,J36,M36,P36,S36,V36,Y36,AB36,AE36,AH36)</f>
+        <f t="shared" ref="AK36:AK41" si="17">AVERAGE(D36,G36,J36,M36,P36,S36,V36,Y36,AB36,AE36,AH36)</f>
         <v>0.55127272727272725</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="8"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="8"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="10"/>
-      <c r="AJ37" s="11"/>
-      <c r="AK37" s="12"/>
+      <c r="A37" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.33360000000000001</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.55010000000000003</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.41539999999999999</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.317</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.41349999999999998</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.34449999999999997</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0.58509999999999995</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0.43369999999999997</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="M37" s="8">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0.65369999999999995</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="P37" s="8">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0.70989999999999998</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="S37" s="8">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="T37" s="7">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="U37" s="8">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="V37" s="8">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="W37" s="7">
+        <v>0.45810000000000001</v>
+      </c>
+      <c r="X37" s="8">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="Y37" s="8">
+        <v>0.59570000000000001</v>
+      </c>
+      <c r="Z37" s="7">
+        <v>0.18840000000000001</v>
+      </c>
+      <c r="AA37" s="8">
+        <v>0.3115</v>
+      </c>
+      <c r="AB37" s="8">
+        <v>0.23480000000000001</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>0.43519999999999998</v>
+      </c>
+      <c r="AD37" s="8">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="AE37" s="8">
+        <v>0.58689999999999998</v>
+      </c>
+      <c r="AF37" s="7">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="AG37" s="8">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="AH37" s="9">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="AI37" s="10">
+        <f t="shared" si="15"/>
+        <v>0.45541818181818178</v>
+      </c>
+      <c r="AJ37" s="11">
+        <f t="shared" si="16"/>
+        <v>0.7648454545454545</v>
+      </c>
+      <c r="AK37" s="12">
+        <f t="shared" si="17"/>
+        <v>0.55403636363636355</v>
+      </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="7"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="7"/>
-      <c r="AG38" s="8"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="11"/>
-      <c r="AK38" s="12"/>
+      <c r="A38" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.32329999999999998</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.59930000000000005</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.20349999999999999</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0.3044</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.32650000000000001</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0.41820000000000002</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.68879999999999997</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="M38" s="8">
+        <v>0.74650000000000005</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0.69320000000000004</v>
+      </c>
+      <c r="O38" s="8">
+        <v>0.87760000000000005</v>
+      </c>
+      <c r="P38" s="8">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0.89970000000000006</v>
+      </c>
+      <c r="S38" s="8">
+        <v>0.81659999999999999</v>
+      </c>
+      <c r="T38" s="7">
+        <v>0.74860000000000004</v>
+      </c>
+      <c r="U38" s="8">
+        <v>0.8921</v>
+      </c>
+      <c r="V38" s="8">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="W38" s="7">
+        <v>0.439</v>
+      </c>
+      <c r="X38" s="8">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="Y38" s="8">
+        <v>0.59870000000000001</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>0.159</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>0.4083</v>
+      </c>
+      <c r="AB38" s="8">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>0.44729999999999998</v>
+      </c>
+      <c r="AD38" s="8">
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="AE38" s="8">
+        <v>0.57850000000000001</v>
+      </c>
+      <c r="AF38" s="7">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="AG38" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="AH38" s="9">
+        <v>0.2878</v>
+      </c>
+      <c r="AI38" s="10">
+        <f t="shared" si="15"/>
+        <v>0.45370000000000005</v>
+      </c>
+      <c r="AJ38" s="11">
+        <f t="shared" si="16"/>
+        <v>0.71604545454545465</v>
+      </c>
+      <c r="AK38" s="12">
+        <f t="shared" si="17"/>
+        <v>0.54439090909090904</v>
+      </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="7"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="8"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="10"/>
-      <c r="AJ39" s="11"/>
-      <c r="AK39" s="12"/>
+      <c r="A39" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.40389999999999998</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.4224</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.2913</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.34939999999999999</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.34720000000000001</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0.43730000000000002</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0.7671</v>
+      </c>
+      <c r="M39" s="8">
+        <v>0.754</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="P39" s="8">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0.8619</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="S39" s="8">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="T39" s="7">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="U39" s="8">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="V39" s="8">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="W39" s="7">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="X39" s="8">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="Y39" s="8">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>0.39329999999999998</v>
+      </c>
+      <c r="AA39" s="8">
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="AB39" s="8">
+        <v>0.45679999999999998</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>0.5262</v>
+      </c>
+      <c r="AD39" s="8">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="AE39" s="8">
+        <v>0.62050000000000005</v>
+      </c>
+      <c r="AF39" s="7">
+        <v>0.35039999999999999</v>
+      </c>
+      <c r="AG39" s="8">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="AH39" s="9">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="AI39" s="10">
+        <f t="shared" si="15"/>
+        <v>0.5592818181818181</v>
+      </c>
+      <c r="AJ39" s="11">
+        <f t="shared" si="16"/>
+        <v>0.66700909090909088</v>
+      </c>
+      <c r="AK39" s="12">
+        <f t="shared" si="17"/>
+        <v>0.60190909090909095</v>
+      </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="7"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="8"/>
-      <c r="AH40" s="9"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="11"/>
-      <c r="AK40" s="12"/>
+      <c r="A40" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.49340000000000001</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.42030000000000001</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.2913</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0.34939999999999999</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.38069999999999998</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0.51790000000000003</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0.43880000000000002</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.7409</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="P40" s="8">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0.8619</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="S40" s="8">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="T40" s="7">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="U40" s="8">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="V40" s="8">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="W40" s="7">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="X40" s="8">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="Y40" s="8">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>0.31309999999999999</v>
+      </c>
+      <c r="AA40" s="8">
+        <v>0.70369999999999999</v>
+      </c>
+      <c r="AB40" s="8">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="AD40" s="8">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="AE40" s="8">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="AF40" s="7">
+        <v>0.33879999999999999</v>
+      </c>
+      <c r="AG40" s="8">
+        <v>0.66520000000000001</v>
+      </c>
+      <c r="AH40" s="9">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="AI40" s="10">
+        <f t="shared" si="15"/>
+        <v>0.55032727272727278</v>
+      </c>
+      <c r="AJ40" s="11">
+        <f t="shared" si="16"/>
+        <v>0.68514545454545472</v>
+      </c>
+      <c r="AK40" s="12">
+        <f t="shared" si="17"/>
+        <v>0.60019999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.37190000000000001</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.49280000000000002</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.4239</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.44230000000000003</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0.441</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0.7671</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0.754</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="P41" s="8">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0.8619</v>
+      </c>
+      <c r="R41" s="8">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="S41" s="8">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="T41" s="7">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="U41" s="8">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="V41" s="8">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="W41" s="7">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="X41" s="8">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="Y41" s="8">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>0.31590000000000001</v>
+      </c>
+      <c r="AA41" s="8">
+        <v>0.71160000000000001</v>
+      </c>
+      <c r="AB41" s="8">
+        <v>0.43759999999999999</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>0.5282</v>
+      </c>
+      <c r="AD41" s="8">
+        <v>0.76029999999999998</v>
+      </c>
+      <c r="AE41" s="8">
+        <v>0.62339999999999995</v>
+      </c>
+      <c r="AF41" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="AG41" s="8">
+        <v>0.64080000000000004</v>
+      </c>
+      <c r="AH41" s="9">
+        <v>0.43559999999999999</v>
+      </c>
+      <c r="AI41" s="10">
+        <f t="shared" si="15"/>
+        <v>0.54996363636363632</v>
+      </c>
+      <c r="AJ41" s="11">
+        <f t="shared" si="16"/>
+        <v>0.68601818181818186</v>
+      </c>
+      <c r="AK41" s="12">
+        <f t="shared" si="17"/>
+        <v>0.60027272727272729</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="12"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="9"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="12"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="9"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="12"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="12"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="12"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4699,7 +5382,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK3:AK40">
+  <conditionalFormatting sqref="AK3:AK47">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -5047,7 +5730,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P25 P27:P40">
+  <conditionalFormatting sqref="P3:P25 P27:P47">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -5059,7 +5742,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J25 X29:X40 J27:J40">
+  <conditionalFormatting sqref="J3:J25 X29:X47 J27:J47">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -5071,7 +5754,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G25 G27:G40">
+  <conditionalFormatting sqref="G3:G25 G27:G47">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -5083,7 +5766,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D25 D27:D40">
+  <conditionalFormatting sqref="D3:D25 D27:D47">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -5095,7 +5778,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH25 AH27:AH40">
+  <conditionalFormatting sqref="AH3:AH25 AH27:AH47">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -5107,7 +5790,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE25 AE27:AE40">
+  <conditionalFormatting sqref="AE3:AE25 AE27:AE47">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -5119,7 +5802,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB25 AB27:AB40">
+  <conditionalFormatting sqref="AB3:AB25 AB27:AB47">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -5131,7 +5814,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y25 Y27:Y40">
+  <conditionalFormatting sqref="Y3:Y25 Y27:Y47">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -5143,7 +5826,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M25 M27:M40">
+  <conditionalFormatting sqref="M3:M25 M27:M47">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -5155,7 +5838,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V25 V27:V40">
+  <conditionalFormatting sqref="V3:V25 V27:V47">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -5179,7 +5862,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S26:S40">
+  <conditionalFormatting sqref="S26:S47">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -5191,7 +5874,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P40">
+  <conditionalFormatting sqref="P26:P47">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -5203,7 +5886,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J40">
+  <conditionalFormatting sqref="J26:J47">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -5215,7 +5898,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G40">
+  <conditionalFormatting sqref="G26:G47">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5227,7 +5910,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D40">
+  <conditionalFormatting sqref="D26:D47">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5239,7 +5922,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH26:AH40">
+  <conditionalFormatting sqref="AH26:AH47">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5251,7 +5934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE26:AE40">
+  <conditionalFormatting sqref="AE26:AE47">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5263,7 +5946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB26:AB40">
+  <conditionalFormatting sqref="AB26:AB47">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5275,7 +5958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y26:Y40">
+  <conditionalFormatting sqref="Y26:Y47">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5287,7 +5970,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26:M40">
+  <conditionalFormatting sqref="M26:M47">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5299,7 +5982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V26:V40">
+  <conditionalFormatting sqref="V26:V47">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5311,7 +5994,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH40">
+  <conditionalFormatting sqref="AH3:AH47">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5323,7 +6006,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE40">
+  <conditionalFormatting sqref="AE3:AE47">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5335,7 +6018,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB40">
+  <conditionalFormatting sqref="AB3:AB47">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5347,7 +6030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y40">
+  <conditionalFormatting sqref="Y3:Y47">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5359,7 +6042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V40">
+  <conditionalFormatting sqref="V3:V47">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5371,7 +6054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S40">
+  <conditionalFormatting sqref="S3:S47">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5383,7 +6066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P40">
+  <conditionalFormatting sqref="P3:P47">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5395,7 +6078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M40">
+  <conditionalFormatting sqref="M3:M47">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5407,7 +6090,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J40">
+  <conditionalFormatting sqref="J3:J47">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5419,7 +6102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G40">
+  <conditionalFormatting sqref="G3:G47">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5431,7 +6114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D40">
+  <conditionalFormatting sqref="D3:D47">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5450,10 +6133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7616,7 +8299,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B35" s="7">
         <v>0.63500000000000001</v>
@@ -7687,7 +8370,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="7">
         <v>0.39340000000000003</v>
@@ -7758,7 +8441,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" s="7">
         <v>0.30640000000000001</v>
@@ -7829,7 +8512,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="7">
         <v>0.49180000000000001</v>
@@ -7886,21 +8569,21 @@
         <v>0.39439999999999997</v>
       </c>
       <c r="T38" s="7">
-        <f t="shared" ref="T38:T39" si="13">AVERAGE(B38,E38,H38,K38,N38,Q38)</f>
+        <f t="shared" ref="T38:T43" si="13">AVERAGE(B38,E38,H38,K38,N38,Q38)</f>
         <v>0.30543333333333339</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" ref="U38:U39" si="14">AVERAGE(C38,F38,I38,L38,O38,R38)</f>
+        <f t="shared" ref="U38:U43" si="14">AVERAGE(C38,F38,I38,L38,O38,R38)</f>
         <v>0.61699999999999999</v>
       </c>
       <c r="V38" s="9">
-        <f t="shared" ref="V38:V39" si="15">AVERAGE(D38,G38,J38,M38,P38,S38)</f>
+        <f t="shared" ref="V38:V43" si="15">AVERAGE(D38,G38,J38,M38,P38,S38)</f>
         <v>0.35005000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" s="7">
         <v>0.3049</v>
@@ -7970,110 +8653,486 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="9"/>
+      <c r="A40" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.5393</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0.60229999999999995</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.4617</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0.40289999999999998</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0.43030000000000002</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.42370000000000002</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0.52059999999999995</v>
+      </c>
+      <c r="M40" s="9">
+        <v>0.4672</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="P40" s="9">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0.33550000000000002</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="S40" s="9">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="T40" s="7">
+        <f t="shared" si="13"/>
+        <v>0.48383333333333339</v>
+      </c>
+      <c r="U40" s="8">
+        <f t="shared" si="14"/>
+        <v>0.49814999999999993</v>
+      </c>
+      <c r="V40" s="9">
+        <f t="shared" si="15"/>
+        <v>0.4820166666666667</v>
+      </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="9"/>
+      <c r="A41" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.28489999999999999</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.36559999999999998</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.51529999999999998</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.16450000000000001</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0.1056</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0.376</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0.59619999999999995</v>
+      </c>
+      <c r="M41" s="9">
+        <v>0.4612</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0.29070000000000001</v>
+      </c>
+      <c r="P41" s="9">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0.2389</v>
+      </c>
+      <c r="R41" s="8">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="S41" s="9">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="T41" s="7">
+        <f t="shared" si="13"/>
+        <v>0.34043333333333337</v>
+      </c>
+      <c r="U41" s="8">
+        <f t="shared" si="14"/>
+        <v>0.47388333333333338</v>
+      </c>
+      <c r="V41" s="9">
+        <f t="shared" si="15"/>
+        <v>0.37363333333333332</v>
+      </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="9"/>
+      <c r="A42" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.49840000000000001</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.58779999999999999</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0.62260000000000004</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.46760000000000002</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0.40489999999999998</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0.434</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.42380000000000001</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0.5222</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0.46789999999999998</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0.47360000000000002</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0.32919999999999999</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0.38840000000000002</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0.31069999999999998</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="S42" s="9">
+        <v>0.42070000000000002</v>
+      </c>
+      <c r="T42" s="7">
+        <f t="shared" si="13"/>
+        <v>0.46031666666666665</v>
+      </c>
+      <c r="U42" s="8">
+        <f t="shared" si="14"/>
+        <v>0.52988333333333337</v>
+      </c>
+      <c r="V42" s="9">
+        <f t="shared" si="15"/>
+        <v>0.47994999999999993</v>
+      </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="9"/>
+      <c r="A43" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.47760000000000002</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.67879999999999996</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.60189999999999999</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0.60440000000000005</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.4627</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0.42980000000000002</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0.4597</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0.4975</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0.4778</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0.35460000000000003</v>
+      </c>
+      <c r="P43" s="9">
+        <v>0.42059999999999997</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="R43" s="8">
+        <v>0.65280000000000005</v>
+      </c>
+      <c r="S43" s="9">
+        <v>0.42609999999999998</v>
+      </c>
+      <c r="T43" s="7">
+        <f t="shared" si="13"/>
+        <v>0.47329999999999989</v>
+      </c>
+      <c r="U43" s="8">
+        <f t="shared" si="14"/>
+        <v>0.53115000000000001</v>
+      </c>
+      <c r="V43" s="9">
+        <f t="shared" si="15"/>
+        <v>0.48656666666666665</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="9"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="9"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="9"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="9"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="9"/>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="9"/>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="9"/>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
     <cfRule type="colorScale" priority="21">
@@ -8147,7 +9206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V43">
+  <conditionalFormatting sqref="V3:V51">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -8159,7 +9218,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D43">
+  <conditionalFormatting sqref="D3:D51">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -8171,7 +9230,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G43">
+  <conditionalFormatting sqref="G3:G51">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -8183,7 +9242,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J43">
+  <conditionalFormatting sqref="J3:J51">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -8291,7 +9350,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M43">
+  <conditionalFormatting sqref="M3:M51">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8303,7 +9362,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P43">
+  <conditionalFormatting sqref="P3:P51">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8315,7 +9374,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S43">
+  <conditionalFormatting sqref="S3:S51">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8797,7 +9856,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="30">
         <v>0.76100000000000001</v>
@@ -9216,7 +10275,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="30">
         <v>0.65</v>

--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800"/>
@@ -11,14 +11,14 @@
     <sheet name="SEMAINE" sheetId="2" r:id="rId2"/>
     <sheet name="BP4D_intensity" sheetId="3" r:id="rId3"/>
     <sheet name="BP4D_int_seg" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="DISFA" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="128">
   <si>
     <t>DEVEL</t>
   </si>
@@ -218,9 +218,6 @@
     <t>BP4D MLP scale</t>
   </si>
   <si>
-    <t>AU28 *might need sep model</t>
-  </si>
-  <si>
     <t>BP4D MLP dynamic</t>
   </si>
   <si>
@@ -363,13 +360,55 @@
   </si>
   <si>
     <t>BP4D SVM SMOTE</t>
+  </si>
+  <si>
+    <t>App, geom, different weights (scikit learn)</t>
+  </si>
+  <si>
+    <t>BP4D weights</t>
+  </si>
+  <si>
+    <t>App geom, ensemble dynamic</t>
+  </si>
+  <si>
+    <t>App, geom old undersampling, 1-1 dynamic</t>
+  </si>
+  <si>
+    <t>App, geom old undersampling, 1-1 static</t>
+  </si>
+  <si>
+    <t>DISFA SVM sampled stat</t>
+  </si>
+  <si>
+    <t>DISFA SVM sampled dyn</t>
+  </si>
+  <si>
+    <t>BP4D SVM sampled dyn</t>
+  </si>
+  <si>
+    <t>BP4D SVM sampled stat</t>
+  </si>
+  <si>
+    <t>Combined SVM sampled stat</t>
+  </si>
+  <si>
+    <t>Combined SVM sampled dyn v sem</t>
+  </si>
+  <si>
+    <t>AU28</t>
+  </si>
+  <si>
+    <t>BP4D SVM static, caelum 101</t>
+  </si>
+  <si>
+    <t>BP4D SVM dynamic, caelum 101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -507,12 +546,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -572,6 +622,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,7 +720,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -698,7 +754,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -874,20 +929,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="2" max="37" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37">
       <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
@@ -949,7 +1004,7 @@
       <c r="AJ1" s="34"/>
       <c r="AK1" s="35"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -1178,7 +1233,7 @@
         <v>0.26816666666666661</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1270,7 +1325,7 @@
         <v>0.25200000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -1362,7 +1417,7 @@
         <v>0.23471428571428571</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="16.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1454,7 +1509,7 @@
         <v>0.3408571428571428</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1546,7 +1601,7 @@
         <v>0.21928571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1662,7 +1717,7 @@
         <v>0.60526363636363623</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1778,7 +1833,7 @@
         <v>0.59264545454545459</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1894,7 +1949,7 @@
         <v>0.59812727272727273</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2010,7 +2065,7 @@
         <v>0.59751818181818195</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -2069,7 +2124,7 @@
       <c r="AJ12" s="11"/>
       <c r="AK12" s="12"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -2128,7 +2183,7 @@
       <c r="AJ13" s="11"/>
       <c r="AK13" s="12"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2187,7 +2242,7 @@
       <c r="AJ14" s="11"/>
       <c r="AK14" s="12"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -2246,7 +2301,7 @@
       <c r="AJ15" s="11"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -2329,7 +2384,7 @@
       <c r="AJ16" s="11"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37">
       <c r="A17" s="25" t="s">
         <v>43</v>
       </c>
@@ -2412,7 +2467,7 @@
       <c r="AJ17" s="11"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37">
       <c r="A18" s="25" t="s">
         <v>46</v>
       </c>
@@ -2483,7 +2538,7 @@
       <c r="AJ18" s="11"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37">
       <c r="A19" s="25" t="s">
         <v>47</v>
       </c>
@@ -2554,7 +2609,7 @@
       <c r="AJ19" s="11"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37">
       <c r="A20" s="25" t="s">
         <v>52</v>
       </c>
@@ -2670,7 +2725,7 @@
         <v>0.57558181818181819</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37">
       <c r="A21" s="25" t="s">
         <v>53</v>
       </c>
@@ -2786,7 +2841,7 @@
         <v>0.58974545454545457</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37">
       <c r="A22" s="25" t="s">
         <v>54</v>
       </c>
@@ -2902,7 +2957,7 @@
         <v>0.58663636363636362</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37">
       <c r="A23" s="25" t="s">
         <v>55</v>
       </c>
@@ -3018,7 +3073,7 @@
         <v>0.59650909090909088</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37">
       <c r="A24" s="25" t="s">
         <v>56</v>
       </c>
@@ -3134,7 +3189,7 @@
         <v>0.5917</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37">
       <c r="A25" s="25" t="s">
         <v>60</v>
       </c>
@@ -3250,7 +3305,7 @@
         <v>0.61232727272727272</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37">
       <c r="A26" s="25" t="s">
         <v>65</v>
       </c>
@@ -3366,9 +3421,9 @@
         <v>0.58963636363636374</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37">
       <c r="A27" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="7">
         <v>0.3306</v>
@@ -3482,9 +3537,9 @@
         <v>0.57887272727272732</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37">
       <c r="A28" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="7">
         <v>0.41089999999999999</v>
@@ -3598,9 +3653,9 @@
         <v>0.60222727272727272</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37">
       <c r="A29" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="7">
         <v>0.43840000000000001</v>
@@ -3681,9 +3736,9 @@
       <c r="AJ29" s="11"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37">
       <c r="A30" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="7">
         <v>0.3584</v>
@@ -3797,9 +3852,9 @@
         <v>0.60204545454545466</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37">
       <c r="A31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="7">
         <v>0.49170000000000003</v>
@@ -3880,9 +3935,9 @@
       <c r="AJ31" s="11"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37">
       <c r="A32" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="7">
         <v>0.36620000000000003</v>
@@ -3996,9 +4051,9 @@
         <v>0.58684545454545445</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37">
       <c r="A33" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="7">
         <v>0.34839999999999999</v>
@@ -4079,9 +4134,9 @@
       <c r="AJ33" s="11"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37">
       <c r="A34" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="7">
         <v>0.34799999999999998</v>
@@ -4195,9 +4250,9 @@
         <v>0.60236363636363643</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37">
       <c r="A35" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="7">
         <v>0.2984</v>
@@ -4311,9 +4366,9 @@
         <v>0.55642727272727277</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37">
       <c r="A36" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="7">
         <v>0.4365</v>
@@ -4427,9 +4482,9 @@
         <v>0.55127272727272725</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37">
       <c r="A37" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" s="7">
         <v>0.33360000000000001</v>
@@ -4543,9 +4598,9 @@
         <v>0.55403636363636355</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37">
       <c r="A38" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="7">
         <v>0.32329999999999998</v>
@@ -4659,9 +4714,9 @@
         <v>0.54439090909090904</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37">
       <c r="A39" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="7">
         <v>0.40389999999999998</v>
@@ -4775,9 +4830,9 @@
         <v>0.60190909090909095</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37">
       <c r="A40" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="7">
         <v>0.36620000000000003</v>
@@ -4891,9 +4946,9 @@
         <v>0.60019999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37">
       <c r="A41" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="7">
         <v>0.37190000000000001</v>
@@ -5007,45 +5062,126 @@
         <v>0.60027272727272729</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="7"/>
-      <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="8"/>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="11"/>
-      <c r="AK42" s="12"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37">
+      <c r="A42" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.4123</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.29270000000000002</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0.42320000000000002</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.34439999999999998</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0.43709999999999999</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.77010000000000001</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0.76780000000000004</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="P42" s="8">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0.78510000000000002</v>
+      </c>
+      <c r="S42" s="8">
+        <v>0.82879999999999998</v>
+      </c>
+      <c r="T42" s="7">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="U42" s="8">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="V42" s="8">
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="W42" s="7">
+        <v>0.6149</v>
+      </c>
+      <c r="X42" s="8">
+        <v>0.7258</v>
+      </c>
+      <c r="Y42" s="8">
+        <v>0.66579999999999995</v>
+      </c>
+      <c r="Z42" s="7">
+        <v>0.317</v>
+      </c>
+      <c r="AA42" s="8">
+        <v>0.69079999999999997</v>
+      </c>
+      <c r="AB42" s="8">
+        <v>0.43459999999999999</v>
+      </c>
+      <c r="AC42" s="7">
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="AD42" s="8">
+        <v>0.76060000000000005</v>
+      </c>
+      <c r="AE42" s="8">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="AF42" s="7">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AG42" s="8">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="AH42" s="9">
+        <v>0.43830000000000002</v>
+      </c>
+      <c r="AI42" s="10">
+        <f t="shared" ref="AI42" si="18">AVERAGE(B42,E42,H42,K42,N42,Q42,T42,W42,Z42,AC42,AF42)</f>
+        <v>0.55155454545454552</v>
+      </c>
+      <c r="AJ42" s="11">
+        <f t="shared" ref="AJ42" si="19">AVERAGE(C42,F42,I42,L42,O42,R42,U42,X42,AA42,AD42,AG42)</f>
+        <v>0.67960909090909094</v>
+      </c>
+      <c r="AK42" s="12">
+        <f t="shared" ref="AK42" si="20">AVERAGE(D42,G42,J42,M42,P42,S42,V42,Y42,AB42,AE42,AH42)</f>
+        <v>0.59669090909090905</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37">
+      <c r="A43" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -5083,7 +5219,10 @@
       <c r="AJ43" s="11"/>
       <c r="AK43" s="12"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37">
+      <c r="A44" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
@@ -5121,7 +5260,7 @@
       <c r="AJ44" s="11"/>
       <c r="AK44" s="12"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -5159,7 +5298,7 @@
       <c r="AJ45" s="11"/>
       <c r="AK45" s="12"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37">
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -5197,7 +5336,7 @@
       <c r="AJ46" s="11"/>
       <c r="AK46" s="12"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37">
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -5253,9 +5392,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="76">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5265,9 +5404,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="75">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5277,9 +5416,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="74">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5289,9 +5428,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="73">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5301,9 +5440,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="72">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5313,9 +5452,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="71">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5325,9 +5464,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="70">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5337,9 +5476,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="69">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5349,9 +5488,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="68">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5361,9 +5500,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="67">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5373,9 +5512,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="66">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5385,9 +5524,9 @@
   <conditionalFormatting sqref="AK3:AK47">
     <cfRule type="colorScale" priority="65">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5397,9 +5536,9 @@
   <conditionalFormatting sqref="D3:D17">
     <cfRule type="colorScale" priority="64">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5409,9 +5548,9 @@
   <conditionalFormatting sqref="G3:G11">
     <cfRule type="colorScale" priority="63">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5421,9 +5560,9 @@
   <conditionalFormatting sqref="J3:J11">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5433,9 +5572,9 @@
   <conditionalFormatting sqref="M3:M11">
     <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5445,9 +5584,9 @@
   <conditionalFormatting sqref="P3:P11">
     <cfRule type="colorScale" priority="60">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5457,9 +5596,9 @@
   <conditionalFormatting sqref="S3:S11">
     <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5469,9 +5608,9 @@
   <conditionalFormatting sqref="V3:V11">
     <cfRule type="colorScale" priority="58">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5481,9 +5620,9 @@
   <conditionalFormatting sqref="Y3:Y11">
     <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5493,9 +5632,9 @@
   <conditionalFormatting sqref="AB3:AB11">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5505,9 +5644,9 @@
   <conditionalFormatting sqref="AE3:AE11">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5517,9 +5656,9 @@
   <conditionalFormatting sqref="AH3:AH11">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5529,9 +5668,9 @@
   <conditionalFormatting sqref="G3:G21">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5541,9 +5680,9 @@
   <conditionalFormatting sqref="V3:V21">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5553,9 +5692,9 @@
   <conditionalFormatting sqref="AE3:AE19 AE21">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5565,9 +5704,9 @@
   <conditionalFormatting sqref="J3:J17">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5577,9 +5716,9 @@
   <conditionalFormatting sqref="M3:M17">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5589,9 +5728,9 @@
   <conditionalFormatting sqref="AB4:AB17">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5601,9 +5740,9 @@
   <conditionalFormatting sqref="S8:S18">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5613,9 +5752,9 @@
   <conditionalFormatting sqref="Y8:Y18">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5625,9 +5764,9 @@
   <conditionalFormatting sqref="Y8:Y19">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5637,9 +5776,9 @@
   <conditionalFormatting sqref="S8:S19">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5649,9 +5788,9 @@
   <conditionalFormatting sqref="M3:M19">
     <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5661,9 +5800,9 @@
   <conditionalFormatting sqref="M3:M20">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5673,9 +5812,9 @@
   <conditionalFormatting sqref="AH8:AH20">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5685,9 +5824,9 @@
   <conditionalFormatting sqref="AE3:AE21">
     <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5697,9 +5836,9 @@
   <conditionalFormatting sqref="AB3:AB20">
     <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5709,9 +5848,9 @@
   <conditionalFormatting sqref="Y8:Y20">
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5721,9 +5860,9 @@
   <conditionalFormatting sqref="S3:S24">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5733,9 +5872,9 @@
   <conditionalFormatting sqref="P3:P25 P27:P47">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5745,9 +5884,9 @@
   <conditionalFormatting sqref="J3:J25 X29:X47 J27:J47">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5757,9 +5896,9 @@
   <conditionalFormatting sqref="G3:G25 G27:G47">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5769,9 +5908,9 @@
   <conditionalFormatting sqref="D3:D25 D27:D47">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5781,9 +5920,9 @@
   <conditionalFormatting sqref="AH3:AH25 AH27:AH47">
     <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5793,9 +5932,9 @@
   <conditionalFormatting sqref="AE3:AE25 AE27:AE47">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5805,9 +5944,9 @@
   <conditionalFormatting sqref="AB3:AB25 AB27:AB47">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5817,9 +5956,9 @@
   <conditionalFormatting sqref="Y3:Y25 Y27:Y47">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5829,9 +5968,9 @@
   <conditionalFormatting sqref="M3:M25 M27:M47">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5841,9 +5980,9 @@
   <conditionalFormatting sqref="V3:V25 V27:V47">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5853,9 +5992,9 @@
   <conditionalFormatting sqref="S3:S25">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5865,9 +6004,9 @@
   <conditionalFormatting sqref="S26:S47">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5877,9 +6016,9 @@
   <conditionalFormatting sqref="P26:P47">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5889,9 +6028,9 @@
   <conditionalFormatting sqref="J26:J47">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5901,9 +6040,9 @@
   <conditionalFormatting sqref="G26:G47">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5913,9 +6052,9 @@
   <conditionalFormatting sqref="D26:D47">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5925,9 +6064,9 @@
   <conditionalFormatting sqref="AH26:AH47">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5937,9 +6076,9 @@
   <conditionalFormatting sqref="AE26:AE47">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5949,9 +6088,9 @@
   <conditionalFormatting sqref="AB26:AB47">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5961,9 +6100,9 @@
   <conditionalFormatting sqref="Y26:Y47">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5973,9 +6112,9 @@
   <conditionalFormatting sqref="M26:M47">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5985,9 +6124,9 @@
   <conditionalFormatting sqref="V26:V47">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5997,9 +6136,9 @@
   <conditionalFormatting sqref="AH3:AH47">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6009,9 +6148,9 @@
   <conditionalFormatting sqref="AE3:AE47">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6021,9 +6160,9 @@
   <conditionalFormatting sqref="AB3:AB47">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6033,9 +6172,9 @@
   <conditionalFormatting sqref="Y3:Y47">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6045,9 +6184,9 @@
   <conditionalFormatting sqref="V3:V47">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6057,9 +6196,9 @@
   <conditionalFormatting sqref="S3:S47">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6069,9 +6208,9 @@
   <conditionalFormatting sqref="P3:P47">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6081,9 +6220,9 @@
   <conditionalFormatting sqref="M3:M47">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6093,9 +6232,9 @@
   <conditionalFormatting sqref="J3:J47">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6105,9 +6244,9 @@
   <conditionalFormatting sqref="G3:G47">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6117,9 +6256,9 @@
   <conditionalFormatting sqref="D3:D47">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6132,14 +6271,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AH55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
@@ -6160,7 +6299,7 @@
     <col min="22" max="22" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="B1" s="36" t="s">
         <v>3</v>
       </c>
@@ -6182,7 +6321,7 @@
       <c r="L1" s="34"/>
       <c r="M1" s="35"/>
       <c r="N1" s="36" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="O1" s="34"/>
       <c r="P1" s="35"/>
@@ -6209,8 +6348,8 @@
       <c r="AG1" s="37"/>
       <c r="AH1" s="37"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:34">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6277,8 +6416,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:34" ht="17.25" customHeight="1">
+      <c r="A3" s="39" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="10">
@@ -6336,8 +6475,8 @@
         <v>0.40849999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:34">
+      <c r="A4" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="10">
@@ -6395,8 +6534,8 @@
         <v>0.42475000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:34" ht="15" customHeight="1">
+      <c r="A5" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="10">
@@ -6454,8 +6593,8 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:34" ht="15" customHeight="1">
+      <c r="A6" s="39" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="10">
@@ -6513,8 +6652,8 @@
         <v>0.42574999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:34">
+      <c r="A7" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="10">
@@ -6584,8 +6723,8 @@
         <v>0.28861666666666669</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:34">
+      <c r="A8" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="15">
@@ -6655,8 +6794,8 @@
         <v>0.32611666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:34">
+      <c r="A9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="7">
@@ -6726,8 +6865,8 @@
         <v>0.30031666666666662</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:34">
+      <c r="A10" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="7">
@@ -6797,8 +6936,8 @@
         <v>0.33934999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:34">
+      <c r="A11" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="7">
@@ -6850,8 +6989,8 @@
         <v>0.26416666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:34">
+      <c r="A12" s="39" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="7">
@@ -6903,8 +7042,8 @@
         <v>0.30256666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:34">
+      <c r="A13" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="7">
@@ -6956,8 +7095,8 @@
         <v>0.28023333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:34">
+      <c r="A14" s="39" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="7">
@@ -7009,8 +7148,8 @@
         <v>0.28770000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:34">
+      <c r="A15" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="7">
@@ -7068,8 +7207,8 @@
         <v>0.40457500000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:34">
+      <c r="A16" s="40" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="7">
@@ -7127,8 +7266,8 @@
         <v>0.44357500000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:22">
+      <c r="A17" s="40" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="7">
@@ -7198,8 +7337,8 @@
         <v>0.24411666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:22">
+      <c r="A18" s="40" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="7">
@@ -7269,8 +7408,8 @@
         <v>0.29361666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:22">
+      <c r="A19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="7">
@@ -7340,8 +7479,8 @@
         <v>0.21026666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:22">
+      <c r="A20" s="39" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="7">
@@ -7411,8 +7550,8 @@
         <v>0.33863333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:22">
+      <c r="A21" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="7">
@@ -7482,8 +7621,8 @@
         <v>0.26086666666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:22">
+      <c r="A22" s="39" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="7">
@@ -7553,8 +7692,8 @@
         <v>0.24983333333333335</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:22">
+      <c r="A23" s="39" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="7">
@@ -7624,8 +7763,8 @@
         <v>0.2364333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:22">
+      <c r="A24" s="39" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="7">
@@ -7695,9 +7834,9 @@
         <v>0.36651666666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>73</v>
+    <row r="25" spans="1:22">
+      <c r="A25" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="B25" s="7">
         <v>0.1444</v>
@@ -7754,9 +7893,9 @@
         <v>0.36202499999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>74</v>
+    <row r="26" spans="1:22">
+      <c r="A26" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="B26" s="7">
         <v>0.1961</v>
@@ -7813,9 +7952,9 @@
         <v>0.38167500000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>75</v>
+    <row r="27" spans="1:22">
+      <c r="A27" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="B27" s="7">
         <v>0.5837</v>
@@ -7884,9 +8023,9 @@
         <v>0.3566833333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>80</v>
+    <row r="28" spans="1:22">
+      <c r="A28" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="B28" s="7">
         <v>0.26919999999999999</v>
@@ -7955,9 +8094,9 @@
         <v>0.31143333333333334</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>85</v>
+    <row r="29" spans="1:22">
+      <c r="A29" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="B29" s="7">
         <v>0.21</v>
@@ -8014,9 +8153,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>81</v>
+    <row r="30" spans="1:22">
+      <c r="A30" s="40" t="s">
+        <v>80</v>
       </c>
       <c r="B30" s="7">
         <v>0.60299999999999998</v>
@@ -8073,9 +8212,9 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>82</v>
+    <row r="31" spans="1:22">
+      <c r="A31" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="B31" s="7">
         <v>0.26519999999999999</v>
@@ -8126,9 +8265,9 @@
         <v>0.31570000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>83</v>
+    <row r="32" spans="1:22">
+      <c r="A32" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="B32" s="7">
         <v>0.1608</v>
@@ -8179,9 +8318,9 @@
         <v>0.29619999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>86</v>
+    <row r="33" spans="1:22">
+      <c r="A33" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="B33" s="7">
         <v>0.30349999999999999</v>
@@ -8238,9 +8377,9 @@
         <v>0.42807499999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>87</v>
+    <row r="34" spans="1:22">
+      <c r="A34" s="40" t="s">
+        <v>86</v>
       </c>
       <c r="B34" s="7">
         <v>0.63</v>
@@ -8297,9 +8436,9 @@
         <v>0.41767499999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>113</v>
+    <row r="35" spans="1:22">
+      <c r="A35" s="40" t="s">
+        <v>112</v>
       </c>
       <c r="B35" s="7">
         <v>0.63500000000000001</v>
@@ -8368,9 +8507,9 @@
         <v>0.43949999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
-        <v>102</v>
+    <row r="36" spans="1:22">
+      <c r="A36" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="B36" s="7">
         <v>0.39340000000000003</v>
@@ -8439,9 +8578,9 @@
         <v>0.4020333333333333</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
-        <v>101</v>
+    <row r="37" spans="1:22">
+      <c r="A37" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="B37" s="7">
         <v>0.30640000000000001</v>
@@ -8510,9 +8649,9 @@
         <v>0.31708333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
-        <v>103</v>
+    <row r="38" spans="1:22">
+      <c r="A38" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="B38" s="7">
         <v>0.49180000000000001</v>
@@ -8581,9 +8720,9 @@
         <v>0.35005000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
-        <v>104</v>
+    <row r="39" spans="1:22">
+      <c r="A39" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="B39" s="7">
         <v>0.3049</v>
@@ -8652,9 +8791,9 @@
         <v>0.28153333333333336</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
-        <v>107</v>
+    <row r="40" spans="1:22">
+      <c r="A40" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="B40" s="7">
         <v>0.62919999999999998</v>
@@ -8723,9 +8862,9 @@
         <v>0.4820166666666667</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
-        <v>108</v>
+    <row r="41" spans="1:22">
+      <c r="A41" s="40" t="s">
+        <v>107</v>
       </c>
       <c r="B41" s="7">
         <v>0.28489999999999999</v>
@@ -8794,9 +8933,9 @@
         <v>0.37363333333333332</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>110</v>
+    <row r="42" spans="1:22">
+      <c r="A42" s="40" t="s">
+        <v>109</v>
       </c>
       <c r="B42" s="7">
         <v>0.49840000000000001</v>
@@ -8865,9 +9004,9 @@
         <v>0.47994999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>112</v>
+    <row r="43" spans="1:22">
+      <c r="A43" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="B43" s="7">
         <v>0.47760000000000002</v>
@@ -8936,99 +9075,294 @@
         <v>0.48656666666666665</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="9"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="9"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="9"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="9"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
+      <c r="A44" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.48120000000000002</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.65690000000000004</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.55179999999999996</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.5907</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.50370000000000004</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.37740000000000001</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0.43149999999999999</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0.43909999999999999</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0.51380000000000003</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0.47349999999999998</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0.52759999999999996</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0.3266</v>
+      </c>
+      <c r="P44" s="9">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0.313</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0.64029999999999998</v>
+      </c>
+      <c r="S44" s="9">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="T44" s="7">
+        <f t="shared" ref="T44:T47" si="16">AVERAGE(B44,E44,H44,K44,N44,Q44)</f>
+        <v>0.47588333333333338</v>
+      </c>
+      <c r="U44" s="8">
+        <f t="shared" ref="U44:U47" si="17">AVERAGE(C44,F44,I44,L44,O44,R44)</f>
+        <v>0.52179999999999993</v>
+      </c>
+      <c r="V44" s="9">
+        <f t="shared" ref="V44:V47" si="18">AVERAGE(D44,G44,J44,M44,P44,S44)</f>
+        <v>0.4806333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0.4773</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.6764</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0.55969999999999998</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.57750000000000001</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0.62870000000000004</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.4551</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0.44919999999999999</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0.495</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="O45" s="8">
+        <v>0.317</v>
+      </c>
+      <c r="P45" s="9">
+        <v>0.39629999999999999</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>0.31080000000000002</v>
+      </c>
+      <c r="R45" s="8">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="S45" s="9">
+        <v>0.4204</v>
+      </c>
+      <c r="T45" s="7">
+        <f t="shared" si="16"/>
+        <v>0.46639999999999998</v>
+      </c>
+      <c r="U45" s="8">
+        <f t="shared" si="17"/>
+        <v>0.52951666666666675</v>
+      </c>
+      <c r="V45" s="9">
+        <f t="shared" si="18"/>
+        <v>0.48016666666666663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0.55969999999999998</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0.60229999999999995</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.4627</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0.42980000000000002</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0.42409999999999998</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="M46" s="9">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0.46289999999999998</v>
+      </c>
+      <c r="O46" s="8">
+        <v>0.3327</v>
+      </c>
+      <c r="P46" s="9">
+        <v>0.38719999999999999</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0.30669999999999997</v>
+      </c>
+      <c r="R46" s="8">
+        <v>0.65539999999999998</v>
+      </c>
+      <c r="S46" s="9">
+        <v>0.4178</v>
+      </c>
+      <c r="T46" s="7">
+        <f t="shared" si="16"/>
+        <v>0.45353333333333329</v>
+      </c>
+      <c r="U46" s="8">
+        <f t="shared" si="17"/>
+        <v>0.53281666666666661</v>
+      </c>
+      <c r="V46" s="9">
+        <f t="shared" si="18"/>
+        <v>0.4773</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.21079999999999999</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.60509999999999997</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0.31269999999999998</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.4985</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0.68510000000000004</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0.57709999999999995</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.1978</v>
+      </c>
+      <c r="I47" s="8">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0.1328</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0.376</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0.5958</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0.46110000000000001</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="O47" s="8">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="P47" s="9">
+        <v>0.43380000000000002</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="R47" s="8">
+        <v>0.6956</v>
+      </c>
+      <c r="S47" s="9">
+        <v>0.35589999999999999</v>
+      </c>
+      <c r="T47" s="7">
+        <f t="shared" si="16"/>
+        <v>0.35278333333333339</v>
+      </c>
+      <c r="U47" s="8">
+        <f t="shared" si="17"/>
+        <v>0.50383333333333324</v>
+      </c>
+      <c r="V47" s="9">
+        <f t="shared" si="18"/>
+        <v>0.37890000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -9051,7 +9385,10 @@
       <c r="U48" s="8"/>
       <c r="V48" s="9"/>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
+      <c r="A49" s="40" t="s">
+        <v>120</v>
+      </c>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -9074,7 +9411,10 @@
       <c r="U49" s="8"/>
       <c r="V49" s="9"/>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
+      <c r="A50" s="40" t="s">
+        <v>121</v>
+      </c>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -9097,7 +9437,10 @@
       <c r="U50" s="8"/>
       <c r="V50" s="9"/>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
+      <c r="A51" s="40" t="s">
+        <v>122</v>
+      </c>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -9120,26 +9463,124 @@
       <c r="U51" s="8"/>
       <c r="V51" s="9"/>
     </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="9"/>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="9"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="9"/>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9149,9 +9590,9 @@
   <conditionalFormatting sqref="G3:G10">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9161,9 +9602,9 @@
   <conditionalFormatting sqref="J3:J10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9173,9 +9614,9 @@
   <conditionalFormatting sqref="M3:M10">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9185,9 +9626,9 @@
   <conditionalFormatting sqref="P7:P10">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9197,57 +9638,57 @@
   <conditionalFormatting sqref="S7:S10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V51">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V55">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D51">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D55">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G51">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G55">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J51">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J55">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9257,9 +9698,9 @@
   <conditionalFormatting sqref="M3:M15">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9269,9 +9710,9 @@
   <conditionalFormatting sqref="M3:M16">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9281,9 +9722,9 @@
   <conditionalFormatting sqref="M3:M18">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9293,9 +9734,9 @@
   <conditionalFormatting sqref="P7:P18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9305,9 +9746,9 @@
   <conditionalFormatting sqref="S7:S18">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9317,9 +9758,9 @@
   <conditionalFormatting sqref="M4:M21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9329,9 +9770,9 @@
   <conditionalFormatting sqref="P4:P21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9341,45 +9782,45 @@
   <conditionalFormatting sqref="S4:S21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M51">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M55">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P51">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P55">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S51">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S55">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9392,14 +9833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -9416,7 +9857,7 @@
     <col min="13" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="B1" s="36" t="s">
         <v>5</v>
       </c>
@@ -9442,12 +9883,12 @@
       </c>
       <c r="M1" s="35"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="B2" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>48</v>
@@ -9480,7 +9921,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="25" t="s">
         <v>46</v>
       </c>
@@ -9528,7 +9969,7 @@
         <v>1.0845751025000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="25" t="s">
         <v>47</v>
       </c>
@@ -9576,7 +10017,7 @@
         <v>1.3607243325</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="25" t="s">
         <v>50</v>
       </c>
@@ -9624,7 +10065,7 @@
         <v>1.1540821750000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="25" t="s">
         <v>51</v>
       </c>
@@ -9672,9 +10113,9 @@
         <v>1.4101859700000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="31">
         <v>0.76639999999999997</v>
@@ -9700,9 +10141,9 @@
       <c r="L7" s="7"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="31">
         <v>0.7651</v>
@@ -9714,9 +10155,9 @@
       <c r="L8" s="7"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="28">
         <v>0.76449999999999996</v>
@@ -9755,9 +10196,9 @@
         <v>0.942025</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>0.75980000000000003</v>
@@ -9792,9 +10233,9 @@
         <v>0.93303333333333338</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="30">
         <v>0.76670000000000005</v>
@@ -9823,9 +10264,9 @@
         <v>0.73710000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="30">
         <v>0.75880000000000003</v>
@@ -9854,9 +10295,9 @@
         <v>0.73635000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="30">
         <v>0.76100000000000001</v>
@@ -9897,13 +10338,13 @@
         <v>1.1484999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
@@ -9918,9 +10359,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -9930,9 +10371,9 @@
   <conditionalFormatting sqref="L3:L13">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9942,9 +10383,9 @@
   <conditionalFormatting sqref="B3:B6 B9">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9954,9 +10395,9 @@
   <conditionalFormatting sqref="D3:D6 D9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9966,9 +10407,9 @@
   <conditionalFormatting sqref="F3:F6 F9">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9978,9 +10419,9 @@
   <conditionalFormatting sqref="H3:H7 H9">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9990,9 +10431,9 @@
   <conditionalFormatting sqref="J3:J7 J9">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10002,9 +10443,9 @@
   <conditionalFormatting sqref="C3:C6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10014,9 +10455,9 @@
   <conditionalFormatting sqref="E3:E6">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10026,9 +10467,9 @@
   <conditionalFormatting sqref="G3:G7">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10038,9 +10479,9 @@
   <conditionalFormatting sqref="I3:I6">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10050,9 +10491,9 @@
   <conditionalFormatting sqref="K3:K6">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10062,9 +10503,9 @@
   <conditionalFormatting sqref="B3:B13">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10074,9 +10515,9 @@
   <conditionalFormatting sqref="C3:C13">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10086,9 +10527,9 @@
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10098,9 +10539,9 @@
   <conditionalFormatting sqref="E3:E13">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10110,9 +10551,9 @@
   <conditionalFormatting sqref="F3:F13">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10122,9 +10563,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10134,9 +10575,9 @@
   <conditionalFormatting sqref="H3:H13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10146,9 +10587,9 @@
   <conditionalFormatting sqref="I3:I13">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10158,9 +10599,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10170,9 +10611,9 @@
   <conditionalFormatting sqref="K3:K13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10185,14 +10626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -10209,7 +10650,7 @@
     <col min="13" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="B1" s="36" t="s">
         <v>5</v>
       </c>
@@ -10235,12 +10676,12 @@
       </c>
       <c r="M1" s="35"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="B2" s="33" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>48</v>
@@ -10273,9 +10714,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="30">
         <v>0.65</v>
@@ -10316,13 +10757,13 @@
         <v>0.65325</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
     </row>
   </sheetData>
@@ -10337,9 +10778,9 @@
   <conditionalFormatting sqref="M3">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10349,9 +10790,9 @@
   <conditionalFormatting sqref="L3">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10361,9 +10802,9 @@
   <conditionalFormatting sqref="B3">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10373,9 +10814,9 @@
   <conditionalFormatting sqref="C3">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10385,9 +10826,9 @@
   <conditionalFormatting sqref="D3">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10397,9 +10838,9 @@
   <conditionalFormatting sqref="E3">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10409,9 +10850,9 @@
   <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10421,9 +10862,9 @@
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10433,9 +10874,9 @@
   <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10445,9 +10886,9 @@
   <conditionalFormatting sqref="I3">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10457,9 +10898,9 @@
   <conditionalFormatting sqref="J3">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10469,9 +10910,9 @@
   <conditionalFormatting sqref="K3">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -10484,14 +10925,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="31" width="4.5703125" bestFit="1" customWidth="1"/>
@@ -10500,7 +10941,7 @@
     <col min="38" max="40" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40">
       <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
@@ -10517,7 +10958,7 @@
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
       <c r="K1" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
@@ -10527,7 +10968,7 @@
       <c r="O1" s="34"/>
       <c r="P1" s="34"/>
       <c r="Q1" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R1" s="34"/>
       <c r="S1" s="35"/>
@@ -10547,7 +10988,7 @@
       <c r="AA1" s="34"/>
       <c r="AB1" s="35"/>
       <c r="AC1" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AD1" s="34"/>
       <c r="AE1" s="35"/>
@@ -10557,7 +10998,7 @@
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
       <c r="AI1" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ1" s="34"/>
       <c r="AK1" s="35"/>
@@ -10567,7 +11008,7 @@
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10689,9 +11130,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40">
       <c r="A3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="10">
         <v>0.38469999999999999</v>
@@ -10814,9 +11255,9 @@
         <v>0.45634545454545455</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="10">
         <v>0.56200000000000006</v>
@@ -10939,9 +11380,9 @@
         <v>0.49341818181818181</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="10">
         <v>0.27739999999999998</v>
@@ -11064,9 +11505,9 @@
         <v>0.4236454545454546</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40">
       <c r="A6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="10">
         <v>0.3236</v>
@@ -11189,7 +11630,7 @@
         <v>0.51095454545454555</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40">
       <c r="A7" s="5"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -11231,7 +11672,7 @@
       <c r="AM7" s="11"/>
       <c r="AN7" s="12"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40">
       <c r="A8" s="5"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -11273,7 +11714,7 @@
       <c r="AM8" s="11"/>
       <c r="AN8" s="12"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40">
       <c r="A9" s="5"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -11334,9 +11775,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="63">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11346,9 +11787,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11358,9 +11799,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11370,9 +11811,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="60">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11382,9 +11823,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11394,9 +11835,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="58">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11406,9 +11847,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11418,9 +11859,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11430,9 +11871,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11442,9 +11883,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11454,9 +11895,9 @@
   <conditionalFormatting sqref="AK3:AK9">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11466,9 +11907,9 @@
   <conditionalFormatting sqref="AN3:AN9">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11478,9 +11919,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11490,9 +11931,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11502,9 +11943,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11514,9 +11955,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11526,9 +11967,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11538,9 +11979,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11550,9 +11991,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11562,9 +12003,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11574,9 +12015,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11586,9 +12027,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11598,9 +12039,9 @@
   <conditionalFormatting sqref="AK3:AK9">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11610,9 +12051,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11622,9 +12063,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11634,9 +12075,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11646,9 +12087,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11658,9 +12099,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11670,9 +12111,9 @@
   <conditionalFormatting sqref="AE4:AE9">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11682,9 +12123,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11694,9 +12135,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11706,9 +12147,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11718,9 +12159,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11730,9 +12171,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11742,9 +12183,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11754,9 +12195,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11766,9 +12207,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11778,9 +12219,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11790,9 +12231,9 @@
   <conditionalFormatting sqref="AK3:AK9">
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11802,9 +12243,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11814,9 +12255,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11826,9 +12267,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11838,9 +12279,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11850,9 +12291,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11862,9 +12303,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11874,9 +12315,9 @@
   <conditionalFormatting sqref="AK3:AK9">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11886,9 +12327,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11898,9 +12339,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11910,9 +12351,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11922,9 +12363,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11934,9 +12375,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11946,9 +12387,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11958,9 +12399,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11970,9 +12411,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11982,9 +12423,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11994,9 +12435,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12006,9 +12447,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12018,9 +12459,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12030,9 +12471,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12042,9 +12483,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12054,9 +12495,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12066,9 +12507,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12078,9 +12519,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>

--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BP4D" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="130">
   <si>
     <t>DEVEL</t>
   </si>
@@ -402,6 +402,12 @@
   </si>
   <si>
     <t>BP4D SVM dynamic, caelum 101</t>
+  </si>
+  <si>
+    <t>SVM static rebalanced (c104)</t>
+  </si>
+  <si>
+    <t>SVM dynamic rebalanced (c104)</t>
   </si>
 </sst>
 </file>
@@ -611,6 +617,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,13 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -932,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -943,66 +949,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="36" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="36" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="36" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="36" t="s">
+      <c r="U1" s="37"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="34" t="s">
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="35"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="38"/>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" t="s">
@@ -6300,56 +6306,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="36" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6417,7 +6423,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="35" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="10">
@@ -6476,7 +6482,7 @@
       </c>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="10">
@@ -6535,7 +6541,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="35" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="10">
@@ -6594,7 +6600,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="10">
@@ -6653,7 +6659,7 @@
       </c>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="10">
@@ -6724,7 +6730,7 @@
       </c>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="15">
@@ -6795,7 +6801,7 @@
       </c>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="7">
@@ -6866,7 +6872,7 @@
       </c>
     </row>
     <row r="10" spans="1:34">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="7">
@@ -6937,7 +6943,7 @@
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="7">
@@ -6990,7 +6996,7 @@
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="35" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="7">
@@ -7043,7 +7049,7 @@
       </c>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="7">
@@ -7096,7 +7102,7 @@
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="7">
@@ -7149,7 +7155,7 @@
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="35" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="7">
@@ -7208,7 +7214,7 @@
       </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="7">
@@ -7267,7 +7273,7 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="7">
@@ -7338,7 +7344,7 @@
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="7">
@@ -7409,7 +7415,7 @@
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="35" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="7">
@@ -7480,7 +7486,7 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="7">
@@ -7551,7 +7557,7 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="7">
@@ -7622,7 +7628,7 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="35" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="7">
@@ -7693,7 +7699,7 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="35" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="7">
@@ -7764,7 +7770,7 @@
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="7">
@@ -7835,7 +7841,7 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="35" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="7">
@@ -7894,7 +7900,7 @@
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="35" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="7">
@@ -7953,7 +7959,7 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B27" s="7">
@@ -8024,7 +8030,7 @@
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="35" t="s">
         <v>79</v>
       </c>
       <c r="B28" s="7">
@@ -8095,7 +8101,7 @@
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="36" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="7">
@@ -8154,7 +8160,7 @@
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="36" t="s">
         <v>80</v>
       </c>
       <c r="B30" s="7">
@@ -8213,7 +8219,7 @@
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B31" s="7">
@@ -8266,7 +8272,7 @@
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="36" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="7">
@@ -8319,7 +8325,7 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B33" s="7">
@@ -8378,7 +8384,7 @@
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="36" t="s">
         <v>86</v>
       </c>
       <c r="B34" s="7">
@@ -8437,7 +8443,7 @@
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="36" t="s">
         <v>112</v>
       </c>
       <c r="B35" s="7">
@@ -8508,7 +8514,7 @@
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="36" t="s">
         <v>101</v>
       </c>
       <c r="B36" s="7">
@@ -8579,7 +8585,7 @@
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="36" t="s">
         <v>100</v>
       </c>
       <c r="B37" s="7">
@@ -8650,7 +8656,7 @@
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="36" t="s">
         <v>102</v>
       </c>
       <c r="B38" s="7">
@@ -8721,7 +8727,7 @@
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="36" t="s">
         <v>103</v>
       </c>
       <c r="B39" s="7">
@@ -8792,7 +8798,7 @@
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="36" t="s">
         <v>106</v>
       </c>
       <c r="B40" s="7">
@@ -8863,7 +8869,7 @@
       </c>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="36" t="s">
         <v>107</v>
       </c>
       <c r="B41" s="7">
@@ -8934,7 +8940,7 @@
       </c>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="36" t="s">
         <v>109</v>
       </c>
       <c r="B42" s="7">
@@ -9005,7 +9011,7 @@
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="36" t="s">
         <v>111</v>
       </c>
       <c r="B43" s="7">
@@ -9076,7 +9082,7 @@
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="36" t="s">
         <v>114</v>
       </c>
       <c r="B44" s="7">
@@ -9147,7 +9153,7 @@
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B45" s="7">
@@ -9218,7 +9224,7 @@
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="36" t="s">
         <v>117</v>
       </c>
       <c r="B46" s="7">
@@ -9289,7 +9295,7 @@
       </c>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="36" t="s">
         <v>118</v>
       </c>
       <c r="B47" s="7">
@@ -9360,7 +9366,7 @@
       </c>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="36" t="s">
         <v>119</v>
       </c>
       <c r="B48" s="7"/>
@@ -9386,7 +9392,7 @@
       <c r="V48" s="9"/>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="36" t="s">
         <v>120</v>
       </c>
       <c r="B49" s="7"/>
@@ -9412,7 +9418,7 @@
       <c r="V49" s="9"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="36" t="s">
         <v>121</v>
       </c>
       <c r="B50" s="7"/>
@@ -9438,7 +9444,7 @@
       <c r="V50" s="9"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="36" t="s">
         <v>122</v>
       </c>
       <c r="B51" s="7"/>
@@ -9464,7 +9470,7 @@
       <c r="V51" s="9"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="36" t="s">
         <v>123</v>
       </c>
       <c r="B52" s="7"/>
@@ -9490,7 +9496,7 @@
       <c r="V52" s="9"/>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="36" t="s">
         <v>124</v>
       </c>
       <c r="B53" s="7"/>
@@ -9563,17 +9569,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
     <cfRule type="colorScale" priority="21">
@@ -9858,30 +9864,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="35"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="27" t="s">
@@ -10651,30 +10657,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="35"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="33" t="s">
@@ -10928,13 +10934,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="31" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="4.5703125" customWidth="1"/>
     <col min="35" max="37" width="4.5703125" bestFit="1" customWidth="1"/>
@@ -10942,71 +10948,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="36" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="36" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="36" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="36" t="s">
+      <c r="U1" s="37"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="34" t="s">
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="34" t="s">
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="35"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" t="s">
@@ -11630,8 +11636,10 @@
         <v>0.51095454545454555</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:40" ht="23.25">
+      <c r="A7" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
@@ -11673,7 +11681,9 @@
       <c r="AN7" s="12"/>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>

--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BP4D" sheetId="1" r:id="rId1"/>
     <sheet name="SEMAINE" sheetId="2" r:id="rId2"/>
-    <sheet name="BP4D_intensity" sheetId="3" r:id="rId3"/>
-    <sheet name="BP4D_int_seg" sheetId="5" r:id="rId4"/>
-    <sheet name="DISFA" sheetId="4" r:id="rId5"/>
+    <sheet name="DISFA" sheetId="4" r:id="rId3"/>
+    <sheet name="BP4D_intensity" sheetId="3" r:id="rId4"/>
+    <sheet name="BP4D_int_seg" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="133">
   <si>
     <t>DEVEL</t>
   </si>
@@ -398,16 +398,25 @@
     <t>AU28</t>
   </si>
   <si>
-    <t>BP4D SVM static, caelum 101</t>
-  </si>
-  <si>
-    <t>BP4D SVM dynamic, caelum 101</t>
-  </si>
-  <si>
-    <t>SVM static rebalanced (c104)</t>
-  </si>
-  <si>
-    <t>SVM dynamic rebalanced (c104)</t>
+    <t>SVM static rebalanced</t>
+  </si>
+  <si>
+    <t>SVM dynamic rebalanced</t>
+  </si>
+  <si>
+    <t>App, geom old undersampling, 1-1 dynamic clever</t>
+  </si>
+  <si>
+    <t>App, geom old undersampling, 1-1 static clever</t>
+  </si>
+  <si>
+    <t>BP4D SVM static</t>
+  </si>
+  <si>
+    <t>BP4D SVM static clever sampling</t>
+  </si>
+  <si>
+    <t>SVM appearance balanced</t>
   </si>
 </sst>
 </file>
@@ -938,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -5172,99 +5181,249 @@
         <v>0.43830000000000002</v>
       </c>
       <c r="AI42" s="10">
-        <f t="shared" ref="AI42" si="18">AVERAGE(B42,E42,H42,K42,N42,Q42,T42,W42,Z42,AC42,AF42)</f>
+        <f t="shared" ref="AI42:AI44" si="18">AVERAGE(B42,E42,H42,K42,N42,Q42,T42,W42,Z42,AC42,AF42)</f>
         <v>0.55155454545454552</v>
       </c>
       <c r="AJ42" s="11">
-        <f t="shared" ref="AJ42" si="19">AVERAGE(C42,F42,I42,L42,O42,R42,U42,X42,AA42,AD42,AG42)</f>
+        <f t="shared" ref="AJ42:AJ44" si="19">AVERAGE(C42,F42,I42,L42,O42,R42,U42,X42,AA42,AD42,AG42)</f>
         <v>0.67960909090909094</v>
       </c>
       <c r="AK42" s="12">
-        <f t="shared" ref="AK42" si="20">AVERAGE(D42,G42,J42,M42,P42,S42,V42,Y42,AB42,AE42,AH42)</f>
+        <f t="shared" ref="AK42:AK44" si="20">AVERAGE(D42,G42,J42,M42,P42,S42,V42,Y42,AB42,AE42,AH42)</f>
         <v>0.59669090909090905</v>
       </c>
     </row>
     <row r="43" spans="1:37">
       <c r="A43" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="7"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="7"/>
-      <c r="AG43" s="8"/>
-      <c r="AH43" s="9"/>
-      <c r="AI43" s="10"/>
-      <c r="AJ43" s="11"/>
-      <c r="AK43" s="12"/>
+        <v>130</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.35349999999999998</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.50480000000000003</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.4158</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.2913</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0.34939999999999999</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.34720000000000001</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0.43730000000000002</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0.7863</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0.75160000000000005</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="P43" s="8">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>0.8619</v>
+      </c>
+      <c r="R43" s="8">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="S43" s="8">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="T43" s="7">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="U43" s="8">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="V43" s="8">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="W43" s="7">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="X43" s="8">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="Y43" s="8">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="Z43" s="7">
+        <v>0.31309999999999999</v>
+      </c>
+      <c r="AA43" s="8">
+        <v>0.70369999999999999</v>
+      </c>
+      <c r="AB43" s="8">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="AC43" s="7">
+        <v>0.5262</v>
+      </c>
+      <c r="AD43" s="8">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="AE43" s="8">
+        <v>0.62050000000000005</v>
+      </c>
+      <c r="AF43" s="7">
+        <v>0.3347</v>
+      </c>
+      <c r="AG43" s="8">
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="AH43" s="9">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="AI43" s="10">
+        <f t="shared" si="18"/>
+        <v>0.55008181818181812</v>
+      </c>
+      <c r="AJ43" s="11">
+        <f t="shared" si="19"/>
+        <v>0.68584545454545454</v>
+      </c>
+      <c r="AK43" s="12">
+        <f t="shared" si="20"/>
+        <v>0.59946363636363642</v>
+      </c>
     </row>
     <row r="44" spans="1:37">
       <c r="A44" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="7"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="7"/>
-      <c r="AG44" s="8"/>
-      <c r="AH44" s="9"/>
-      <c r="AI44" s="10"/>
-      <c r="AJ44" s="11"/>
-      <c r="AK44" s="12"/>
+        <v>131</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.35470000000000002</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.29859999999999998</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.3392</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.3604</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.57489999999999997</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0.44309999999999999</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="M44" s="8">
+        <v>0.76880000000000004</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0.80030000000000001</v>
+      </c>
+      <c r="P44" s="8">
+        <v>0.77010000000000001</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0.86809999999999998</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0.83430000000000004</v>
+      </c>
+      <c r="S44" s="8">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="T44" s="7">
+        <v>0.87450000000000006</v>
+      </c>
+      <c r="U44" s="8">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="V44" s="8">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="W44" s="7">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="X44" s="8">
+        <v>0.80069999999999997</v>
+      </c>
+      <c r="Y44" s="8">
+        <v>0.66869999999999996</v>
+      </c>
+      <c r="Z44" s="7">
+        <v>0.3216</v>
+      </c>
+      <c r="AA44" s="8">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="AB44" s="8">
+        <v>0.43580000000000002</v>
+      </c>
+      <c r="AC44" s="7">
+        <v>0.52110000000000001</v>
+      </c>
+      <c r="AD44" s="8">
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="AE44" s="8">
+        <v>0.62009999999999998</v>
+      </c>
+      <c r="AF44" s="7">
+        <v>0.33090000000000003</v>
+      </c>
+      <c r="AG44" s="8">
+        <v>0.65839999999999999</v>
+      </c>
+      <c r="AH44" s="9">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="AI44" s="10">
+        <f t="shared" si="18"/>
+        <v>0.54608181818181822</v>
+      </c>
+      <c r="AJ44" s="11">
+        <f t="shared" si="19"/>
+        <v>0.69619090909090919</v>
+      </c>
+      <c r="AK44" s="12">
+        <f t="shared" si="20"/>
+        <v>0.60235454545454559</v>
+      </c>
     </row>
     <row r="45" spans="1:37">
       <c r="B45" s="7"/>
@@ -5887,7 +6046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J25 X29:X47 J27:J47">
+  <conditionalFormatting sqref="J3:J25 J27:J47 X44:X47">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -6278,10 +6437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH55"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9140,15 +9299,15 @@
         <v>0.42049999999999998</v>
       </c>
       <c r="T44" s="7">
-        <f t="shared" ref="T44:T47" si="16">AVERAGE(B44,E44,H44,K44,N44,Q44)</f>
+        <f t="shared" ref="T44:T49" si="16">AVERAGE(B44,E44,H44,K44,N44,Q44)</f>
         <v>0.47588333333333338</v>
       </c>
       <c r="U44" s="8">
-        <f t="shared" ref="U44:U47" si="17">AVERAGE(C44,F44,I44,L44,O44,R44)</f>
+        <f t="shared" ref="U44:U49" si="17">AVERAGE(C44,F44,I44,L44,O44,R44)</f>
         <v>0.52179999999999993</v>
       </c>
       <c r="V44" s="9">
-        <f t="shared" ref="V44:V47" si="18">AVERAGE(D44,G44,J44,M44,P44,S44)</f>
+        <f t="shared" ref="V44:V49" si="18">AVERAGE(D44,G44,J44,M44,P44,S44)</f>
         <v>0.4806333333333333</v>
       </c>
     </row>
@@ -9367,59 +9526,149 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.47370000000000001</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0.56220000000000003</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.58450000000000002</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="M48" s="9">
+        <v>0.50680000000000003</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0.50939999999999996</v>
+      </c>
+      <c r="O48" s="8">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="P48" s="9">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>0.30520000000000003</v>
+      </c>
+      <c r="R48" s="8">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="S48" s="9">
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="T48" s="7">
+        <f t="shared" si="16"/>
+        <v>0.44783333333333336</v>
+      </c>
+      <c r="U48" s="8">
+        <f t="shared" si="17"/>
+        <v>0.57828333333333337</v>
+      </c>
+      <c r="V48" s="9">
+        <f t="shared" si="18"/>
+        <v>0.49058333333333332</v>
+      </c>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.33210000000000001</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0.68869999999999998</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="H49" s="7">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0.3034</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0.1447</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0.37069999999999997</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0.5706</v>
+      </c>
+      <c r="M49" s="9">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="O49" s="8">
+        <v>0.44569999999999999</v>
+      </c>
+      <c r="P49" s="9">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>0.24490000000000001</v>
+      </c>
+      <c r="R49" s="8">
+        <v>0.7218</v>
+      </c>
+      <c r="S49" s="9">
+        <v>0.36570000000000003</v>
+      </c>
+      <c r="T49" s="7">
+        <f t="shared" si="16"/>
+        <v>0.33368333333333333</v>
+      </c>
+      <c r="U49" s="8">
+        <f t="shared" si="17"/>
+        <v>0.52538333333333342</v>
+      </c>
+      <c r="V49" s="9">
+        <f t="shared" si="18"/>
+        <v>0.39218333333333333</v>
+      </c>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
@@ -9445,7 +9694,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
@@ -9471,7 +9720,7 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
@@ -9497,7 +9746,7 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
@@ -9522,6 +9771,9 @@
       <c r="V53" s="9"/>
     </row>
     <row r="54" spans="1:22">
+      <c r="A54" s="36" t="s">
+        <v>123</v>
+      </c>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -9545,6 +9797,9 @@
       <c r="V54" s="9"/>
     </row>
     <row r="55" spans="1:22">
+      <c r="A55" s="36" t="s">
+        <v>124</v>
+      </c>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -9567,6 +9822,29 @@
       <c r="U55" s="8"/>
       <c r="V55" s="9"/>
     </row>
+    <row r="56" spans="1:22">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="Q1:S1"/>
@@ -9653,54 +9931,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V55">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D55">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G55">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J55">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M3:M15">
     <cfRule type="colorScale" priority="11">
       <colorScale>
@@ -9797,32 +10027,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M55">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P55">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S55">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="V3:V56">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D56">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G56">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J56">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M56">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P56">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S56">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -9840,1102 +10118,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="38"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="B2" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0.76639999999999997</v>
-      </c>
-      <c r="C3" s="9">
-        <f>0.9145*0.9145</f>
-        <v>0.83631024999999992</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.74380000000000002</v>
-      </c>
-      <c r="E3" s="9">
-        <f>1.004*1.004</f>
-        <v>1.008016</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.8518</v>
-      </c>
-      <c r="G3" s="9">
-        <f>0.8217*0.8217</f>
-        <v>0.67519088999999999</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.53010000000000002</v>
-      </c>
-      <c r="I3" s="9">
-        <f>1.2034*1.2034</f>
-        <v>1.44817156</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.49890000000000001</v>
-      </c>
-      <c r="K3" s="8">
-        <f>1.0986*1.0986</f>
-        <v>1.2069219600000001</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" ref="L3:M6" si="0">AVERAGE(D3,F3,H3,J3)</f>
-        <v>0.65615000000000001</v>
-      </c>
-      <c r="M3" s="9">
-        <f t="shared" si="0"/>
-        <v>1.0845751025000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.74750000000000005</v>
-      </c>
-      <c r="C4" s="9">
-        <f>1.0015*1.0015</f>
-        <v>1.0030022500000002</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.60819999999999996</v>
-      </c>
-      <c r="E4" s="9">
-        <f>1.2472 *1.2472</f>
-        <v>1.5555078400000002</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.7742</v>
-      </c>
-      <c r="G4" s="9">
-        <f>1.0482*1.0482</f>
-        <v>1.09872324</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.4163</v>
-      </c>
-      <c r="I4" s="9">
-        <f>1.4015*1.4015</f>
-        <v>1.9642022499999998</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0.51639999999999997</v>
-      </c>
-      <c r="K4" s="8">
-        <f>0.908*0.908</f>
-        <v>0.82446400000000009</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" si="0"/>
-        <v>0.57877500000000004</v>
-      </c>
-      <c r="M4" s="9">
-        <f t="shared" si="0"/>
-        <v>1.3607243325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.73160000000000003</v>
-      </c>
-      <c r="C5" s="9">
-        <f>0.9703*0.9703</f>
-        <v>0.94148209000000005</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.7097</v>
-      </c>
-      <c r="E5" s="9">
-        <f>1.0558*1.0558</f>
-        <v>1.1147136400000002</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.83860000000000001</v>
-      </c>
-      <c r="G5" s="9">
-        <f>0.8519*0.8519</f>
-        <v>0.72573361000000003</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.50409999999999999</v>
-      </c>
-      <c r="I5" s="9">
-        <f>1.2313*1.2313</f>
-        <v>1.5160996900000001</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="K5" s="9">
-        <f>1.1224*1.1224</f>
-        <v>1.2597817600000001</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" si="0"/>
-        <v>0.63485000000000003</v>
-      </c>
-      <c r="M5" s="9">
-        <f t="shared" si="0"/>
-        <v>1.1540821750000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="C6" s="9">
-        <f>1.0332 * 1.0332</f>
-        <v>1.0675022399999998</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.5756</v>
-      </c>
-      <c r="E6" s="9">
-        <f>1.2736*1.2736</f>
-        <v>1.6220569600000001</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.75049999999999994</v>
-      </c>
-      <c r="G6" s="9">
-        <f>1.0584*1.0584</f>
-        <v>1.1202105600000001</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.38679999999999998</v>
-      </c>
-      <c r="I6" s="9">
-        <f>1.403*1.403</f>
-        <v>1.9684090000000001</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.43230000000000002</v>
-      </c>
-      <c r="K6" s="9">
-        <f>0.9644*0.9644</f>
-        <v>0.93006736000000012</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5363</v>
-      </c>
-      <c r="M6" s="9">
-        <f t="shared" si="0"/>
-        <v>1.4101859700000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="31">
-        <v>0.76639999999999997</v>
-      </c>
-      <c r="C7">
-        <f>0.9145*0.9145</f>
-        <v>0.83631024999999992</v>
-      </c>
-      <c r="D7" s="31">
-        <v>0.74380000000000002</v>
-      </c>
-      <c r="E7">
-        <f>1.004*1.004</f>
-        <v>1.008016</v>
-      </c>
-      <c r="F7" s="31">
-        <v>0.8518</v>
-      </c>
-      <c r="G7">
-        <f>0.8217*0.8217</f>
-        <v>0.67519088999999999</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="31">
-        <v>0.7651</v>
-      </c>
-      <c r="C8">
-        <f>0.934*0.934</f>
-        <v>0.87235600000000013</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="28">
-        <v>0.76449999999999996</v>
-      </c>
-      <c r="C9">
-        <v>0.80910000000000004</v>
-      </c>
-      <c r="D9" s="28">
-        <v>0.751</v>
-      </c>
-      <c r="E9">
-        <v>0.9607</v>
-      </c>
-      <c r="F9" s="28">
-        <v>0.86480000000000001</v>
-      </c>
-      <c r="G9">
-        <v>0.62270000000000003</v>
-      </c>
-      <c r="H9" s="28">
-        <v>0.55569999999999997</v>
-      </c>
-      <c r="I9">
-        <v>1.2606999999999999</v>
-      </c>
-      <c r="J9" s="28">
-        <v>0.443</v>
-      </c>
-      <c r="K9">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0.65362500000000001</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0.942025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10">
-        <v>0.75980000000000003</v>
-      </c>
-      <c r="C10">
-        <v>0.82220000000000004</v>
-      </c>
-      <c r="F10">
-        <v>0.86309999999999998</v>
-      </c>
-      <c r="G10">
-        <v>0.63129999999999997</v>
-      </c>
-      <c r="H10">
-        <v>0.53280000000000005</v>
-      </c>
-      <c r="I10">
-        <v>1.2661</v>
-      </c>
-      <c r="J10">
-        <v>0.44950000000000001</v>
-      </c>
-      <c r="K10">
-        <v>0.90169999999999995</v>
-      </c>
-      <c r="L10" s="7">
-        <f t="shared" ref="L10:M12" si="1">AVERAGE(D10,F10,H10,J10)</f>
-        <v>0.61513333333333342</v>
-      </c>
-      <c r="M10" s="9">
-        <f t="shared" si="1"/>
-        <v>0.93303333333333338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="30">
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="C11">
-        <v>0.79520000000000002</v>
-      </c>
-      <c r="F11" s="30">
-        <v>0.8669</v>
-      </c>
-      <c r="G11">
-        <v>0.63280000000000003</v>
-      </c>
-      <c r="J11">
-        <v>0.46839999999999998</v>
-      </c>
-      <c r="K11">
-        <v>0.84140000000000004</v>
-      </c>
-      <c r="L11" s="7">
-        <f t="shared" si="1"/>
-        <v>0.66764999999999997</v>
-      </c>
-      <c r="M11" s="9">
-        <f t="shared" si="1"/>
-        <v>0.73710000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="30">
-        <v>0.75880000000000003</v>
-      </c>
-      <c r="C12">
-        <v>0.83179999999999998</v>
-      </c>
-      <c r="F12" s="30">
-        <v>0.871</v>
-      </c>
-      <c r="G12" s="30">
-        <v>0.60240000000000005</v>
-      </c>
-      <c r="J12">
-        <v>0.51029999999999998</v>
-      </c>
-      <c r="K12">
-        <v>0.87029999999999996</v>
-      </c>
-      <c r="L12" s="7">
-        <f t="shared" si="1"/>
-        <v>0.69064999999999999</v>
-      </c>
-      <c r="M12" s="9">
-        <f t="shared" si="1"/>
-        <v>0.73635000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="30">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="D13">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="E13">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="G13" s="30">
-        <v>0.84</v>
-      </c>
-      <c r="H13">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="I13">
-        <v>1.5529999999999999</v>
-      </c>
-      <c r="J13">
-        <v>0.503</v>
-      </c>
-      <c r="K13">
-        <v>1.2629999999999999</v>
-      </c>
-      <c r="L13" s="7">
-        <f t="shared" ref="L13" si="2">AVERAGE(D13,F13,H13,J13)</f>
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="M13" s="9">
-        <f t="shared" ref="M13" si="3">AVERAGE(E13,G13,I13,K13)</f>
-        <v>1.1484999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="M3:M13">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L13">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B6 B9">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6 D9">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H7 H9">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J7 J9">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C6">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G7">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I6">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K6">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B13">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C13">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D13">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E13">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F13">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H13">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I13">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J13">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K13">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="38"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="B2" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="30">
-        <v>0.65</v>
-      </c>
-      <c r="C3">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="D3">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="E3">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="F3" s="30">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="G3" s="30">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="H3">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="I3">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="J3">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="K3">
-        <v>1.1080000000000001</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" ref="L3:M3" si="0">AVERAGE(D3,F3,H3,J3)</f>
-        <v>0.65149999999999997</v>
-      </c>
-      <c r="M3" s="9">
-        <f t="shared" si="0"/>
-        <v>0.65325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10944,7 +10130,7 @@
     <col min="2" max="31" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="4.5703125" customWidth="1"/>
     <col min="35" max="37" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="7.7109375" customWidth="1"/>
+    <col min="38" max="40" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -11499,15 +10685,15 @@
         <v>0.65649999999999997</v>
       </c>
       <c r="AL5" s="10">
-        <f t="shared" ref="AL5:AL6" si="1">AVERAGE(B5,E5,H5,N5,Q5,T5,W5,Z5,AC5,AF5,AI5)</f>
+        <f t="shared" ref="AL5:AL7" si="1">AVERAGE(B5,E5,H5,N5,Q5,T5,W5,Z5,AC5,AF5,AI5)</f>
         <v>0.37953636363636362</v>
       </c>
       <c r="AM5" s="11">
-        <f t="shared" ref="AM5:AM6" si="2">AVERAGE(C5,F5,I5,O5,R5,U5,X5,AA5,AD5,AG5,AJ5)</f>
+        <f t="shared" ref="AM5:AM7" si="2">AVERAGE(C5,F5,I5,O5,R5,U5,X5,AA5,AD5,AG5,AJ5)</f>
         <v>0.59595454545454551</v>
       </c>
       <c r="AN5" s="12">
-        <f t="shared" ref="AN5:AN6" si="3">AVERAGE(D5,G5,J5,P5,S5,V5,Y5,AB5,AE5,AH5,AK5)</f>
+        <f t="shared" ref="AN5:AN7" si="3">AVERAGE(D5,G5,J5,P5,S5,V5,Y5,AB5,AE5,AH5,AK5)</f>
         <v>0.4236454545454546</v>
       </c>
     </row>
@@ -11636,93 +10822,255 @@
         <v>0.51095454545454555</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="23.25">
+    <row r="7" spans="1:40">
       <c r="A7" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="E7" s="15">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.17130000000000001</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.1116</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.82769999999999999</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.57509999999999994</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.1328</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0.3034</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0.12429999999999999</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0.2167</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0.2238</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0.4335</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0.6492</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>0.49230000000000002</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>0.1032</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="AK7" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="AL7" s="10">
+        <f t="shared" si="1"/>
+        <v>0.36549090909090914</v>
+      </c>
+      <c r="AM7" s="11">
+        <f t="shared" si="2"/>
+        <v>0.64631818181818179</v>
+      </c>
+      <c r="AN7" s="12">
+        <f t="shared" si="3"/>
+        <v>0.41945454545454547</v>
+      </c>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="12"/>
+        <v>127</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.4168</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.17749999999999999</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.46229999999999999</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.62760000000000005</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0.59130000000000005</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0.3458</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="S8" s="12">
+        <v>0.49209999999999998</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0.76429999999999998</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="V8" s="12">
+        <v>0.79259999999999997</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0.47060000000000002</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>0.29720000000000002</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>0.67930000000000001</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>0.41349999999999998</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>0.29530000000000001</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>0.2298</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>0.68830000000000002</v>
+      </c>
+      <c r="AK8" s="12">
+        <v>0.67720000000000002</v>
+      </c>
+      <c r="AL8" s="10">
+        <f t="shared" ref="AL8" si="4">AVERAGE(B8,E8,H8,N8,Q8,T8,W8,Z8,AC8,AF8,AI8)</f>
+        <v>0.46051818181818188</v>
+      </c>
+      <c r="AM8" s="11">
+        <f t="shared" ref="AM8" si="5">AVERAGE(C8,F8,I8,O8,R8,U8,X8,AA8,AD8,AG8,AJ8)</f>
+        <v>0.63309090909090926</v>
+      </c>
+      <c r="AN8" s="12">
+        <f t="shared" ref="AN8" si="6">AVERAGE(D8,G8,J8,P8,S8,V8,Y8,AB8,AE8,AH8,AK8)</f>
+        <v>0.51304545454545458</v>
+      </c>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="5"/>
@@ -12540,4 +11888,1146 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="C3" s="9">
+        <f>0.9145*0.9145</f>
+        <v>0.83631024999999992</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="E3" s="9">
+        <f>1.004*1.004</f>
+        <v>1.008016</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.8518</v>
+      </c>
+      <c r="G3" s="9">
+        <f>0.8217*0.8217</f>
+        <v>0.67519088999999999</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="I3" s="9">
+        <f>1.2034*1.2034</f>
+        <v>1.44817156</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="K3" s="8">
+        <f>1.0986*1.0986</f>
+        <v>1.2069219600000001</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:M6" si="0">AVERAGE(D3,F3,H3,J3)</f>
+        <v>0.65615000000000001</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0845751025000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="C4" s="9">
+        <f>1.0015*1.0015</f>
+        <v>1.0030022500000002</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.60819999999999996</v>
+      </c>
+      <c r="E4" s="9">
+        <f>1.2472 *1.2472</f>
+        <v>1.5555078400000002</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.7742</v>
+      </c>
+      <c r="G4" s="9">
+        <f>1.0482*1.0482</f>
+        <v>1.09872324</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.4163</v>
+      </c>
+      <c r="I4" s="9">
+        <f>1.4015*1.4015</f>
+        <v>1.9642022499999998</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.51639999999999997</v>
+      </c>
+      <c r="K4" s="8">
+        <f>0.908*0.908</f>
+        <v>0.82446400000000009</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.57877500000000004</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3607243325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.73160000000000003</v>
+      </c>
+      <c r="C5" s="9">
+        <f>0.9703*0.9703</f>
+        <v>0.94148209000000005</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.7097</v>
+      </c>
+      <c r="E5" s="9">
+        <f>1.0558*1.0558</f>
+        <v>1.1147136400000002</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.83860000000000001</v>
+      </c>
+      <c r="G5" s="9">
+        <f>0.8519*0.8519</f>
+        <v>0.72573361000000003</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.50409999999999999</v>
+      </c>
+      <c r="I5" s="9">
+        <f>1.2313*1.2313</f>
+        <v>1.5160996900000001</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="K5" s="9">
+        <f>1.1224*1.1224</f>
+        <v>1.2597817600000001</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63485000000000003</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1540821750000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="C6" s="9">
+        <f>1.0332 * 1.0332</f>
+        <v>1.0675022399999998</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.5756</v>
+      </c>
+      <c r="E6" s="9">
+        <f>1.2736*1.2736</f>
+        <v>1.6220569600000001</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="G6" s="9">
+        <f>1.0584*1.0584</f>
+        <v>1.1202105600000001</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.38679999999999998</v>
+      </c>
+      <c r="I6" s="9">
+        <f>1.403*1.403</f>
+        <v>1.9684090000000001</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.43230000000000002</v>
+      </c>
+      <c r="K6" s="9">
+        <f>0.9644*0.9644</f>
+        <v>0.93006736000000012</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5363</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4101859700000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="31">
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="C7">
+        <f>0.9145*0.9145</f>
+        <v>0.83631024999999992</v>
+      </c>
+      <c r="D7" s="31">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="E7">
+        <f>1.004*1.004</f>
+        <v>1.008016</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0.8518</v>
+      </c>
+      <c r="G7">
+        <f>0.8217*0.8217</f>
+        <v>0.67519088999999999</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="31">
+        <v>0.7651</v>
+      </c>
+      <c r="C8">
+        <f>0.934*0.934</f>
+        <v>0.87235600000000013</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="C9">
+        <v>0.80910000000000004</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.751</v>
+      </c>
+      <c r="E9">
+        <v>0.9607</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.62270000000000003</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0.55569999999999997</v>
+      </c>
+      <c r="I9">
+        <v>1.2606999999999999</v>
+      </c>
+      <c r="J9" s="28">
+        <v>0.443</v>
+      </c>
+      <c r="K9">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.65362500000000001</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.942025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="F10">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="H10">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="I10">
+        <v>1.2661</v>
+      </c>
+      <c r="J10">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" ref="L10:M12" si="1">AVERAGE(D10,F10,H10,J10)</f>
+        <v>0.61513333333333342</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.93303333333333338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="30">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="C11">
+        <v>0.79520000000000002</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0.8669</v>
+      </c>
+      <c r="G11">
+        <v>0.63280000000000003</v>
+      </c>
+      <c r="J11">
+        <v>0.46839999999999998</v>
+      </c>
+      <c r="K11">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.66764999999999997</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.73710000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="30">
+        <v>0.75880000000000003</v>
+      </c>
+      <c r="C12">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0.871</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="J12">
+        <v>0.51029999999999998</v>
+      </c>
+      <c r="K12">
+        <v>0.87029999999999996</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.69064999999999999</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.73635000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="30">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0.84</v>
+      </c>
+      <c r="H13">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="I13">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.503</v>
+      </c>
+      <c r="K13">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" ref="L13:L14" si="2">AVERAGE(D13,F13,H13,J13)</f>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" ref="M13:M14" si="3">AVERAGE(E13,G13,I13,K13)</f>
+        <v>1.1484999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="30">
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="C14">
+        <v>0.8508</v>
+      </c>
+      <c r="D14">
+        <v>0.76549999999999996</v>
+      </c>
+      <c r="E14">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0.86270000000000002</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0.83450000000000002</v>
+      </c>
+      <c r="H14">
+        <v>0.54590000000000005</v>
+      </c>
+      <c r="I14">
+        <v>0.1217</v>
+      </c>
+      <c r="J14">
+        <v>0.50070000000000003</v>
+      </c>
+      <c r="K14">
+        <v>1.1496</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.66870000000000007</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="3"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1"/>
+      <c r="B15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1"/>
+      <c r="B16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M3:M16">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L16">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B6 B9">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D6 D9">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H7 H9">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J7 J9">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G7">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I6">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B16">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C16">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D16">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G16">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="30">
+        <v>0.65</v>
+      </c>
+      <c r="C3">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="G3" s="30">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="H3">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="K3">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:M3" si="0">AVERAGE(D3,F3,H3,J3)</f>
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" si="0"/>
+        <v>0.65325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BP4D" sheetId="1" r:id="rId1"/>
@@ -10120,8 +10120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10824,253 +10824,166 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7" s="10">
-        <v>0.51259999999999994</v>
+        <v>0.2737</v>
       </c>
       <c r="C7" s="11">
-        <v>0.21579999999999999</v>
+        <v>0.35160000000000002</v>
       </c>
       <c r="D7" s="12">
-        <v>0.30370000000000003</v>
+        <v>0.30780000000000002</v>
       </c>
       <c r="E7" s="15">
-        <v>8.2799999999999999E-2</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="F7" s="11">
-        <v>0.17130000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G7" s="11">
-        <v>0.1116</v>
+        <v>0.2515</v>
       </c>
       <c r="H7" s="10">
-        <v>0.44059999999999999</v>
+        <v>0.71409999999999996</v>
       </c>
       <c r="I7" s="11">
-        <v>0.82769999999999999</v>
+        <v>0.63449999999999995</v>
       </c>
       <c r="J7" s="11">
-        <v>0.57509999999999994</v>
+        <v>0.67190000000000005</v>
       </c>
       <c r="K7" s="10">
-        <v>0.1328</v>
+        <v>9.8699999999999996E-2</v>
       </c>
       <c r="L7" s="11">
-        <v>0.42799999999999999</v>
+        <v>0.52470000000000006</v>
       </c>
       <c r="M7" s="11">
-        <v>0.20269999999999999</v>
+        <v>0.16619999999999999</v>
       </c>
       <c r="N7" s="10">
-        <v>0.3034</v>
+        <v>0.67020000000000002</v>
       </c>
       <c r="O7" s="11">
-        <v>0.86709999999999998</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="P7" s="11">
-        <v>0.44950000000000001</v>
+        <v>0.65259999999999996</v>
       </c>
       <c r="Q7" s="10">
-        <v>0.12429999999999999</v>
+        <v>0.54530000000000001</v>
       </c>
       <c r="R7" s="11">
-        <v>0.84730000000000005</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="S7" s="12">
-        <v>0.2167</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="T7" s="10">
-        <v>0.74050000000000005</v>
+        <v>0.82779999999999998</v>
       </c>
       <c r="U7" s="11">
-        <v>0.91039999999999999</v>
+        <v>0.74950000000000006</v>
       </c>
       <c r="V7" s="12">
-        <v>0.81669999999999998</v>
+        <v>0.78649999999999998</v>
       </c>
       <c r="W7" s="10">
-        <v>0.2238</v>
+        <v>0.52739999999999998</v>
       </c>
       <c r="X7" s="11">
-        <v>0.4335</v>
+        <v>0.45879999999999999</v>
       </c>
       <c r="Y7" s="12">
-        <v>0.29520000000000002</v>
+        <v>0.49070000000000003</v>
       </c>
       <c r="Z7" s="10">
-        <v>0.14230000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="AA7" s="11">
-        <v>0.6492</v>
+        <v>0.55230000000000001</v>
       </c>
       <c r="AB7" s="12">
-        <v>0.23350000000000001</v>
+        <v>0.43590000000000001</v>
       </c>
       <c r="AC7" s="10">
-        <v>5.7599999999999998E-2</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="AD7" s="13">
-        <v>0.49230000000000002</v>
+        <v>0.28339999999999999</v>
       </c>
       <c r="AE7" s="16">
-        <v>0.1032</v>
+        <v>0.23860000000000001</v>
       </c>
       <c r="AF7" s="10">
-        <v>0.84450000000000003</v>
+        <v>0.93989999999999996</v>
       </c>
       <c r="AG7" s="11">
-        <v>0.83309999999999995</v>
+        <v>0.74409999999999998</v>
       </c>
       <c r="AH7" s="12">
-        <v>0.83879999999999999</v>
-      </c>
-      <c r="AI7" s="11">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="AJ7" s="11">
-        <v>0.86180000000000001</v>
-      </c>
-      <c r="AK7" s="12">
-        <v>0.67</v>
-      </c>
+        <v>0.8306</v>
+      </c>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="12"/>
       <c r="AL7" s="10">
         <f t="shared" si="1"/>
-        <v>0.36549090909090914</v>
+        <v>0.54032000000000002</v>
       </c>
       <c r="AM7" s="11">
         <f t="shared" si="2"/>
-        <v>0.64631818181818179</v>
+        <v>0.52432000000000001</v>
       </c>
       <c r="AN7" s="12">
         <f t="shared" si="3"/>
-        <v>0.41945454545454547</v>
+        <v>0.52519999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0.22950000000000001</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.4168</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.17749999999999999</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.35630000000000001</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.46229999999999999</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0.77749999999999997</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0.57979999999999998</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0.62760000000000005</v>
-      </c>
-      <c r="M8" s="11">
-        <v>0.17249999999999999</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0.45040000000000002</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0.86029999999999995</v>
-      </c>
-      <c r="P8" s="11">
-        <v>0.59130000000000005</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>0.3458</v>
-      </c>
-      <c r="R8" s="11">
-        <v>0.85340000000000005</v>
-      </c>
-      <c r="S8" s="12">
-        <v>0.49209999999999998</v>
-      </c>
-      <c r="T8" s="10">
-        <v>0.76429999999999998</v>
-      </c>
-      <c r="U8" s="11">
-        <v>0.82320000000000004</v>
-      </c>
-      <c r="V8" s="12">
-        <v>0.79259999999999997</v>
-      </c>
-      <c r="W8" s="10">
-        <v>0.53420000000000001</v>
-      </c>
-      <c r="X8" s="11">
-        <v>0.47060000000000002</v>
-      </c>
-      <c r="Y8" s="12">
-        <v>0.50039999999999996</v>
-      </c>
-      <c r="Z8" s="10">
-        <v>0.29720000000000002</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>0.67930000000000001</v>
-      </c>
-      <c r="AB8" s="12">
-        <v>0.41349999999999998</v>
-      </c>
-      <c r="AC8" s="10">
-        <v>0.18809999999999999</v>
-      </c>
-      <c r="AD8" s="13">
-        <v>0.29530000000000001</v>
-      </c>
-      <c r="AE8" s="16">
-        <v>0.2298</v>
-      </c>
-      <c r="AF8" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="AG8" s="11">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="AH8" s="12">
-        <v>0.83379999999999999</v>
-      </c>
-      <c r="AI8" s="11">
-        <v>0.66639999999999999</v>
-      </c>
-      <c r="AJ8" s="11">
-        <v>0.68830000000000002</v>
-      </c>
-      <c r="AK8" s="12">
-        <v>0.67720000000000002</v>
-      </c>
-      <c r="AL8" s="10">
-        <f t="shared" ref="AL8" si="4">AVERAGE(B8,E8,H8,N8,Q8,T8,W8,Z8,AC8,AF8,AI8)</f>
-        <v>0.46051818181818188</v>
-      </c>
-      <c r="AM8" s="11">
-        <f t="shared" ref="AM8" si="5">AVERAGE(C8,F8,I8,O8,R8,U8,X8,AA8,AD8,AG8,AJ8)</f>
-        <v>0.63309090909090926</v>
-      </c>
-      <c r="AN8" s="12">
-        <f t="shared" ref="AN8" si="6">AVERAGE(D8,G8,J8,P8,S8,V8,Y8,AB8,AE8,AH8,AK8)</f>
-        <v>0.51304545454545458</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="12"/>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="5"/>
@@ -11894,7 +11807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>

--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="135">
   <si>
     <t>DEVEL</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>SVM appearance balanced</t>
+  </si>
+  <si>
+    <t>SVM static weights</t>
+  </si>
+  <si>
+    <t>SVM dynamic weights</t>
   </si>
 </sst>
 </file>
@@ -10118,10 +10124,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AN13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10925,44 +10931,86 @@
       <c r="AH7" s="12">
         <v>0.8306</v>
       </c>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="12"/>
+      <c r="AI7" s="11">
+        <v>0.6976</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="AK7" s="12">
+        <v>0.70379999999999998</v>
+      </c>
       <c r="AL7" s="10">
         <f t="shared" si="1"/>
-        <v>0.54032000000000002</v>
+        <v>0.55461818181818179</v>
       </c>
       <c r="AM7" s="11">
         <f t="shared" si="2"/>
-        <v>0.52432000000000001</v>
+        <v>0.54120000000000001</v>
       </c>
       <c r="AN7" s="12">
         <f t="shared" si="3"/>
-        <v>0.52519999999999989</v>
+        <v>0.5414363636363636</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
+      <c r="B8" s="10">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.1336</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.4899</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.6008</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.19969999999999999</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0.45960000000000001</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0.70179999999999998</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0.55549999999999999</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="S8" s="12">
+        <v>0.42709999999999998</v>
+      </c>
       <c r="T8" s="10"/>
       <c r="U8" s="11"/>
       <c r="V8" s="12"/>
@@ -10981,51 +11029,391 @@
       <c r="AI8" s="11"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="12"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="12"/>
+      <c r="AL8" s="10">
+        <f t="shared" ref="AL8:AL10" si="4">AVERAGE(B8,E8,H8,N8,Q8,T8,W8,Z8,AC8,AF8,AI8)</f>
+        <v>0.39041999999999999</v>
+      </c>
+      <c r="AM8" s="11">
+        <f t="shared" ref="AM8:AM10" si="5">AVERAGE(C8,F8,I8,O8,R8,U8,X8,AA8,AD8,AG8,AJ8)</f>
+        <v>0.47964000000000001</v>
+      </c>
+      <c r="AN8" s="12">
+        <f t="shared" ref="AN8:AN10" si="6">AVERAGE(D8,G8,J8,P8,S8,V8,Y8,AB8,AE8,AH8,AK8)</f>
+        <v>0.40565999999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="5"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="12"/>
+      <c r="A9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.3417</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.26329999999999998</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.2974</v>
+      </c>
+      <c r="E9" s="15">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.1011</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.39589999999999997</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.1641</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.1963</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0.17879999999999999</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0.44869999999999999</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0.1641</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="V9" s="12">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0.31219999999999998</v>
+      </c>
+      <c r="X9" s="11">
+        <v>0.3246</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>0.31830000000000003</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0.1489</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>0.83560000000000001</v>
+      </c>
+      <c r="AH9" s="12">
+        <v>0.81530000000000002</v>
+      </c>
+      <c r="AI9" s="11">
+        <v>0.5585</v>
+      </c>
+      <c r="AJ9" s="11">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="AK9" s="12">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="AL9" s="10">
+        <f t="shared" si="4"/>
+        <v>0.35528181818181814</v>
+      </c>
+      <c r="AM9" s="11">
+        <f t="shared" si="5"/>
+        <v>0.64400909090909098</v>
+      </c>
+      <c r="AN9" s="12">
+        <f t="shared" si="6"/>
+        <v>0.42369090909090906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.2369</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.2722</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.2581</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.3412</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.11940000000000001</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0.308</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0.4501</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0.34420000000000001</v>
+      </c>
+      <c r="R10" s="11">
+        <v>0.63660000000000005</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0.44690000000000002</v>
+      </c>
+      <c r="T10" s="10">
+        <v>0.69679999999999997</v>
+      </c>
+      <c r="U10" s="11">
+        <v>0.8629</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="W10" s="10">
+        <v>0.46310000000000001</v>
+      </c>
+      <c r="X10" s="11">
+        <v>0.47049999999999997</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0.46679999999999999</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>0.65710000000000002</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>0.40679999999999999</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>0.1759</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>0.41870000000000002</v>
+      </c>
+      <c r="AE10" s="16">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="AH10" s="12">
+        <v>0.8357</v>
+      </c>
+      <c r="AI10" s="11">
+        <v>0.70440000000000003</v>
+      </c>
+      <c r="AJ10" s="11">
+        <v>0.79479999999999995</v>
+      </c>
+      <c r="AK10" s="12">
+        <v>0.74680000000000002</v>
+      </c>
+      <c r="AL10" s="10">
+        <f t="shared" si="4"/>
+        <v>0.41813636363636353</v>
+      </c>
+      <c r="AM10" s="11">
+        <f t="shared" si="5"/>
+        <v>0.619609090909091</v>
+      </c>
+      <c r="AN10" s="12">
+        <f t="shared" si="6"/>
+        <v>0.47940909090909095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="12"/>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="12"/>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11043,7 +11431,7 @@
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="K1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D9">
+  <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11055,7 +11443,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G9">
+  <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11067,7 +11455,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J9">
+  <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11079,7 +11467,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P9">
+  <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11091,7 +11479,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S9">
+  <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11103,7 +11491,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V9">
+  <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11115,7 +11503,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y9">
+  <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11127,7 +11515,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB9">
+  <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11139,7 +11527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE9">
+  <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11151,7 +11539,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH9">
+  <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11163,7 +11551,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK3:AK9">
+  <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11175,7 +11563,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN3:AN9">
+  <conditionalFormatting sqref="AN3:AN13">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11187,7 +11575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D9">
+  <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11199,7 +11587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G9">
+  <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11211,7 +11599,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J9">
+  <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11223,7 +11611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P9">
+  <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11235,7 +11623,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S9">
+  <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11247,7 +11635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V9">
+  <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11259,7 +11647,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y9">
+  <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11271,7 +11659,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB9">
+  <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11283,7 +11671,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE9">
+  <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11295,7 +11683,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH9">
+  <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11307,7 +11695,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK3:AK9">
+  <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11319,7 +11707,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G9">
+  <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11331,7 +11719,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y9">
+  <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11343,7 +11731,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH9">
+  <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11355,7 +11743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J9">
+  <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11367,7 +11755,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P9">
+  <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11379,7 +11767,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE4:AE9">
+  <conditionalFormatting sqref="AE4:AE13">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11391,7 +11779,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P9">
+  <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11403,7 +11791,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P9">
+  <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11415,7 +11803,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH9">
+  <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11427,7 +11815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE9">
+  <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11439,7 +11827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V9">
+  <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11451,7 +11839,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S9">
+  <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11463,7 +11851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J9">
+  <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11475,7 +11863,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G9">
+  <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11487,7 +11875,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D9">
+  <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11499,7 +11887,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK3:AK9">
+  <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11511,7 +11899,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH9">
+  <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11523,7 +11911,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE9">
+  <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11535,7 +11923,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB9">
+  <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11547,7 +11935,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P9">
+  <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11559,7 +11947,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y9">
+  <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11571,7 +11959,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V9">
+  <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11583,7 +11971,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK3:AK9">
+  <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11595,7 +11983,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH9">
+  <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11607,7 +11995,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE9">
+  <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11619,7 +12007,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB9">
+  <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11631,7 +12019,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y9">
+  <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11643,7 +12031,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V9">
+  <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11655,7 +12043,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S9">
+  <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11667,7 +12055,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P9">
+  <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11679,7 +12067,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J9">
+  <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11691,7 +12079,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G9">
+  <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11703,7 +12091,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D9">
+  <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11715,7 +12103,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M9">
+  <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11727,7 +12115,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M9">
+  <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11739,7 +12127,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M9">
+  <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11751,7 +12139,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M9">
+  <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11763,7 +12151,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M9">
+  <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11775,7 +12163,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M9">
+  <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11787,7 +12175,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M9">
+  <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="BP4D" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="BP4D_intensity" sheetId="3" r:id="rId4"/>
     <sheet name="BP4D_int_seg" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="141">
   <si>
     <t>DEVEL</t>
   </si>
@@ -423,13 +423,31 @@
   </si>
   <si>
     <t>SVM dynamic weights</t>
+  </si>
+  <si>
+    <t>BP4D SVM SEMAINE train static</t>
+  </si>
+  <si>
+    <t>BP4D SVM SEMAINE train dynamic</t>
+  </si>
+  <si>
+    <t>BP4D SVM DISFA train static</t>
+  </si>
+  <si>
+    <t>BP4D SVM DISFA train dynamic</t>
+  </si>
+  <si>
+    <t>Combined SVM static</t>
+  </si>
+  <si>
+    <t>Combined SVM dynamic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +759,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -775,6 +794,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -950,20 +970,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="2" max="37" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
@@ -1025,7 +1045,7 @@
       <c r="AJ1" s="37"/>
       <c r="AK1" s="38"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -1254,7 +1274,7 @@
         <v>0.26816666666666661</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1346,7 +1366,7 @@
         <v>0.25200000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -1438,7 +1458,7 @@
         <v>0.23471428571428571</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.5" customHeight="1">
+    <row r="6" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1530,7 +1550,7 @@
         <v>0.3408571428571428</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1622,7 +1642,7 @@
         <v>0.21928571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1738,7 +1758,7 @@
         <v>0.60526363636363623</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1854,7 +1874,7 @@
         <v>0.59264545454545459</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1970,7 +1990,7 @@
         <v>0.59812727272727273</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2086,7 +2106,7 @@
         <v>0.59751818181818195</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -2145,7 +2165,7 @@
       <c r="AJ12" s="11"/>
       <c r="AK12" s="12"/>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -2204,7 +2224,7 @@
       <c r="AJ13" s="11"/>
       <c r="AK13" s="12"/>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2263,7 +2283,7 @@
       <c r="AJ14" s="11"/>
       <c r="AK14" s="12"/>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -2322,7 +2342,7 @@
       <c r="AJ15" s="11"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -2405,7 +2425,7 @@
       <c r="AJ16" s="11"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>43</v>
       </c>
@@ -2488,7 +2508,7 @@
       <c r="AJ17" s="11"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>46</v>
       </c>
@@ -2559,7 +2579,7 @@
       <c r="AJ18" s="11"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>47</v>
       </c>
@@ -2630,7 +2650,7 @@
       <c r="AJ19" s="11"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>52</v>
       </c>
@@ -2746,7 +2766,7 @@
         <v>0.57558181818181819</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>53</v>
       </c>
@@ -2862,7 +2882,7 @@
         <v>0.58974545454545457</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>54</v>
       </c>
@@ -2978,7 +2998,7 @@
         <v>0.58663636363636362</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>55</v>
       </c>
@@ -3094,7 +3114,7 @@
         <v>0.59650909090909088</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>56</v>
       </c>
@@ -3210,7 +3230,7 @@
         <v>0.5917</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>60</v>
       </c>
@@ -3326,7 +3346,7 @@
         <v>0.61232727272727272</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>65</v>
       </c>
@@ -3442,7 +3462,7 @@
         <v>0.58963636363636374</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>66</v>
       </c>
@@ -3558,7 +3578,7 @@
         <v>0.57887272727272732</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>68</v>
       </c>
@@ -3674,7 +3694,7 @@
         <v>0.60222727272727272</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>69</v>
       </c>
@@ -3757,7 +3777,7 @@
       <c r="AJ29" s="11"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>75</v>
       </c>
@@ -3873,7 +3893,7 @@
         <v>0.60204545454545466</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>76</v>
       </c>
@@ -3956,7 +3976,7 @@
       <c r="AJ31" s="11"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>83</v>
       </c>
@@ -4072,7 +4092,7 @@
         <v>0.58684545454545445</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>96</v>
       </c>
@@ -4155,7 +4175,7 @@
       <c r="AJ33" s="11"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>98</v>
       </c>
@@ -4271,7 +4291,7 @@
         <v>0.60236363636363643</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>100</v>
       </c>
@@ -4387,7 +4407,7 @@
         <v>0.55642727272727277</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>101</v>
       </c>
@@ -4503,7 +4523,7 @@
         <v>0.55127272727272725</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>104</v>
       </c>
@@ -4619,7 +4639,7 @@
         <v>0.55403636363636355</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>105</v>
       </c>
@@ -4735,7 +4755,7 @@
         <v>0.54439090909090904</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>108</v>
       </c>
@@ -4851,7 +4871,7 @@
         <v>0.60190909090909095</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>110</v>
       </c>
@@ -4967,7 +4987,7 @@
         <v>0.60019999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>113</v>
       </c>
@@ -5083,7 +5103,7 @@
         <v>0.60027272727272729</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>115</v>
       </c>
@@ -5199,7 +5219,7 @@
         <v>0.59669090909090905</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>130</v>
       </c>
@@ -5315,7 +5335,7 @@
         <v>0.59946363636363642</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>131</v>
       </c>
@@ -5431,13 +5451,22 @@
         <v>0.60235454545454559</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>135</v>
+      </c>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
+      <c r="E45" s="7">
+        <v>0.2223</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0.68769999999999998</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0.33589999999999998</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="8"/>
       <c r="J45" s="9"/>
@@ -5450,18 +5479,30 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
+      <c r="T45" s="7">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="U45" s="8">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="V45" s="8">
+        <v>0.80120000000000002</v>
+      </c>
       <c r="W45" s="7"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
-      <c r="AC45" s="7"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
+      <c r="AC45" s="7">
+        <v>0.43740000000000001</v>
+      </c>
+      <c r="AD45" s="8">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="AE45" s="8">
+        <v>0.58130000000000004</v>
+      </c>
       <c r="AF45" s="7"/>
       <c r="AG45" s="8"/>
       <c r="AH45" s="9"/>
@@ -5469,13 +5510,22 @@
       <c r="AJ45" s="11"/>
       <c r="AK45" s="12"/>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
+      <c r="E46" s="7">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.48180000000000001</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0.31430000000000002</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="8"/>
       <c r="J46" s="9"/>
@@ -5488,18 +5538,30 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
+      <c r="T46" s="7">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="U46" s="8">
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="V46" s="8">
+        <v>0.6925</v>
+      </c>
       <c r="W46" s="7"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="8"/>
-      <c r="AE46" s="8"/>
+      <c r="AC46" s="7">
+        <v>0.34860000000000002</v>
+      </c>
+      <c r="AD46" s="8">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="AE46" s="8">
+        <v>8.7900000000000006E-2</v>
+      </c>
       <c r="AF46" s="7"/>
       <c r="AG46" s="8"/>
       <c r="AH46" s="9"/>
@@ -5507,43 +5569,481 @@
       <c r="AJ46" s="11"/>
       <c r="AK46" s="12"/>
     </row>
-    <row r="47" spans="1:37">
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.62760000000000005</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.20880000000000001</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0.65010000000000001</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.30330000000000001</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0.56469999999999998</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0.6794</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="M47" s="8">
+        <v>0.76559999999999995</v>
+      </c>
       <c r="N47" s="7"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
+      <c r="T47" s="7">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="U47" s="8">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="V47" s="8">
+        <v>0.8417</v>
+      </c>
       <c r="W47" s="7"/>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="8"/>
-      <c r="AE47" s="8"/>
+      <c r="Z47" s="7">
+        <v>0.29920000000000002</v>
+      </c>
+      <c r="AA47" s="8">
+        <v>0.4269</v>
+      </c>
+      <c r="AB47" s="8">
+        <v>0.3518</v>
+      </c>
+      <c r="AC47" s="7">
+        <v>0.48970000000000002</v>
+      </c>
+      <c r="AD47" s="8">
+        <v>0.63949999999999996</v>
+      </c>
+      <c r="AE47" s="8">
+        <v>0.55469999999999997</v>
+      </c>
       <c r="AF47" s="7"/>
       <c r="AG47" s="8"/>
       <c r="AH47" s="9"/>
       <c r="AI47" s="10"/>
       <c r="AJ47" s="11"/>
       <c r="AK47" s="12"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.5242</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0.40360000000000001</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.28239999999999998</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.40279999999999999</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0.48580000000000001</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0.46879999999999999</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0.88080000000000003</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0.55910000000000004</v>
+      </c>
+      <c r="M48" s="8">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="N48" s="7"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="7">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="U48" s="8">
+        <v>0.52790000000000004</v>
+      </c>
+      <c r="V48" s="8">
+        <v>0.67689999999999995</v>
+      </c>
+      <c r="W48" s="7"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="7">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="AA48" s="8">
+        <v>0.2117</v>
+      </c>
+      <c r="AB48" s="8">
+        <v>0.2447</v>
+      </c>
+      <c r="AC48" s="7">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="AD48" s="8">
+        <v>0.52759999999999996</v>
+      </c>
+      <c r="AE48" s="8">
+        <v>0.4854</v>
+      </c>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="12"/>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="12"/>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="12"/>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="12"/>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="12"/>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="12"/>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="9"/>
+      <c r="AI54" s="10"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="12"/>
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="9"/>
+      <c r="AI55" s="10"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="12"/>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5563,9 +6063,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="76">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5575,9 +6075,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="75">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5587,9 +6087,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="74">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5599,9 +6099,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="73">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5611,9 +6111,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="72">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5623,9 +6123,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="71">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5635,9 +6135,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="70">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5647,9 +6147,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="69">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5659,9 +6159,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="68">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5671,9 +6171,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="67">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5683,21 +6183,21 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="66">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK3:AK47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK3:AK56">
     <cfRule type="colorScale" priority="65">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5707,9 +6207,9 @@
   <conditionalFormatting sqref="D3:D17">
     <cfRule type="colorScale" priority="64">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5719,9 +6219,9 @@
   <conditionalFormatting sqref="G3:G11">
     <cfRule type="colorScale" priority="63">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5731,9 +6231,9 @@
   <conditionalFormatting sqref="J3:J11">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5743,9 +6243,9 @@
   <conditionalFormatting sqref="M3:M11">
     <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5755,9 +6255,9 @@
   <conditionalFormatting sqref="P3:P11">
     <cfRule type="colorScale" priority="60">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5767,9 +6267,9 @@
   <conditionalFormatting sqref="S3:S11">
     <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5779,9 +6279,9 @@
   <conditionalFormatting sqref="V3:V11">
     <cfRule type="colorScale" priority="58">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5791,9 +6291,9 @@
   <conditionalFormatting sqref="Y3:Y11">
     <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5803,9 +6303,9 @@
   <conditionalFormatting sqref="AB3:AB11">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5815,9 +6315,9 @@
   <conditionalFormatting sqref="AE3:AE11">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5827,9 +6327,9 @@
   <conditionalFormatting sqref="AH3:AH11">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5839,9 +6339,9 @@
   <conditionalFormatting sqref="G3:G21">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5851,9 +6351,9 @@
   <conditionalFormatting sqref="V3:V21">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5863,9 +6363,9 @@
   <conditionalFormatting sqref="AE3:AE19 AE21">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5875,9 +6375,9 @@
   <conditionalFormatting sqref="J3:J17">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5887,9 +6387,9 @@
   <conditionalFormatting sqref="M3:M17">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5899,9 +6399,9 @@
   <conditionalFormatting sqref="AB4:AB17">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5911,9 +6411,9 @@
   <conditionalFormatting sqref="S8:S18">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5923,9 +6423,9 @@
   <conditionalFormatting sqref="Y8:Y18">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5935,9 +6435,9 @@
   <conditionalFormatting sqref="Y8:Y19">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5947,9 +6447,9 @@
   <conditionalFormatting sqref="S8:S19">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5959,9 +6459,9 @@
   <conditionalFormatting sqref="M3:M19">
     <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5971,9 +6471,9 @@
   <conditionalFormatting sqref="M3:M20">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5983,9 +6483,9 @@
   <conditionalFormatting sqref="AH8:AH20">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5995,9 +6495,9 @@
   <conditionalFormatting sqref="AE3:AE21">
     <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6007,9 +6507,9 @@
   <conditionalFormatting sqref="AB3:AB20">
     <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6019,9 +6519,9 @@
   <conditionalFormatting sqref="Y8:Y20">
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6031,129 +6531,129 @@
   <conditionalFormatting sqref="S3:S24">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P25 P27:P47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P25 P27:P56">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J25 J27:J47 X44:X47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J25 J27:J56 X44:X56">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G25 G27:G47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G25 G27:G56">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D25 D27:D47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D25 D27:D56">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH25 AH27:AH47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3:AH25 AH27:AH56">
     <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE25 AE27:AE47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AE25 AE27:AE56">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB25 AB27:AB47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB25 AB27:AB56">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y25 Y27:Y47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y25 Y27:Y56">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M25 M27:M47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M25 M27:M56">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V25 V27:V47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V25 V27:V56">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6163,273 +6663,273 @@
   <conditionalFormatting sqref="S3:S25">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26:S47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:S56">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P56">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J56">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G56">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D56">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH26:AH47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH26:AH56">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE26:AE47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE26:AE56">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB26:AB47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB26:AB56">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y26:Y47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y26:Y56">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M26:M47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26:M56">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V26:V47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V26:V56">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3:AH56">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AE56">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB56">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y56">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V56">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S56">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P56">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M56">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J56">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G56">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D47">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D56">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -6442,14 +6942,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51:G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
@@ -6470,7 +6970,7 @@
     <col min="22" max="22" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" s="39" t="s">
         <v>3</v>
       </c>
@@ -6519,7 +7019,7 @@
       <c r="AG1" s="40"/>
       <c r="AH1" s="40"/>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -6587,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="17.25" customHeight="1">
+    <row r="3" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>57</v>
       </c>
@@ -6633,20 +7133,11 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
-      <c r="T3" s="7">
-        <f t="shared" ref="T3:T26" si="0">AVERAGE(B3,E3,H3,K3,N3,Q3)</f>
-        <v>0.37050000000000005</v>
-      </c>
-      <c r="U3" s="8">
-        <f t="shared" ref="U3:U26" si="1">AVERAGE(C3,F3,I3,L3,O3,R3)</f>
-        <v>0.51649999999999996</v>
-      </c>
-      <c r="V3" s="9">
-        <f t="shared" ref="V3:V26" si="2">AVERAGE(D3,G3,J3,M3,P3,S3)</f>
-        <v>0.40849999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="T3" s="7"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="9"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>16</v>
       </c>
@@ -6692,20 +7183,11 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
-      <c r="T4" s="7">
-        <f t="shared" si="0"/>
-        <v>0.3785</v>
-      </c>
-      <c r="U4" s="8">
-        <f t="shared" si="1"/>
-        <v>0.53299999999999992</v>
-      </c>
-      <c r="V4" s="9">
-        <f t="shared" si="2"/>
-        <v>0.42475000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1">
+      <c r="T4" s="7"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="9"/>
+    </row>
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>59</v>
       </c>
@@ -6751,20 +7233,11 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
-      <c r="T5" s="7">
-        <f t="shared" si="0"/>
-        <v>0.2545</v>
-      </c>
-      <c r="U5" s="8">
-        <f t="shared" si="1"/>
-        <v>0.39550000000000002</v>
-      </c>
-      <c r="V5" s="9">
-        <f t="shared" si="2"/>
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1">
+      <c r="T5" s="7"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="9"/>
+    </row>
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>58</v>
       </c>
@@ -6810,20 +7283,11 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="7">
-        <f t="shared" si="0"/>
-        <v>0.379</v>
-      </c>
-      <c r="U6" s="8">
-        <f t="shared" si="1"/>
-        <v>0.55425000000000002</v>
-      </c>
-      <c r="V6" s="9">
-        <f t="shared" si="2"/>
-        <v>0.42574999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="T6" s="7"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="9"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
@@ -6882,19 +7346,19 @@
         <v>0.34</v>
       </c>
       <c r="T7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="T3:T26" si="0">AVERAGE(B7,E7,H7,K7,N7,Q7)</f>
         <v>0.36566666666666664</v>
       </c>
       <c r="U7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U3:U26" si="1">AVERAGE(C7,F7,I7,L7,O7,R7)</f>
         <v>0.33338333333333336</v>
       </c>
       <c r="V7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="V3:V26" si="2">AVERAGE(D7,G7,J7,M7,P7,S7)</f>
         <v>0.28861666666666669</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
@@ -6965,7 +7429,7 @@
         <v>0.32611666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>23</v>
       </c>
@@ -7036,7 +7500,7 @@
         <v>0.30031666666666662</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>24</v>
       </c>
@@ -7107,7 +7571,7 @@
         <v>0.33934999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
@@ -7147,20 +7611,11 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="8"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.16550000000000001</v>
-      </c>
-      <c r="U11" s="8">
-        <f t="shared" si="1"/>
-        <v>0.88856666666666673</v>
-      </c>
-      <c r="V11" s="9">
-        <f t="shared" si="2"/>
-        <v>0.26416666666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
+      <c r="T11" s="7"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="9"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>41</v>
       </c>
@@ -7200,20 +7655,11 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="8"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.216</v>
-      </c>
-      <c r="U12" s="8">
-        <f t="shared" si="1"/>
-        <v>0.77633333333333343</v>
-      </c>
-      <c r="V12" s="9">
-        <f t="shared" si="2"/>
-        <v>0.30256666666666665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+      <c r="T12" s="7"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="9"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>38</v>
       </c>
@@ -7253,20 +7699,11 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="8"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="7">
-        <f t="shared" si="0"/>
-        <v>0.17823333333333335</v>
-      </c>
-      <c r="U13" s="8">
-        <f t="shared" si="1"/>
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="V13" s="9">
-        <f t="shared" si="2"/>
-        <v>0.28023333333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+      <c r="T13" s="7"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="9"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>39</v>
       </c>
@@ -7306,20 +7743,11 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="8"/>
       <c r="S14" s="9"/>
-      <c r="T14" s="7">
-        <f t="shared" si="0"/>
-        <v>0.18873333333333331</v>
-      </c>
-      <c r="U14" s="8">
-        <f t="shared" si="1"/>
-        <v>0.80706666666666671</v>
-      </c>
-      <c r="V14" s="9">
-        <f t="shared" si="2"/>
-        <v>0.28770000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+      <c r="T14" s="7"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="9"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>42</v>
       </c>
@@ -7365,20 +7793,11 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="8"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.33002500000000001</v>
-      </c>
-      <c r="U15" s="8">
-        <f t="shared" si="1"/>
-        <v>0.53029999999999999</v>
-      </c>
-      <c r="V15" s="9">
-        <f t="shared" si="2"/>
-        <v>0.40457500000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
+      <c r="T15" s="7"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="9"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>43</v>
       </c>
@@ -7424,20 +7843,11 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="8"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="7">
-        <f t="shared" si="0"/>
-        <v>0.40760000000000002</v>
-      </c>
-      <c r="U16" s="8">
-        <f t="shared" si="1"/>
-        <v>0.52149999999999996</v>
-      </c>
-      <c r="V16" s="9">
-        <f t="shared" si="2"/>
-        <v>0.44357500000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="T16" s="7"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="9"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>44</v>
       </c>
@@ -7508,7 +7918,7 @@
         <v>0.24411666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>45</v>
       </c>
@@ -7579,7 +7989,7 @@
         <v>0.29361666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>32</v>
       </c>
@@ -7650,7 +8060,7 @@
         <v>0.21026666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>33</v>
       </c>
@@ -7721,7 +8131,7 @@
         <v>0.33863333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>61</v>
       </c>
@@ -7792,7 +8202,7 @@
         <v>0.26086666666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>62</v>
       </c>
@@ -7863,7 +8273,7 @@
         <v>0.24983333333333335</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>63</v>
       </c>
@@ -7934,7 +8344,7 @@
         <v>0.2364333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>64</v>
       </c>
@@ -8005,7 +8415,7 @@
         <v>0.36651666666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>72</v>
       </c>
@@ -8051,20 +8461,11 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="8"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="7">
-        <f t="shared" si="0"/>
-        <v>0.34242499999999998</v>
-      </c>
-      <c r="U25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.42257500000000003</v>
-      </c>
-      <c r="V25" s="9">
-        <f t="shared" si="2"/>
-        <v>0.36202499999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="T25" s="7"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="9"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>73</v>
       </c>
@@ -8110,20 +8511,11 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="8"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="7">
-        <f t="shared" si="0"/>
-        <v>0.34842499999999998</v>
-      </c>
-      <c r="U26" s="8">
-        <f t="shared" si="1"/>
-        <v>0.48785000000000001</v>
-      </c>
-      <c r="V26" s="9">
-        <f t="shared" si="2"/>
-        <v>0.38167500000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="T26" s="7"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="9"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>74</v>
       </c>
@@ -8194,7 +8586,7 @@
         <v>0.3566833333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>79</v>
       </c>
@@ -8265,45 +8657,45 @@
         <v>0.31143333333333334</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="7">
-        <v>0.21</v>
+        <v>0.27729999999999999</v>
       </c>
       <c r="C29" s="8">
-        <v>0.64</v>
+        <v>0.40860000000000002</v>
       </c>
       <c r="D29" s="9">
-        <v>0.32</v>
+        <v>0.33040000000000003</v>
       </c>
       <c r="E29" s="7">
-        <v>0.38</v>
+        <v>0.38550000000000001</v>
       </c>
       <c r="F29" s="8">
-        <v>0.76</v>
+        <v>0.83020000000000005</v>
       </c>
       <c r="G29" s="9">
-        <v>0.51</v>
+        <v>0.52649999999999997</v>
       </c>
       <c r="H29" s="7">
-        <v>0.1</v>
+        <v>0.10349999999999999</v>
       </c>
       <c r="I29" s="8">
-        <v>0.88</v>
+        <v>0.90210000000000001</v>
       </c>
       <c r="J29" s="9">
-        <v>0.18</v>
+        <v>0.1857</v>
       </c>
       <c r="K29" s="7">
-        <v>0.3</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="L29" s="8">
-        <v>0.76</v>
+        <v>0.80620000000000003</v>
       </c>
       <c r="M29" s="9">
-        <v>0.43</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="8"/>
@@ -8311,20 +8703,11 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="8"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="7">
-        <f t="shared" ref="T29:T35" si="4">AVERAGE(B29,E29,H29,K29,N29,Q29)</f>
-        <v>0.2475</v>
-      </c>
-      <c r="U29" s="8">
-        <f t="shared" ref="U29:U35" si="5">AVERAGE(C29,F29,I29,L29,O29,R29)</f>
-        <v>0.76</v>
-      </c>
-      <c r="V29" s="9">
-        <f t="shared" ref="V29:V35" si="6">AVERAGE(D29,G29,J29,M29,P29,S29)</f>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="T29" s="7"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="9"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>80</v>
       </c>
@@ -8338,31 +8721,31 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="E30" s="7">
-        <v>0.74099999999999999</v>
+        <v>0.54049999999999998</v>
       </c>
       <c r="F30" s="8">
-        <v>0.17599999999999999</v>
+        <v>0.41949999999999998</v>
       </c>
       <c r="G30" s="9">
-        <v>0.28399999999999997</v>
+        <v>0.47239999999999999</v>
       </c>
       <c r="H30" s="7">
-        <v>0.158</v>
+        <v>0.3493</v>
       </c>
       <c r="I30" s="8">
-        <v>0.71499999999999997</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="J30" s="9">
-        <v>0.25900000000000001</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="K30" s="7">
-        <v>0.27800000000000002</v>
+        <v>0.26590000000000003</v>
       </c>
       <c r="L30" s="8">
-        <v>0.40500000000000003</v>
+        <v>0.4778</v>
       </c>
       <c r="M30" s="9">
-        <v>0.33</v>
+        <v>0.34160000000000001</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="8"/>
@@ -8370,20 +8753,11 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="8"/>
       <c r="S30" s="9"/>
-      <c r="T30" s="7">
-        <f t="shared" si="4"/>
-        <v>0.44499999999999995</v>
-      </c>
-      <c r="U30" s="8">
-        <f t="shared" si="5"/>
-        <v>0.44249999999999995</v>
-      </c>
-      <c r="V30" s="9">
-        <f t="shared" si="6"/>
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="T30" s="7"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="9"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>81</v>
       </c>
@@ -8423,20 +8797,11 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="8"/>
       <c r="S31" s="9"/>
-      <c r="T31" s="7">
-        <f t="shared" si="4"/>
-        <v>0.2208333333333333</v>
-      </c>
-      <c r="U31" s="8">
-        <f t="shared" si="5"/>
-        <v>0.76846666666666674</v>
-      </c>
-      <c r="V31" s="9">
-        <f t="shared" si="6"/>
-        <v>0.31570000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="T31" s="7"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="9"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>82</v>
       </c>
@@ -8476,20 +8841,11 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="8"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="7">
-        <f t="shared" si="4"/>
-        <v>0.18646666666666667</v>
-      </c>
-      <c r="U32" s="8">
-        <f t="shared" si="5"/>
-        <v>0.92316666666666658</v>
-      </c>
-      <c r="V32" s="9">
-        <f t="shared" si="6"/>
-        <v>0.29619999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="T32" s="7"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="9"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>85</v>
       </c>
@@ -8535,20 +8891,11 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="8"/>
       <c r="S33" s="9"/>
-      <c r="T33" s="7">
-        <f t="shared" si="4"/>
-        <v>0.35575000000000001</v>
-      </c>
-      <c r="U33" s="8">
-        <f t="shared" si="5"/>
-        <v>0.55970000000000009</v>
-      </c>
-      <c r="V33" s="9">
-        <f t="shared" si="6"/>
-        <v>0.42807499999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="T33" s="7"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="9"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>86</v>
       </c>
@@ -8594,20 +8941,11 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="8"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="7">
-        <f t="shared" si="4"/>
-        <v>0.38384999999999997</v>
-      </c>
-      <c r="U34" s="8">
-        <f t="shared" si="5"/>
-        <v>0.48897499999999994</v>
-      </c>
-      <c r="V34" s="9">
-        <f t="shared" si="6"/>
-        <v>0.41767499999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="T34" s="7"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="9"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
         <v>112</v>
       </c>
@@ -8666,19 +9004,19 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="T35" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="T29:T35" si="4">AVERAGE(B35,E35,H35,K35,N35,Q35)</f>
         <v>0.47583333333333333</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="U29:U35" si="5">AVERAGE(C35,F35,I35,L35,O35,R35)</f>
         <v>0.45366666666666666</v>
       </c>
       <c r="V35" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="V29:V35" si="6">AVERAGE(D35,G35,J35,M35,P35,S35)</f>
         <v>0.43949999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
         <v>101</v>
       </c>
@@ -8749,7 +9087,7 @@
         <v>0.4020333333333333</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
         <v>100</v>
       </c>
@@ -8820,7 +9158,7 @@
         <v>0.31708333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
         <v>102</v>
       </c>
@@ -8891,7 +9229,7 @@
         <v>0.35005000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>103</v>
       </c>
@@ -8962,7 +9300,7 @@
         <v>0.28153333333333336</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
         <v>106</v>
       </c>
@@ -9033,7 +9371,7 @@
         <v>0.4820166666666667</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
         <v>107</v>
       </c>
@@ -9104,7 +9442,7 @@
         <v>0.37363333333333332</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
         <v>109</v>
       </c>
@@ -9175,7 +9513,7 @@
         <v>0.47994999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
         <v>111</v>
       </c>
@@ -9246,7 +9584,7 @@
         <v>0.48656666666666665</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
         <v>114</v>
       </c>
@@ -9317,7 +9655,7 @@
         <v>0.4806333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
         <v>116</v>
       </c>
@@ -9388,7 +9726,7 @@
         <v>0.48016666666666663</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
         <v>117</v>
       </c>
@@ -9459,7 +9797,7 @@
         <v>0.4773</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
         <v>118</v>
       </c>
@@ -9530,7 +9868,7 @@
         <v>0.37890000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
         <v>128</v>
       </c>
@@ -9601,7 +9939,7 @@
         <v>0.49058333333333332</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
         <v>129</v>
       </c>
@@ -9672,19 +10010,37 @@
         <v>0.39218333333333333</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="9"/>
+      <c r="B50" s="7">
+        <v>0.1749</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.2918</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.54010000000000002</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.1052</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0.18709999999999999</v>
+      </c>
       <c r="K50" s="7"/>
       <c r="L50" s="8"/>
       <c r="M50" s="9"/>
@@ -9698,22 +10054,46 @@
       <c r="U50" s="8"/>
       <c r="V50" s="9"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="9"/>
+      <c r="B51" s="7">
+        <v>0.47349999999999998</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.51229999999999998</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.68540000000000001</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.3715</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.4819</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.30109999999999998</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0.436</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0.45269999999999999</v>
+      </c>
+      <c r="M51" s="9">
+        <v>0.34839999999999999</v>
+      </c>
       <c r="N51" s="7"/>
       <c r="O51" s="8"/>
       <c r="P51" s="9"/>
@@ -9724,19 +10104,37 @@
       <c r="U51" s="8"/>
       <c r="V51" s="9"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.1749</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.2918</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0.50849999999999995</v>
+      </c>
+      <c r="H52" s="7">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="J52" s="9">
+        <v>0.12809999999999999</v>
+      </c>
       <c r="K52" s="7"/>
       <c r="L52" s="8"/>
       <c r="M52" s="9"/>
@@ -9750,19 +10148,37 @@
       <c r="U52" s="8"/>
       <c r="V52" s="9"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0.43419999999999997</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.36059999999999998</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0.50890000000000002</v>
+      </c>
+      <c r="H53" s="7">
+        <v>9.35E-2</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0.1673</v>
+      </c>
       <c r="K53" s="7"/>
       <c r="L53" s="8"/>
       <c r="M53" s="9"/>
@@ -9776,7 +10192,7 @@
       <c r="U53" s="8"/>
       <c r="V53" s="9"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
         <v>123</v>
       </c>
@@ -9802,7 +10218,7 @@
       <c r="U54" s="8"/>
       <c r="V54" s="9"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
         <v>124</v>
       </c>
@@ -9828,7 +10244,7 @@
       <c r="U55" s="8"/>
       <c r="V55" s="9"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
@@ -9853,24 +10269,24 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9880,9 +10296,9 @@
   <conditionalFormatting sqref="G3:G10">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9892,9 +10308,9 @@
   <conditionalFormatting sqref="J3:J10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9904,9 +10320,9 @@
   <conditionalFormatting sqref="M3:M10">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9916,9 +10332,9 @@
   <conditionalFormatting sqref="P7:P10">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9928,9 +10344,9 @@
   <conditionalFormatting sqref="S7:S10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9940,9 +10356,9 @@
   <conditionalFormatting sqref="M3:M15">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9952,9 +10368,9 @@
   <conditionalFormatting sqref="M3:M16">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9964,9 +10380,9 @@
   <conditionalFormatting sqref="M3:M18">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9976,9 +10392,9 @@
   <conditionalFormatting sqref="P7:P18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9988,9 +10404,9 @@
   <conditionalFormatting sqref="S7:S18">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10000,9 +10416,9 @@
   <conditionalFormatting sqref="M4:M21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10012,9 +10428,9 @@
   <conditionalFormatting sqref="P4:P21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10024,9 +10440,9 @@
   <conditionalFormatting sqref="S4:S21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10036,9 +10452,9 @@
   <conditionalFormatting sqref="V3:V56">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10048,9 +10464,9 @@
   <conditionalFormatting sqref="D3:D56">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10060,9 +10476,9 @@
   <conditionalFormatting sqref="G3:G56">
     <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10072,9 +10488,9 @@
   <conditionalFormatting sqref="J3:J56">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10084,9 +10500,9 @@
   <conditionalFormatting sqref="M3:M56">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10096,9 +10512,9 @@
   <conditionalFormatting sqref="P3:P56">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10108,9 +10524,9 @@
   <conditionalFormatting sqref="S3:S56">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -10123,14 +10539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="31" width="4.5703125" bestFit="1" customWidth="1"/>
@@ -10139,7 +10555,7 @@
     <col min="38" max="40" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
@@ -10206,7 +10622,7 @@
       <c r="AM1" s="37"/>
       <c r="AN1" s="38"/>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10328,7 +10744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>91</v>
       </c>
@@ -10453,7 +10869,7 @@
         <v>0.45634545454545455</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>92</v>
       </c>
@@ -10578,7 +10994,7 @@
         <v>0.49341818181818181</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>93</v>
       </c>
@@ -10703,7 +11119,7 @@
         <v>0.4236454545454546</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>94</v>
       </c>
@@ -10828,7 +11244,7 @@
         <v>0.51095454545454555</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>127</v>
       </c>
@@ -10953,7 +11369,7 @@
         <v>0.5414363636363636</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>126</v>
       </c>
@@ -11011,38 +11427,74 @@
       <c r="S8" s="12">
         <v>0.42709999999999998</v>
       </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="12"/>
+      <c r="T8" s="10">
+        <v>0.79469999999999996</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0.8982</v>
+      </c>
+      <c r="V8" s="12">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0.32119999999999999</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>0.15079999999999999</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>0.71889999999999998</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>0.45269999999999999</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>0.84350000000000003</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>0.65710000000000002</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AK8" s="12">
+        <v>0.72319999999999995</v>
+      </c>
       <c r="AL8" s="10">
         <f t="shared" ref="AL8:AL10" si="4">AVERAGE(B8,E8,H8,N8,Q8,T8,W8,Z8,AC8,AF8,AI8)</f>
-        <v>0.39041999999999999</v>
+        <v>0.43726363636363635</v>
       </c>
       <c r="AM8" s="11">
         <f t="shared" ref="AM8:AM10" si="5">AVERAGE(C8,F8,I8,O8,R8,U8,X8,AA8,AD8,AG8,AJ8)</f>
-        <v>0.47964000000000001</v>
+        <v>0.58036363636363641</v>
       </c>
       <c r="AN8" s="12">
         <f t="shared" ref="AN8:AN10" si="6">AVERAGE(D8,G8,J8,P8,S8,V8,Y8,AB8,AE8,AH8,AK8)</f>
-        <v>0.40565999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.46478181818181824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>133</v>
       </c>
@@ -11167,7 +11619,7 @@
         <v>0.42369090909090906</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>134</v>
       </c>
@@ -11292,7 +11744,7 @@
         <v>0.47940909090909095</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
@@ -11333,7 +11785,7 @@
       <c r="AM11" s="11"/>
       <c r="AN11" s="12"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -11374,7 +11826,7 @@
       <c r="AM12" s="11"/>
       <c r="AN12" s="12"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
@@ -11434,9 +11886,9 @@
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="63">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11446,9 +11898,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11458,9 +11910,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11470,9 +11922,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="60">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11482,9 +11934,9 @@
   <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11494,9 +11946,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="58">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11506,9 +11958,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11518,9 +11970,9 @@
   <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11530,9 +11982,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11542,9 +11994,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11554,9 +12006,9 @@
   <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11566,9 +12018,9 @@
   <conditionalFormatting sqref="AN3:AN13">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11578,9 +12030,9 @@
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11590,9 +12042,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11602,9 +12054,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11614,9 +12066,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11626,9 +12078,9 @@
   <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11638,9 +12090,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11650,9 +12102,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11662,9 +12114,9 @@
   <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11674,9 +12126,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11686,9 +12138,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11698,9 +12150,9 @@
   <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11710,9 +12162,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11722,9 +12174,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11734,9 +12186,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11746,9 +12198,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11758,9 +12210,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11770,9 +12222,9 @@
   <conditionalFormatting sqref="AE4:AE13">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11782,9 +12234,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11794,9 +12246,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11806,9 +12258,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11818,9 +12270,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11830,9 +12282,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11842,9 +12294,9 @@
   <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11854,9 +12306,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11866,9 +12318,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11878,9 +12330,9 @@
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11890,9 +12342,9 @@
   <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11902,9 +12354,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11914,9 +12366,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11926,9 +12378,9 @@
   <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11938,9 +12390,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11950,9 +12402,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11962,9 +12414,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11974,9 +12426,9 @@
   <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11986,9 +12438,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -11998,9 +12450,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12010,9 +12462,9 @@
   <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12022,9 +12474,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12034,9 +12486,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12046,9 +12498,9 @@
   <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12058,9 +12510,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12070,9 +12522,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12082,9 +12534,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12094,9 +12546,9 @@
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12106,9 +12558,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12118,9 +12570,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12130,9 +12582,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12142,9 +12594,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12154,9 +12606,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12166,9 +12618,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12178,9 +12630,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12192,14 +12644,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -12216,7 +12668,7 @@
     <col min="13" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="39" t="s">
         <v>5</v>
       </c>
@@ -12242,7 +12694,7 @@
       </c>
       <c r="M1" s="38"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>48</v>
       </c>
@@ -12280,7 +12732,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>46</v>
       </c>
@@ -12328,7 +12780,7 @@
         <v>1.0845751025000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>47</v>
       </c>
@@ -12376,7 +12828,7 @@
         <v>1.3607243325</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>50</v>
       </c>
@@ -12424,7 +12876,7 @@
         <v>1.1540821750000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>51</v>
       </c>
@@ -12472,7 +12924,7 @@
         <v>1.4101859700000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>95</v>
       </c>
@@ -12500,7 +12952,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>97</v>
       </c>
@@ -12514,7 +12966,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>67</v>
       </c>
@@ -12555,7 +13007,7 @@
         <v>0.942025</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>70</v>
       </c>
@@ -12592,7 +13044,7 @@
         <v>0.93303333333333338</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>77</v>
       </c>
@@ -12623,7 +13075,7 @@
         <v>0.73710000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>78</v>
       </c>
@@ -12654,7 +13106,7 @@
         <v>0.73635000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>99</v>
       </c>
@@ -12697,7 +13149,7 @@
         <v>1.1484999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>132</v>
       </c>
@@ -12740,7 +13192,7 @@
         <v>0.76200000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="30"/>
       <c r="F15" s="30"/>
@@ -12748,7 +13200,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="30"/>
       <c r="F16" s="30"/>
@@ -12768,9 +13220,9 @@
   <conditionalFormatting sqref="M3:M16">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -12780,9 +13232,9 @@
   <conditionalFormatting sqref="L3:L16">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12792,9 +13244,9 @@
   <conditionalFormatting sqref="B3:B6 B9">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12804,9 +13256,9 @@
   <conditionalFormatting sqref="D3:D6 D9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12816,9 +13268,9 @@
   <conditionalFormatting sqref="F3:F6 F9">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12828,9 +13280,9 @@
   <conditionalFormatting sqref="H3:H7 H9">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12840,9 +13292,9 @@
   <conditionalFormatting sqref="J3:J7 J9">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12852,9 +13304,9 @@
   <conditionalFormatting sqref="C3:C6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -12864,9 +13316,9 @@
   <conditionalFormatting sqref="E3:E6">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -12876,9 +13328,9 @@
   <conditionalFormatting sqref="G3:G7">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -12888,9 +13340,9 @@
   <conditionalFormatting sqref="I3:I6">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -12900,9 +13352,9 @@
   <conditionalFormatting sqref="K3:K6">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -12912,9 +13364,9 @@
   <conditionalFormatting sqref="B3:B16">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12924,9 +13376,9 @@
   <conditionalFormatting sqref="C3:C16">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -12936,9 +13388,9 @@
   <conditionalFormatting sqref="D3:D16">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12948,9 +13400,9 @@
   <conditionalFormatting sqref="E3:E16">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -12960,9 +13412,9 @@
   <conditionalFormatting sqref="F3:F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12972,9 +13424,9 @@
   <conditionalFormatting sqref="G3:G16">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -12984,9 +13436,9 @@
   <conditionalFormatting sqref="H3:H16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12996,9 +13448,9 @@
   <conditionalFormatting sqref="I3:I16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13008,9 +13460,9 @@
   <conditionalFormatting sqref="J3:J16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13020,9 +13472,9 @@
   <conditionalFormatting sqref="K3:K16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13035,14 +13487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -13059,7 +13511,7 @@
     <col min="13" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="39" t="s">
         <v>5</v>
       </c>
@@ -13085,7 +13537,7 @@
       </c>
       <c r="M1" s="38"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
         <v>48</v>
       </c>
@@ -13123,7 +13575,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>99</v>
       </c>
@@ -13166,13 +13618,13 @@
         <v>0.65325</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
   </sheetData>
@@ -13187,9 +13639,9 @@
   <conditionalFormatting sqref="M3">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13199,9 +13651,9 @@
   <conditionalFormatting sqref="L3">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13211,9 +13663,9 @@
   <conditionalFormatting sqref="B3">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13223,9 +13675,9 @@
   <conditionalFormatting sqref="C3">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13235,9 +13687,9 @@
   <conditionalFormatting sqref="D3">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13247,9 +13699,9 @@
   <conditionalFormatting sqref="E3">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13259,9 +13711,9 @@
   <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13271,9 +13723,9 @@
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13283,9 +13735,9 @@
   <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13295,9 +13747,9 @@
   <conditionalFormatting sqref="I3">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13307,9 +13759,9 @@
   <conditionalFormatting sqref="J3">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13319,9 +13771,9 @@
   <conditionalFormatting sqref="K3">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>

--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BP4D" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="190">
   <si>
     <t>DEVEL</t>
   </si>
@@ -440,7 +440,154 @@
     <t>Combined SVM static</t>
   </si>
   <si>
-    <t>Combined SVM dynamic</t>
+    <t>Dynamic static SVM</t>
+  </si>
+  <si>
+    <t>Geom params rebalanced static</t>
+  </si>
+  <si>
+    <t>Geom params rebalanced dynamic</t>
+  </si>
+  <si>
+    <t>Locs rebalanced static</t>
+  </si>
+  <si>
+    <t>Locs rebalanced dynamic</t>
+  </si>
+  <si>
+    <t>Locs rebalanced euclidean dynamic (1st attempt)</t>
+  </si>
+  <si>
+    <t>Locs rebalanced euclidean dynamic (median after)</t>
+  </si>
+  <si>
+    <t>BP4D rebalanced pure geom (params) static</t>
+  </si>
+  <si>
+    <t>BP4D rebalanced pure geom (loc) static</t>
+  </si>
+  <si>
+    <t>BP4D rebalanced pure geom (loc no M) static</t>
+  </si>
+  <si>
+    <t>BP4D no 3D</t>
+  </si>
+  <si>
+    <t>BP4D extra distances and angles</t>
+  </si>
+  <si>
+    <t>BP4D dists</t>
+  </si>
+  <si>
+    <t>BP4D angles</t>
+  </si>
+  <si>
+    <t>BP4D locs no M</t>
+  </si>
+  <si>
+    <t>BP4D feat select (SVM sfs)</t>
+  </si>
+  <si>
+    <t>Locs params rebalanced, static, no scaling</t>
+  </si>
+  <si>
+    <t>Locs params rebalanced, dynamic, no scaling</t>
+  </si>
+  <si>
+    <t>Locs params rebalanced, static,  scaling</t>
+  </si>
+  <si>
+    <t>Locs params rebalanced, dynamic,  scaling</t>
+  </si>
+  <si>
+    <t>Locs params rebalanced, static, no scaling, no M</t>
+  </si>
+  <si>
+    <t>Locs params rebalanced, dynamic, no scaling, no M</t>
+  </si>
+  <si>
+    <t>BP4D locs params static (scaling)</t>
+  </si>
+  <si>
+    <t>BP4D locs params static (no scaling)</t>
+  </si>
+  <si>
+    <t>Train SEMAINE camera ready static (locs+params)</t>
+  </si>
+  <si>
+    <t>Train SEMAINE camera ready dynamic (locs+params)</t>
+  </si>
+  <si>
+    <t>BP4D camera ready (locs params) static</t>
+  </si>
+  <si>
+    <t>BP4D camera ready (locs params) dynamic</t>
+  </si>
+  <si>
+    <t>SVM static cam ready</t>
+  </si>
+  <si>
+    <t>SVM dynamic cam ready</t>
+  </si>
+  <si>
+    <t>Train BP4D targeted dynamic</t>
+  </si>
+  <si>
+    <t>Train BP4D targeted static</t>
+  </si>
+  <si>
+    <t>Train DISFA targeted dynamic</t>
+  </si>
+  <si>
+    <t>Train DISFA targeted static</t>
+  </si>
+  <si>
+    <t>Train all targeted static</t>
+  </si>
+  <si>
+    <t>Train all targeted dynamic</t>
+  </si>
+  <si>
+    <t>DISFA trained static, targeted</t>
+  </si>
+  <si>
+    <t>SEMAINE trained static, targeted</t>
+  </si>
+  <si>
+    <t>All trained static, targeted</t>
+  </si>
+  <si>
+    <t>DISFA trained dynamic, targeted</t>
+  </si>
+  <si>
+    <t>SEMAINE trained dynamic, targeted</t>
+  </si>
+  <si>
+    <t>All trained dynamic targeted</t>
+  </si>
+  <si>
+    <t>SVM camera ready balanced static</t>
+  </si>
+  <si>
+    <t>SVM camera ready balanced dynamic</t>
+  </si>
+  <si>
+    <t>DISFA balanced static</t>
+  </si>
+  <si>
+    <t>Joint balanced static</t>
+  </si>
+  <si>
+    <t>Static rebalanced</t>
+  </si>
+  <si>
+    <t>Static disfa</t>
+  </si>
+  <si>
+    <t>static both</t>
+  </si>
+  <si>
+    <t>Semaine submitted v 3</t>
   </si>
 </sst>
 </file>
@@ -601,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -669,6 +816,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -971,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK56"/>
+  <dimension ref="A1:AK68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47:M47"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE65" sqref="AE65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5739,36 +5888,78 @@
       <c r="A49" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
+      <c r="B49" s="7">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.57210000000000005</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.43290000000000001</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.26119999999999999</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0.4264</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.37559999999999999</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0.56989999999999996</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0.45279999999999998</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="M49" s="8">
+        <v>0.77610000000000001</v>
+      </c>
       <c r="N49" s="7"/>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
+      <c r="T49" s="7">
+        <v>0.88180000000000003</v>
+      </c>
+      <c r="U49" s="8">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="V49" s="8">
+        <v>0.87060000000000004</v>
+      </c>
       <c r="W49" s="7"/>
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="7"/>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="8"/>
+      <c r="Z49" s="7">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="AA49" s="8">
+        <v>0.63949999999999996</v>
+      </c>
+      <c r="AB49" s="8">
+        <v>0.4491</v>
+      </c>
+      <c r="AC49" s="7">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="AD49" s="8">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="AE49" s="8">
+        <v>0.60770000000000002</v>
+      </c>
       <c r="AF49" s="7"/>
       <c r="AG49" s="8"/>
       <c r="AH49" s="9"/>
@@ -5778,272 +5969,1955 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="7"/>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="8"/>
-      <c r="AF50" s="7"/>
-      <c r="AG50" s="8"/>
-      <c r="AH50" s="9"/>
-      <c r="AI50" s="10"/>
-      <c r="AJ50" s="11"/>
-      <c r="AK50" s="12"/>
+        <v>147</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.4294</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.43919999999999998</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0.5796</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.4214</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0.64590000000000003</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0.43009999999999998</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="M50" s="8">
+        <v>0.75280000000000002</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0.73060000000000003</v>
+      </c>
+      <c r="O50" s="8">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="P50" s="8">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="R50" s="8">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="S50" s="8">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="T50" s="7">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="U50" s="8">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="V50" s="8">
+        <v>0.83919999999999995</v>
+      </c>
+      <c r="W50" s="7">
+        <v>0.4879</v>
+      </c>
+      <c r="X50" s="8">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="Y50" s="8">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="Z50" s="7">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AA50" s="8">
+        <v>0.58709999999999996</v>
+      </c>
+      <c r="AB50" s="8">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="AC50" s="7">
+        <v>0.45910000000000001</v>
+      </c>
+      <c r="AD50" s="8">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="AE50" s="8">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="AF50" s="7">
+        <v>0.20860000000000001</v>
+      </c>
+      <c r="AG50" s="8">
+        <v>0.51770000000000005</v>
+      </c>
+      <c r="AH50" s="9">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="AI50" s="10">
+        <f t="shared" ref="AI50" si="21">AVERAGE(B50,E50,H50,K50,N50,Q50,T50,W50,Z50,AC50,AF50)</f>
+        <v>0.50994545454545459</v>
+      </c>
+      <c r="AJ50" s="11">
+        <f t="shared" ref="AJ50" si="22">AVERAGE(C50,F50,I50,L50,O50,R50,U50,X50,AA50,AD50,AG50)</f>
+        <v>0.69713636363636367</v>
+      </c>
+      <c r="AK50" s="12">
+        <f t="shared" ref="AK50" si="23">AVERAGE(D50,G50,J50,M50,P50,S50,V50,Y50,AB50,AE50,AH50)</f>
+        <v>0.57202727272727261</v>
+      </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="7"/>
-      <c r="AD51" s="8"/>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="7"/>
-      <c r="AG51" s="8"/>
-      <c r="AH51" s="9"/>
-      <c r="AI51" s="10"/>
-      <c r="AJ51" s="11"/>
-      <c r="AK51" s="12"/>
+      <c r="A51" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.6905</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.3861</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.62809999999999999</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.31519999999999998</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0.42480000000000001</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="M51" s="8">
+        <v>0.75219999999999998</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0.73450000000000004</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="P51" s="8">
+        <v>0.74919999999999998</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="R51" s="8">
+        <v>0.83830000000000005</v>
+      </c>
+      <c r="S51" s="8">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="T51" s="7">
+        <v>0.84389999999999998</v>
+      </c>
+      <c r="U51" s="8">
+        <v>0.83109999999999995</v>
+      </c>
+      <c r="V51" s="8">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="W51" s="7">
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="X51" s="8">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="Y51" s="8">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="Z51" s="7">
+        <v>0.2046</v>
+      </c>
+      <c r="AA51" s="8">
+        <v>0.60509999999999997</v>
+      </c>
+      <c r="AB51" s="8">
+        <v>0.30580000000000002</v>
+      </c>
+      <c r="AC51" s="7">
+        <v>0.47270000000000001</v>
+      </c>
+      <c r="AD51" s="8">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="AE51" s="8">
+        <v>0.58689999999999998</v>
+      </c>
+      <c r="AF51" s="7">
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="AG51" s="8">
+        <v>0.60909999999999997</v>
+      </c>
+      <c r="AH51" s="9">
+        <v>0.28720000000000001</v>
+      </c>
+      <c r="AI51" s="10">
+        <f t="shared" ref="AI51" si="24">AVERAGE(B51,E51,H51,K51,N51,Q51,T51,W51,Z51,AC51,AF51)</f>
+        <v>0.49292727272727266</v>
+      </c>
+      <c r="AJ51" s="11">
+        <f t="shared" ref="AJ51" si="25">AVERAGE(C51,F51,I51,L51,O51,R51,U51,X51,AA51,AD51,AG51)</f>
+        <v>0.72620909090909092</v>
+      </c>
+      <c r="AK51" s="12">
+        <f t="shared" ref="AK51" si="26">AVERAGE(D51,G51,J51,M51,P51,S51,V51,Y51,AB51,AE51,AH51)</f>
+        <v>0.56355454545454542</v>
+      </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="7"/>
-      <c r="AD52" s="8"/>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="8"/>
-      <c r="AH52" s="9"/>
-      <c r="AI52" s="10"/>
-      <c r="AJ52" s="11"/>
-      <c r="AK52" s="12"/>
+      <c r="A52" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.4294</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.43919999999999998</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0.5796</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0.4214</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0.64590000000000003</v>
+      </c>
+      <c r="J52" s="9">
+        <v>0.43009999999999998</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="M52" s="8">
+        <v>0.75280000000000002</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0.73060000000000003</v>
+      </c>
+      <c r="O52" s="8">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="P52" s="8">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="R52" s="8">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="S52" s="8">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="T52" s="7">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="U52" s="8">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="V52" s="8">
+        <v>0.83919999999999995</v>
+      </c>
+      <c r="W52" s="7">
+        <v>0.4879</v>
+      </c>
+      <c r="X52" s="8">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="Y52" s="8">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AA52" s="8">
+        <v>0.58709999999999996</v>
+      </c>
+      <c r="AB52" s="8">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="AC52" s="7">
+        <v>0.45910000000000001</v>
+      </c>
+      <c r="AD52" s="8">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="AE52" s="8">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="AF52" s="7">
+        <v>0.20860000000000001</v>
+      </c>
+      <c r="AG52" s="8">
+        <v>0.51770000000000005</v>
+      </c>
+      <c r="AH52" s="9">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="AI52" s="10">
+        <f t="shared" ref="AI52" si="27">AVERAGE(B52,E52,H52,K52,N52,Q52,T52,W52,Z52,AC52,AF52)</f>
+        <v>0.50994545454545459</v>
+      </c>
+      <c r="AJ52" s="11">
+        <f t="shared" ref="AJ52" si="28">AVERAGE(C52,F52,I52,L52,O52,R52,U52,X52,AA52,AD52,AG52)</f>
+        <v>0.69713636363636367</v>
+      </c>
+      <c r="AK52" s="12">
+        <f t="shared" ref="AK52" si="29">AVERAGE(D52,G52,J52,M52,P52,S52,V52,Y52,AB52,AE52,AH52)</f>
+        <v>0.57202727272727261</v>
+      </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="7"/>
-      <c r="AD53" s="8"/>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="7"/>
-      <c r="AG53" s="8"/>
-      <c r="AH53" s="9"/>
-      <c r="AI53" s="10"/>
-      <c r="AJ53" s="11"/>
-      <c r="AK53" s="12"/>
+      <c r="A53" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.58779999999999999</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0.40029999999999999</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.308</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.63629999999999998</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0.41510000000000002</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0.3221</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0.64990000000000003</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0.43070000000000003</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0.71819999999999995</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="M53" s="8">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0.72929999999999995</v>
+      </c>
+      <c r="O53" s="8">
+        <v>0.79359999999999997</v>
+      </c>
+      <c r="P53" s="8">
+        <v>0.7601</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>0.8357</v>
+      </c>
+      <c r="R53" s="8">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="S53" s="8">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="T53" s="7">
+        <v>0.84560000000000002</v>
+      </c>
+      <c r="U53" s="8">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="V53" s="8">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="W53" s="7">
+        <v>0.50660000000000005</v>
+      </c>
+      <c r="X53" s="8">
+        <v>0.7873</v>
+      </c>
+      <c r="Y53" s="8">
+        <v>0.61650000000000005</v>
+      </c>
+      <c r="Z53" s="7">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="AA53" s="8">
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="AB53" s="8">
+        <v>0.30109999999999998</v>
+      </c>
+      <c r="AC53" s="7">
+        <v>0.4662</v>
+      </c>
+      <c r="AD53" s="8">
+        <v>0.77490000000000003</v>
+      </c>
+      <c r="AE53" s="8">
+        <v>0.58220000000000005</v>
+      </c>
+      <c r="AF53" s="7">
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="AG53" s="8">
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="AH53" s="9">
+        <v>0.2858</v>
+      </c>
+      <c r="AI53" s="10">
+        <f t="shared" ref="AI53:AI62" si="30">AVERAGE(B53,E53,H53,K53,N53,Q53,T53,W53,Z53,AC53,AF53)</f>
+        <v>0.4943727272727273</v>
+      </c>
+      <c r="AJ53" s="11">
+        <f t="shared" ref="AJ53:AJ62" si="31">AVERAGE(C53,F53,I53,L53,O53,R53,U53,X53,AA53,AD53,AG53)</f>
+        <v>0.7117</v>
+      </c>
+      <c r="AK53" s="12">
+        <f t="shared" ref="AK53:AK62" si="32">AVERAGE(D53,G53,J53,M53,P53,S53,V53,Y53,AB53,AE53,AH53)</f>
+        <v>0.56752727272727277</v>
+      </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="7"/>
-      <c r="AD54" s="8"/>
-      <c r="AE54" s="8"/>
-      <c r="AF54" s="7"/>
-      <c r="AG54" s="8"/>
-      <c r="AH54" s="9"/>
-      <c r="AI54" s="10"/>
-      <c r="AJ54" s="11"/>
-      <c r="AK54" s="12"/>
+      <c r="A54" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.61360000000000003</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.45660000000000001</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0.3921</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J54" s="9">
+        <v>0.43519999999999998</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0.69450000000000001</v>
+      </c>
+      <c r="M54" s="8">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0.71009999999999995</v>
+      </c>
+      <c r="O54" s="8">
+        <v>0.71970000000000001</v>
+      </c>
+      <c r="P54" s="8">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="R54" s="8">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="S54" s="8">
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="T54" s="7">
+        <v>0.84889999999999999</v>
+      </c>
+      <c r="U54" s="8">
+        <v>0.8347</v>
+      </c>
+      <c r="V54" s="8">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="W54" s="7">
+        <v>0.49690000000000001</v>
+      </c>
+      <c r="X54" s="8">
+        <v>0.76839999999999997</v>
+      </c>
+      <c r="Y54" s="8">
+        <v>0.60350000000000004</v>
+      </c>
+      <c r="Z54" s="7">
+        <v>0.18410000000000001</v>
+      </c>
+      <c r="AA54" s="8">
+        <v>0.44309999999999999</v>
+      </c>
+      <c r="AB54" s="8">
+        <v>0.2601</v>
+      </c>
+      <c r="AC54" s="7">
+        <v>0.46760000000000002</v>
+      </c>
+      <c r="AD54" s="8">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="AE54" s="8">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="AF54" s="7">
+        <v>0.2407</v>
+      </c>
+      <c r="AG54" s="8">
+        <v>0.4592</v>
+      </c>
+      <c r="AH54" s="9">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="AI54" s="10">
+        <f t="shared" si="30"/>
+        <v>0.50690909090909098</v>
+      </c>
+      <c r="AJ54" s="11">
+        <f t="shared" si="31"/>
+        <v>0.65997272727272727</v>
+      </c>
+      <c r="AK54" s="12">
+        <f t="shared" si="32"/>
+        <v>0.55849090909090926</v>
+      </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="7"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="7"/>
-      <c r="AG55" s="8"/>
-      <c r="AH55" s="9"/>
-      <c r="AI55" s="10"/>
-      <c r="AJ55" s="11"/>
-      <c r="AK55" s="12"/>
+      <c r="A55" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.29609999999999997</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0.40310000000000001</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0.61529999999999996</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0.4325</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0.6825</v>
+      </c>
+      <c r="M55" s="8">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0.72260000000000002</v>
+      </c>
+      <c r="O55" s="8">
+        <v>0.71509999999999996</v>
+      </c>
+      <c r="P55" s="8">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="R55" s="8">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="S55" s="8">
+        <v>0.82369999999999999</v>
+      </c>
+      <c r="T55" s="7">
+        <v>0.8478</v>
+      </c>
+      <c r="U55" s="8">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="V55" s="8">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="W55" s="7">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="X55" s="8">
+        <v>0.7571</v>
+      </c>
+      <c r="Y55" s="8">
+        <v>0.60980000000000001</v>
+      </c>
+      <c r="Z55" s="7">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="AA55" s="8">
+        <v>0.56110000000000004</v>
+      </c>
+      <c r="AB55" s="8">
+        <v>0.28710000000000002</v>
+      </c>
+      <c r="AC55" s="7">
+        <v>0.46360000000000001</v>
+      </c>
+      <c r="AD55" s="8">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="AE55" s="8">
+        <v>0.5786</v>
+      </c>
+      <c r="AF55" s="7">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="AG55" s="8">
+        <v>0.48520000000000002</v>
+      </c>
+      <c r="AH55" s="9">
+        <v>0.2838</v>
+      </c>
+      <c r="AI55" s="10">
+        <f t="shared" si="30"/>
+        <v>0.50683636363636353</v>
+      </c>
+      <c r="AJ55" s="11">
+        <f t="shared" si="31"/>
+        <v>0.67907272727272716</v>
+      </c>
+      <c r="AK55" s="12">
+        <f t="shared" si="32"/>
+        <v>0.55976363636363635</v>
+      </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="7"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="7"/>
-      <c r="AD56" s="8"/>
-      <c r="AE56" s="8"/>
-      <c r="AF56" s="7"/>
-      <c r="AG56" s="8"/>
-      <c r="AH56" s="9"/>
-      <c r="AI56" s="10"/>
-      <c r="AJ56" s="11"/>
-      <c r="AK56" s="12"/>
+      <c r="A56" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.31790000000000002</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.41870000000000002</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.29049999999999998</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0.38159999999999999</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0.36520000000000002</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0.57869999999999999</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0.74660000000000004</v>
+      </c>
+      <c r="M56" s="8">
+        <v>0.72489999999999999</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0.70140000000000002</v>
+      </c>
+      <c r="O56" s="8">
+        <v>0.73770000000000002</v>
+      </c>
+      <c r="P56" s="8">
+        <v>0.71909999999999996</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="R56" s="8">
+        <v>0.80740000000000001</v>
+      </c>
+      <c r="S56" s="8">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="T56" s="7">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="U56" s="8">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="V56" s="8">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="W56" s="7">
+        <v>0.50109999999999999</v>
+      </c>
+      <c r="X56" s="8">
+        <v>0.68830000000000002</v>
+      </c>
+      <c r="Y56" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Z56" s="7">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="AA56" s="8">
+        <v>0.49569999999999997</v>
+      </c>
+      <c r="AB56" s="8">
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="AC56" s="7">
+        <v>0.47789999999999999</v>
+      </c>
+      <c r="AD56" s="8">
+        <v>0.67349999999999999</v>
+      </c>
+      <c r="AE56" s="8">
+        <v>0.55910000000000004</v>
+      </c>
+      <c r="AF56" s="7">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="AG56" s="8">
+        <v>0.46429999999999999</v>
+      </c>
+      <c r="AH56" s="9">
+        <v>0.31269999999999998</v>
+      </c>
+      <c r="AI56" s="10">
+        <f t="shared" si="30"/>
+        <v>0.49704545454545451</v>
+      </c>
+      <c r="AJ56" s="11">
+        <f t="shared" si="31"/>
+        <v>0.65435454545454541</v>
+      </c>
+      <c r="AK56" s="12">
+        <f t="shared" si="32"/>
+        <v>0.55291818181818186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0.2697</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0.71120000000000005</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0.312</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0.63090000000000002</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0.32169999999999999</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0.6381</v>
+      </c>
+      <c r="J57" s="9">
+        <v>0.42780000000000001</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0.79720000000000002</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="M57" s="8">
+        <v>0.7359</v>
+      </c>
+      <c r="N57" s="7">
+        <v>0.71050000000000002</v>
+      </c>
+      <c r="O57" s="8">
+        <v>0.71650000000000003</v>
+      </c>
+      <c r="P57" s="8">
+        <v>0.71350000000000002</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0.8387</v>
+      </c>
+      <c r="R57" s="8">
+        <v>0.79079999999999995</v>
+      </c>
+      <c r="S57" s="8">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="T57" s="7">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="U57" s="8">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="V57" s="8">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="W57" s="7">
+        <v>0.53380000000000005</v>
+      </c>
+      <c r="X57" s="8">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="Y57" s="8">
+        <v>0.59540000000000004</v>
+      </c>
+      <c r="Z57" s="7">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="AA57" s="8">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="AB57" s="8">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AC57" s="7">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="AD57" s="8">
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="AE57" s="8">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="AF57" s="7">
+        <v>0.1915</v>
+      </c>
+      <c r="AG57" s="8">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="AH57" s="9">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="AI57" s="10">
+        <f t="shared" si="30"/>
+        <v>0.49786363636363634</v>
+      </c>
+      <c r="AJ57" s="11">
+        <f t="shared" si="31"/>
+        <v>0.68272727272727263</v>
+      </c>
+      <c r="AK57" s="12">
+        <f t="shared" si="32"/>
+        <v>0.54979999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="7">
+        <v>0.28610000000000002</v>
+      </c>
+      <c r="C58" s="8">
+        <v>0.6139</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0.39029999999999998</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.26869999999999999</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0.2001</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="J58" s="9">
+        <v>0.3251</v>
+      </c>
+      <c r="K58" s="7">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="M58" s="8">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0.68979999999999997</v>
+      </c>
+      <c r="O58" s="8">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="P58" s="8">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="R58" s="8">
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="S58" s="8">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="T58" s="7">
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="U58" s="8">
+        <v>0.80759999999999998</v>
+      </c>
+      <c r="V58" s="8">
+        <v>0.8266</v>
+      </c>
+      <c r="W58" s="7">
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="X58" s="8">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="Y58" s="8">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="Z58" s="7">
+        <v>0.17630000000000001</v>
+      </c>
+      <c r="AA58" s="8">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="AB58" s="8">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="AC58" s="7">
+        <v>0.36730000000000002</v>
+      </c>
+      <c r="AD58" s="8">
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="AE58" s="8">
+        <v>0.50070000000000003</v>
+      </c>
+      <c r="AF58" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AG58" s="8">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="AH58" s="9">
+        <v>0.29260000000000003</v>
+      </c>
+      <c r="AI58" s="10">
+        <f t="shared" si="30"/>
+        <v>0.46390909090909088</v>
+      </c>
+      <c r="AJ58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.79010909090909098</v>
+      </c>
+      <c r="AK58" s="12">
+        <f t="shared" si="32"/>
+        <v>0.54018181818181821</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="7">
+        <v>0.30330000000000001</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0.5615</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0.39389999999999997</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0.41820000000000002</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0.3216</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="J59" s="9">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="M59" s="8">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="O59" s="8">
+        <v>0.71509999999999996</v>
+      </c>
+      <c r="P59" s="8">
+        <v>0.71379999999999999</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="R59" s="8">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="S59" s="8">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="T59" s="7">
+        <v>0.83909999999999996</v>
+      </c>
+      <c r="U59" s="8">
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="V59" s="8">
+        <v>0.8337</v>
+      </c>
+      <c r="W59" s="7">
+        <v>0.48930000000000001</v>
+      </c>
+      <c r="X59" s="8">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="Y59" s="8">
+        <v>0.58509999999999995</v>
+      </c>
+      <c r="Z59" s="7">
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="AA59" s="8">
+        <v>0.53639999999999999</v>
+      </c>
+      <c r="AB59" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="AC59" s="7">
+        <v>0.47549999999999998</v>
+      </c>
+      <c r="AD59" s="8">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="AE59" s="8">
+        <v>0.57740000000000002</v>
+      </c>
+      <c r="AF59" s="7">
+        <v>0.21890000000000001</v>
+      </c>
+      <c r="AG59" s="8">
+        <v>0.60340000000000005</v>
+      </c>
+      <c r="AH59" s="9">
+        <v>0.32119999999999999</v>
+      </c>
+      <c r="AI59" s="10">
+        <f t="shared" si="30"/>
+        <v>0.49868181818181817</v>
+      </c>
+      <c r="AJ59" s="11">
+        <f t="shared" si="31"/>
+        <v>0.67747272727272734</v>
+      </c>
+      <c r="AK59" s="12">
+        <f t="shared" si="32"/>
+        <v>0.5535363636363636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0.38819999999999999</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0.33210000000000001</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0.42009999999999997</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0.31979999999999997</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0.627</v>
+      </c>
+      <c r="J60" s="9">
+        <v>0.42359999999999998</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="L60" s="8">
+        <v>0.74180000000000001</v>
+      </c>
+      <c r="M60" s="8">
+        <v>0.74870000000000003</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0.73180000000000001</v>
+      </c>
+      <c r="O60" s="8">
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="P60" s="8">
+        <v>0.74760000000000004</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="R60" s="8">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="S60" s="8">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="T60" s="7">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="U60" s="8">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="V60" s="8">
+        <v>0.83689999999999998</v>
+      </c>
+      <c r="W60" s="7">
+        <v>0.498</v>
+      </c>
+      <c r="X60" s="8">
+        <v>0.82289999999999996</v>
+      </c>
+      <c r="Y60" s="8">
+        <v>0.62050000000000005</v>
+      </c>
+      <c r="Z60" s="7">
+        <v>0.20119999999999999</v>
+      </c>
+      <c r="AA60" s="8">
+        <v>0.59719999999999995</v>
+      </c>
+      <c r="AB60" s="8">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="AC60" s="7">
+        <v>0.47189999999999999</v>
+      </c>
+      <c r="AD60" s="8">
+        <v>0.76819999999999999</v>
+      </c>
+      <c r="AE60" s="8">
+        <v>0.58489999999999998</v>
+      </c>
+      <c r="AF60" s="7">
+        <v>0.19470000000000001</v>
+      </c>
+      <c r="AG60" s="8">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="AH60" s="9">
+        <v>0.28070000000000001</v>
+      </c>
+      <c r="AI60" s="10">
+        <f t="shared" si="30"/>
+        <v>0.49842727272727277</v>
+      </c>
+      <c r="AJ60" s="11">
+        <f t="shared" si="31"/>
+        <v>0.70241818181818183</v>
+      </c>
+      <c r="AK60" s="12">
+        <f t="shared" si="32"/>
+        <v>0.56247272727272735</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0.29859999999999998</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0.39750000000000002</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0.35880000000000001</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="J61" s="9">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="L61" s="8">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="M61" s="8">
+        <v>0.76349999999999996</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0.74039999999999995</v>
+      </c>
+      <c r="O61" s="8">
+        <v>0.79930000000000001</v>
+      </c>
+      <c r="P61" s="8">
+        <v>0.76880000000000004</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>0.8679</v>
+      </c>
+      <c r="R61" s="8">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="S61" s="8">
+        <v>0.84940000000000004</v>
+      </c>
+      <c r="T61" s="7">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="U61" s="8">
+        <v>0.86350000000000005</v>
+      </c>
+      <c r="V61" s="8">
+        <v>0.86860000000000004</v>
+      </c>
+      <c r="W61" s="7">
+        <v>0.56969999999999998</v>
+      </c>
+      <c r="X61" s="8">
+        <v>0.79849999999999999</v>
+      </c>
+      <c r="Y61" s="8">
+        <v>0.66490000000000005</v>
+      </c>
+      <c r="Z61" s="7">
+        <v>0.32419999999999999</v>
+      </c>
+      <c r="AA61" s="8">
+        <v>0.67459999999999998</v>
+      </c>
+      <c r="AB61" s="8">
+        <v>0.43790000000000001</v>
+      </c>
+      <c r="AC61" s="7">
+        <v>0.5212</v>
+      </c>
+      <c r="AD61" s="8">
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="AE61" s="8">
+        <v>0.62060000000000004</v>
+      </c>
+      <c r="AF61" s="7">
+        <v>0.33019999999999999</v>
+      </c>
+      <c r="AG61" s="8">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="AH61" s="9">
+        <v>0.43969999999999998</v>
+      </c>
+      <c r="AI61" s="10">
+        <f t="shared" si="30"/>
+        <v>0.54536363636363638</v>
+      </c>
+      <c r="AJ61" s="11">
+        <f t="shared" si="31"/>
+        <v>0.69551818181818181</v>
+      </c>
+      <c r="AK61" s="12">
+        <f t="shared" si="32"/>
+        <v>0.60137272727272728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.34389999999999998</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0.5907</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="I62" s="8">
+        <v>0.69989999999999997</v>
+      </c>
+      <c r="J62" s="9">
+        <v>0.52810000000000001</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="L62" s="8">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="M62" s="8">
+        <v>0.78769999999999996</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0.72489999999999999</v>
+      </c>
+      <c r="O62" s="8">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="P62" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="R62" s="8">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="S62" s="8">
+        <v>0.83740000000000003</v>
+      </c>
+      <c r="T62" s="7">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="U62" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="V62" s="8">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="W62" s="7">
+        <v>0.4738</v>
+      </c>
+      <c r="X62" s="8">
+        <v>0.8518</v>
+      </c>
+      <c r="Y62" s="8">
+        <v>0.6089</v>
+      </c>
+      <c r="Z62" s="7">
+        <v>0.2984</v>
+      </c>
+      <c r="AA62" s="8">
+        <v>0.36659999999999998</v>
+      </c>
+      <c r="AB62" s="8">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="AC62" s="7">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="AD62" s="8">
+        <v>0.63780000000000003</v>
+      </c>
+      <c r="AE62" s="8">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="AF62" s="7">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="AG62" s="8">
+        <v>0.4279</v>
+      </c>
+      <c r="AH62" s="9">
+        <v>0.3987</v>
+      </c>
+      <c r="AI62" s="10">
+        <f t="shared" si="30"/>
+        <v>0.53663636363636358</v>
+      </c>
+      <c r="AJ62" s="11">
+        <f t="shared" si="31"/>
+        <v>0.67072727272727273</v>
+      </c>
+      <c r="AK62" s="12">
+        <f t="shared" si="32"/>
+        <v>0.59049090909090907</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0.26569999999999999</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0.3931</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0.44679999999999997</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0.3014</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0.55710000000000004</v>
+      </c>
+      <c r="J63" s="9">
+        <v>0.39119999999999999</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="L63" s="8">
+        <v>0.87790000000000001</v>
+      </c>
+      <c r="M63" s="8">
+        <v>0.76290000000000002</v>
+      </c>
+      <c r="N63" s="7"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="7">
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="U63" s="8">
+        <v>0.76490000000000002</v>
+      </c>
+      <c r="V63" s="8">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="W63" s="7"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="7">
+        <v>0.214</v>
+      </c>
+      <c r="AA63" s="8">
+        <v>0.27979999999999999</v>
+      </c>
+      <c r="AB63" s="8">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="AC63" s="7">
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="AD63" s="8">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="AE63" s="8">
+        <v>0.54459999999999997</v>
+      </c>
+      <c r="AF63" s="7"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="10"/>
+      <c r="AJ63" s="11"/>
+      <c r="AK63" s="12"/>
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="7">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0.69310000000000005</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0.34229999999999999</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="7">
+        <v>0.72319999999999995</v>
+      </c>
+      <c r="U64" s="8">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="V64" s="8">
+        <v>0.80269999999999997</v>
+      </c>
+      <c r="W64" s="7"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="7">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="AD64" s="8">
+        <v>0.85580000000000001</v>
+      </c>
+      <c r="AE64" s="8">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="9"/>
+      <c r="AI64" s="10"/>
+      <c r="AJ64" s="11"/>
+      <c r="AK64" s="12"/>
+    </row>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D65" s="9">
+        <v>0.42949999999999999</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0.2555</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0.31830000000000003</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0.38059999999999999</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="J65" s="9">
+        <v>0.45839999999999997</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0.73560000000000003</v>
+      </c>
+      <c r="L65" s="8">
+        <v>0.80830000000000002</v>
+      </c>
+      <c r="M65" s="8">
+        <v>0.7702</v>
+      </c>
+      <c r="N65" s="7"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="7">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="U65" s="8">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="V65" s="8">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="W65" s="7"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="7">
+        <v>0.33939999999999998</v>
+      </c>
+      <c r="AA65" s="8">
+        <v>0.63870000000000005</v>
+      </c>
+      <c r="AB65" s="8">
+        <v>0.44330000000000003</v>
+      </c>
+      <c r="AC65" s="7">
+        <v>0.52059999999999995</v>
+      </c>
+      <c r="AD65" s="8">
+        <v>0.73460000000000003</v>
+      </c>
+      <c r="AE65" s="8">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="9"/>
+      <c r="AI65" s="10"/>
+      <c r="AJ65" s="11"/>
+      <c r="AK65" s="12"/>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="C66" s="8">
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="D66" s="9">
+        <v>0.43559999999999999</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0.4708</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0.4556</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0.54330000000000001</v>
+      </c>
+      <c r="J66" s="9">
+        <v>0.49559999999999998</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0.87480000000000002</v>
+      </c>
+      <c r="L66" s="8">
+        <v>0.5554</v>
+      </c>
+      <c r="M66" s="8">
+        <v>0.67949999999999999</v>
+      </c>
+      <c r="N66" s="7"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="7">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="U66" s="8">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="V66" s="8">
+        <v>0.67359999999999998</v>
+      </c>
+      <c r="W66" s="7"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="7">
+        <v>0.3775</v>
+      </c>
+      <c r="AA66" s="8">
+        <v>0.193</v>
+      </c>
+      <c r="AB66" s="8">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="AC66" s="7">
+        <v>0.45839999999999997</v>
+      </c>
+      <c r="AD66" s="8">
+        <v>0.50560000000000005</v>
+      </c>
+      <c r="AE66" s="8">
+        <v>0.48089999999999999</v>
+      </c>
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="9"/>
+      <c r="AI66" s="10"/>
+      <c r="AJ66" s="11"/>
+      <c r="AK66" s="12"/>
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="7">
+        <v>0.20119999999999999</v>
+      </c>
+      <c r="F67" s="8">
+        <v>0.50109999999999999</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0.28710000000000002</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="7">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="U67" s="8">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="V67" s="8">
+        <v>0.69469999999999998</v>
+      </c>
+      <c r="W67" s="7"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="7"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="9"/>
+      <c r="AI67" s="10"/>
+      <c r="AJ67" s="11"/>
+      <c r="AK67" s="12"/>
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" s="7">
+        <v>0.36859999999999998</v>
+      </c>
+      <c r="C68" s="8">
+        <v>0.56620000000000004</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0.44650000000000001</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="F68" s="8">
+        <v>0.50329999999999997</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="I68" s="8">
+        <v>0.71460000000000001</v>
+      </c>
+      <c r="J68" s="9">
+        <v>0.54559999999999997</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0.83009999999999995</v>
+      </c>
+      <c r="L68" s="8">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="M68" s="8">
+        <v>0.77569999999999995</v>
+      </c>
+      <c r="N68" s="7"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="7">
+        <v>0.9012</v>
+      </c>
+      <c r="U68" s="8">
+        <v>0.77759999999999996</v>
+      </c>
+      <c r="V68" s="8">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="W68" s="7"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="7">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="AA68" s="8">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="AB68" s="8">
+        <v>0.3175</v>
+      </c>
+      <c r="AC68" s="7">
+        <v>0.61309999999999998</v>
+      </c>
+      <c r="AD68" s="8">
+        <v>0.59109999999999996</v>
+      </c>
+      <c r="AE68" s="8">
+        <v>0.60189999999999999</v>
+      </c>
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="9"/>
+      <c r="AI68" s="10"/>
+      <c r="AJ68" s="11"/>
+      <c r="AK68" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6061,6 +7935,90 @@
     <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D9">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G9">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J9">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M9">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P9">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S9">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V9">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -6072,7 +8030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G9">
+  <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -6084,7 +8042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J9">
+  <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -6096,7 +8054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M9">
+  <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -6108,7 +8066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P9">
+  <conditionalFormatting sqref="AK3:AK68">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -6120,7 +8078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S9">
+  <conditionalFormatting sqref="D3:D17">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -6132,7 +8090,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V9">
+  <conditionalFormatting sqref="G3:G11">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -6144,7 +8102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y9">
+  <conditionalFormatting sqref="J3:J11">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -6156,7 +8114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB9">
+  <conditionalFormatting sqref="M3:M11">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -6168,7 +8126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE9">
+  <conditionalFormatting sqref="P3:P11">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -6180,7 +8138,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH9">
+  <conditionalFormatting sqref="S3:S11">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -6192,7 +8150,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK3:AK56">
+  <conditionalFormatting sqref="V3:V11">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -6204,7 +8162,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D17">
+  <conditionalFormatting sqref="Y3:Y11">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -6216,7 +8174,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G11">
+  <conditionalFormatting sqref="AB3:AB11">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -6228,7 +8186,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J11">
+  <conditionalFormatting sqref="AE3:AE11">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -6240,7 +8198,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M11">
+  <conditionalFormatting sqref="AH3:AH11">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -6252,7 +8210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P11">
+  <conditionalFormatting sqref="G3:G21">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -6264,7 +8222,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S11">
+  <conditionalFormatting sqref="V3:V21">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -6276,7 +8234,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V11">
+  <conditionalFormatting sqref="AE3:AE19 AE21">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -6288,7 +8246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y11">
+  <conditionalFormatting sqref="J3:J17">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -6300,7 +8258,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB11">
+  <conditionalFormatting sqref="M3:M17">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -6312,7 +8270,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE11">
+  <conditionalFormatting sqref="AB4:AB17">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -6324,7 +8282,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH11">
+  <conditionalFormatting sqref="S8:S18">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -6336,7 +8294,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G21">
+  <conditionalFormatting sqref="Y8:Y18">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -6348,7 +8306,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V21">
+  <conditionalFormatting sqref="Y8:Y19">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -6360,7 +8318,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE19 AE21">
+  <conditionalFormatting sqref="S8:S19">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -6372,7 +8330,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J17">
+  <conditionalFormatting sqref="M3:M19">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -6384,7 +8342,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M17">
+  <conditionalFormatting sqref="M3:M20">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -6396,7 +8354,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB4:AB17">
+  <conditionalFormatting sqref="AH8:AH20">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -6408,7 +8366,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:S18">
+  <conditionalFormatting sqref="AE3:AE21">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -6420,7 +8378,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:Y18">
+  <conditionalFormatting sqref="AB3:AB20">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -6432,7 +8390,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:Y19">
+  <conditionalFormatting sqref="Y8:Y20">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -6444,7 +8402,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:S19">
+  <conditionalFormatting sqref="S3:S24">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -6456,7 +8414,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M19">
+  <conditionalFormatting sqref="P3:P25 P27:P68">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -6468,7 +8426,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M20">
+  <conditionalFormatting sqref="J3:J25 J27:J68">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -6480,7 +8438,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH8:AH20">
+  <conditionalFormatting sqref="G3:G25 G27:G68">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -6492,7 +8450,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE21">
+  <conditionalFormatting sqref="D3:D25 D27:D68">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -6504,7 +8462,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB20">
+  <conditionalFormatting sqref="AH3:AH25 AH27:AH68">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -6516,7 +8474,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:Y20">
+  <conditionalFormatting sqref="AE3:AE25 AE27:AE68">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -6528,7 +8486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S24">
+  <conditionalFormatting sqref="AB3:AB25 AB27:AB68">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -6540,7 +8498,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P25 P27:P56">
+  <conditionalFormatting sqref="Y3:Y25 Y27:Y68">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -6552,7 +8510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J25 J27:J56 X44:X56">
+  <conditionalFormatting sqref="M3:M25 M27:M68">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -6564,7 +8522,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G25 G27:G56">
+  <conditionalFormatting sqref="V3:V25 V27:V68">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -6576,7 +8534,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D25 D27:D56">
+  <conditionalFormatting sqref="S3:S25">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -6588,19 +8546,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH25 AH27:AH56">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE25 AE27:AE56">
+  <conditionalFormatting sqref="S26:S62 S64:S68">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -6612,7 +8558,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB25 AB27:AB56">
+  <conditionalFormatting sqref="P26:P68">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -6624,7 +8570,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y25 Y27:Y56">
+  <conditionalFormatting sqref="J26:J68">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -6636,7 +8582,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M25 M27:M56">
+  <conditionalFormatting sqref="G26:G68">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -6648,7 +8594,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V25 V27:V56">
+  <conditionalFormatting sqref="D26:D68">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -6660,7 +8606,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S25">
+  <conditionalFormatting sqref="AH26:AH68">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -6672,7 +8618,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S26:S56">
+  <conditionalFormatting sqref="AE26:AE68">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB26:AB68">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -6684,7 +8642,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P56">
+  <conditionalFormatting sqref="Y26:Y68">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -6696,7 +8654,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J56">
+  <conditionalFormatting sqref="M26:M68">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -6708,7 +8666,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G56">
+  <conditionalFormatting sqref="V26:V68">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -6720,19 +8678,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D56">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH26:AH56">
+  <conditionalFormatting sqref="AH3:AH68">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -6744,7 +8690,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE26:AE56">
+  <conditionalFormatting sqref="AE3:AE68">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -6756,7 +8702,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB26:AB56">
+  <conditionalFormatting sqref="AB3:AB68">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -6768,19 +8714,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y26:Y56">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M26:M56">
+  <conditionalFormatting sqref="Y3:Y68">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -6792,7 +8726,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V26:V56">
+  <conditionalFormatting sqref="V3:V68">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6804,7 +8738,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH56">
+  <conditionalFormatting sqref="S3:S62 S64:S68">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P68">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6816,7 +8762,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE56">
+  <conditionalFormatting sqref="M3:M68">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6828,7 +8774,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB56">
+  <conditionalFormatting sqref="J3:J68">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6840,7 +8786,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y56">
+  <conditionalFormatting sqref="G3:G68">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D68">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6852,43 +8810,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V56">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S56">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P56">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M56">
+  <conditionalFormatting sqref="S63">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6900,7 +8822,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J56">
+  <conditionalFormatting sqref="S63 V63">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6912,7 +8834,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G56">
+  <conditionalFormatting sqref="S63 V63">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6924,7 +8846,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D56">
+  <conditionalFormatting sqref="S2:S68">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6943,15 +8865,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH56"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51:G51"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="3" max="6" width="5.140625" customWidth="1"/>
     <col min="7" max="7" width="4.85546875" customWidth="1"/>
@@ -7346,15 +9268,15 @@
         <v>0.34</v>
       </c>
       <c r="T7" s="7">
-        <f t="shared" ref="T3:T26" si="0">AVERAGE(B7,E7,H7,K7,N7,Q7)</f>
+        <f t="shared" ref="T7:T24" si="0">AVERAGE(B7,E7,H7,K7,N7,Q7)</f>
         <v>0.36566666666666664</v>
       </c>
       <c r="U7" s="8">
-        <f t="shared" ref="U3:U26" si="1">AVERAGE(C7,F7,I7,L7,O7,R7)</f>
+        <f t="shared" ref="U7:U24" si="1">AVERAGE(C7,F7,I7,L7,O7,R7)</f>
         <v>0.33338333333333336</v>
       </c>
       <c r="V7" s="9">
-        <f t="shared" ref="V3:V26" si="2">AVERAGE(D7,G7,J7,M7,P7,S7)</f>
+        <f t="shared" ref="V7:V24" si="2">AVERAGE(D7,G7,J7,M7,P7,S7)</f>
         <v>0.28861666666666669</v>
       </c>
     </row>
@@ -9004,15 +10926,15 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="T35" s="7">
-        <f t="shared" ref="T29:T35" si="4">AVERAGE(B35,E35,H35,K35,N35,Q35)</f>
+        <f t="shared" ref="T35" si="4">AVERAGE(B35,E35,H35,K35,N35,Q35)</f>
         <v>0.47583333333333333</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" ref="U29:U35" si="5">AVERAGE(C35,F35,I35,L35,O35,R35)</f>
+        <f t="shared" ref="U35" si="5">AVERAGE(C35,F35,I35,L35,O35,R35)</f>
         <v>0.45366666666666666</v>
       </c>
       <c r="V35" s="9">
-        <f t="shared" ref="V29:V35" si="6">AVERAGE(D35,G35,J35,M35,P35,S35)</f>
+        <f t="shared" ref="V35" si="6">AVERAGE(D35,G35,J35,M35,P35,S35)</f>
         <v>0.43949999999999995</v>
       </c>
     </row>
@@ -10196,9 +12118,15 @@
       <c r="A54" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9"/>
+      <c r="B54" s="7">
+        <v>0.2954</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.62260000000000004</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.4007</v>
+      </c>
       <c r="E54" s="7"/>
       <c r="F54" s="8"/>
       <c r="G54" s="9"/>
@@ -10222,18 +12150,42 @@
       <c r="A55" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="9"/>
+      <c r="B55" s="7">
+        <v>0.4138</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0.623</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0.57479999999999998</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0.2354</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0.3911</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0.29370000000000002</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0.35189999999999999</v>
+      </c>
+      <c r="M55" s="9">
+        <v>0.32019999999999998</v>
+      </c>
       <c r="N55" s="7"/>
       <c r="O55" s="8"/>
       <c r="P55" s="9"/>
@@ -10245,43 +12197,1497 @@
       <c r="V55" s="9"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="9"/>
+      <c r="A56" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.50229999999999997</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.50490000000000002</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.50360000000000005</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.59240000000000004</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0.63660000000000005</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0.61370000000000002</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0.1346</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0.4244</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0.62870000000000004</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0.50670000000000004</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0.41149999999999998</v>
+      </c>
+      <c r="O56" s="8">
+        <v>0.2198</v>
+      </c>
+      <c r="P56" s="9">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>0.29270000000000002</v>
+      </c>
+      <c r="R56" s="8">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="S56" s="9">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="T56" s="7">
+        <f t="shared" ref="T56" si="19">AVERAGE(B56,E56,H56,K56,N56,Q56)</f>
+        <v>0.42101666666666659</v>
+      </c>
+      <c r="U56" s="8">
+        <f t="shared" ref="U56" si="20">AVERAGE(C56,F56,I56,L56,O56,R56)</f>
+        <v>0.46861666666666668</v>
+      </c>
+      <c r="V56" s="9">
+        <f t="shared" ref="V56" si="21">AVERAGE(D56,G56,J56,M56,P56,S56)</f>
+        <v>0.41789999999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0.22120000000000001</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.34210000000000002</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0.43240000000000001</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0.70050000000000001</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0.53469999999999995</v>
+      </c>
+      <c r="H57" s="7">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="J57" s="9">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0.65859999999999996</v>
+      </c>
+      <c r="M57" s="9">
+        <v>0.47070000000000001</v>
+      </c>
+      <c r="N57" s="7">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="O57" s="8">
+        <v>0.72770000000000001</v>
+      </c>
+      <c r="P57" s="9">
+        <v>0.1532</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="R57" s="8">
+        <v>0.61140000000000005</v>
+      </c>
+      <c r="S57" s="9">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="T57" s="7">
+        <f t="shared" ref="T57" si="22">AVERAGE(B57,E57,H57,K57,N57,Q57)</f>
+        <v>0.23806666666666665</v>
+      </c>
+      <c r="U57" s="8">
+        <f t="shared" ref="U57" si="23">AVERAGE(C57,F57,I57,L57,O57,R57)</f>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="V57" s="9">
+        <f t="shared" ref="V57" si="24">AVERAGE(D57,G57,J57,M57,P57,S57)</f>
+        <v>0.33184999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="7">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="C58" s="8">
+        <v>0.77710000000000001</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0.41470000000000001</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0.70079999999999998</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0.5655</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0.70069999999999999</v>
+      </c>
+      <c r="J58" s="9">
+        <v>0.2283</v>
+      </c>
+      <c r="K58" s="7">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0.6583</v>
+      </c>
+      <c r="M58" s="9">
+        <v>0.44009999999999999</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0.1052</v>
+      </c>
+      <c r="O58" s="8">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="P58" s="9">
+        <v>0.1827</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="R58" s="8">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="S58" s="9">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="T58" s="7">
+        <f t="shared" ref="T58" si="25">AVERAGE(B58,E58,H58,K58,N58,Q58)</f>
+        <v>0.26740000000000003</v>
+      </c>
+      <c r="U58" s="8">
+        <f t="shared" ref="U58" si="26">AVERAGE(C58,F58,I58,L58,O58,R58)</f>
+        <v>0.70020000000000004</v>
+      </c>
+      <c r="V58" s="9">
+        <f t="shared" ref="V58" si="27">AVERAGE(D58,G58,J58,M58,P58,S58)</f>
+        <v>0.37034999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="7">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0.69930000000000003</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0.37869999999999998</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.57640000000000002</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0.11609999999999999</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0.37369999999999998</v>
+      </c>
+      <c r="J59" s="9">
+        <v>0.17710000000000001</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0.3851</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0.64429999999999998</v>
+      </c>
+      <c r="M59" s="9">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="O59" s="8">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="P59" s="9">
+        <v>0.1615</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="R59" s="8">
+        <v>0.55049999999999999</v>
+      </c>
+      <c r="S59" s="9">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="T59" s="7">
+        <f t="shared" ref="T59" si="28">AVERAGE(B59,E59,H59,K59,N59,Q59)</f>
+        <v>0.28668333333333335</v>
+      </c>
+      <c r="U59" s="8">
+        <f t="shared" ref="U59" si="29">AVERAGE(C59,F59,I59,L59,O59,R59)</f>
+        <v>0.49998333333333328</v>
+      </c>
+      <c r="V59" s="9">
+        <f t="shared" ref="V59" si="30">AVERAGE(D59,G59,J59,M59,P59,S59)</f>
+        <v>0.34723333333333334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.54490000000000005</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0.51859999999999995</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0.56979999999999997</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="J60" s="9">
+        <v>0.29809999999999998</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0.33929999999999999</v>
+      </c>
+      <c r="L60" s="8">
+        <v>0.63959999999999995</v>
+      </c>
+      <c r="M60" s="9">
+        <v>0.44340000000000002</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0.12470000000000001</v>
+      </c>
+      <c r="O60" s="8">
+        <v>0.6804</v>
+      </c>
+      <c r="P60" s="9">
+        <v>0.21079999999999999</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="R60" s="8">
+        <v>0.63949999999999996</v>
+      </c>
+      <c r="S60" s="9">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="T60" s="7">
+        <f t="shared" ref="T60:T69" si="31">AVERAGE(B60,E60,H60,K60,N60,Q60)</f>
+        <v>0.3342</v>
+      </c>
+      <c r="U60" s="8">
+        <f t="shared" ref="U60:U69" si="32">AVERAGE(C60,F60,I60,L60,O60,R60)</f>
+        <v>0.61348333333333327</v>
+      </c>
+      <c r="V60" s="9">
+        <f t="shared" ref="V60:V69" si="33">AVERAGE(D60,G60,J60,M60,P60,S60)</f>
+        <v>0.40873333333333334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0.51239999999999997</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0.49030000000000001</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0.68030000000000002</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0.56989999999999996</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="J61" s="9">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0.33850000000000002</v>
+      </c>
+      <c r="L61" s="8">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="M61" s="9">
+        <v>0.44159999999999999</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="O61" s="8">
+        <v>0.52190000000000003</v>
+      </c>
+      <c r="P61" s="9">
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>0.2903</v>
+      </c>
+      <c r="R61" s="8">
+        <v>0.63360000000000005</v>
+      </c>
+      <c r="S61" s="9">
+        <v>0.3982</v>
+      </c>
+      <c r="T61" s="7">
+        <f t="shared" si="31"/>
+        <v>0.33949999999999997</v>
+      </c>
+      <c r="U61" s="8">
+        <f t="shared" si="32"/>
+        <v>0.57811666666666672</v>
+      </c>
+      <c r="V61" s="9">
+        <f t="shared" si="33"/>
+        <v>0.41170000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.46460000000000001</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0.70840000000000003</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0.56120000000000003</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0.48089999999999999</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0.71870000000000001</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0.12889999999999999</v>
+      </c>
+      <c r="I62" s="8">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="J62" s="9">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="L62" s="8">
+        <v>0.67349999999999999</v>
+      </c>
+      <c r="M62" s="9">
+        <v>0.47370000000000001</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0.12189999999999999</v>
+      </c>
+      <c r="O62" s="8">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="P62" s="9">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0.28079999999999999</v>
+      </c>
+      <c r="R62" s="8">
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="S62" s="9">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="T62" s="7">
+        <f t="shared" si="31"/>
+        <v>0.30706666666666665</v>
+      </c>
+      <c r="U62" s="8">
+        <f t="shared" si="32"/>
+        <v>0.66323333333333345</v>
+      </c>
+      <c r="V62" s="9">
+        <f t="shared" si="33"/>
+        <v>0.40358333333333335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0.23269999999999999</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0.57330000000000003</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0.1162</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0.37430000000000002</v>
+      </c>
+      <c r="J63" s="9">
+        <v>0.17730000000000001</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0.38669999999999999</v>
+      </c>
+      <c r="L63" s="8">
+        <v>0.64639999999999997</v>
+      </c>
+      <c r="M63" s="9">
+        <v>0.4839</v>
+      </c>
+      <c r="N63" s="7">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="O63" s="8">
+        <v>0.58579999999999999</v>
+      </c>
+      <c r="P63" s="9">
+        <v>0.1174</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="R63" s="8">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="S63" s="9">
+        <v>0.35349999999999998</v>
+      </c>
+      <c r="T63" s="7">
+        <f t="shared" si="31"/>
+        <v>0.2714833333333333</v>
+      </c>
+      <c r="U63" s="8">
+        <f t="shared" si="32"/>
+        <v>0.56635000000000002</v>
+      </c>
+      <c r="V63" s="9">
+        <f t="shared" si="33"/>
+        <v>0.33553333333333329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0.62580000000000002</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0.56279999999999997</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0.59260000000000002</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0.57479999999999998</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="I64" s="8">
+        <v>0.71850000000000003</v>
+      </c>
+      <c r="J64" s="9">
+        <v>0.2082</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0.35039999999999999</v>
+      </c>
+      <c r="L64" s="8">
+        <v>0.71809999999999996</v>
+      </c>
+      <c r="M64" s="9">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="N64" s="7">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="O64" s="8">
+        <v>0.63839999999999997</v>
+      </c>
+      <c r="P64" s="9">
+        <v>0.17230000000000001</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="R64" s="8">
+        <v>0.68289999999999995</v>
+      </c>
+      <c r="S64" s="9">
+        <v>0.39319999999999999</v>
+      </c>
+      <c r="T64" s="7">
+        <f t="shared" si="31"/>
+        <v>0.33026666666666665</v>
+      </c>
+      <c r="U64" s="8">
+        <f t="shared" si="32"/>
+        <v>0.66374999999999995</v>
+      </c>
+      <c r="V64" s="9">
+        <f t="shared" si="33"/>
+        <v>0.40201666666666663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.21290000000000001</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="D65" s="9">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0.59919999999999995</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0.53369999999999995</v>
+      </c>
+      <c r="H65" s="7">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0.50890000000000002</v>
+      </c>
+      <c r="J65" s="9">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0.38890000000000002</v>
+      </c>
+      <c r="L65" s="8">
+        <v>0.65610000000000002</v>
+      </c>
+      <c r="M65" s="9">
+        <v>0.48830000000000001</v>
+      </c>
+      <c r="N65" s="7">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="O65" s="8">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="P65" s="9">
+        <v>0.1283</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>0.25559999999999999</v>
+      </c>
+      <c r="R65" s="8">
+        <v>0.5837</v>
+      </c>
+      <c r="S65" s="9">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="T65" s="7">
+        <f t="shared" si="31"/>
+        <v>0.26905000000000001</v>
+      </c>
+      <c r="U65" s="8">
+        <f t="shared" si="32"/>
+        <v>0.5456833333333333</v>
+      </c>
+      <c r="V65" s="9">
+        <f t="shared" si="33"/>
+        <v>0.32824999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0.4768</v>
+      </c>
+      <c r="C66" s="8">
+        <v>0.627</v>
+      </c>
+      <c r="D66" s="9">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0.69650000000000001</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="J66" s="9">
+        <v>0.24129999999999999</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0.35580000000000001</v>
+      </c>
+      <c r="L66" s="8">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="M66" s="9">
+        <v>0.47549999999999998</v>
+      </c>
+      <c r="N66" s="7">
+        <v>0.1212</v>
+      </c>
+      <c r="O66" s="8">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="P66" s="9">
+        <v>0.20380000000000001</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="R66" s="8">
+        <v>0.64880000000000004</v>
+      </c>
+      <c r="S66" s="9">
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="T66" s="7">
+        <f t="shared" si="31"/>
+        <v>0.31584999999999996</v>
+      </c>
+      <c r="U66" s="8">
+        <f t="shared" si="32"/>
+        <v>0.66186666666666671</v>
+      </c>
+      <c r="V66" s="9">
+        <f t="shared" si="33"/>
+        <v>0.4079000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0.22209999999999999</v>
+      </c>
+      <c r="C67" s="8">
+        <v>0.72089999999999999</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0.45279999999999998</v>
+      </c>
+      <c r="F67" s="8">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0.53520000000000001</v>
+      </c>
+      <c r="H67" s="7">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="I67" s="8">
+        <v>0.88529999999999998</v>
+      </c>
+      <c r="J67" s="9">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0.36330000000000001</v>
+      </c>
+      <c r="L67" s="8">
+        <v>0.67079999999999995</v>
+      </c>
+      <c r="M67" s="9">
+        <v>0.4713</v>
+      </c>
+      <c r="N67" s="7">
+        <v>8.43E-2</v>
+      </c>
+      <c r="O67" s="8">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="P67" s="9">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="R67" s="8">
+        <v>0.61009999999999998</v>
+      </c>
+      <c r="S67" s="9">
+        <v>0.35449999999999998</v>
+      </c>
+      <c r="T67" s="7">
+        <f t="shared" si="31"/>
+        <v>0.24098333333333333</v>
+      </c>
+      <c r="U67" s="8">
+        <f t="shared" si="32"/>
+        <v>0.72391666666666665</v>
+      </c>
+      <c r="V67" s="9">
+        <f t="shared" si="33"/>
+        <v>0.3315333333333334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="31">
+        <v>0.62580000000000002</v>
+      </c>
+      <c r="C68" s="28">
+        <v>0.56279999999999997</v>
+      </c>
+      <c r="D68" s="41">
+        <v>0.59260000000000002</v>
+      </c>
+      <c r="E68" s="31">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="F68" s="28">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="G68" s="41">
+        <v>0.57479999999999998</v>
+      </c>
+      <c r="H68" s="31">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="I68" s="28">
+        <v>0.71850000000000003</v>
+      </c>
+      <c r="J68" s="41">
+        <v>0.2082</v>
+      </c>
+      <c r="K68" s="31">
+        <v>0.35039999999999999</v>
+      </c>
+      <c r="L68" s="28">
+        <v>0.71809999999999996</v>
+      </c>
+      <c r="M68" s="41">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="N68" s="31">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="O68" s="28">
+        <v>0.63839999999999997</v>
+      </c>
+      <c r="P68" s="41">
+        <v>0.17230000000000001</v>
+      </c>
+      <c r="Q68" s="31">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="R68" s="28">
+        <v>0.68289999999999995</v>
+      </c>
+      <c r="S68" s="41">
+        <v>0.39319999999999999</v>
+      </c>
+      <c r="T68" s="31">
+        <f t="shared" si="31"/>
+        <v>0.33026666666666665</v>
+      </c>
+      <c r="U68" s="28">
+        <f t="shared" si="32"/>
+        <v>0.66374999999999995</v>
+      </c>
+      <c r="V68" s="41">
+        <f t="shared" si="33"/>
+        <v>0.40201666666666663</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="31">
+        <v>0.27410000000000001</v>
+      </c>
+      <c r="C69" s="28">
+        <v>0.43569999999999998</v>
+      </c>
+      <c r="D69" s="41">
+        <v>0.33650000000000002</v>
+      </c>
+      <c r="E69" s="31">
+        <v>0.50670000000000004</v>
+      </c>
+      <c r="F69" s="28">
+        <v>0.68359999999999999</v>
+      </c>
+      <c r="G69" s="41">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="H69" s="31">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="I69" s="28">
+        <v>0.1953</v>
+      </c>
+      <c r="J69" s="41">
+        <v>0.1497</v>
+      </c>
+      <c r="K69" s="31">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="L69" s="28">
+        <v>0.56230000000000002</v>
+      </c>
+      <c r="M69" s="41">
+        <v>0.45519999999999999</v>
+      </c>
+      <c r="N69" s="31">
+        <v>0.43990000000000001</v>
+      </c>
+      <c r="O69" s="28">
+        <v>0.44829999999999998</v>
+      </c>
+      <c r="P69" s="41">
+        <v>0.44409999999999999</v>
+      </c>
+      <c r="Q69" s="31">
+        <v>0.26179999999999998</v>
+      </c>
+      <c r="R69" s="28">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="S69" s="41">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="T69" s="31">
+        <f t="shared" si="31"/>
+        <v>0.33103333333333335</v>
+      </c>
+      <c r="U69" s="28">
+        <f t="shared" si="32"/>
+        <v>0.50255000000000005</v>
+      </c>
+      <c r="V69" s="41">
+        <f t="shared" si="33"/>
+        <v>0.39118333333333338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="31">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="C70" s="28">
+        <v>0.65549999999999997</v>
+      </c>
+      <c r="D70" s="41">
+        <v>0.53790000000000004</v>
+      </c>
+      <c r="E70" s="31">
+        <v>0.58489999999999998</v>
+      </c>
+      <c r="F70" s="28">
+        <v>0.6381</v>
+      </c>
+      <c r="G70" s="41">
+        <v>0.61029999999999995</v>
+      </c>
+      <c r="H70" s="31">
+        <v>0.3695</v>
+      </c>
+      <c r="I70" s="28">
+        <v>0.53949999999999998</v>
+      </c>
+      <c r="J70" s="41">
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="K70" s="31">
+        <v>0.442</v>
+      </c>
+      <c r="L70" s="28">
+        <v>0.62470000000000003</v>
+      </c>
+      <c r="M70" s="41">
+        <v>0.51770000000000005</v>
+      </c>
+      <c r="N70" s="31">
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="O70" s="28">
+        <v>0.3669</v>
+      </c>
+      <c r="P70" s="41">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="Q70" s="31">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="R70" s="28">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="S70" s="41">
+        <v>0.42059999999999997</v>
+      </c>
+      <c r="T70" s="31">
+        <f t="shared" ref="T69:T70" si="34">AVERAGE(B70,E70,H70,K70,N70,Q70)</f>
+        <v>0.44524999999999998</v>
+      </c>
+      <c r="U70" s="28">
+        <f t="shared" ref="U69:U70" si="35">AVERAGE(C70,F70,I70,L70,O70,R70)</f>
+        <v>0.58478333333333332</v>
+      </c>
+      <c r="V70" s="41">
+        <f t="shared" ref="V69:V70" si="36">AVERAGE(D70,G70,J70,M70,P70,S70)</f>
+        <v>0.49228333333333335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="31">
+        <v>0.38679999999999998</v>
+      </c>
+      <c r="C71" s="28">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="D71" s="41">
+        <v>0.45689999999999997</v>
+      </c>
+      <c r="E71" s="31">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="F71" s="28">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="G71" s="41">
+        <v>0.50929999999999997</v>
+      </c>
+      <c r="H71" s="31">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="I71" s="28">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="J71" s="41">
+        <v>0.17580000000000001</v>
+      </c>
+      <c r="K71" s="31"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="41"/>
+      <c r="T71" s="31"/>
+      <c r="U71" s="28"/>
+      <c r="V71" s="41"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="31">
+        <v>0.18</v>
+      </c>
+      <c r="C72" s="28">
+        <v>0.878</v>
+      </c>
+      <c r="D72" s="41">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="E72" s="31">
+        <v>0.35809999999999997</v>
+      </c>
+      <c r="F72" s="28">
+        <v>0.90349999999999997</v>
+      </c>
+      <c r="G72" s="41">
+        <v>0.51290000000000002</v>
+      </c>
+      <c r="H72" s="31">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="I72" s="28">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="J72" s="41">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="K72" s="31"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="28"/>
+      <c r="V72" s="41"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="31">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="C73" s="28">
+        <v>0.67959999999999998</v>
+      </c>
+      <c r="D73" s="41">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="E73" s="31">
+        <v>0.70220000000000005</v>
+      </c>
+      <c r="F73" s="28">
+        <v>0.35360000000000003</v>
+      </c>
+      <c r="G73" s="41">
+        <v>0.47039999999999998</v>
+      </c>
+      <c r="H73" s="31">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="I73" s="28">
+        <v>0.8659</v>
+      </c>
+      <c r="J73" s="41">
+        <v>0.23269999999999999</v>
+      </c>
+      <c r="K73" s="31">
+        <v>0.2666</v>
+      </c>
+      <c r="L73" s="28">
+        <v>0.44579999999999997</v>
+      </c>
+      <c r="M73" s="41">
+        <v>0.3337</v>
+      </c>
+      <c r="N73" s="31"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="41"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="41"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="31">
+        <v>0.18859999999999999</v>
+      </c>
+      <c r="C74" s="28">
+        <v>0.79510000000000003</v>
+      </c>
+      <c r="D74" s="41">
+        <v>0.3049</v>
+      </c>
+      <c r="E74" s="31">
+        <v>0.38790000000000002</v>
+      </c>
+      <c r="F74" s="28">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="G74" s="41">
+        <v>0.53779999999999994</v>
+      </c>
+      <c r="H74" s="31">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="I74" s="28">
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="J74" s="41">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="K74" s="31"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="41"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="28"/>
+      <c r="V74" s="41"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="31">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="C75" s="28">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="D75" s="41">
+        <v>0.46779999999999999</v>
+      </c>
+      <c r="E75" s="31">
+        <v>0.55069999999999997</v>
+      </c>
+      <c r="F75" s="28">
+        <v>0.60250000000000004</v>
+      </c>
+      <c r="G75" s="41">
+        <v>0.57540000000000002</v>
+      </c>
+      <c r="H75" s="31">
+        <v>0.13320000000000001</v>
+      </c>
+      <c r="I75" s="28">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="J75" s="41">
+        <v>0.2286</v>
+      </c>
+      <c r="K75" s="31">
+        <v>0.3553</v>
+      </c>
+      <c r="L75" s="28">
+        <v>0.38640000000000002</v>
+      </c>
+      <c r="M75" s="41">
+        <v>0.37019999999999997</v>
+      </c>
+      <c r="N75" s="31"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="41"/>
+      <c r="T75" s="31"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="41"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="31">
+        <v>0.29330000000000001</v>
+      </c>
+      <c r="C76" s="28">
+        <v>0.6159</v>
+      </c>
+      <c r="D76" s="41">
+        <v>0.39739999999999998</v>
+      </c>
+      <c r="E76" s="31">
+        <v>0.40579999999999999</v>
+      </c>
+      <c r="F76" s="28">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="G76" s="41">
+        <v>0.5484</v>
+      </c>
+      <c r="H76" s="31">
+        <v>0.25509999999999999</v>
+      </c>
+      <c r="I76" s="28">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="J76" s="41">
+        <v>0.37509999999999999</v>
+      </c>
+      <c r="K76" s="31">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="L76" s="28">
+        <v>0.69379999999999997</v>
+      </c>
+      <c r="M76" s="41">
+        <v>0.46910000000000002</v>
+      </c>
+      <c r="N76" s="31"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="28"/>
+      <c r="S76" s="41"/>
+      <c r="T76" s="31"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="41"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" s="31">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="C77" s="28">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D77" s="41">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E77" s="31">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F77" s="28">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="G77" s="41">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H77" s="31">
+        <v>0.373</v>
+      </c>
+      <c r="I77" s="28">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="J77" s="41">
+        <v>0.437</v>
+      </c>
+      <c r="K77" s="31">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="L77" s="28">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="M77" s="41">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N77" s="31">
+        <v>0.52</v>
+      </c>
+      <c r="O77" s="28">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="P77" s="41">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="Q77" s="31">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R77" s="28">
+        <v>0.64</v>
+      </c>
+      <c r="S77" s="41">
+        <v>0.39989999999999998</v>
+      </c>
+      <c r="T77" s="31">
+        <f t="shared" ref="T71:T77" si="37">AVERAGE(B77,E77,H77,K77,N77,Q77)</f>
+        <v>0.4443333333333333</v>
+      </c>
+      <c r="U77" s="28">
+        <f t="shared" ref="U71:U77" si="38">AVERAGE(C77,F77,I77,L77,O77,R77)</f>
+        <v>0.58083333333333342</v>
+      </c>
+      <c r="V77" s="41">
+        <f t="shared" ref="V71:V77" si="39">AVERAGE(D77,G77,J77,M77,P77,S77)</f>
+        <v>0.49115000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B78" s="31"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="41"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="28"/>
+      <c r="S78" s="41"/>
+      <c r="T78" s="31"/>
+      <c r="U78" s="28"/>
+      <c r="V78" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G10">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J10">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M10">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -10293,7 +13699,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G10">
+  <conditionalFormatting sqref="P7:P10">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -10305,7 +13711,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J10">
+  <conditionalFormatting sqref="S7:S10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -10317,43 +13723,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M10">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7:P10">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S7:S10">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M3:M15">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M16">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M18">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7:P18">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10365,7 +13771,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M16">
+  <conditionalFormatting sqref="S7:S18">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10377,7 +13783,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M18">
+  <conditionalFormatting sqref="M4:M21">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10389,7 +13795,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7:P18">
+  <conditionalFormatting sqref="P4:P21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -10401,7 +13807,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7:S18">
+  <conditionalFormatting sqref="S4:S21">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10413,116 +13819,104 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M21">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P21">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S21">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V56">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D56">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G56">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J56">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M56">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P56">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S56">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="V3:V78">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D69 D71:D78">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G69 G71:G78">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J78">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M78">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P78">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S78">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10543,7 +13937,7 @@
   <dimension ref="A1:AN13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11482,15 +14876,15 @@
         <v>0.72319999999999995</v>
       </c>
       <c r="AL8" s="10">
-        <f t="shared" ref="AL8:AL10" si="4">AVERAGE(B8,E8,H8,N8,Q8,T8,W8,Z8,AC8,AF8,AI8)</f>
+        <f t="shared" ref="AL8:AL12" si="4">AVERAGE(B8,E8,H8,N8,Q8,T8,W8,Z8,AC8,AF8,AI8)</f>
         <v>0.43726363636363635</v>
       </c>
       <c r="AM8" s="11">
-        <f t="shared" ref="AM8:AM10" si="5">AVERAGE(C8,F8,I8,O8,R8,U8,X8,AA8,AD8,AG8,AJ8)</f>
+        <f t="shared" ref="AM8:AM12" si="5">AVERAGE(C8,F8,I8,O8,R8,U8,X8,AA8,AD8,AG8,AJ8)</f>
         <v>0.58036363636363641</v>
       </c>
       <c r="AN8" s="12">
-        <f t="shared" ref="AN8:AN10" si="6">AVERAGE(D8,G8,J8,P8,S8,V8,Y8,AB8,AE8,AH8,AK8)</f>
+        <f t="shared" ref="AN8:AN12" si="6">AVERAGE(D8,G8,J8,P8,S8,V8,Y8,AB8,AE8,AH8,AK8)</f>
         <v>0.46478181818181824</v>
       </c>
     </row>
@@ -11745,86 +15139,254 @@
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="12"/>
+      <c r="A11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.60550000000000004</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.2203</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.3231</v>
+      </c>
+      <c r="E11" s="15">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.2036</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.436</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.57110000000000005</v>
+      </c>
+      <c r="K11" s="10">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.41149999999999998</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0.44469999999999998</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0.1313</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0.22819999999999999</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0.74280000000000002</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="V11" s="12">
+        <v>0.81769999999999998</v>
+      </c>
+      <c r="W11" s="10">
+        <v>0.19939999999999999</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0.48070000000000002</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>0.23380000000000001</v>
+      </c>
+      <c r="AC11" s="10">
+        <v>5.74E-2</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>0.4657</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>0.1022</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>0.83109999999999995</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="AH11" s="12">
+        <v>0.83409999999999995</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>0.48459999999999998</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>0.9173</v>
+      </c>
+      <c r="AK11" s="12">
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="AL11" s="10">
+        <f t="shared" si="4"/>
+        <v>0.36594545454545457</v>
+      </c>
+      <c r="AM11" s="11">
+        <f t="shared" si="5"/>
+        <v>0.65856363636363635</v>
+      </c>
+      <c r="AN11" s="12">
+        <f t="shared" si="6"/>
+        <v>0.41819090909090906</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="12"/>
+      <c r="A12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.2341</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.18840000000000001</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.42720000000000002</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.4032</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.53459999999999996</v>
+      </c>
+      <c r="K12" s="10">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.65639999999999998</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0.1673</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0.442</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0.85819999999999996</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0.30969999999999998</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0.45569999999999999</v>
+      </c>
+      <c r="T12" s="10">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="U12" s="11">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="W12" s="10">
+        <v>0.49590000000000001</v>
+      </c>
+      <c r="X12" s="11">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0.4778</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>0.30070000000000002</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>0.72470000000000001</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>0.17180000000000001</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>0.83230000000000004</v>
+      </c>
+      <c r="AI12" s="11">
+        <v>0.66559999999999997</v>
+      </c>
+      <c r="AJ12" s="11">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="AK12" s="12">
+        <v>0.67410000000000003</v>
+      </c>
+      <c r="AL12" s="10">
+        <f t="shared" si="4"/>
+        <v>0.44907272727272729</v>
+      </c>
+      <c r="AM12" s="11">
+        <f t="shared" si="5"/>
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="AN12" s="12">
+        <f t="shared" si="6"/>
+        <v>0.5048454545454546</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
@@ -12645,10 +16207,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13141,7 +16703,7 @@
         <v>1.2629999999999999</v>
       </c>
       <c r="L13" s="7">
-        <f t="shared" ref="L13:L14" si="2">AVERAGE(D13,F13,H13,J13)</f>
+        <f t="shared" ref="L13:L16" si="2">AVERAGE(D13,F13,H13,J13)</f>
         <v>0.65500000000000003</v>
       </c>
       <c r="M13" s="9">
@@ -13193,20 +16755,115 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="A15" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="30">
+        <v>0.74660000000000004</v>
+      </c>
+      <c r="D15">
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0.86260000000000003</v>
+      </c>
       <c r="G15" s="30"/>
-      <c r="L15" s="7"/>
+      <c r="H15">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="J15">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>0.66969999999999996</v>
+      </c>
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="30">
+        <v>0.73939999999999995</v>
+      </c>
+      <c r="D16">
+        <v>0.63729999999999998</v>
+      </c>
+      <c r="F16" s="30">
+        <v>0.7833</v>
+      </c>
       <c r="G16" s="30"/>
-      <c r="L16" s="7"/>
+      <c r="H16">
+        <v>0.3947</v>
+      </c>
+      <c r="J16">
+        <v>0.4834</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.57467499999999994</v>
+      </c>
       <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="30">
+        <v>0.73709999999999998</v>
+      </c>
+      <c r="F17" s="30">
+        <v>0.83279999999999998</v>
+      </c>
+      <c r="J17">
+        <v>0.37819999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="30">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.7923</v>
+      </c>
+      <c r="J18">
+        <v>0.52349999999999997</v>
+      </c>
+      <c r="K18">
+        <v>1.0379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="30"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="30"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="30"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="30"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="30"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
+      <c r="F24" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -13218,30 +16875,42 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M16">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L16">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B6 B9">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L16">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B6 B9">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D6 D9">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -13253,7 +16922,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6 D9">
+  <conditionalFormatting sqref="F3:F6 F9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -13265,7 +16934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9">
+  <conditionalFormatting sqref="H3:H7 H9">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -13277,7 +16946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H7 H9">
+  <conditionalFormatting sqref="J3:J7 J9">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -13289,19 +16958,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J7 J9">
+  <conditionalFormatting sqref="C3:C6">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C6">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -13313,7 +16982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
+  <conditionalFormatting sqref="G3:G7">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -13325,7 +16994,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G7">
+  <conditionalFormatting sqref="I3:I6">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -13337,7 +17006,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I6">
+  <conditionalFormatting sqref="K3:K6">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -13349,24 +17018,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K6">
+  <conditionalFormatting sqref="B3:B24">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B16">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13374,110 +17031,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C16">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D16">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D16">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E16">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E16">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F24">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F16">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G16">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H16">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H16">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I16">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J24 K18">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J16">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K16">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -13491,7 +17160,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13619,13 +17288,80 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4">
+        <v>0.65710000000000002</v>
+      </c>
+      <c r="C4">
+        <f>0.7473*0.7473</f>
+        <v>0.55845729</v>
+      </c>
+      <c r="D4">
+        <v>0.65969999999999995</v>
+      </c>
+      <c r="E4">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="F4">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.65739999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.72040000000000004</v>
+      </c>
+      <c r="I4">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="K4">
+        <v>1.0246</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.83279999999999998</v>
+      </c>
+      <c r="G5">
+        <v>1.1738</v>
+      </c>
+      <c r="J5">
+        <v>0.32119999999999999</v>
+      </c>
+      <c r="K5">
+        <v>1.0940000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6">
+        <v>0.62580000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.64370000000000005</v>
+      </c>
+      <c r="J6">
+        <v>0.37519999999999998</v>
+      </c>
+      <c r="K6">
+        <v>1.0286999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BP4D" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="BP4D_intensity" sheetId="3" r:id="rId4"/>
     <sheet name="BP4D_int_seg" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="188">
   <si>
     <t>DEVEL</t>
   </si>
@@ -221,18 +221,12 @@
     <t>BP4D MLP dynamic</t>
   </si>
   <si>
-    <t>MLP</t>
-  </si>
-  <si>
     <t>BP4D MLP static geom</t>
   </si>
   <si>
     <t>Combined train MLP</t>
   </si>
   <si>
-    <t>MLP geom</t>
-  </si>
-  <si>
     <t>MSE</t>
   </si>
   <si>
@@ -251,12 +245,6 @@
     <t>Combined train MLP geom</t>
   </si>
   <si>
-    <t>MLP combined</t>
-  </si>
-  <si>
-    <t>MLP combined geom</t>
-  </si>
-  <si>
     <t>SEMAINE SVM geometry stat</t>
   </si>
   <si>
@@ -588,13 +576,19 @@
   </si>
   <si>
     <t>Semaine submitted v 3</t>
+  </si>
+  <si>
+    <t>Submitted v3</t>
+  </si>
+  <si>
+    <t>Semaine submitted no bad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +798,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,8 +812,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -908,7 +902,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -943,7 +936,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1119,82 +1111,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AE65" sqref="AE65"/>
+    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="2" max="37" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:37">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="38"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="40"/>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -1423,7 +1415,7 @@
         <v>0.26816666666666661</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1515,7 +1507,7 @@
         <v>0.25200000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -1607,7 +1599,7 @@
         <v>0.23471428571428571</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="16.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1699,7 +1691,7 @@
         <v>0.3408571428571428</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1791,7 +1783,7 @@
         <v>0.21928571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1907,7 +1899,7 @@
         <v>0.60526363636363623</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -2023,7 +2015,7 @@
         <v>0.59264545454545459</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -2139,7 +2131,7 @@
         <v>0.59812727272727273</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2255,7 +2247,7 @@
         <v>0.59751818181818195</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -2314,7 +2306,7 @@
       <c r="AJ12" s="11"/>
       <c r="AK12" s="12"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -2373,7 +2365,7 @@
       <c r="AJ13" s="11"/>
       <c r="AK13" s="12"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2432,7 +2424,7 @@
       <c r="AJ14" s="11"/>
       <c r="AK14" s="12"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -2491,7 +2483,7 @@
       <c r="AJ15" s="11"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -2574,7 +2566,7 @@
       <c r="AJ16" s="11"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37">
       <c r="A17" s="25" t="s">
         <v>43</v>
       </c>
@@ -2657,7 +2649,7 @@
       <c r="AJ17" s="11"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37">
       <c r="A18" s="25" t="s">
         <v>46</v>
       </c>
@@ -2728,7 +2720,7 @@
       <c r="AJ18" s="11"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37">
       <c r="A19" s="25" t="s">
         <v>47</v>
       </c>
@@ -2799,7 +2791,7 @@
       <c r="AJ19" s="11"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37">
       <c r="A20" s="25" t="s">
         <v>52</v>
       </c>
@@ -2915,7 +2907,7 @@
         <v>0.57558181818181819</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37">
       <c r="A21" s="25" t="s">
         <v>53</v>
       </c>
@@ -3031,7 +3023,7 @@
         <v>0.58974545454545457</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37">
       <c r="A22" s="25" t="s">
         <v>54</v>
       </c>
@@ -3147,7 +3139,7 @@
         <v>0.58663636363636362</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37">
       <c r="A23" s="25" t="s">
         <v>55</v>
       </c>
@@ -3263,7 +3255,7 @@
         <v>0.59650909090909088</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37">
       <c r="A24" s="25" t="s">
         <v>56</v>
       </c>
@@ -3379,7 +3371,7 @@
         <v>0.5917</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37">
       <c r="A25" s="25" t="s">
         <v>60</v>
       </c>
@@ -3495,7 +3487,7 @@
         <v>0.61232727272727272</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37">
       <c r="A26" s="25" t="s">
         <v>65</v>
       </c>
@@ -3611,7 +3603,7 @@
         <v>0.58963636363636374</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37">
       <c r="A27" s="25" t="s">
         <v>66</v>
       </c>
@@ -3727,9 +3719,9 @@
         <v>0.57887272727272732</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37">
       <c r="A28" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="7">
         <v>0.41089999999999999</v>
@@ -3843,9 +3835,9 @@
         <v>0.60222727272727272</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37">
       <c r="A29" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="7">
         <v>0.43840000000000001</v>
@@ -3926,9 +3918,9 @@
       <c r="AJ29" s="11"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37">
       <c r="A30" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" s="7">
         <v>0.3584</v>
@@ -4042,9 +4034,9 @@
         <v>0.60204545454545466</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37">
       <c r="A31" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="7">
         <v>0.49170000000000003</v>
@@ -4125,9 +4117,9 @@
       <c r="AJ31" s="11"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37">
       <c r="A32" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" s="7">
         <v>0.36620000000000003</v>
@@ -4241,9 +4233,9 @@
         <v>0.58684545454545445</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37">
       <c r="A33" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B33" s="7">
         <v>0.34839999999999999</v>
@@ -4324,9 +4316,9 @@
       <c r="AJ33" s="11"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37">
       <c r="A34" s="25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B34" s="7">
         <v>0.34799999999999998</v>
@@ -4440,9 +4432,9 @@
         <v>0.60236363636363643</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37">
       <c r="A35" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B35" s="7">
         <v>0.2984</v>
@@ -4556,9 +4548,9 @@
         <v>0.55642727272727277</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37">
       <c r="A36" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B36" s="7">
         <v>0.4365</v>
@@ -4672,9 +4664,9 @@
         <v>0.55127272727272725</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37">
       <c r="A37" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B37" s="7">
         <v>0.33360000000000001</v>
@@ -4788,9 +4780,9 @@
         <v>0.55403636363636355</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37">
       <c r="A38" s="25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B38" s="7">
         <v>0.32329999999999998</v>
@@ -4904,9 +4896,9 @@
         <v>0.54439090909090904</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37">
       <c r="A39" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B39" s="7">
         <v>0.40389999999999998</v>
@@ -5020,9 +5012,9 @@
         <v>0.60190909090909095</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37">
       <c r="A40" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B40" s="7">
         <v>0.36620000000000003</v>
@@ -5136,9 +5128,9 @@
         <v>0.60019999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37">
       <c r="A41" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B41" s="7">
         <v>0.37190000000000001</v>
@@ -5252,9 +5244,9 @@
         <v>0.60027272727272729</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37">
       <c r="A42" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B42" s="7">
         <v>0.34820000000000001</v>
@@ -5368,9 +5360,9 @@
         <v>0.59669090909090905</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37">
       <c r="A43" s="25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B43" s="7">
         <v>0.35349999999999998</v>
@@ -5484,9 +5476,9 @@
         <v>0.59946363636363642</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37">
       <c r="A44" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B44" s="7">
         <v>0.35470000000000002</v>
@@ -5600,9 +5592,9 @@
         <v>0.60235454545454559</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37">
       <c r="A45" s="25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
@@ -5659,9 +5651,9 @@
       <c r="AJ45" s="11"/>
       <c r="AK45" s="12"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37">
       <c r="A46" s="25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
@@ -5718,9 +5710,9 @@
       <c r="AJ46" s="11"/>
       <c r="AK46" s="12"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37">
       <c r="A47" s="25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B47" s="7">
         <v>0.34620000000000001</v>
@@ -5801,9 +5793,9 @@
       <c r="AJ47" s="11"/>
       <c r="AK47" s="12"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37">
       <c r="A48" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B48" s="7">
         <v>0.32819999999999999</v>
@@ -5884,9 +5876,9 @@
       <c r="AJ48" s="11"/>
       <c r="AK48" s="12"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37">
       <c r="A49" s="25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B49" s="7">
         <v>0.34820000000000001</v>
@@ -5967,9 +5959,9 @@
       <c r="AJ49" s="11"/>
       <c r="AK49" s="12"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37">
       <c r="A50" s="25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B50" s="7">
         <v>0.44950000000000001</v>
@@ -6083,9 +6075,9 @@
         <v>0.57202727272727261</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37">
       <c r="A51" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B51" s="7">
         <v>0.26800000000000002</v>
@@ -6199,9 +6191,9 @@
         <v>0.56355454545454542</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37">
       <c r="A52" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B52" s="7">
         <v>0.44950000000000001</v>
@@ -6315,9 +6307,9 @@
         <v>0.57202727272727261</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37">
       <c r="A53" s="25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B53" s="7">
         <v>0.30349999999999999</v>
@@ -6431,9 +6423,9 @@
         <v>0.56752727272727277</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37">
       <c r="A54" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B54" s="7">
         <v>0.36359999999999998</v>
@@ -6547,9 +6539,9 @@
         <v>0.55849090909090926</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37">
       <c r="A55" s="25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B55" s="7">
         <v>0.34410000000000002</v>
@@ -6663,9 +6655,9 @@
         <v>0.55976363636363635</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37">
       <c r="A56" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B56" s="7">
         <v>0.31790000000000002</v>
@@ -6779,9 +6771,9 @@
         <v>0.55291818181818186</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37">
       <c r="A57" s="25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B57" s="7">
         <v>0.2697</v>
@@ -6895,9 +6887,9 @@
         <v>0.54979999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37">
       <c r="A58" s="25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B58" s="7">
         <v>0.28610000000000002</v>
@@ -7011,9 +7003,9 @@
         <v>0.54018181818181821</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37">
       <c r="A59" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B59" s="7">
         <v>0.30330000000000001</v>
@@ -7127,9 +7119,9 @@
         <v>0.5535363636363636</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37">
       <c r="A60" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B60" s="7">
         <v>0.26960000000000001</v>
@@ -7243,9 +7235,9 @@
         <v>0.56247272727272735</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37">
       <c r="A61" s="25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B61" s="7">
         <v>0.34889999999999999</v>
@@ -7359,9 +7351,9 @@
         <v>0.60137272727272728</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37">
       <c r="A62" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B62" s="7">
         <v>0.34389999999999998</v>
@@ -7475,9 +7467,9 @@
         <v>0.59049090909090907</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37">
       <c r="A63" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B63" s="7">
         <v>0.26569999999999999</v>
@@ -7558,9 +7550,9 @@
       <c r="AJ63" s="11"/>
       <c r="AK63" s="12"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37">
       <c r="A64" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
@@ -7617,9 +7609,9 @@
       <c r="AJ64" s="11"/>
       <c r="AK64" s="12"/>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37">
       <c r="A65" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B65" s="7">
         <v>0.34100000000000003</v>
@@ -7700,9 +7692,9 @@
       <c r="AJ65" s="11"/>
       <c r="AK65" s="12"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37">
       <c r="A66" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B66" s="7">
         <v>0.36099999999999999</v>
@@ -7783,9 +7775,9 @@
       <c r="AJ66" s="11"/>
       <c r="AK66" s="12"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37">
       <c r="A67" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
@@ -7836,9 +7828,9 @@
       <c r="AJ67" s="11"/>
       <c r="AK67" s="12"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37">
       <c r="A68" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B68" s="7">
         <v>0.36859999999999998</v>
@@ -7918,6 +7910,122 @@
       <c r="AI68" s="10"/>
       <c r="AJ68" s="11"/>
       <c r="AK68" s="12"/>
+    </row>
+    <row r="69" spans="1:37">
+      <c r="A69" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="7">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="C69" s="8">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="D69" s="9">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F69" s="8">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="G69" s="9">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I69" s="8">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="J69" s="9">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="K69" s="7">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="L69" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="M69" s="8">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="N69" s="7">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="O69" s="8">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="P69" s="8">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="R69" s="8">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S69" s="8">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="T69" s="7">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="U69" s="8">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="V69" s="8">
+        <v>0.874</v>
+      </c>
+      <c r="W69" s="7">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="X69" s="8">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="Y69" s="8">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="Z69" s="7">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AA69" s="8">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="AB69" s="8">
+        <v>0.443</v>
+      </c>
+      <c r="AC69" s="7">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="AD69" s="8">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="AE69" s="8">
+        <v>0.623</v>
+      </c>
+      <c r="AF69" s="7">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="AG69" s="8">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="AH69" s="9">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="AI69" s="10">
+        <f t="shared" ref="AI63:AI69" si="33">AVERAGE(B69,E69,H69,K69,N69,Q69,T69,W69,Z69,AC69,AF69)</f>
+        <v>0.5479090909090909</v>
+      </c>
+      <c r="AJ69" s="11">
+        <f t="shared" ref="AJ63:AJ69" si="34">AVERAGE(C69,F69,I69,L69,O69,R69,U69,X69,AA69,AD69,AG69)</f>
+        <v>0.71918181818181826</v>
+      </c>
+      <c r="AK69" s="12">
+        <f t="shared" ref="AK63:AK69" si="35">AVERAGE(D69,G69,J69,M69,P69,S69,V69,Y69,AB69,AE69,AH69)</f>
+        <v>0.61218181818181816</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7937,9 +8045,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="83">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7949,9 +8057,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="82">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7961,9 +8069,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="81">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7973,9 +8081,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="80">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7985,9 +8093,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="79">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -7997,9 +8105,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="78">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8009,9 +8117,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="77">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8021,9 +8129,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="76">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8033,9 +8141,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="75">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8045,9 +8153,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="74">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8057,21 +8165,21 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="73">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK3:AK68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK3:AK69">
     <cfRule type="colorScale" priority="72">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8081,9 +8189,9 @@
   <conditionalFormatting sqref="D3:D17">
     <cfRule type="colorScale" priority="71">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8093,9 +8201,9 @@
   <conditionalFormatting sqref="G3:G11">
     <cfRule type="colorScale" priority="70">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8105,9 +8213,9 @@
   <conditionalFormatting sqref="J3:J11">
     <cfRule type="colorScale" priority="69">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8117,9 +8225,9 @@
   <conditionalFormatting sqref="M3:M11">
     <cfRule type="colorScale" priority="68">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8129,9 +8237,9 @@
   <conditionalFormatting sqref="P3:P11">
     <cfRule type="colorScale" priority="67">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8141,9 +8249,9 @@
   <conditionalFormatting sqref="S3:S11">
     <cfRule type="colorScale" priority="66">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8153,9 +8261,9 @@
   <conditionalFormatting sqref="V3:V11">
     <cfRule type="colorScale" priority="65">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8165,9 +8273,9 @@
   <conditionalFormatting sqref="Y3:Y11">
     <cfRule type="colorScale" priority="64">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8177,9 +8285,9 @@
   <conditionalFormatting sqref="AB3:AB11">
     <cfRule type="colorScale" priority="63">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8189,9 +8297,9 @@
   <conditionalFormatting sqref="AE3:AE11">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8201,9 +8309,9 @@
   <conditionalFormatting sqref="AH3:AH11">
     <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8213,9 +8321,9 @@
   <conditionalFormatting sqref="G3:G21">
     <cfRule type="colorScale" priority="60">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8225,9 +8333,9 @@
   <conditionalFormatting sqref="V3:V21">
     <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8237,9 +8345,9 @@
   <conditionalFormatting sqref="AE3:AE19 AE21">
     <cfRule type="colorScale" priority="58">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8249,9 +8357,9 @@
   <conditionalFormatting sqref="J3:J17">
     <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8261,9 +8369,9 @@
   <conditionalFormatting sqref="M3:M17">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8273,9 +8381,9 @@
   <conditionalFormatting sqref="AB4:AB17">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8285,9 +8393,9 @@
   <conditionalFormatting sqref="S8:S18">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8297,9 +8405,9 @@
   <conditionalFormatting sqref="Y8:Y18">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8309,9 +8417,9 @@
   <conditionalFormatting sqref="Y8:Y19">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8321,9 +8429,9 @@
   <conditionalFormatting sqref="S8:S19">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8333,9 +8441,9 @@
   <conditionalFormatting sqref="M3:M19">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8345,9 +8453,9 @@
   <conditionalFormatting sqref="M3:M20">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8357,9 +8465,9 @@
   <conditionalFormatting sqref="AH8:AH20">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8369,9 +8477,9 @@
   <conditionalFormatting sqref="AE3:AE21">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8381,9 +8489,9 @@
   <conditionalFormatting sqref="AB3:AB20">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8393,9 +8501,9 @@
   <conditionalFormatting sqref="Y8:Y20">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8405,129 +8513,129 @@
   <conditionalFormatting sqref="S3:S24">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P25 P27:P68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P25 P27:P69">
     <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J25 J27:J68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J25 J27:J69">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G25 G27:G68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G25 G27:G69">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D25 D27:D68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D25 D27:D69">
     <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH25 AH27:AH68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3:AH25 AH27:AH69">
     <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE25 AE27:AE68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AE25 AE27:AE69">
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB25 AB27:AB68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB25 AB27:AB69">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y25 Y27:Y68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y25 Y27:Y69">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M25 M27:M68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M25 M27:M69">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V25 V27:V68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V25 V27:V69">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8537,273 +8645,273 @@
   <conditionalFormatting sqref="S3:S25">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26:S62 S64:S68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:S62 S64:S69">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P69">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J69">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G69">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D69">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH26:AH68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH26:AH69">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE26:AE68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE26:AE69">
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB26:AB68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB26:AB69">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y26:Y68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y26:Y69">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M26:M68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26:M69">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V26:V68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V26:V69">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3:AH69">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AE69">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB69">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y69">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V69">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S62 S64:S68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S62 S64:S69">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P69">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M69">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J69">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G69">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D69">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8813,45 +8921,45 @@
   <conditionalFormatting sqref="S63">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S63 V63">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V63 S63">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S63 V63">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V63 S63">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S68">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S69">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8864,14 +8972,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH78"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
@@ -8892,56 +9000,56 @@
     <col min="22" max="22" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:34">
+      <c r="B1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="39" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="U1" s="39"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -9009,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="17.25" customHeight="1">
       <c r="A3" s="35" t="s">
         <v>57</v>
       </c>
@@ -9059,7 +9167,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" s="35" t="s">
         <v>16</v>
       </c>
@@ -9109,7 +9217,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="15" customHeight="1">
       <c r="A5" s="35" t="s">
         <v>59</v>
       </c>
@@ -9159,7 +9267,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="15" customHeight="1">
       <c r="A6" s="35" t="s">
         <v>58</v>
       </c>
@@ -9209,7 +9317,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
@@ -9280,7 +9388,7 @@
         <v>0.28861666666666669</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
@@ -9351,7 +9459,7 @@
         <v>0.32611666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34">
       <c r="A9" s="35" t="s">
         <v>23</v>
       </c>
@@ -9422,7 +9530,7 @@
         <v>0.30031666666666662</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34">
       <c r="A10" s="35" t="s">
         <v>24</v>
       </c>
@@ -9493,7 +9601,7 @@
         <v>0.33934999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34">
       <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
@@ -9537,7 +9645,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="A12" s="35" t="s">
         <v>41</v>
       </c>
@@ -9581,7 +9689,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="A13" s="35" t="s">
         <v>38</v>
       </c>
@@ -9625,7 +9733,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="A14" s="35" t="s">
         <v>39</v>
       </c>
@@ -9669,7 +9777,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34">
       <c r="A15" s="35" t="s">
         <v>42</v>
       </c>
@@ -9719,7 +9827,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="A16" s="36" t="s">
         <v>43</v>
       </c>
@@ -9769,7 +9877,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="36" t="s">
         <v>44</v>
       </c>
@@ -9840,7 +9948,7 @@
         <v>0.24411666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="36" t="s">
         <v>45</v>
       </c>
@@ -9911,7 +10019,7 @@
         <v>0.29361666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="35" t="s">
         <v>32</v>
       </c>
@@ -9982,7 +10090,7 @@
         <v>0.21026666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="35" t="s">
         <v>33</v>
       </c>
@@ -10053,7 +10161,7 @@
         <v>0.33863333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="35" t="s">
         <v>61</v>
       </c>
@@ -10124,7 +10232,7 @@
         <v>0.26086666666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="35" t="s">
         <v>62</v>
       </c>
@@ -10195,7 +10303,7 @@
         <v>0.24983333333333335</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="35" t="s">
         <v>63</v>
       </c>
@@ -10266,7 +10374,7 @@
         <v>0.2364333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="35" t="s">
         <v>64</v>
       </c>
@@ -10337,9 +10445,9 @@
         <v>0.36651666666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" s="7">
         <v>0.1444</v>
@@ -10387,9 +10495,9 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="7">
         <v>0.1961</v>
@@ -10437,9 +10545,9 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" s="7">
         <v>0.5837</v>
@@ -10508,9 +10616,9 @@
         <v>0.3566833333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B28" s="7">
         <v>0.26919999999999999</v>
@@ -10579,9 +10687,9 @@
         <v>0.31143333333333334</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B29" s="7">
         <v>0.27729999999999999</v>
@@ -10629,9 +10737,9 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" s="36" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B30" s="7">
         <v>0.60299999999999998</v>
@@ -10679,9 +10787,9 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="36" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B31" s="7">
         <v>0.26519999999999999</v>
@@ -10723,9 +10831,9 @@
       <c r="U31" s="8"/>
       <c r="V31" s="9"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="36" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B32" s="7">
         <v>0.1608</v>
@@ -10767,9 +10875,9 @@
       <c r="U32" s="8"/>
       <c r="V32" s="9"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" s="36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B33" s="7">
         <v>0.30349999999999999</v>
@@ -10817,9 +10925,9 @@
       <c r="U33" s="8"/>
       <c r="V33" s="9"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" s="36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B34" s="7">
         <v>0.63</v>
@@ -10867,9 +10975,9 @@
       <c r="U34" s="8"/>
       <c r="V34" s="9"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" s="36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B35" s="7">
         <v>0.63500000000000001</v>
@@ -10938,9 +11046,9 @@
         <v>0.43949999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" s="36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B36" s="7">
         <v>0.39340000000000003</v>
@@ -11009,9 +11117,9 @@
         <v>0.4020333333333333</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B37" s="7">
         <v>0.30640000000000001</v>
@@ -11080,9 +11188,9 @@
         <v>0.31708333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" s="36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B38" s="7">
         <v>0.49180000000000001</v>
@@ -11151,9 +11259,9 @@
         <v>0.35005000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" s="36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B39" s="7">
         <v>0.3049</v>
@@ -11222,9 +11330,9 @@
         <v>0.28153333333333336</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" s="36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B40" s="7">
         <v>0.62919999999999998</v>
@@ -11293,9 +11401,9 @@
         <v>0.4820166666666667</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" s="36" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B41" s="7">
         <v>0.28489999999999999</v>
@@ -11364,9 +11472,9 @@
         <v>0.37363333333333332</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" s="36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B42" s="7">
         <v>0.49840000000000001</v>
@@ -11435,9 +11543,9 @@
         <v>0.47994999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" s="36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B43" s="7">
         <v>0.47760000000000002</v>
@@ -11506,9 +11614,9 @@
         <v>0.48656666666666665</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" s="36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B44" s="7">
         <v>0.48120000000000002</v>
@@ -11577,9 +11685,9 @@
         <v>0.4806333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" s="36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B45" s="7">
         <v>0.4773</v>
@@ -11648,9 +11756,9 @@
         <v>0.48016666666666663</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" s="36" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B46" s="7">
         <v>0.48499999999999999</v>
@@ -11719,9 +11827,9 @@
         <v>0.4773</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" s="36" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B47" s="7">
         <v>0.21079999999999999</v>
@@ -11790,9 +11898,9 @@
         <v>0.37890000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" s="36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B48" s="7">
         <v>0.47370000000000001</v>
@@ -11861,9 +11969,9 @@
         <v>0.49058333333333332</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" s="36" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B49" s="7">
         <v>0.27379999999999999</v>
@@ -11932,9 +12040,9 @@
         <v>0.39218333333333333</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" s="36" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B50" s="7">
         <v>0.1749</v>
@@ -11976,9 +12084,9 @@
       <c r="U50" s="8"/>
       <c r="V50" s="9"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B51" s="7">
         <v>0.47349999999999998</v>
@@ -12026,9 +12134,9 @@
       <c r="U51" s="8"/>
       <c r="V51" s="9"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" s="36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B52" s="7">
         <v>0.1749</v>
@@ -12070,9 +12178,9 @@
       <c r="U52" s="8"/>
       <c r="V52" s="9"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53" s="36" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B53" s="7">
         <v>0.34379999999999999</v>
@@ -12114,9 +12222,9 @@
       <c r="U53" s="8"/>
       <c r="V53" s="9"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B54" s="7">
         <v>0.2954</v>
@@ -12146,9 +12254,9 @@
       <c r="U54" s="8"/>
       <c r="V54" s="9"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" s="36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B55" s="7">
         <v>0.4138</v>
@@ -12196,9 +12304,9 @@
       <c r="U55" s="8"/>
       <c r="V55" s="9"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="36" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B56" s="7">
         <v>0.50229999999999997</v>
@@ -12267,9 +12375,9 @@
         <v>0.41789999999999994</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B57" s="7">
         <v>0.22120000000000001</v>
@@ -12338,9 +12446,9 @@
         <v>0.33184999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="A58" s="36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B58" s="7">
         <v>0.28289999999999998</v>
@@ -12409,9 +12517,9 @@
         <v>0.37034999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="A59" s="36" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B59" s="7">
         <v>0.25969999999999999</v>
@@ -12480,9 +12588,9 @@
         <v>0.34723333333333334</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="A60" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B60" s="7">
         <v>0.54490000000000005</v>
@@ -12551,9 +12659,9 @@
         <v>0.40873333333333334</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22">
       <c r="A61" s="36" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B61" s="7">
         <v>0.54949999999999999</v>
@@ -12622,9 +12730,9 @@
         <v>0.41170000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22">
       <c r="A62" s="36" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B62" s="7">
         <v>0.46460000000000001</v>
@@ -12693,9 +12801,9 @@
         <v>0.40358333333333335</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22">
       <c r="A63" s="36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B63" s="7">
         <v>0.23269999999999999</v>
@@ -12764,9 +12872,9 @@
         <v>0.33553333333333329</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22">
       <c r="A64" s="36" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B64" s="7">
         <v>0.62580000000000002</v>
@@ -12835,9 +12943,9 @@
         <v>0.40201666666666663</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65" s="36" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B65" s="7">
         <v>0.21290000000000001</v>
@@ -12906,9 +13014,9 @@
         <v>0.32824999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22">
       <c r="A66" s="36" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B66" s="7">
         <v>0.4768</v>
@@ -12977,9 +13085,9 @@
         <v>0.4079000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22">
       <c r="A67" s="36" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B67" s="7">
         <v>0.22209999999999999</v>
@@ -13048,9 +13156,9 @@
         <v>0.3315333333333334</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22">
       <c r="A68" s="36" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B68" s="31">
         <v>0.62580000000000002</v>
@@ -13058,7 +13166,7 @@
       <c r="C68" s="28">
         <v>0.56279999999999997</v>
       </c>
-      <c r="D68" s="41">
+      <c r="D68" s="37">
         <v>0.59260000000000002</v>
       </c>
       <c r="E68" s="31">
@@ -13067,7 +13175,7 @@
       <c r="F68" s="28">
         <v>0.66180000000000005</v>
       </c>
-      <c r="G68" s="41">
+      <c r="G68" s="37">
         <v>0.57479999999999998</v>
       </c>
       <c r="H68" s="31">
@@ -13076,7 +13184,7 @@
       <c r="I68" s="28">
         <v>0.71850000000000003</v>
       </c>
-      <c r="J68" s="41">
+      <c r="J68" s="37">
         <v>0.2082</v>
       </c>
       <c r="K68" s="31">
@@ -13085,7 +13193,7 @@
       <c r="L68" s="28">
         <v>0.71809999999999996</v>
       </c>
-      <c r="M68" s="41">
+      <c r="M68" s="37">
         <v>0.47099999999999997</v>
       </c>
       <c r="N68" s="31">
@@ -13094,7 +13202,7 @@
       <c r="O68" s="28">
         <v>0.63839999999999997</v>
       </c>
-      <c r="P68" s="41">
+      <c r="P68" s="37">
         <v>0.17230000000000001</v>
       </c>
       <c r="Q68" s="31">
@@ -13103,7 +13211,7 @@
       <c r="R68" s="28">
         <v>0.68289999999999995</v>
       </c>
-      <c r="S68" s="41">
+      <c r="S68" s="37">
         <v>0.39319999999999999</v>
       </c>
       <c r="T68" s="31">
@@ -13114,14 +13222,14 @@
         <f t="shared" si="32"/>
         <v>0.66374999999999995</v>
       </c>
-      <c r="V68" s="41">
+      <c r="V68" s="37">
         <f t="shared" si="33"/>
         <v>0.40201666666666663</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22">
       <c r="A69" s="36" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B69" s="31">
         <v>0.27410000000000001</v>
@@ -13129,7 +13237,7 @@
       <c r="C69" s="28">
         <v>0.43569999999999998</v>
       </c>
-      <c r="D69" s="41">
+      <c r="D69" s="37">
         <v>0.33650000000000002</v>
       </c>
       <c r="E69" s="31">
@@ -13138,7 +13246,7 @@
       <c r="F69" s="28">
         <v>0.68359999999999999</v>
       </c>
-      <c r="G69" s="41">
+      <c r="G69" s="37">
         <v>0.58199999999999996</v>
       </c>
       <c r="H69" s="31">
@@ -13147,7 +13255,7 @@
       <c r="I69" s="28">
         <v>0.1953</v>
       </c>
-      <c r="J69" s="41">
+      <c r="J69" s="37">
         <v>0.1497</v>
       </c>
       <c r="K69" s="31">
@@ -13156,7 +13264,7 @@
       <c r="L69" s="28">
         <v>0.56230000000000002</v>
       </c>
-      <c r="M69" s="41">
+      <c r="M69" s="37">
         <v>0.45519999999999999</v>
       </c>
       <c r="N69" s="31">
@@ -13165,7 +13273,7 @@
       <c r="O69" s="28">
         <v>0.44829999999999998</v>
       </c>
-      <c r="P69" s="41">
+      <c r="P69" s="37">
         <v>0.44409999999999999</v>
       </c>
       <c r="Q69" s="31">
@@ -13174,7 +13282,7 @@
       <c r="R69" s="28">
         <v>0.69010000000000005</v>
       </c>
-      <c r="S69" s="41">
+      <c r="S69" s="37">
         <v>0.37959999999999999</v>
       </c>
       <c r="T69" s="31">
@@ -13185,14 +13293,14 @@
         <f t="shared" si="32"/>
         <v>0.50255000000000005</v>
       </c>
-      <c r="V69" s="41">
+      <c r="V69" s="37">
         <f t="shared" si="33"/>
         <v>0.39118333333333338</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22">
       <c r="A70" s="36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B70" s="31">
         <v>0.45600000000000002</v>
@@ -13200,7 +13308,7 @@
       <c r="C70" s="28">
         <v>0.65549999999999997</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70" s="37">
         <v>0.53790000000000004</v>
       </c>
       <c r="E70" s="31">
@@ -13209,7 +13317,7 @@
       <c r="F70" s="28">
         <v>0.6381</v>
       </c>
-      <c r="G70" s="41">
+      <c r="G70" s="37">
         <v>0.61029999999999995</v>
       </c>
       <c r="H70" s="31">
@@ -13218,7 +13326,7 @@
       <c r="I70" s="28">
         <v>0.53949999999999998</v>
       </c>
-      <c r="J70" s="41">
+      <c r="J70" s="37">
         <v>0.43859999999999999</v>
       </c>
       <c r="K70" s="31">
@@ -13227,7 +13335,7 @@
       <c r="L70" s="28">
         <v>0.62470000000000003</v>
       </c>
-      <c r="M70" s="41">
+      <c r="M70" s="37">
         <v>0.51770000000000005</v>
       </c>
       <c r="N70" s="31">
@@ -13236,7 +13344,7 @@
       <c r="O70" s="28">
         <v>0.3669</v>
       </c>
-      <c r="P70" s="41">
+      <c r="P70" s="37">
         <v>0.42859999999999998</v>
       </c>
       <c r="Q70" s="31">
@@ -13245,25 +13353,25 @@
       <c r="R70" s="28">
         <v>0.68400000000000005</v>
       </c>
-      <c r="S70" s="41">
+      <c r="S70" s="37">
         <v>0.42059999999999997</v>
       </c>
       <c r="T70" s="31">
-        <f t="shared" ref="T69:T70" si="34">AVERAGE(B70,E70,H70,K70,N70,Q70)</f>
+        <f t="shared" ref="T70" si="34">AVERAGE(B70,E70,H70,K70,N70,Q70)</f>
         <v>0.44524999999999998</v>
       </c>
       <c r="U70" s="28">
-        <f t="shared" ref="U69:U70" si="35">AVERAGE(C70,F70,I70,L70,O70,R70)</f>
+        <f t="shared" ref="U70" si="35">AVERAGE(C70,F70,I70,L70,O70,R70)</f>
         <v>0.58478333333333332</v>
       </c>
-      <c r="V70" s="41">
-        <f t="shared" ref="V69:V70" si="36">AVERAGE(D70,G70,J70,M70,P70,S70)</f>
+      <c r="V70" s="37">
+        <f t="shared" ref="V70" si="36">AVERAGE(D70,G70,J70,M70,P70,S70)</f>
         <v>0.49228333333333335</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22">
       <c r="A71" s="36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B71" s="31">
         <v>0.38679999999999998</v>
@@ -13271,7 +13379,7 @@
       <c r="C71" s="28">
         <v>0.55830000000000002</v>
       </c>
-      <c r="D71" s="41">
+      <c r="D71" s="37">
         <v>0.45689999999999997</v>
       </c>
       <c r="E71" s="31">
@@ -13280,7 +13388,7 @@
       <c r="F71" s="28">
         <v>0.89700000000000002</v>
       </c>
-      <c r="G71" s="41">
+      <c r="G71" s="37">
         <v>0.50929999999999997</v>
       </c>
       <c r="H71" s="31">
@@ -13289,25 +13397,25 @@
       <c r="I71" s="28">
         <v>0.79249999999999998</v>
       </c>
-      <c r="J71" s="41">
+      <c r="J71" s="37">
         <v>0.17580000000000001</v>
       </c>
       <c r="K71" s="31"/>
       <c r="L71" s="28"/>
-      <c r="M71" s="41"/>
+      <c r="M71" s="37"/>
       <c r="N71" s="31"/>
       <c r="O71" s="28"/>
-      <c r="P71" s="41"/>
+      <c r="P71" s="37"/>
       <c r="Q71" s="31"/>
       <c r="R71" s="28"/>
-      <c r="S71" s="41"/>
+      <c r="S71" s="37"/>
       <c r="T71" s="31"/>
       <c r="U71" s="28"/>
-      <c r="V71" s="41"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V71" s="37"/>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="36" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B72" s="31">
         <v>0.18</v>
@@ -13315,7 +13423,7 @@
       <c r="C72" s="28">
         <v>0.878</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="37">
         <v>0.29880000000000001</v>
       </c>
       <c r="E72" s="31">
@@ -13324,7 +13432,7 @@
       <c r="F72" s="28">
         <v>0.90349999999999997</v>
       </c>
-      <c r="G72" s="41">
+      <c r="G72" s="37">
         <v>0.51290000000000002</v>
       </c>
       <c r="H72" s="31">
@@ -13333,25 +13441,25 @@
       <c r="I72" s="28">
         <v>0.93369999999999997</v>
       </c>
-      <c r="J72" s="41">
+      <c r="J72" s="37">
         <v>0.13250000000000001</v>
       </c>
       <c r="K72" s="31"/>
       <c r="L72" s="28"/>
-      <c r="M72" s="41"/>
+      <c r="M72" s="37"/>
       <c r="N72" s="31"/>
       <c r="O72" s="28"/>
-      <c r="P72" s="41"/>
+      <c r="P72" s="37"/>
       <c r="Q72" s="31"/>
       <c r="R72" s="28"/>
-      <c r="S72" s="41"/>
+      <c r="S72" s="37"/>
       <c r="T72" s="31"/>
       <c r="U72" s="28"/>
-      <c r="V72" s="41"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V72" s="37"/>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B73" s="31">
         <v>0.33989999999999998</v>
@@ -13359,7 +13467,7 @@
       <c r="C73" s="28">
         <v>0.67959999999999998</v>
       </c>
-      <c r="D73" s="41">
+      <c r="D73" s="37">
         <v>0.45319999999999999</v>
       </c>
       <c r="E73" s="31">
@@ -13368,7 +13476,7 @@
       <c r="F73" s="28">
         <v>0.35360000000000003</v>
       </c>
-      <c r="G73" s="41">
+      <c r="G73" s="37">
         <v>0.47039999999999998</v>
       </c>
       <c r="H73" s="31">
@@ -13377,7 +13485,7 @@
       <c r="I73" s="28">
         <v>0.8659</v>
       </c>
-      <c r="J73" s="41">
+      <c r="J73" s="37">
         <v>0.23269999999999999</v>
       </c>
       <c r="K73" s="31">
@@ -13386,22 +13494,22 @@
       <c r="L73" s="28">
         <v>0.44579999999999997</v>
       </c>
-      <c r="M73" s="41">
+      <c r="M73" s="37">
         <v>0.3337</v>
       </c>
       <c r="N73" s="31"/>
       <c r="O73" s="28"/>
-      <c r="P73" s="41"/>
+      <c r="P73" s="37"/>
       <c r="Q73" s="31"/>
       <c r="R73" s="28"/>
-      <c r="S73" s="41"/>
+      <c r="S73" s="37"/>
       <c r="T73" s="31"/>
       <c r="U73" s="28"/>
-      <c r="V73" s="41"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V73" s="37"/>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="36" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B74" s="31">
         <v>0.18859999999999999</v>
@@ -13409,7 +13517,7 @@
       <c r="C74" s="28">
         <v>0.79510000000000003</v>
       </c>
-      <c r="D74" s="41">
+      <c r="D74" s="37">
         <v>0.3049</v>
       </c>
       <c r="E74" s="31">
@@ -13418,7 +13526,7 @@
       <c r="F74" s="28">
         <v>0.87619999999999998</v>
       </c>
-      <c r="G74" s="41">
+      <c r="G74" s="37">
         <v>0.53779999999999994</v>
       </c>
       <c r="H74" s="31">
@@ -13427,25 +13535,25 @@
       <c r="I74" s="28">
         <v>0.94189999999999996</v>
       </c>
-      <c r="J74" s="41">
+      <c r="J74" s="37">
         <v>0.16109999999999999</v>
       </c>
       <c r="K74" s="31"/>
       <c r="L74" s="28"/>
-      <c r="M74" s="41"/>
+      <c r="M74" s="37"/>
       <c r="N74" s="31"/>
       <c r="O74" s="28"/>
-      <c r="P74" s="41"/>
+      <c r="P74" s="37"/>
       <c r="Q74" s="31"/>
       <c r="R74" s="28"/>
-      <c r="S74" s="41"/>
+      <c r="S74" s="37"/>
       <c r="T74" s="31"/>
       <c r="U74" s="28"/>
-      <c r="V74" s="41"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V74" s="37"/>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="36" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B75" s="31">
         <v>0.34899999999999998</v>
@@ -13453,7 +13561,7 @@
       <c r="C75" s="28">
         <v>0.70930000000000004</v>
       </c>
-      <c r="D75" s="41">
+      <c r="D75" s="37">
         <v>0.46779999999999999</v>
       </c>
       <c r="E75" s="31">
@@ -13462,7 +13570,7 @@
       <c r="F75" s="28">
         <v>0.60250000000000004</v>
       </c>
-      <c r="G75" s="41">
+      <c r="G75" s="37">
         <v>0.57540000000000002</v>
       </c>
       <c r="H75" s="31">
@@ -13471,7 +13579,7 @@
       <c r="I75" s="28">
         <v>0.80779999999999996</v>
       </c>
-      <c r="J75" s="41">
+      <c r="J75" s="37">
         <v>0.2286</v>
       </c>
       <c r="K75" s="31">
@@ -13480,22 +13588,22 @@
       <c r="L75" s="28">
         <v>0.38640000000000002</v>
       </c>
-      <c r="M75" s="41">
+      <c r="M75" s="37">
         <v>0.37019999999999997</v>
       </c>
       <c r="N75" s="31"/>
       <c r="O75" s="28"/>
-      <c r="P75" s="41"/>
+      <c r="P75" s="37"/>
       <c r="Q75" s="31"/>
       <c r="R75" s="28"/>
-      <c r="S75" s="41"/>
+      <c r="S75" s="37"/>
       <c r="T75" s="31"/>
       <c r="U75" s="28"/>
-      <c r="V75" s="41"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V75" s="37"/>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="36" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B76" s="31">
         <v>0.29330000000000001</v>
@@ -13503,7 +13611,7 @@
       <c r="C76" s="28">
         <v>0.6159</v>
       </c>
-      <c r="D76" s="41">
+      <c r="D76" s="37">
         <v>0.39739999999999998</v>
       </c>
       <c r="E76" s="31">
@@ -13512,7 +13620,7 @@
       <c r="F76" s="28">
         <v>0.84519999999999995</v>
       </c>
-      <c r="G76" s="41">
+      <c r="G76" s="37">
         <v>0.5484</v>
       </c>
       <c r="H76" s="31">
@@ -13521,7 +13629,7 @@
       <c r="I76" s="28">
         <v>0.70779999999999998</v>
       </c>
-      <c r="J76" s="41">
+      <c r="J76" s="37">
         <v>0.37509999999999999</v>
       </c>
       <c r="K76" s="31">
@@ -13530,31 +13638,31 @@
       <c r="L76" s="28">
         <v>0.69379999999999997</v>
       </c>
-      <c r="M76" s="41">
+      <c r="M76" s="37">
         <v>0.46910000000000002</v>
       </c>
       <c r="N76" s="31"/>
       <c r="O76" s="28"/>
-      <c r="P76" s="41"/>
+      <c r="P76" s="37"/>
       <c r="Q76" s="31"/>
       <c r="R76" s="28"/>
-      <c r="S76" s="41"/>
+      <c r="S76" s="37"/>
       <c r="T76" s="31"/>
       <c r="U76" s="28"/>
-      <c r="V76" s="41"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V76" s="37"/>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="36" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B77" s="31">
-        <v>0.45900000000000002</v>
+        <v>0.62</v>
       </c>
       <c r="C77" s="28">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="D77" s="41">
-        <v>0.54200000000000004</v>
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D77" s="37">
+        <v>0.58899999999999997</v>
       </c>
       <c r="E77" s="31">
         <v>0.57599999999999996</v>
@@ -13562,7 +13670,7 @@
       <c r="F77" s="28">
         <v>0.65400000000000003</v>
       </c>
-      <c r="G77" s="41">
+      <c r="G77" s="37">
         <v>0.61199999999999999</v>
       </c>
       <c r="H77" s="31">
@@ -13571,7 +13679,7 @@
       <c r="I77" s="28">
         <v>0.52800000000000002</v>
       </c>
-      <c r="J77" s="41">
+      <c r="J77" s="37">
         <v>0.437</v>
       </c>
       <c r="K77" s="31">
@@ -13580,7 +13688,7 @@
       <c r="L77" s="28">
         <v>0.63300000000000001</v>
       </c>
-      <c r="M77" s="41">
+      <c r="M77" s="37">
         <v>0.52500000000000002</v>
       </c>
       <c r="N77" s="31">
@@ -13589,7 +13697,7 @@
       <c r="O77" s="28">
         <v>0.36799999999999999</v>
       </c>
-      <c r="P77" s="41">
+      <c r="P77" s="37">
         <v>0.43099999999999999</v>
       </c>
       <c r="Q77" s="31">
@@ -13598,65 +13706,113 @@
       <c r="R77" s="28">
         <v>0.64</v>
       </c>
-      <c r="S77" s="41">
+      <c r="S77" s="37">
         <v>0.39989999999999998</v>
       </c>
       <c r="T77" s="31">
-        <f t="shared" ref="T71:T77" si="37">AVERAGE(B77,E77,H77,K77,N77,Q77)</f>
-        <v>0.4443333333333333</v>
+        <f t="shared" ref="T77" si="37">AVERAGE(B77,E77,H77,K77,N77,Q77)</f>
+        <v>0.47116666666666668</v>
       </c>
       <c r="U77" s="28">
-        <f t="shared" ref="U71:U77" si="38">AVERAGE(C77,F77,I77,L77,O77,R77)</f>
-        <v>0.58083333333333342</v>
-      </c>
-      <c r="V77" s="41">
-        <f t="shared" ref="V71:V77" si="39">AVERAGE(D77,G77,J77,M77,P77,S77)</f>
-        <v>0.49115000000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B78" s="31"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="41"/>
-      <c r="Q78" s="31"/>
-      <c r="R78" s="28"/>
-      <c r="S78" s="41"/>
-      <c r="T78" s="31"/>
-      <c r="U78" s="28"/>
-      <c r="V78" s="41"/>
+        <f t="shared" ref="U77" si="38">AVERAGE(C77,F77,I77,L77,O77,R77)</f>
+        <v>0.56400000000000006</v>
+      </c>
+      <c r="V77" s="37">
+        <f t="shared" ref="V77" si="39">AVERAGE(D77,G77,J77,M77,P77,S77)</f>
+        <v>0.49898333333333339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" s="31">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="C78" s="28">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D78" s="37">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="E78" s="31">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F78" s="28">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="G78" s="37">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="H78" s="31">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="I78" s="28">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J78" s="37">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K78" s="31">
+        <v>0.45</v>
+      </c>
+      <c r="L78" s="28">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="M78" s="37">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="N78" s="31">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="O78" s="28">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="P78" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="Q78" s="31">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="R78" s="28">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="S78" s="37">
+        <v>0.39989999999999998</v>
+      </c>
+      <c r="T78" s="31">
+        <f t="shared" ref="T78" si="40">AVERAGE(B78,E78,H78,K78,N78,Q78)</f>
+        <v>0.48866666666666664</v>
+      </c>
+      <c r="U78" s="28">
+        <f t="shared" ref="U78" si="41">AVERAGE(C78,F78,I78,L78,O78,R78)</f>
+        <v>0.55966666666666665</v>
+      </c>
+      <c r="V78" s="37">
+        <f t="shared" ref="V78" si="42">AVERAGE(D78,G78,J78,M78,P78,S78)</f>
+        <v>0.50314999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13666,9 +13822,9 @@
   <conditionalFormatting sqref="G3:G10">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13678,9 +13834,9 @@
   <conditionalFormatting sqref="J3:J10">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13690,9 +13846,9 @@
   <conditionalFormatting sqref="M3:M10">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13702,9 +13858,9 @@
   <conditionalFormatting sqref="P7:P10">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13714,9 +13870,9 @@
   <conditionalFormatting sqref="S7:S10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13726,9 +13882,9 @@
   <conditionalFormatting sqref="M3:M15">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13738,9 +13894,9 @@
   <conditionalFormatting sqref="M3:M16">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13750,9 +13906,9 @@
   <conditionalFormatting sqref="M3:M18">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13762,9 +13918,9 @@
   <conditionalFormatting sqref="P7:P18">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13774,9 +13930,9 @@
   <conditionalFormatting sqref="S7:S18">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13786,9 +13942,9 @@
   <conditionalFormatting sqref="M4:M21">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13798,9 +13954,9 @@
   <conditionalFormatting sqref="P4:P21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13810,9 +13966,9 @@
   <conditionalFormatting sqref="S4:S21">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13822,9 +13978,9 @@
   <conditionalFormatting sqref="V3:V78">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13834,9 +13990,9 @@
   <conditionalFormatting sqref="D3:D69 D71:D78">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13846,9 +14002,9 @@
   <conditionalFormatting sqref="G3:G69 G71:G78">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13858,9 +14014,9 @@
   <conditionalFormatting sqref="J3:J78">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13870,9 +14026,9 @@
   <conditionalFormatting sqref="M3:M78">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13882,9 +14038,9 @@
   <conditionalFormatting sqref="P3:P78">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13894,9 +14050,9 @@
   <conditionalFormatting sqref="S3:S78">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13906,9 +14062,9 @@
   <conditionalFormatting sqref="D70">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13918,9 +14074,9 @@
   <conditionalFormatting sqref="G70">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13933,14 +14089,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="31" width="4.5703125" bestFit="1" customWidth="1"/>
@@ -13949,74 +14105,74 @@
     <col min="38" max="40" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:40">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="39" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="39" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="37" t="s">
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="38"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14138,9 +14294,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40">
       <c r="A3" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="10">
         <v>0.38469999999999999</v>
@@ -14263,9 +14419,9 @@
         <v>0.45634545454545455</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B4" s="10">
         <v>0.56200000000000006</v>
@@ -14388,9 +14544,9 @@
         <v>0.49341818181818181</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" s="10">
         <v>0.27739999999999998</v>
@@ -14513,9 +14669,9 @@
         <v>0.4236454545454546</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B6" s="10">
         <v>0.3236</v>
@@ -14638,9 +14794,9 @@
         <v>0.51095454545454555</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40">
       <c r="A7" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B7" s="10">
         <v>0.2737</v>
@@ -14763,9 +14919,9 @@
         <v>0.5414363636363636</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40">
       <c r="A8" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B8" s="10">
         <v>0.47499999999999998</v>
@@ -14888,9 +15044,9 @@
         <v>0.46478181818181824</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40">
       <c r="A9" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B9" s="10">
         <v>0.3417</v>
@@ -15013,9 +15169,9 @@
         <v>0.42369090909090906</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40">
       <c r="A10" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B10" s="10">
         <v>0.2369</v>
@@ -15138,9 +15294,9 @@
         <v>0.47940909090909095</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40">
       <c r="A11" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B11" s="10">
         <v>0.60550000000000004</v>
@@ -15263,9 +15419,9 @@
         <v>0.41819090909090906</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40">
       <c r="A12" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B12" s="10">
         <v>0.2341</v>
@@ -15388,7 +15544,7 @@
         <v>0.5048454545454546</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
@@ -15448,9 +15604,9 @@
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="63">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15460,9 +15616,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15472,9 +15628,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15484,9 +15640,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="60">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15496,9 +15652,9 @@
   <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15508,9 +15664,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="58">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15520,9 +15676,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15532,9 +15688,9 @@
   <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15544,9 +15700,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15556,9 +15712,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15568,9 +15724,9 @@
   <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15580,9 +15736,9 @@
   <conditionalFormatting sqref="AN3:AN13">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15592,9 +15748,9 @@
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15604,9 +15760,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15616,9 +15772,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15628,9 +15784,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15640,9 +15796,9 @@
   <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15652,9 +15808,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15664,9 +15820,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15676,9 +15832,9 @@
   <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15688,9 +15844,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15700,9 +15856,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15712,9 +15868,9 @@
   <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15724,9 +15880,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15736,9 +15892,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15748,9 +15904,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15760,9 +15916,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15772,9 +15928,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15784,9 +15940,9 @@
   <conditionalFormatting sqref="AE4:AE13">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15796,9 +15952,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15808,9 +15964,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15820,9 +15976,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15832,9 +15988,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15844,9 +16000,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15856,9 +16012,9 @@
   <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15868,9 +16024,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15880,9 +16036,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15892,9 +16048,9 @@
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15904,9 +16060,9 @@
   <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15916,9 +16072,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15928,9 +16084,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15940,9 +16096,9 @@
   <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15952,9 +16108,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15964,9 +16120,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15976,9 +16132,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15988,9 +16144,9 @@
   <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16000,9 +16156,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16012,9 +16168,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16024,9 +16180,9 @@
   <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16036,9 +16192,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16048,9 +16204,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16060,9 +16216,9 @@
   <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16072,9 +16228,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16084,9 +16240,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16096,9 +16252,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16108,9 +16264,9 @@
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16120,9 +16276,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16132,9 +16288,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16144,9 +16300,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16156,9 +16312,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16168,9 +16324,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16180,9 +16336,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16192,9 +16348,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16206,14 +16362,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -16230,38 +16386,38 @@
     <col min="13" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="38"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="40"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="B2" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>48</v>
@@ -16294,7 +16450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="25" t="s">
         <v>46</v>
       </c>
@@ -16316,8 +16472,8 @@
         <v>0.8518</v>
       </c>
       <c r="G3" s="9">
-        <f>0.8217*0.8217</f>
-        <v>0.67519088999999999</v>
+        <f>0.8217</f>
+        <v>0.82169999999999999</v>
       </c>
       <c r="H3" s="7">
         <v>0.53010000000000002</v>
@@ -16330,8 +16486,8 @@
         <v>0.49890000000000001</v>
       </c>
       <c r="K3" s="8">
-        <f>1.0986*1.0986</f>
-        <v>1.2069219600000001</v>
+        <f>1.0986</f>
+        <v>1.0986</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" ref="L3:M6" si="0">AVERAGE(D3,F3,H3,J3)</f>
@@ -16339,10 +16495,10 @@
       </c>
       <c r="M3" s="9">
         <f t="shared" si="0"/>
-        <v>1.0845751025000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.09412189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="25" t="s">
         <v>47</v>
       </c>
@@ -16364,8 +16520,8 @@
         <v>0.7742</v>
       </c>
       <c r="G4" s="9">
-        <f>1.0482*1.0482</f>
-        <v>1.09872324</v>
+        <f>1.0482</f>
+        <v>1.0482</v>
       </c>
       <c r="H4" s="7">
         <v>0.4163</v>
@@ -16378,8 +16534,8 @@
         <v>0.51639999999999997</v>
       </c>
       <c r="K4" s="8">
-        <f>0.908*0.908</f>
-        <v>0.82446400000000009</v>
+        <f>0.908</f>
+        <v>0.90800000000000003</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" si="0"/>
@@ -16387,10 +16543,10 @@
       </c>
       <c r="M4" s="9">
         <f t="shared" si="0"/>
-        <v>1.3607243325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.3689775225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="25" t="s">
         <v>50</v>
       </c>
@@ -16412,8 +16568,8 @@
         <v>0.83860000000000001</v>
       </c>
       <c r="G5" s="9">
-        <f>0.8519*0.8519</f>
-        <v>0.72573361000000003</v>
+        <f>0.8519</f>
+        <v>0.85189999999999999</v>
       </c>
       <c r="H5" s="7">
         <v>0.50409999999999999</v>
@@ -16426,8 +16582,8 @@
         <v>0.48699999999999999</v>
       </c>
       <c r="K5" s="9">
-        <f>1.1224*1.1224</f>
-        <v>1.2597817600000001</v>
+        <f>1.1224</f>
+        <v>1.1224000000000001</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="0"/>
@@ -16435,10 +16591,10 @@
       </c>
       <c r="M5" s="9">
         <f t="shared" si="0"/>
-        <v>1.1540821750000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1512783325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="25" t="s">
         <v>51</v>
       </c>
@@ -16460,8 +16616,8 @@
         <v>0.75049999999999994</v>
       </c>
       <c r="G6" s="9">
-        <f>1.0584*1.0584</f>
-        <v>1.1202105600000001</v>
+        <f>1.0584</f>
+        <v>1.0584</v>
       </c>
       <c r="H6" s="7">
         <v>0.38679999999999998</v>
@@ -16474,8 +16630,8 @@
         <v>0.43230000000000002</v>
       </c>
       <c r="K6" s="9">
-        <f>0.9644*0.9644</f>
-        <v>0.93006736000000012</v>
+        <f>0.9644</f>
+        <v>0.96440000000000003</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
@@ -16483,12 +16639,12 @@
       </c>
       <c r="M6" s="9">
         <f t="shared" si="0"/>
-        <v>1.4101859700000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4033164900000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" s="31">
         <v>0.76639999999999997</v>
@@ -16508,15 +16664,15 @@
         <v>0.8518</v>
       </c>
       <c r="G7">
-        <f>0.8217*0.8217</f>
-        <v>0.67519088999999999</v>
+        <f>0.8217</f>
+        <v>0.82169999999999999</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B8" s="31">
         <v>0.7651</v>
@@ -16528,342 +16684,244 @@
       <c r="L8" s="7"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="28">
-        <v>0.76449999999999996</v>
+        <v>95</v>
+      </c>
+      <c r="B9" s="30">
+        <v>0.76100000000000001</v>
       </c>
       <c r="C9">
-        <v>0.80910000000000004</v>
-      </c>
-      <c r="D9" s="28">
-        <v>0.751</v>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.76500000000000001</v>
       </c>
       <c r="E9">
-        <v>0.9607</v>
-      </c>
-      <c r="F9" s="28">
-        <v>0.86480000000000001</v>
-      </c>
-      <c r="G9">
-        <v>0.62270000000000003</v>
-      </c>
-      <c r="H9" s="28">
-        <v>0.55569999999999997</v>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0.84</v>
+      </c>
+      <c r="H9">
+        <v>0.53900000000000003</v>
       </c>
       <c r="I9">
-        <v>1.2606999999999999</v>
-      </c>
-      <c r="J9" s="28">
-        <v>0.443</v>
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.503</v>
       </c>
       <c r="K9">
-        <v>0.92400000000000004</v>
+        <v>1.2629999999999999</v>
       </c>
       <c r="L9" s="7">
-        <v>0.65362500000000001</v>
+        <f t="shared" ref="L9:L12" si="1">AVERAGE(D9,F9,H9,J9)</f>
+        <v>0.65500000000000003</v>
       </c>
       <c r="M9" s="9">
-        <v>0.942025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M9:M15" si="2">AVERAGE(E9,G9,I9,K9)</f>
+        <v>1.1484999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10">
-        <v>0.75980000000000003</v>
+        <v>128</v>
+      </c>
+      <c r="B10" s="30">
+        <v>0.75449999999999995</v>
       </c>
       <c r="C10">
-        <v>0.82220000000000004</v>
-      </c>
-      <c r="F10">
-        <v>0.86309999999999998</v>
-      </c>
-      <c r="G10">
-        <v>0.63129999999999997</v>
+        <v>0.8508</v>
+      </c>
+      <c r="D10">
+        <v>0.76549999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0.86270000000000002</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0.83450000000000002</v>
       </c>
       <c r="H10">
-        <v>0.53280000000000005</v>
+        <v>0.54590000000000005</v>
       </c>
       <c r="I10">
-        <v>1.2661</v>
+        <v>1.2170000000000001</v>
       </c>
       <c r="J10">
-        <v>0.44950000000000001</v>
+        <v>0.50070000000000003</v>
       </c>
       <c r="K10">
-        <v>0.90169999999999995</v>
+        <v>1.1496</v>
       </c>
       <c r="L10" s="7">
-        <f t="shared" ref="L10:M12" si="1">AVERAGE(D10,F10,H10,J10)</f>
-        <v>0.61513333333333342</v>
+        <f t="shared" si="1"/>
+        <v>0.66870000000000007</v>
       </c>
       <c r="M10" s="9">
-        <f t="shared" si="1"/>
-        <v>0.93303333333333338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.035825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="25" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="B11" s="30">
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="C11">
-        <v>0.79520000000000002</v>
+        <v>0.74660000000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.77110000000000001</v>
       </c>
       <c r="F11" s="30">
-        <v>0.8669</v>
-      </c>
-      <c r="G11">
-        <v>0.63280000000000003</v>
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11">
+        <v>0.54049999999999998</v>
       </c>
       <c r="J11">
-        <v>0.46839999999999998</v>
-      </c>
-      <c r="K11">
-        <v>0.84140000000000004</v>
+        <v>0.50460000000000005</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="1"/>
-        <v>0.66764999999999997</v>
-      </c>
-      <c r="M11" s="9">
-        <f t="shared" si="1"/>
-        <v>0.73710000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="25" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="B12" s="30">
-        <v>0.75880000000000003</v>
-      </c>
-      <c r="C12">
-        <v>0.83179999999999998</v>
+        <v>0.73939999999999995</v>
+      </c>
+      <c r="D12">
+        <v>0.63729999999999998</v>
       </c>
       <c r="F12" s="30">
-        <v>0.871</v>
-      </c>
-      <c r="G12" s="30">
-        <v>0.60240000000000005</v>
+        <v>0.7833</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12">
+        <v>0.3947</v>
       </c>
       <c r="J12">
-        <v>0.51029999999999998</v>
-      </c>
-      <c r="K12">
-        <v>0.87029999999999996</v>
+        <v>0.4834</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="1"/>
-        <v>0.69064999999999999</v>
-      </c>
-      <c r="M12" s="9">
-        <f t="shared" si="1"/>
-        <v>0.73635000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.57467499999999994</v>
+      </c>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="25" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="B13" s="30">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="D13">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="E13">
-        <v>0.93799999999999994</v>
+        <v>0.73709999999999998</v>
       </c>
       <c r="F13" s="30">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="G13" s="30">
-        <v>0.84</v>
-      </c>
-      <c r="H13">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="I13">
-        <v>1.5529999999999999</v>
+        <v>0.83279999999999998</v>
       </c>
       <c r="J13">
-        <v>0.503</v>
-      </c>
-      <c r="K13">
-        <v>1.2629999999999999</v>
-      </c>
-      <c r="L13" s="7">
-        <f t="shared" ref="L13:L16" si="2">AVERAGE(D13,F13,H13,J13)</f>
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="M13" s="9">
-        <f t="shared" ref="M13:M14" si="3">AVERAGE(E13,G13,I13,K13)</f>
-        <v>1.1484999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="25" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="B14" s="30">
-        <v>0.75449999999999995</v>
-      </c>
-      <c r="C14">
-        <v>0.8508</v>
-      </c>
-      <c r="D14">
-        <v>0.76549999999999996</v>
-      </c>
-      <c r="E14">
-        <v>0.94220000000000004</v>
+        <v>0.75529999999999997</v>
       </c>
       <c r="F14" s="30">
-        <v>0.86270000000000002</v>
-      </c>
-      <c r="G14" s="30">
-        <v>0.83450000000000002</v>
-      </c>
-      <c r="H14">
-        <v>0.54590000000000005</v>
-      </c>
-      <c r="I14">
-        <v>0.1217</v>
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.7923</v>
       </c>
       <c r="J14">
-        <v>0.50070000000000003</v>
+        <v>0.52349999999999997</v>
       </c>
       <c r="K14">
-        <v>1.1496</v>
-      </c>
-      <c r="L14" s="7">
+        <v>1.0379</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="30">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="D15">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="I15">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="J15">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="K15">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" ref="L15" si="3">AVERAGE(D15,F15,H15,J15)</f>
+        <v>0.67524999999999991</v>
+      </c>
+      <c r="M15" s="9">
         <f t="shared" si="2"/>
-        <v>0.66870000000000007</v>
-      </c>
-      <c r="M14" s="9">
-        <f t="shared" si="3"/>
-        <v>0.76200000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="30">
-        <v>0.74660000000000004</v>
-      </c>
-      <c r="D15">
-        <v>0.77110000000000001</v>
-      </c>
-      <c r="F15" s="30">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15">
-        <v>0.54049999999999998</v>
-      </c>
-      <c r="J15">
-        <v>0.50460000000000005</v>
-      </c>
-      <c r="L15" s="7">
-        <f t="shared" si="2"/>
-        <v>0.66969999999999996</v>
-      </c>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="30">
-        <v>0.73939999999999995</v>
-      </c>
-      <c r="D16">
-        <v>0.63729999999999998</v>
-      </c>
-      <c r="F16" s="30">
-        <v>0.7833</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16">
-        <v>0.3947</v>
-      </c>
-      <c r="J16">
-        <v>0.4834</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" si="2"/>
-        <v>0.57467499999999994</v>
-      </c>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B17" s="30">
-        <v>0.73709999999999998</v>
-      </c>
-      <c r="F17" s="30">
-        <v>0.83279999999999998</v>
-      </c>
-      <c r="J17">
-        <v>0.37819999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" s="30">
-        <v>0.75529999999999997</v>
-      </c>
-      <c r="F18" s="30">
-        <v>0.86280000000000001</v>
-      </c>
-      <c r="G18">
-        <v>0.7923</v>
-      </c>
-      <c r="J18">
-        <v>0.52349999999999997</v>
-      </c>
-      <c r="K18">
-        <v>1.0379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.96100000000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="25"/>
+      <c r="B16" s="30"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="30"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="30"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="30"/>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+    <row r="20" spans="2:6">
       <c r="B20" s="30"/>
       <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-      <c r="F24" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16874,276 +16932,384 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="M3:M16">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L16">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B6 B9">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6 D9">
+  <conditionalFormatting sqref="L14:L15 L3:L12">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C6">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G7">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I6">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K6">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D12 D15">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H7 H9">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F20 G15">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J7 J9">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C6">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H12 H15">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G7">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J20 K14">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I6">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K6">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B24">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C16">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D16">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E16">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F24">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M15">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B6">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D6">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H7">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J7">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B20">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C12">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E12">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G12">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I12">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K12">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J14">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C15">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E15">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F15">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H15">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G16">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I15">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H16">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J15">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I16">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J24 K18">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J18">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17156,14 +17322,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -17180,38 +17346,38 @@
     <col min="13" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="38"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="40"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="B2" s="33" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>48</v>
@@ -17244,9 +17410,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B3" s="30">
         <v>0.65</v>
@@ -17287,9 +17453,9 @@
         <v>0.65325</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B4">
         <v>0.65710000000000002</v>
@@ -17323,9 +17489,9 @@
         <v>1.0246</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B5">
         <v>0.50009999999999999</v>
@@ -17343,9 +17509,9 @@
         <v>1.0940000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>188</v>
+    <row r="6" spans="1:13">
+      <c r="A6" s="38" t="s">
+        <v>184</v>
       </c>
       <c r="B6">
         <v>0.62580000000000002</v>
@@ -17361,6 +17527,38 @@
       </c>
       <c r="K6">
         <v>1.0286999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7">
+        <v>0.66</v>
+      </c>
+      <c r="C7">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D7">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.41</v>
+      </c>
+      <c r="H7">
+        <v>0.72</v>
+      </c>
+      <c r="I7">
+        <v>0.437</v>
+      </c>
+      <c r="J7">
+        <v>0.375</v>
+      </c>
+      <c r="K7">
+        <v>1.0289999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -17375,9 +17573,9 @@
   <conditionalFormatting sqref="M3">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17387,9 +17585,9 @@
   <conditionalFormatting sqref="L3">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17399,9 +17597,9 @@
   <conditionalFormatting sqref="B3">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17411,9 +17609,9 @@
   <conditionalFormatting sqref="C3">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17423,9 +17621,9 @@
   <conditionalFormatting sqref="D3">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17435,9 +17633,9 @@
   <conditionalFormatting sqref="E3">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17447,9 +17645,9 @@
   <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17459,9 +17657,9 @@
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17471,9 +17669,9 @@
   <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17483,9 +17681,9 @@
   <conditionalFormatting sqref="I3">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17495,9 +17693,9 @@
   <conditionalFormatting sqref="J3">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17507,9 +17705,9 @@
   <conditionalFormatting sqref="K3">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>

--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -1114,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V65" sqref="V65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8975,8 +8975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="C46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P77" sqref="P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16366,7 +16366,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17326,7 +17326,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17488,6 +17488,8 @@
       <c r="K4">
         <v>1.0246</v>
       </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
@@ -17508,6 +17510,8 @@
       <c r="K5">
         <v>1.0940000000000001</v>
       </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="38" t="s">
@@ -17528,6 +17532,8 @@
       <c r="K6">
         <v>1.0286999999999999</v>
       </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13">
       <c r="B7">
@@ -17559,6 +17565,14 @@
       </c>
       <c r="K7">
         <v>1.0289999999999999</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" ref="L4:L7" si="1">AVERAGE(D7,F7,H7,J7)</f>
+        <v>0.65225</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" ref="M4:M7" si="2">AVERAGE(E7,G7,I7,K7)</f>
+        <v>0.63575000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -17570,7 +17584,7 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="M3">
+  <conditionalFormatting sqref="M3:M7">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -17582,7 +17596,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
+  <conditionalFormatting sqref="L3:L7">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BP4D" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="DISFA" sheetId="4" r:id="rId3"/>
     <sheet name="BP4D_intensity" sheetId="3" r:id="rId4"/>
     <sheet name="BP4D_int_seg" sheetId="5" r:id="rId5"/>
+    <sheet name="DISFA balanced split" sheetId="6" r:id="rId6"/>
+    <sheet name="SEMAINE balanced split" sheetId="7" r:id="rId7"/>
+    <sheet name="SEMAINE train DISFA test" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="207">
   <si>
     <t>DEVEL</t>
   </si>
@@ -582,13 +585,70 @@
   </si>
   <si>
     <t>Semaine submitted no bad</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Static shift</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Corrs</t>
+  </si>
+  <si>
+    <t>Dynamic learned shift</t>
+  </si>
+  <si>
+    <t>Static learned shift</t>
+  </si>
+  <si>
+    <t>Static valid on test</t>
+  </si>
+  <si>
+    <t>Dynamic valid on test</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Dynamic shift</t>
+  </si>
+  <si>
+    <t>No shift</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Ideally want a full 5 fold stratified validation</t>
+  </si>
+  <si>
+    <t>Local dynamic shift</t>
+  </si>
+  <si>
+    <t>Local static shift</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>only on one validation set, needs to be done properly? Although this does not look promissing, needs to be converted to regressor first</t>
+  </si>
+  <si>
+    <t>do a step by step comparison here, difficult while stuff keeps crashing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,7 +698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -737,12 +797,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -800,6 +869,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -902,6 +976,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -936,6 +1011,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1111,82 +1187,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V65" sqref="V65"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="2" max="37" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="41" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="41" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="41" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="41" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="41" t="s">
+      <c r="U1" s="42"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="41" t="s">
+      <c r="X1" s="42"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="41" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="40"/>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="43"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -1415,7 +1491,7 @@
         <v>0.26816666666666661</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1507,7 +1583,7 @@
         <v>0.25200000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -1599,7 +1675,7 @@
         <v>0.23471428571428571</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.5" customHeight="1">
+    <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1691,7 +1767,7 @@
         <v>0.3408571428571428</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1783,7 +1859,7 @@
         <v>0.21928571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1899,7 +1975,7 @@
         <v>0.60526363636363623</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -2015,7 +2091,7 @@
         <v>0.59264545454545459</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -2131,7 +2207,7 @@
         <v>0.59812727272727273</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2247,7 +2323,7 @@
         <v>0.59751818181818195</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -2306,7 +2382,7 @@
       <c r="AJ12" s="11"/>
       <c r="AK12" s="12"/>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -2365,7 +2441,7 @@
       <c r="AJ13" s="11"/>
       <c r="AK13" s="12"/>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2424,7 +2500,7 @@
       <c r="AJ14" s="11"/>
       <c r="AK14" s="12"/>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -2483,7 +2559,7 @@
       <c r="AJ15" s="11"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -2566,7 +2642,7 @@
       <c r="AJ16" s="11"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>43</v>
       </c>
@@ -2649,7 +2725,7 @@
       <c r="AJ17" s="11"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>46</v>
       </c>
@@ -2720,7 +2796,7 @@
       <c r="AJ18" s="11"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>47</v>
       </c>
@@ -2791,7 +2867,7 @@
       <c r="AJ19" s="11"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>52</v>
       </c>
@@ -2907,7 +2983,7 @@
         <v>0.57558181818181819</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>53</v>
       </c>
@@ -3023,7 +3099,7 @@
         <v>0.58974545454545457</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>54</v>
       </c>
@@ -3139,7 +3215,7 @@
         <v>0.58663636363636362</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>55</v>
       </c>
@@ -3255,7 +3331,7 @@
         <v>0.59650909090909088</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>56</v>
       </c>
@@ -3371,7 +3447,7 @@
         <v>0.5917</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>60</v>
       </c>
@@ -3487,7 +3563,7 @@
         <v>0.61232727272727272</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>65</v>
       </c>
@@ -3603,7 +3679,7 @@
         <v>0.58963636363636374</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>66</v>
       </c>
@@ -3719,7 +3795,7 @@
         <v>0.57887272727272732</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>67</v>
       </c>
@@ -3835,7 +3911,7 @@
         <v>0.60222727272727272</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>68</v>
       </c>
@@ -3918,7 +3994,7 @@
       <c r="AJ29" s="11"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>73</v>
       </c>
@@ -4034,7 +4110,7 @@
         <v>0.60204545454545466</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>74</v>
       </c>
@@ -4117,7 +4193,7 @@
       <c r="AJ31" s="11"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>79</v>
       </c>
@@ -4233,7 +4309,7 @@
         <v>0.58684545454545445</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>92</v>
       </c>
@@ -4316,7 +4392,7 @@
       <c r="AJ33" s="11"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>94</v>
       </c>
@@ -4432,7 +4508,7 @@
         <v>0.60236363636363643</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>96</v>
       </c>
@@ -4548,7 +4624,7 @@
         <v>0.55642727272727277</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>97</v>
       </c>
@@ -4664,7 +4740,7 @@
         <v>0.55127272727272725</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>100</v>
       </c>
@@ -4780,7 +4856,7 @@
         <v>0.55403636363636355</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>101</v>
       </c>
@@ -4896,7 +4972,7 @@
         <v>0.54439090909090904</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>104</v>
       </c>
@@ -5012,7 +5088,7 @@
         <v>0.60190909090909095</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>106</v>
       </c>
@@ -5128,7 +5204,7 @@
         <v>0.60019999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>109</v>
       </c>
@@ -5244,7 +5320,7 @@
         <v>0.60027272727272729</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>111</v>
       </c>
@@ -5360,7 +5436,7 @@
         <v>0.59669090909090905</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>126</v>
       </c>
@@ -5476,7 +5552,7 @@
         <v>0.59946363636363642</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>127</v>
       </c>
@@ -5592,7 +5668,7 @@
         <v>0.60235454545454559</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>131</v>
       </c>
@@ -5651,7 +5727,7 @@
       <c r="AJ45" s="11"/>
       <c r="AK45" s="12"/>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>132</v>
       </c>
@@ -5710,7 +5786,7 @@
       <c r="AJ46" s="11"/>
       <c r="AK46" s="12"/>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>133</v>
       </c>
@@ -5793,7 +5869,7 @@
       <c r="AJ47" s="11"/>
       <c r="AK47" s="12"/>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>134</v>
       </c>
@@ -5876,7 +5952,7 @@
       <c r="AJ48" s="11"/>
       <c r="AK48" s="12"/>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>135</v>
       </c>
@@ -5959,7 +6035,7 @@
       <c r="AJ49" s="11"/>
       <c r="AK49" s="12"/>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>143</v>
       </c>
@@ -6075,7 +6151,7 @@
         <v>0.57202727272727261</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>144</v>
       </c>
@@ -6191,7 +6267,7 @@
         <v>0.56355454545454542</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>145</v>
       </c>
@@ -6307,7 +6383,7 @@
         <v>0.57202727272727261</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>146</v>
       </c>
@@ -6423,7 +6499,7 @@
         <v>0.56752727272727277</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>147</v>
       </c>
@@ -6539,7 +6615,7 @@
         <v>0.55849090909090926</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>148</v>
       </c>
@@ -6655,7 +6731,7 @@
         <v>0.55976363636363635</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>149</v>
       </c>
@@ -6771,7 +6847,7 @@
         <v>0.55291818181818186</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>150</v>
       </c>
@@ -6887,7 +6963,7 @@
         <v>0.54979999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>151</v>
       </c>
@@ -7003,7 +7079,7 @@
         <v>0.54018181818181821</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>158</v>
       </c>
@@ -7119,7 +7195,7 @@
         <v>0.5535363636363636</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
         <v>159</v>
       </c>
@@ -7235,7 +7311,7 @@
         <v>0.56247272727272735</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>162</v>
       </c>
@@ -7351,7 +7427,7 @@
         <v>0.60137272727272728</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>163</v>
       </c>
@@ -7467,7 +7543,7 @@
         <v>0.59049090909090907</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>172</v>
       </c>
@@ -7550,7 +7626,7 @@
       <c r="AJ63" s="11"/>
       <c r="AK63" s="12"/>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>173</v>
       </c>
@@ -7609,7 +7685,7 @@
       <c r="AJ64" s="11"/>
       <c r="AK64" s="12"/>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>174</v>
       </c>
@@ -7692,7 +7768,7 @@
       <c r="AJ65" s="11"/>
       <c r="AK65" s="12"/>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
         <v>175</v>
       </c>
@@ -7775,7 +7851,7 @@
       <c r="AJ66" s="11"/>
       <c r="AK66" s="12"/>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
         <v>176</v>
       </c>
@@ -7828,7 +7904,7 @@
       <c r="AJ67" s="11"/>
       <c r="AK67" s="12"/>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
         <v>177</v>
       </c>
@@ -7911,7 +7987,7 @@
       <c r="AJ68" s="11"/>
       <c r="AK68" s="12"/>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>186</v>
       </c>
@@ -8015,15 +8091,15 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="AI69" s="10">
-        <f t="shared" ref="AI63:AI69" si="33">AVERAGE(B69,E69,H69,K69,N69,Q69,T69,W69,Z69,AC69,AF69)</f>
+        <f t="shared" ref="AI69" si="33">AVERAGE(B69,E69,H69,K69,N69,Q69,T69,W69,Z69,AC69,AF69)</f>
         <v>0.5479090909090909</v>
       </c>
       <c r="AJ69" s="11">
-        <f t="shared" ref="AJ63:AJ69" si="34">AVERAGE(C69,F69,I69,L69,O69,R69,U69,X69,AA69,AD69,AG69)</f>
+        <f t="shared" ref="AJ69" si="34">AVERAGE(C69,F69,I69,L69,O69,R69,U69,X69,AA69,AD69,AG69)</f>
         <v>0.71918181818181826</v>
       </c>
       <c r="AK69" s="12">
-        <f t="shared" ref="AK63:AK69" si="35">AVERAGE(D69,G69,J69,M69,P69,S69,V69,Y69,AB69,AE69,AH69)</f>
+        <f t="shared" ref="AK69" si="35">AVERAGE(D69,G69,J69,M69,P69,S69,V69,Y69,AB69,AE69,AH69)</f>
         <v>0.61218181818181816</v>
       </c>
     </row>
@@ -8045,9 +8121,9 @@
   <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="83">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8057,9 +8133,9 @@
   <conditionalFormatting sqref="G3:G9">
     <cfRule type="colorScale" priority="82">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8069,9 +8145,9 @@
   <conditionalFormatting sqref="J3:J9">
     <cfRule type="colorScale" priority="81">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8081,9 +8157,9 @@
   <conditionalFormatting sqref="M3:M9">
     <cfRule type="colorScale" priority="80">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8093,9 +8169,9 @@
   <conditionalFormatting sqref="P3:P9">
     <cfRule type="colorScale" priority="79">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8105,9 +8181,9 @@
   <conditionalFormatting sqref="S3:S9">
     <cfRule type="colorScale" priority="78">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8117,9 +8193,9 @@
   <conditionalFormatting sqref="V3:V9">
     <cfRule type="colorScale" priority="77">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8129,9 +8205,9 @@
   <conditionalFormatting sqref="Y3:Y9">
     <cfRule type="colorScale" priority="76">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8141,9 +8217,9 @@
   <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="75">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8153,9 +8229,9 @@
   <conditionalFormatting sqref="AE3:AE9">
     <cfRule type="colorScale" priority="74">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8165,9 +8241,9 @@
   <conditionalFormatting sqref="AH3:AH9">
     <cfRule type="colorScale" priority="73">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8177,9 +8253,9 @@
   <conditionalFormatting sqref="AK3:AK69">
     <cfRule type="colorScale" priority="72">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8189,9 +8265,9 @@
   <conditionalFormatting sqref="D3:D17">
     <cfRule type="colorScale" priority="71">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8201,9 +8277,9 @@
   <conditionalFormatting sqref="G3:G11">
     <cfRule type="colorScale" priority="70">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8213,9 +8289,9 @@
   <conditionalFormatting sqref="J3:J11">
     <cfRule type="colorScale" priority="69">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8225,9 +8301,9 @@
   <conditionalFormatting sqref="M3:M11">
     <cfRule type="colorScale" priority="68">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8237,9 +8313,9 @@
   <conditionalFormatting sqref="P3:P11">
     <cfRule type="colorScale" priority="67">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8249,9 +8325,9 @@
   <conditionalFormatting sqref="S3:S11">
     <cfRule type="colorScale" priority="66">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8261,9 +8337,9 @@
   <conditionalFormatting sqref="V3:V11">
     <cfRule type="colorScale" priority="65">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8273,9 +8349,9 @@
   <conditionalFormatting sqref="Y3:Y11">
     <cfRule type="colorScale" priority="64">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8285,9 +8361,9 @@
   <conditionalFormatting sqref="AB3:AB11">
     <cfRule type="colorScale" priority="63">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8297,9 +8373,9 @@
   <conditionalFormatting sqref="AE3:AE11">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8309,9 +8385,9 @@
   <conditionalFormatting sqref="AH3:AH11">
     <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8321,9 +8397,9 @@
   <conditionalFormatting sqref="G3:G21">
     <cfRule type="colorScale" priority="60">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8333,9 +8409,9 @@
   <conditionalFormatting sqref="V3:V21">
     <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8345,9 +8421,9 @@
   <conditionalFormatting sqref="AE3:AE19 AE21">
     <cfRule type="colorScale" priority="58">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8357,9 +8433,9 @@
   <conditionalFormatting sqref="J3:J17">
     <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8369,9 +8445,9 @@
   <conditionalFormatting sqref="M3:M17">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8381,9 +8457,9 @@
   <conditionalFormatting sqref="AB4:AB17">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8393,9 +8469,9 @@
   <conditionalFormatting sqref="S8:S18">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8405,9 +8481,9 @@
   <conditionalFormatting sqref="Y8:Y18">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8417,9 +8493,9 @@
   <conditionalFormatting sqref="Y8:Y19">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8429,9 +8505,9 @@
   <conditionalFormatting sqref="S8:S19">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8441,9 +8517,9 @@
   <conditionalFormatting sqref="M3:M19">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8453,9 +8529,9 @@
   <conditionalFormatting sqref="M3:M20">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8465,9 +8541,9 @@
   <conditionalFormatting sqref="AH8:AH20">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8477,9 +8553,9 @@
   <conditionalFormatting sqref="AE3:AE21">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8489,9 +8565,9 @@
   <conditionalFormatting sqref="AB3:AB20">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8501,9 +8577,9 @@
   <conditionalFormatting sqref="Y8:Y20">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8513,9 +8589,9 @@
   <conditionalFormatting sqref="S3:S24">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8525,9 +8601,9 @@
   <conditionalFormatting sqref="P3:P25 P27:P69">
     <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8537,9 +8613,9 @@
   <conditionalFormatting sqref="J3:J25 J27:J69">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8549,9 +8625,9 @@
   <conditionalFormatting sqref="G3:G25 G27:G69">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8561,9 +8637,9 @@
   <conditionalFormatting sqref="D3:D25 D27:D69">
     <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8573,9 +8649,9 @@
   <conditionalFormatting sqref="AH3:AH25 AH27:AH69">
     <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8585,9 +8661,9 @@
   <conditionalFormatting sqref="AE3:AE25 AE27:AE69">
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8597,9 +8673,9 @@
   <conditionalFormatting sqref="AB3:AB25 AB27:AB69">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8609,9 +8685,9 @@
   <conditionalFormatting sqref="Y3:Y25 Y27:Y69">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8621,9 +8697,9 @@
   <conditionalFormatting sqref="M3:M25 M27:M69">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8633,9 +8709,9 @@
   <conditionalFormatting sqref="V3:V25 V27:V69">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8645,9 +8721,9 @@
   <conditionalFormatting sqref="S3:S25">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8657,9 +8733,9 @@
   <conditionalFormatting sqref="S26:S62 S64:S69">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8669,9 +8745,9 @@
   <conditionalFormatting sqref="P26:P69">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8681,9 +8757,9 @@
   <conditionalFormatting sqref="J26:J69">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8693,9 +8769,9 @@
   <conditionalFormatting sqref="G26:G69">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8705,9 +8781,9 @@
   <conditionalFormatting sqref="D26:D69">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8717,9 +8793,9 @@
   <conditionalFormatting sqref="AH26:AH69">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8729,9 +8805,9 @@
   <conditionalFormatting sqref="AE26:AE69">
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8741,9 +8817,9 @@
   <conditionalFormatting sqref="AB26:AB69">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8753,9 +8829,9 @@
   <conditionalFormatting sqref="Y26:Y69">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8765,9 +8841,9 @@
   <conditionalFormatting sqref="M26:M69">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8777,9 +8853,9 @@
   <conditionalFormatting sqref="V26:V69">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8789,9 +8865,9 @@
   <conditionalFormatting sqref="AH3:AH69">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8801,9 +8877,9 @@
   <conditionalFormatting sqref="AE3:AE69">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8813,9 +8889,9 @@
   <conditionalFormatting sqref="AB3:AB69">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8825,9 +8901,9 @@
   <conditionalFormatting sqref="Y3:Y69">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8837,9 +8913,9 @@
   <conditionalFormatting sqref="V3:V69">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8849,9 +8925,9 @@
   <conditionalFormatting sqref="S3:S62 S64:S69">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8861,9 +8937,9 @@
   <conditionalFormatting sqref="P3:P69">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8873,9 +8949,9 @@
   <conditionalFormatting sqref="M3:M69">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8885,9 +8961,9 @@
   <conditionalFormatting sqref="J3:J69">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8897,9 +8973,9 @@
   <conditionalFormatting sqref="G3:G69">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8909,9 +8985,9 @@
   <conditionalFormatting sqref="D3:D69">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8921,9 +8997,9 @@
   <conditionalFormatting sqref="S63">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8933,9 +9009,9 @@
   <conditionalFormatting sqref="V63 S63">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8945,9 +9021,9 @@
   <conditionalFormatting sqref="V63 S63">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8957,9 +9033,9 @@
   <conditionalFormatting sqref="S2:S69">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -8972,14 +9048,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P77" sqref="P77"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
@@ -9000,56 +9076,56 @@
     <col min="22" max="22" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="41" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="41" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-    </row>
-    <row r="2" spans="1:34">
+      <c r="U1" s="42"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -9117,7 +9193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="17.25" customHeight="1">
+    <row r="3" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>57</v>
       </c>
@@ -9167,7 +9243,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>16</v>
       </c>
@@ -9217,7 +9293,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>59</v>
       </c>
@@ -9267,7 +9343,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>58</v>
       </c>
@@ -9317,7 +9393,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
@@ -9388,7 +9464,7 @@
         <v>0.28861666666666669</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
@@ -9459,7 +9535,7 @@
         <v>0.32611666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>23</v>
       </c>
@@ -9530,7 +9606,7 @@
         <v>0.30031666666666662</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>24</v>
       </c>
@@ -9601,7 +9677,7 @@
         <v>0.33934999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
@@ -9645,7 +9721,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>41</v>
       </c>
@@ -9689,7 +9765,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>38</v>
       </c>
@@ -9733,7 +9809,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>39</v>
       </c>
@@ -9777,7 +9853,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>42</v>
       </c>
@@ -9827,7 +9903,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>43</v>
       </c>
@@ -9877,7 +9953,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>44</v>
       </c>
@@ -9948,7 +10024,7 @@
         <v>0.24411666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>45</v>
       </c>
@@ -10019,7 +10095,7 @@
         <v>0.29361666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>32</v>
       </c>
@@ -10090,7 +10166,7 @@
         <v>0.21026666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>33</v>
       </c>
@@ -10161,7 +10237,7 @@
         <v>0.33863333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>61</v>
       </c>
@@ -10232,7 +10308,7 @@
         <v>0.26086666666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>62</v>
       </c>
@@ -10303,7 +10379,7 @@
         <v>0.24983333333333335</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>63</v>
       </c>
@@ -10374,7 +10450,7 @@
         <v>0.2364333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>64</v>
       </c>
@@ -10445,7 +10521,7 @@
         <v>0.36651666666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>70</v>
       </c>
@@ -10495,7 +10571,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>71</v>
       </c>
@@ -10545,7 +10621,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>72</v>
       </c>
@@ -10616,7 +10692,7 @@
         <v>0.3566833333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>75</v>
       </c>
@@ -10687,7 +10763,7 @@
         <v>0.31143333333333334</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>80</v>
       </c>
@@ -10737,7 +10813,7 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>76</v>
       </c>
@@ -10787,7 +10863,7 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>77</v>
       </c>
@@ -10831,7 +10907,7 @@
       <c r="U31" s="8"/>
       <c r="V31" s="9"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>78</v>
       </c>
@@ -10875,7 +10951,7 @@
       <c r="U32" s="8"/>
       <c r="V32" s="9"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>81</v>
       </c>
@@ -10925,7 +11001,7 @@
       <c r="U33" s="8"/>
       <c r="V33" s="9"/>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>82</v>
       </c>
@@ -10975,7 +11051,7 @@
       <c r="U34" s="8"/>
       <c r="V34" s="9"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
         <v>108</v>
       </c>
@@ -11046,7 +11122,7 @@
         <v>0.43949999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
         <v>97</v>
       </c>
@@ -11117,7 +11193,7 @@
         <v>0.4020333333333333</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
         <v>96</v>
       </c>
@@ -11188,7 +11264,7 @@
         <v>0.31708333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
         <v>98</v>
       </c>
@@ -11259,7 +11335,7 @@
         <v>0.35005000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>99</v>
       </c>
@@ -11330,7 +11406,7 @@
         <v>0.28153333333333336</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
         <v>102</v>
       </c>
@@ -11401,7 +11477,7 @@
         <v>0.4820166666666667</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
         <v>103</v>
       </c>
@@ -11472,7 +11548,7 @@
         <v>0.37363333333333332</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
         <v>105</v>
       </c>
@@ -11543,7 +11619,7 @@
         <v>0.47994999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
         <v>107</v>
       </c>
@@ -11614,7 +11690,7 @@
         <v>0.48656666666666665</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
         <v>110</v>
       </c>
@@ -11685,7 +11761,7 @@
         <v>0.4806333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
         <v>112</v>
       </c>
@@ -11756,7 +11832,7 @@
         <v>0.48016666666666663</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
         <v>113</v>
       </c>
@@ -11827,7 +11903,7 @@
         <v>0.4773</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
         <v>114</v>
       </c>
@@ -11898,7 +11974,7 @@
         <v>0.37890000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
         <v>124</v>
       </c>
@@ -11969,7 +12045,7 @@
         <v>0.49058333333333332</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
         <v>125</v>
       </c>
@@ -12040,7 +12116,7 @@
         <v>0.39218333333333333</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
         <v>115</v>
       </c>
@@ -12084,7 +12160,7 @@
       <c r="U50" s="8"/>
       <c r="V50" s="9"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
         <v>116</v>
       </c>
@@ -12134,7 +12210,7 @@
       <c r="U51" s="8"/>
       <c r="V51" s="9"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
         <v>118</v>
       </c>
@@ -12178,7 +12254,7 @@
       <c r="U52" s="8"/>
       <c r="V52" s="9"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
         <v>117</v>
       </c>
@@ -12222,7 +12298,7 @@
       <c r="U53" s="8"/>
       <c r="V53" s="9"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
         <v>119</v>
       </c>
@@ -12254,7 +12330,7 @@
       <c r="U54" s="8"/>
       <c r="V54" s="9"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
         <v>120</v>
       </c>
@@ -12304,7 +12380,7 @@
       <c r="U55" s="8"/>
       <c r="V55" s="9"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
         <v>136</v>
       </c>
@@ -12375,7 +12451,7 @@
         <v>0.41789999999999994</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
         <v>137</v>
       </c>
@@ -12446,7 +12522,7 @@
         <v>0.33184999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
         <v>138</v>
       </c>
@@ -12517,7 +12593,7 @@
         <v>0.37034999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
         <v>139</v>
       </c>
@@ -12588,7 +12664,7 @@
         <v>0.34723333333333334</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
         <v>140</v>
       </c>
@@ -12659,7 +12735,7 @@
         <v>0.40873333333333334</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
         <v>141</v>
       </c>
@@ -12730,7 +12806,7 @@
         <v>0.41170000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
         <v>142</v>
       </c>
@@ -12801,7 +12877,7 @@
         <v>0.40358333333333335</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="36" t="s">
         <v>152</v>
       </c>
@@ -12872,7 +12948,7 @@
         <v>0.33553333333333329</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
         <v>153</v>
       </c>
@@ -12943,7 +13019,7 @@
         <v>0.40201666666666663</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
         <v>154</v>
       </c>
@@ -13014,7 +13090,7 @@
         <v>0.32824999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
         <v>155</v>
       </c>
@@ -13085,7 +13161,7 @@
         <v>0.4079000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
         <v>156</v>
       </c>
@@ -13156,7 +13232,7 @@
         <v>0.3315333333333334</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
         <v>157</v>
       </c>
@@ -13227,7 +13303,7 @@
         <v>0.40201666666666663</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
         <v>160</v>
       </c>
@@ -13298,7 +13374,7 @@
         <v>0.39118333333333338</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
         <v>161</v>
       </c>
@@ -13369,7 +13445,7 @@
         <v>0.49228333333333335</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
         <v>166</v>
       </c>
@@ -13413,7 +13489,7 @@
       <c r="U71" s="28"/>
       <c r="V71" s="37"/>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
         <v>167</v>
       </c>
@@ -13457,7 +13533,7 @@
       <c r="U72" s="28"/>
       <c r="V72" s="37"/>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
         <v>168</v>
       </c>
@@ -13507,7 +13583,7 @@
       <c r="U73" s="28"/>
       <c r="V73" s="37"/>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="36" t="s">
         <v>169</v>
       </c>
@@ -13551,7 +13627,7 @@
       <c r="U74" s="28"/>
       <c r="V74" s="37"/>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="36" t="s">
         <v>171</v>
       </c>
@@ -13601,7 +13677,7 @@
       <c r="U75" s="28"/>
       <c r="V75" s="37"/>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
         <v>170</v>
       </c>
@@ -13651,7 +13727,7 @@
       <c r="U76" s="28"/>
       <c r="V76" s="37"/>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="36" t="s">
         <v>185</v>
       </c>
@@ -13722,7 +13798,7 @@
         <v>0.49898333333333339</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="36" t="s">
         <v>187</v>
       </c>
@@ -13810,9 +13886,9 @@
   <conditionalFormatting sqref="D3:D10">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13822,9 +13898,9 @@
   <conditionalFormatting sqref="G3:G10">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13834,9 +13910,9 @@
   <conditionalFormatting sqref="J3:J10">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13846,9 +13922,9 @@
   <conditionalFormatting sqref="M3:M10">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13858,9 +13934,9 @@
   <conditionalFormatting sqref="P7:P10">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13870,9 +13946,9 @@
   <conditionalFormatting sqref="S7:S10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13882,9 +13958,9 @@
   <conditionalFormatting sqref="M3:M15">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13894,9 +13970,9 @@
   <conditionalFormatting sqref="M3:M16">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13906,9 +13982,9 @@
   <conditionalFormatting sqref="M3:M18">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13918,9 +13994,9 @@
   <conditionalFormatting sqref="P7:P18">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13930,9 +14006,9 @@
   <conditionalFormatting sqref="S7:S18">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13942,9 +14018,9 @@
   <conditionalFormatting sqref="M4:M21">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13954,9 +14030,9 @@
   <conditionalFormatting sqref="P4:P21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13966,9 +14042,9 @@
   <conditionalFormatting sqref="S4:S21">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13978,9 +14054,9 @@
   <conditionalFormatting sqref="V3:V78">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13990,9 +14066,9 @@
   <conditionalFormatting sqref="D3:D69 D71:D78">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -14002,9 +14078,9 @@
   <conditionalFormatting sqref="G3:G69 G71:G78">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -14014,9 +14090,9 @@
   <conditionalFormatting sqref="J3:J78">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -14026,9 +14102,9 @@
   <conditionalFormatting sqref="M3:M78">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -14038,9 +14114,9 @@
   <conditionalFormatting sqref="P3:P78">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -14050,9 +14126,9 @@
   <conditionalFormatting sqref="S3:S78">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -14062,9 +14138,9 @@
   <conditionalFormatting sqref="D70">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -14074,9 +14150,9 @@
   <conditionalFormatting sqref="G70">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -14089,14 +14165,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:AN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="31" width="4.5703125" bestFit="1" customWidth="1"/>
@@ -14105,74 +14181,74 @@
     <col min="38" max="40" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="41" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="41" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="41" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="41" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="41" t="s">
+      <c r="U1" s="42"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="41" t="s">
+      <c r="X1" s="42"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="41" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="39" t="s">
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="43"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14294,7 +14370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
@@ -14419,7 +14495,7 @@
         <v>0.45634545454545455</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>88</v>
       </c>
@@ -14544,7 +14620,7 @@
         <v>0.49341818181818181</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>89</v>
       </c>
@@ -14669,7 +14745,7 @@
         <v>0.4236454545454546</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>90</v>
       </c>
@@ -14794,7 +14870,7 @@
         <v>0.51095454545454555</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>123</v>
       </c>
@@ -14919,7 +14995,7 @@
         <v>0.5414363636363636</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>122</v>
       </c>
@@ -15044,7 +15120,7 @@
         <v>0.46478181818181824</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>129</v>
       </c>
@@ -15169,7 +15245,7 @@
         <v>0.42369090909090906</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>130</v>
       </c>
@@ -15294,7 +15370,7 @@
         <v>0.47940909090909095</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>164</v>
       </c>
@@ -15419,7 +15495,7 @@
         <v>0.41819090909090906</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>165</v>
       </c>
@@ -15544,7 +15620,7 @@
         <v>0.5048454545454546</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
@@ -15604,9 +15680,9 @@
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="63">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15616,9 +15692,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15628,9 +15704,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15640,9 +15716,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="60">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15652,9 +15728,9 @@
   <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15664,9 +15740,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="58">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15676,9 +15752,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15688,9 +15764,9 @@
   <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15700,9 +15776,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15712,9 +15788,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15724,9 +15800,9 @@
   <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15736,9 +15812,9 @@
   <conditionalFormatting sqref="AN3:AN13">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15748,9 +15824,9 @@
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15760,9 +15836,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15772,9 +15848,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15784,9 +15860,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15796,9 +15872,9 @@
   <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15808,9 +15884,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15820,9 +15896,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15832,9 +15908,9 @@
   <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15844,9 +15920,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15856,9 +15932,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15868,9 +15944,9 @@
   <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15880,9 +15956,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15892,9 +15968,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15904,9 +15980,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15916,9 +15992,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15928,9 +16004,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15940,9 +16016,9 @@
   <conditionalFormatting sqref="AE4:AE13">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15952,9 +16028,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15964,9 +16040,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15976,9 +16052,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15988,9 +16064,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16000,9 +16076,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16012,9 +16088,9 @@
   <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16024,9 +16100,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16036,9 +16112,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16048,9 +16124,9 @@
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16060,9 +16136,9 @@
   <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16072,9 +16148,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16084,9 +16160,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16096,9 +16172,9 @@
   <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16108,9 +16184,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16120,9 +16196,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16132,9 +16208,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16144,9 +16220,9 @@
   <conditionalFormatting sqref="AK3:AK13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16156,9 +16232,9 @@
   <conditionalFormatting sqref="AH3:AH13">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16168,9 +16244,9 @@
   <conditionalFormatting sqref="AE3:AE13">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16180,9 +16256,9 @@
   <conditionalFormatting sqref="AB3:AB13">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16192,9 +16268,9 @@
   <conditionalFormatting sqref="Y3:Y13">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16204,9 +16280,9 @@
   <conditionalFormatting sqref="V3:V13">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16216,9 +16292,9 @@
   <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16228,9 +16304,9 @@
   <conditionalFormatting sqref="P3:P13">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16240,9 +16316,9 @@
   <conditionalFormatting sqref="J3:J13">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16252,9 +16328,9 @@
   <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16264,9 +16340,9 @@
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16276,9 +16352,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16288,9 +16364,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16300,9 +16376,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16312,9 +16388,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16324,9 +16400,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16336,9 +16412,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16348,9 +16424,9 @@
   <conditionalFormatting sqref="M3:M13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16362,14 +16438,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -16386,33 +16462,33 @@
     <col min="13" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="41" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="40"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>48</v>
       </c>
@@ -16450,7 +16526,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>46</v>
       </c>
@@ -16498,7 +16574,7 @@
         <v>1.09412189</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>47</v>
       </c>
@@ -16546,7 +16622,7 @@
         <v>1.3689775225</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>50</v>
       </c>
@@ -16594,7 +16670,7 @@
         <v>1.1512783325</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>51</v>
       </c>
@@ -16642,7 +16718,7 @@
         <v>1.4033164900000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>91</v>
       </c>
@@ -16670,7 +16746,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>93</v>
       </c>
@@ -16684,7 +16760,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>95</v>
       </c>
@@ -16727,7 +16803,7 @@
         <v>1.1484999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>128</v>
       </c>
@@ -16770,7 +16846,7 @@
         <v>1.035825</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>178</v>
       </c>
@@ -16796,7 +16872,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>179</v>
       </c>
@@ -16822,7 +16898,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>180</v>
       </c>
@@ -16837,7 +16913,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>181</v>
       </c>
@@ -16859,7 +16935,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>186</v>
       </c>
@@ -16902,24 +16978,24 @@
         <v>0.96100000000000008</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="30"/>
       <c r="F16" s="30"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="F17" s="30"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="30"/>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="30"/>
       <c r="F20" s="30"/>
     </row>
@@ -16935,9 +17011,9 @@
   <conditionalFormatting sqref="L14:L15 L3:L12">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -16947,9 +17023,9 @@
   <conditionalFormatting sqref="C3:C6">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -16959,9 +17035,9 @@
   <conditionalFormatting sqref="E3:E6">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -16971,9 +17047,9 @@
   <conditionalFormatting sqref="G3:G7">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -16983,9 +17059,9 @@
   <conditionalFormatting sqref="I3:I6">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -16995,9 +17071,9 @@
   <conditionalFormatting sqref="K3:K6">
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17007,9 +17083,9 @@
   <conditionalFormatting sqref="D3:D12 D15">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17019,9 +17095,9 @@
   <conditionalFormatting sqref="F3:F20 G15">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17031,9 +17107,9 @@
   <conditionalFormatting sqref="H3:H12 H15">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17043,9 +17119,9 @@
   <conditionalFormatting sqref="J3:J20 K14">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17055,9 +17131,9 @@
   <conditionalFormatting sqref="M3:M15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17067,9 +17143,9 @@
   <conditionalFormatting sqref="B3:B6">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17079,9 +17155,9 @@
   <conditionalFormatting sqref="D3:D6">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17091,9 +17167,9 @@
   <conditionalFormatting sqref="F3:F6">
     <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17103,9 +17179,9 @@
   <conditionalFormatting sqref="H3:H7">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17115,9 +17191,9 @@
   <conditionalFormatting sqref="J3:J7">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17127,9 +17203,9 @@
   <conditionalFormatting sqref="B3:B20">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17139,9 +17215,9 @@
   <conditionalFormatting sqref="C3:C12">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17151,9 +17227,9 @@
   <conditionalFormatting sqref="E3:E12">
     <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17163,9 +17239,9 @@
   <conditionalFormatting sqref="G3:G12">
     <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17175,9 +17251,9 @@
   <conditionalFormatting sqref="I3:I12">
     <cfRule type="colorScale" priority="65">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17187,9 +17263,9 @@
   <conditionalFormatting sqref="K3:K12">
     <cfRule type="colorScale" priority="69">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17199,9 +17275,9 @@
   <conditionalFormatting sqref="J3:J14">
     <cfRule type="colorScale" priority="71">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17211,9 +17287,9 @@
   <conditionalFormatting sqref="C3:C15">
     <cfRule type="colorScale" priority="73">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17223,9 +17299,9 @@
   <conditionalFormatting sqref="E3:E15">
     <cfRule type="colorScale" priority="75">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17235,9 +17311,9 @@
   <conditionalFormatting sqref="F3:F15">
     <cfRule type="colorScale" priority="77">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17247,9 +17323,9 @@
   <conditionalFormatting sqref="G3:G15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17259,9 +17335,9 @@
   <conditionalFormatting sqref="H3:H15">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17271,9 +17347,9 @@
   <conditionalFormatting sqref="I3:I15">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17283,9 +17359,9 @@
   <conditionalFormatting sqref="J3:J15">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17295,9 +17371,9 @@
   <conditionalFormatting sqref="K3:K15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17307,9 +17383,9 @@
   <conditionalFormatting sqref="L3:L15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17322,14 +17398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -17346,33 +17422,33 @@
     <col min="13" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="41" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="40"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
         <v>48</v>
       </c>
@@ -17410,7 +17486,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>95</v>
       </c>
@@ -17453,7 +17529,7 @@
         <v>0.65325</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>182</v>
       </c>
@@ -17491,7 +17567,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>183</v>
       </c>
@@ -17513,7 +17589,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>184</v>
       </c>
@@ -17535,7 +17611,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.66</v>
       </c>
@@ -17567,11 +17643,11 @@
         <v>1.0289999999999999</v>
       </c>
       <c r="L7" s="7">
-        <f t="shared" ref="L4:L7" si="1">AVERAGE(D7,F7,H7,J7)</f>
+        <f t="shared" ref="L7" si="1">AVERAGE(D7,F7,H7,J7)</f>
         <v>0.65225</v>
       </c>
       <c r="M7" s="9">
-        <f t="shared" ref="M4:M7" si="2">AVERAGE(E7,G7,I7,K7)</f>
+        <f t="shared" ref="M7" si="2">AVERAGE(E7,G7,I7,K7)</f>
         <v>0.63575000000000004</v>
       </c>
     </row>
@@ -17587,9 +17663,9 @@
   <conditionalFormatting sqref="M3:M7">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17599,9 +17675,9 @@
   <conditionalFormatting sqref="L3:L7">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17611,9 +17687,9 @@
   <conditionalFormatting sqref="B3">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17623,9 +17699,9 @@
   <conditionalFormatting sqref="C3">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17635,9 +17711,9 @@
   <conditionalFormatting sqref="D3">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17647,9 +17723,9 @@
   <conditionalFormatting sqref="E3">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17659,9 +17735,9 @@
   <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17671,9 +17747,9 @@
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17683,9 +17759,9 @@
   <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17695,9 +17771,9 @@
   <conditionalFormatting sqref="I3">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17707,9 +17783,9 @@
   <conditionalFormatting sqref="J3">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17719,9 +17795,9 @@
   <conditionalFormatting sqref="K3">
     <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -17731,4 +17807,1795 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="29">
+        <v>0.3105</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0.65049999999999997</v>
+      </c>
+      <c r="D2" s="29">
+        <v>0.60029999999999994</v>
+      </c>
+      <c r="E2" s="29">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="F2" s="29">
+        <v>0.69379999999999997</v>
+      </c>
+      <c r="G2" s="29">
+        <v>0.4148</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="I2" s="29">
+        <v>0.2326</v>
+      </c>
+      <c r="J2" s="29">
+        <v>0.22739999999999999</v>
+      </c>
+      <c r="K2" s="29">
+        <v>0.23830000000000001</v>
+      </c>
+      <c r="L2" s="29">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="M2" s="29">
+        <v>0.47920000000000001</v>
+      </c>
+      <c r="N2" s="29">
+        <f>AVERAGE(B2:M2)</f>
+        <v>0.48966666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.5857</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0.75939999999999996</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0.58379999999999999</v>
+      </c>
+      <c r="E3" s="29">
+        <v>0.46970000000000001</v>
+      </c>
+      <c r="F3" s="29">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="I3" s="29">
+        <v>0.39350000000000002</v>
+      </c>
+      <c r="J3" s="29">
+        <v>0.33689999999999998</v>
+      </c>
+      <c r="K3" s="29">
+        <v>0.34289999999999998</v>
+      </c>
+      <c r="L3" s="29">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="M3" s="29">
+        <v>0.75209999999999999</v>
+      </c>
+      <c r="N3" s="29">
+        <f>AVERAGE(B3:M3)</f>
+        <v>0.60155833333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0.69630000000000003</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0.61890000000000001</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0.40110000000000001</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0.34350000000000003</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="I4" s="29">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J4" s="29">
+        <v>0.18629999999999999</v>
+      </c>
+      <c r="K4" s="29">
+        <v>0.161</v>
+      </c>
+      <c r="L4" s="29">
+        <v>0.77759999999999996</v>
+      </c>
+      <c r="M4" s="29">
+        <v>0.36940000000000001</v>
+      </c>
+      <c r="N4" s="29">
+        <f t="shared" ref="N4:N11" si="0">AVERAGE(B4:M4)</f>
+        <v>0.44744166666666657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.58919999999999995</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0.5696</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.4451</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0.35859999999999997</v>
+      </c>
+      <c r="J5" s="29">
+        <v>0.29709999999999998</v>
+      </c>
+      <c r="K5" s="29">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="L5" s="29">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="M5" s="29">
+        <v>0.74509999999999998</v>
+      </c>
+      <c r="N5" s="29">
+        <f t="shared" si="0"/>
+        <v>0.58094166666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="29">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0.46450000000000002</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0.2576</v>
+      </c>
+      <c r="L6" s="29">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="M6" s="29">
+        <v>0.77239999999999998</v>
+      </c>
+      <c r="N6" s="29">
+        <f t="shared" si="0"/>
+        <v>0.58369166666666661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="29">
+        <v>0.5796</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.45989999999999998</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0.74890000000000001</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0.3075</v>
+      </c>
+      <c r="J7" s="29">
+        <v>0.311</v>
+      </c>
+      <c r="K7" s="29">
+        <v>0.2477</v>
+      </c>
+      <c r="L7" s="29">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="M7" s="29">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="N7" s="29">
+        <f t="shared" si="0"/>
+        <v>0.58491666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="29">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="D8" s="29">
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0.66810000000000003</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.83809999999999996</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0.27879999999999999</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="K8" s="29">
+        <v>0.53559999999999997</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="M8" s="29">
+        <v>0.72189999999999999</v>
+      </c>
+      <c r="N8" s="29">
+        <f t="shared" si="0"/>
+        <v>0.63415833333333327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="29">
+        <v>0.60580000000000001</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0.63380000000000003</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0.83350000000000002</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0.40749999999999997</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0.6109</v>
+      </c>
+      <c r="L9" s="29">
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="M9" s="29">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="N9" s="29">
+        <f t="shared" si="0"/>
+        <v>0.66279999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="29">
+        <f>MAX(B4:B5)</f>
+        <v>0.58919999999999995</v>
+      </c>
+      <c r="C10" s="29">
+        <f t="shared" ref="C10:M10" si="1">MAX(C4:C5)</f>
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D10" s="29">
+        <f t="shared" si="1"/>
+        <v>0.61890000000000001</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="1"/>
+        <v>0.4451</v>
+      </c>
+      <c r="F10" s="29">
+        <f t="shared" si="1"/>
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="G10" s="29">
+        <f t="shared" si="1"/>
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="H10" s="29">
+        <f t="shared" si="1"/>
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="I10" s="29">
+        <f t="shared" si="1"/>
+        <v>0.35859999999999997</v>
+      </c>
+      <c r="J10" s="29">
+        <f t="shared" si="1"/>
+        <v>0.29709999999999998</v>
+      </c>
+      <c r="K10" s="29">
+        <f t="shared" si="1"/>
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="L10" s="29">
+        <f t="shared" si="1"/>
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="M10" s="29">
+        <f t="shared" si="1"/>
+        <v>0.74509999999999998</v>
+      </c>
+      <c r="N10" s="29">
+        <f t="shared" si="0"/>
+        <v>0.58600833333333335</v>
+      </c>
+      <c r="O10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="29">
+        <f>MAX(B8:B9)</f>
+        <v>0.60580000000000001</v>
+      </c>
+      <c r="C11" s="29">
+        <f t="shared" ref="C11:M11" si="2">MAX(C8:C9)</f>
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="D11" s="29">
+        <f t="shared" si="2"/>
+        <v>0.63380000000000003</v>
+      </c>
+      <c r="E11" s="29">
+        <f t="shared" si="2"/>
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="F11" s="29">
+        <f t="shared" si="2"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="G11" s="29">
+        <f t="shared" si="2"/>
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="H11" s="29">
+        <f t="shared" si="2"/>
+        <v>0.83809999999999996</v>
+      </c>
+      <c r="I11" s="29">
+        <f t="shared" si="2"/>
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="J11" s="29">
+        <f t="shared" si="2"/>
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="K11" s="29">
+        <f t="shared" si="2"/>
+        <v>0.6109</v>
+      </c>
+      <c r="L11" s="29">
+        <f t="shared" si="2"/>
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="M11" s="29">
+        <f t="shared" si="2"/>
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="N11" s="29">
+        <f t="shared" si="0"/>
+        <v>0.6715333333333332</v>
+      </c>
+      <c r="O11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="29">
+        <v>0.70320000000000005</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.63290000000000002</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.6361</v>
+      </c>
+      <c r="F12" s="29">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.47170000000000001</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="I12" s="29">
+        <v>0.24060000000000001</v>
+      </c>
+      <c r="J12" s="29">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="K12" s="29">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="L12" s="29">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="M12" s="29">
+        <v>0.71379999999999999</v>
+      </c>
+      <c r="N12" s="29">
+        <f>AVERAGE(B12:M12)</f>
+        <v>0.63709999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="41">
+        <v>0.58840000000000003</v>
+      </c>
+      <c r="C13" s="41">
+        <v>0.71079999999999999</v>
+      </c>
+      <c r="D13" s="41">
+        <v>0.503</v>
+      </c>
+      <c r="E13" s="41">
+        <v>0.61119999999999997</v>
+      </c>
+      <c r="F13" s="41">
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="G13" s="41">
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="H13" s="41">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="I13" s="41">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="J13" s="41">
+        <v>0.4284</v>
+      </c>
+      <c r="K13" s="41">
+        <v>0.55789999999999995</v>
+      </c>
+      <c r="L13" s="41">
+        <v>0.82769999999999999</v>
+      </c>
+      <c r="M13" s="41">
+        <v>0.69379999999999997</v>
+      </c>
+      <c r="N13" s="41">
+        <f>AVERAGE(B13:M13)</f>
+        <v>0.61185833333333328</v>
+      </c>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+    </row>
+    <row r="14" spans="1:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.54690000000000005</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.31469999999999998</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.59970000000000001</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.4158</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8">
+        <f t="shared" ref="N14:N21" si="3">AVERAGE(B14:M14)</f>
+        <v>0.47425</v>
+      </c>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="29">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29">
+        <f t="shared" si="3"/>
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="O16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B23 C10:M11">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9 C12:C23">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D9 D12:D23">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E9 E12:E23">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F9 F12:F23">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G9 G12:G23">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H9 H12:H23">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I9 I12:I23">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J9 J12:J23">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K9 K12:K23">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L9 L12:L23">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M9 M12:M23">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N21">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B25">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E22">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G23">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H21">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I17">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J17">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K16">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L21">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M21">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B17">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C17">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:N17">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D17">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E17">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F17">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G17">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H13">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H17">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I13">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I17">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K13">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:K17">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L17">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L13">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M13">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M17">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="A1:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2">
+        <v>0.35089999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.2341</v>
+      </c>
+      <c r="E2">
+        <v>0.37640000000000001</v>
+      </c>
+      <c r="F2">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(B2:G2)</f>
+        <v>0.32771666666666666</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.57169999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.36320000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.37790000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.2233</v>
+      </c>
+      <c r="G3">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="0">AVERAGE(B3:G3)</f>
+        <v>0.40351666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4">
+        <v>0.36180000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D4">
+        <v>0.2341</v>
+      </c>
+      <c r="E4">
+        <v>0.37640000000000001</v>
+      </c>
+      <c r="F4">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.32480000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.57169999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.36320000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.37790000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.2233</v>
+      </c>
+      <c r="G5">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.38878333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="e">
+        <f t="shared" ref="F2:F13" si="0">AVERAGE(B2:E2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BP4D" sheetId="1" r:id="rId1"/>
@@ -641,7 +641,7 @@
     <t>only on one validation set, needs to be done properly? Although this does not look promissing, needs to be converted to regressor first</t>
   </si>
   <si>
-    <t>do a step by step comparison here, difficult while stuff keeps crashing</t>
+    <t>This needs to be done by randomising the test fold, but how?</t>
   </si>
 </sst>
 </file>
@@ -9006,7 +9006,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V63 S63">
+  <conditionalFormatting sqref="S63 V63">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9018,7 +9018,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V63 S63">
+  <conditionalFormatting sqref="S63 V63">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -13871,17 +13871,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
     <cfRule type="colorScale" priority="24">
@@ -17814,7 +17814,7 @@
   <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18502,7 +18502,7 @@
         <v>196</v>
       </c>
       <c r="B14" s="8">
-        <v>0.54690000000000005</v>
+        <v>0.55449999999999999</v>
       </c>
       <c r="C14" s="8">
         <v>0.39800000000000002</v>
@@ -18519,17 +18519,27 @@
       <c r="G14" s="8">
         <v>0.4158</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="H14" s="8">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.32569999999999999</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.18190000000000001</v>
+      </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8">
         <f t="shared" ref="N14:N21" si="3">AVERAGE(B14:M14)</f>
-        <v>0.47425</v>
-      </c>
-      <c r="O14" s="21"/>
+        <v>0.45322999999999991</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>206</v>
+      </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
@@ -18560,25 +18570,44 @@
         <v>198</v>
       </c>
       <c r="B16" s="29">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0.45929999999999999</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.59050000000000002</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.60229999999999995</v>
+      </c>
+      <c r="G16" s="29">
+        <v>0.51680000000000004</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0.39419999999999999</v>
+      </c>
+      <c r="J16" s="29">
+        <v>0.41820000000000002</v>
+      </c>
+      <c r="K16" s="29">
+        <v>0.2492</v>
+      </c>
+      <c r="L16" s="29">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="M16" s="29">
+        <v>0.6119</v>
+      </c>
       <c r="N16" s="29">
         <f t="shared" si="3"/>
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="O16" t="s">
-        <v>206</v>
+        <v>0.56779166666666669</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -19289,7 +19318,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="A1:I13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19489,10 +19518,13 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">

--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12930" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="BP4D" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,16 @@
     <sheet name="BP4D_intensity" sheetId="3" r:id="rId4"/>
     <sheet name="BP4D_int_seg" sheetId="5" r:id="rId5"/>
     <sheet name="DISFA balanced split" sheetId="6" r:id="rId6"/>
-    <sheet name="SEMAINE balanced split" sheetId="7" r:id="rId7"/>
-    <sheet name="SEMAINE train DISFA test" sheetId="8" r:id="rId8"/>
+    <sheet name="SEMAINE train DISFA test" sheetId="8" r:id="rId7"/>
+    <sheet name="BP4D_train_DISFA_test" sheetId="9" r:id="rId8"/>
+    <sheet name="UNBC balanced split" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="206">
   <si>
     <t>DEVEL</t>
   </si>
@@ -636,9 +637,6 @@
   </si>
   <si>
     <t>average</t>
-  </si>
-  <si>
-    <t>only on one validation set, needs to be done properly? Although this does not look promissing, needs to be converted to regressor first</t>
   </si>
   <si>
     <t>This needs to be done by randomising the test fold, but how?</t>
@@ -1190,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9051,8 +9049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH78"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14169,7 +14167,7 @@
   <dimension ref="A1:AN13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AN2"/>
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16442,7 +16440,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17402,7 +17400,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17813,8 +17811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP20" sqref="AP20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18502,43 +18500,47 @@
         <v>196</v>
       </c>
       <c r="B14" s="8">
-        <v>0.55449999999999999</v>
+        <v>0.54669999999999996</v>
       </c>
       <c r="C14" s="8">
-        <v>0.39800000000000002</v>
+        <v>0.4405</v>
       </c>
       <c r="D14" s="8">
-        <v>0.57040000000000002</v>
+        <v>0.58379999999999999</v>
       </c>
       <c r="E14" s="8">
-        <v>0.31469999999999998</v>
+        <v>0.35820000000000002</v>
       </c>
       <c r="F14" s="8">
-        <v>0.59970000000000001</v>
+        <v>0.56610000000000005</v>
       </c>
       <c r="G14" s="8">
-        <v>0.4158</v>
+        <v>0.4335</v>
       </c>
       <c r="H14" s="8">
-        <v>0.82540000000000002</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="I14" s="8">
-        <v>0.32569999999999999</v>
+        <v>0.26840000000000003</v>
       </c>
       <c r="J14" s="8">
-        <v>0.34620000000000001</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="K14" s="8">
-        <v>0.18190000000000001</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+        <v>0.158</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.56040000000000001</v>
+      </c>
       <c r="N14" s="8">
         <f t="shared" ref="N14:N21" si="3">AVERAGE(B14:M14)</f>
-        <v>0.45322999999999991</v>
+        <v>0.48717499999999997</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -18548,21 +18550,45 @@
       <c r="A15" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29" t="e">
+      <c r="B15" s="29">
+        <v>0.15659999999999999</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0.56279999999999997</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0.3337</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="I15" s="29">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0.2109</v>
+      </c>
+      <c r="K15" s="29">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="M15" s="29">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="N15" s="29">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.36328333333333324</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -18570,65 +18596,89 @@
         <v>198</v>
       </c>
       <c r="B16" s="29">
-        <v>0.57230000000000003</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="C16" s="29">
-        <v>0.45929999999999999</v>
+        <v>0.4163</v>
       </c>
       <c r="D16" s="29">
-        <v>0.70199999999999996</v>
+        <v>0.64670000000000005</v>
       </c>
       <c r="E16" s="29">
-        <v>0.59050000000000002</v>
+        <v>0.57210000000000005</v>
       </c>
       <c r="F16" s="29">
-        <v>0.60229999999999995</v>
+        <v>0.53539999999999999</v>
       </c>
       <c r="G16" s="29">
-        <v>0.51680000000000004</v>
+        <v>0.50860000000000005</v>
       </c>
       <c r="H16" s="29">
-        <v>0.83530000000000004</v>
+        <v>0.82479999999999998</v>
       </c>
       <c r="I16" s="29">
-        <v>0.39419999999999999</v>
+        <v>0.27010000000000001</v>
       </c>
       <c r="J16" s="29">
-        <v>0.41820000000000002</v>
+        <v>0.31080000000000002</v>
       </c>
       <c r="K16" s="29">
-        <v>0.2492</v>
+        <v>0.2334</v>
       </c>
       <c r="L16" s="29">
-        <v>0.86150000000000004</v>
+        <v>0.85619999999999996</v>
       </c>
       <c r="M16" s="29">
-        <v>0.6119</v>
+        <v>0.63139999999999996</v>
       </c>
       <c r="N16" s="29">
         <f t="shared" si="3"/>
-        <v>0.56779166666666669</v>
+        <v>0.53165000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29" t="e">
+      <c r="B17" s="29">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C17" s="29">
+        <v>0.39929999999999999</v>
+      </c>
+      <c r="D17" s="29">
+        <v>0.56689999999999996</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0.56510000000000005</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0.54149999999999998</v>
+      </c>
+      <c r="G17" s="29">
+        <v>0.48270000000000002</v>
+      </c>
+      <c r="H17" s="29">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0.26590000000000003</v>
+      </c>
+      <c r="J17" s="29">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="K17" s="29">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="L17" s="29">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="M17" s="29">
+        <v>0.58260000000000001</v>
+      </c>
+      <c r="N17" s="29">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.5091500000000001</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -18733,6 +18783,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B23 C10:M11">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9 C12:C23">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -18744,7 +18806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9 C12:C23">
+  <conditionalFormatting sqref="D2:D9 D12:D23">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -18756,7 +18818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9 D12:D23">
+  <conditionalFormatting sqref="E2:E9 E12:E23">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -18768,7 +18830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9 E12:E23">
+  <conditionalFormatting sqref="F2:F9 F12:F16 F18:F23 F17:G17">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -18780,7 +18842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9 F12:F23">
+  <conditionalFormatting sqref="G2:G9 G12:G16 G18:G23">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -18792,7 +18854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9 G12:G23">
+  <conditionalFormatting sqref="H2:H9 H12:H23">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -18804,7 +18866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9 H12:H23">
+  <conditionalFormatting sqref="I2:I9 I12:I23">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -18816,7 +18878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9 I12:I23">
+  <conditionalFormatting sqref="J2:J9 J12:J23">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -18828,7 +18890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J9 J12:J23">
+  <conditionalFormatting sqref="K2:K9 K12:K23">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -18840,7 +18902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K9 K12:K23">
+  <conditionalFormatting sqref="L2:L9 L12:L23">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -18852,7 +18914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L9 L12:L23">
+  <conditionalFormatting sqref="M2:M9 M12:M23">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -18864,7 +18926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M9 M12:M23">
+  <conditionalFormatting sqref="N2:N21">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -18876,7 +18938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N21">
+  <conditionalFormatting sqref="B2:B25">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -18888,7 +18950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B25">
+  <conditionalFormatting sqref="C2:C25">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -18900,7 +18962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C25">
+  <conditionalFormatting sqref="E2:E22">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -18912,7 +18974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E22">
+  <conditionalFormatting sqref="G2:G16 G18:G23">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -18924,7 +18986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G23">
+  <conditionalFormatting sqref="H2:H21">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -18936,7 +18998,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H21">
+  <conditionalFormatting sqref="I2:I17">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -18948,7 +19010,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I17">
+  <conditionalFormatting sqref="J2:J17">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -18960,7 +19022,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J17">
+  <conditionalFormatting sqref="K2:K16">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -18972,7 +19034,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K16">
+  <conditionalFormatting sqref="L2:L21">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -18984,7 +19046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L21">
+  <conditionalFormatting sqref="M2:M21">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -18996,7 +19058,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M21">
+  <conditionalFormatting sqref="B14:B17">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -19008,7 +19070,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B17">
+  <conditionalFormatting sqref="C14:C17">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -19020,7 +19082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C17">
+  <conditionalFormatting sqref="N14:N17">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -19032,7 +19094,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N17">
+  <conditionalFormatting sqref="D14:D17">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -19044,7 +19106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D17">
+  <conditionalFormatting sqref="E14:E17">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -19056,7 +19118,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E17">
+  <conditionalFormatting sqref="F14:F16 F17:G17">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -19068,19 +19130,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F17">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -19092,7 +19154,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G13">
+  <conditionalFormatting sqref="G14:G16">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H13">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H17">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I13">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I17">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J17">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -19104,200 +19238,128 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K13">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:K17">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L17">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L13">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M13">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M17">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G14:G17">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H13">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H17">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I13">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I17">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J13">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J17">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K13">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K17">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L17">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L13">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M13">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M17">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E13">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D13">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C13">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B13">
-    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19315,18 +19377,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -19340,291 +19405,611 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>188</v>
       </c>
-      <c r="B2">
-        <v>0.35089999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="D2">
-        <v>0.2341</v>
-      </c>
-      <c r="E2">
-        <v>0.37640000000000001</v>
-      </c>
-      <c r="F2">
-        <v>8.6599999999999996E-2</v>
-      </c>
-      <c r="G2">
-        <v>0.38229999999999997</v>
-      </c>
-      <c r="H2">
-        <f>AVERAGE(B2:G2)</f>
-        <v>0.32771666666666666</v>
-      </c>
-      <c r="I2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="29">
+        <v>9.06E-2</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0.62709999999999999</v>
+      </c>
+      <c r="D2" s="29">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E2" s="29">
+        <v>0.26569999999999999</v>
+      </c>
+      <c r="F2" s="29">
+        <f t="shared" ref="F2:F13" si="0">AVERAGE(B2:E2)</f>
+        <v>0.2606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>196</v>
       </c>
-      <c r="B3">
-        <v>0.45319999999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.57169999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.36320000000000002</v>
-      </c>
-      <c r="E3">
-        <v>0.37790000000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.2233</v>
-      </c>
-      <c r="G3">
-        <v>0.43180000000000002</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H13" si="0">AVERAGE(B3:G3)</f>
-        <v>0.40351666666666669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="29">
+        <v>0.2263</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0.71220000000000006</v>
+      </c>
+      <c r="D3" s="29">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E3" s="29">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="F3" s="29">
+        <f t="shared" si="0"/>
+        <v>0.26972500000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>189</v>
       </c>
-      <c r="B4">
-        <v>0.36180000000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="D4">
-        <v>0.2341</v>
-      </c>
-      <c r="E4">
-        <v>0.37640000000000001</v>
-      </c>
-      <c r="F4">
-        <v>5.8200000000000002E-2</v>
-      </c>
-      <c r="G4">
-        <v>0.38229999999999997</v>
-      </c>
-      <c r="H4">
+      <c r="B4" s="29">
+        <v>0.3387</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0.6734</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0.1094</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0.2235</v>
+      </c>
+      <c r="F4" s="29">
         <f t="shared" si="0"/>
-        <v>0.32480000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.33624999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>198</v>
       </c>
-      <c r="B5">
-        <v>0.36480000000000001</v>
-      </c>
-      <c r="C5">
-        <v>0.57169999999999999</v>
-      </c>
-      <c r="D5">
-        <v>0.36320000000000002</v>
-      </c>
-      <c r="E5">
-        <v>0.37790000000000001</v>
-      </c>
-      <c r="F5">
-        <v>0.2233</v>
-      </c>
-      <c r="G5">
-        <v>0.43180000000000002</v>
-      </c>
-      <c r="H5">
+      <c r="B5" s="29">
+        <v>0.39369999999999999</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.72719999999999996</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.1363</v>
+      </c>
+      <c r="F5" s="29">
         <f t="shared" si="0"/>
-        <v>0.38878333333333331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.3427</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>188</v>
       </c>
-      <c r="F2" t="e">
-        <f t="shared" ref="F2:F13" si="0">AVERAGE(B2:E2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="29">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="D2" s="29">
+        <v>0.1537</v>
+      </c>
+      <c r="E2" s="29">
+        <v>0.51129999999999998</v>
+      </c>
+      <c r="F2" s="29">
+        <v>0.8095</v>
+      </c>
+      <c r="G2" s="29">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0.19259999999999999</v>
+      </c>
+      <c r="I2" s="29">
+        <f>AVERAGE(B2:H2)</f>
+        <v>0.28447142857142854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>196</v>
       </c>
-      <c r="F3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="29">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0.17610000000000001</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="E3" s="29">
+        <v>0.59260000000000002</v>
+      </c>
+      <c r="F3" s="29">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0.1051</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0.25040000000000001</v>
+      </c>
+      <c r="I3" s="29">
+        <f>AVERAGE(B3:H3)</f>
+        <v>0.32217142857142861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>189</v>
       </c>
-      <c r="F4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="29">
+        <v>0.2354</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0.25469999999999998</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0.63480000000000003</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0.83560000000000001</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="I4" s="29">
+        <f t="shared" ref="I4:I5" si="0">AVERAGE(B4:H4)</f>
+        <v>0.41871428571428571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>198</v>
       </c>
-      <c r="F5" t="e">
+      <c r="B5" s="29">
+        <v>0.43819999999999998</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.2918</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0.40839999999999999</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.63429999999999997</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0.42570000000000002</v>
+      </c>
+      <c r="I5" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.46298571428571428</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:F5">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2">
+        <v>2.93E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.27879999999999999</v>
+      </c>
+      <c r="E2">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.1188</v>
+      </c>
+      <c r="G2">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="H2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.19359999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.51190000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.123</v>
+      </c>
+      <c r="F3">
+        <v>0.25619999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.47789999999999999</v>
+      </c>
+      <c r="H3">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.19470000000000001</v>
+      </c>
+      <c r="J3">
+        <v>7.3200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.46439999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.29809999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.16209999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.1183</v>
+      </c>
+      <c r="G4">
+        <v>0.41039999999999999</v>
+      </c>
+      <c r="H4">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="I4">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5">
+        <v>0.1099</v>
+      </c>
+      <c r="C5">
+        <v>0.43209999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.22040000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.40279999999999999</v>
+      </c>
+      <c r="H5">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.28239999999999998</v>
+      </c>
+      <c r="J5">
+        <v>9.06E-2</v>
       </c>
     </row>
   </sheetData>
